--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levilucio/git/ML_Requirements/literature/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elahidoost\Documents\GitHub\ML_Requirements\literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1540" windowWidth="30120" windowHeight="21400"/>
+    <workbookView xWindow="29400" yWindow="1545" windowWidth="30120" windowHeight="21405"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="2519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="2521">
   <si>
     <t>257?</t>
   </si>
@@ -7587,12 +7587,18 @@
   </si>
   <si>
     <t>Does text tagging that can be used further downstream by ML methods</t>
+  </si>
+  <si>
+    <t>Tahira</t>
+  </si>
+  <si>
+    <t>Parisa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8000,21 +8006,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="7" max="7" width="58.1640625" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" customWidth="1"/>
-    <col min="9" max="9" width="48.1640625" customWidth="1"/>
-    <col min="10" max="10" width="52.5" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" customWidth="1"/>
+    <col min="10" max="10" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -8072,7 +8078,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -8128,7 +8134,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -8184,7 +8190,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -8210,7 +8216,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8238,7 +8244,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -8266,7 +8272,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -8294,7 +8300,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -8324,7 +8330,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -8350,7 +8356,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -8378,7 +8384,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -8406,7 +8412,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0</v>
       </c>
@@ -8458,7 +8464,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -8488,7 +8494,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -8540,7 +8546,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0</v>
       </c>
@@ -8568,7 +8574,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>0</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -8624,7 +8630,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -8760,7 +8766,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -8786,7 +8792,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -8814,7 +8820,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -8842,7 +8848,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -8868,7 +8874,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -8892,7 +8898,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -8916,7 +8922,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -8942,7 +8948,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -8970,7 +8976,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -8996,7 +9002,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -9022,7 +9028,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -9048,7 +9054,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -9074,7 +9080,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -9100,7 +9106,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -9128,7 +9134,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -9154,7 +9160,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -9182,7 +9188,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -9208,7 +9214,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -9236,7 +9242,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
@@ -9266,7 +9272,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
@@ -9294,7 +9300,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>8</v>
       </c>
@@ -9322,7 +9328,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>0</v>
       </c>
@@ -9350,7 +9356,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
@@ -9380,7 +9386,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
@@ -9410,7 +9416,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>8</v>
       </c>
@@ -9470,7 +9476,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
@@ -9500,7 +9506,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
@@ -9558,7 +9564,7 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
@@ -9586,7 +9592,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>8</v>
       </c>
@@ -9614,7 +9620,7 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>8</v>
       </c>
@@ -9642,7 +9648,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>8</v>
       </c>
@@ -9670,7 +9676,7 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>8</v>
       </c>
@@ -9698,7 +9704,7 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>8</v>
       </c>
@@ -9724,7 +9730,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
@@ -9752,7 +9758,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
@@ -9778,7 +9784,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -9800,7 +9806,7 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
@@ -9824,7 +9830,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
@@ -9852,7 +9858,7 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>296</v>
       </c>
@@ -9876,7 +9882,7 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>296</v>
       </c>
@@ -9904,7 +9910,7 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>296</v>
       </c>
@@ -9930,7 +9936,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>296</v>
       </c>
@@ -9958,7 +9964,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>296</v>
       </c>
@@ -9986,7 +9992,7 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>296</v>
       </c>
@@ -10014,7 +10020,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>296</v>
       </c>
@@ -10038,7 +10044,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>296</v>
       </c>
@@ -10064,7 +10070,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>296</v>
       </c>
@@ -10092,7 +10098,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>296</v>
       </c>
@@ -10114,7 +10120,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>296</v>
       </c>
@@ -10136,7 +10142,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>296</v>
       </c>
@@ -10162,7 +10168,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>296</v>
       </c>
@@ -10188,7 +10194,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>296</v>
       </c>
@@ -10214,7 +10220,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>296</v>
       </c>
@@ -10240,7 +10246,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>296</v>
       </c>
@@ -10266,7 +10272,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>296</v>
       </c>
@@ -10292,7 +10298,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>296</v>
       </c>
@@ -10316,7 +10322,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>296</v>
       </c>
@@ -10342,7 +10348,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>296</v>
       </c>
@@ -10366,7 +10372,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>296</v>
       </c>
@@ -10390,7 +10396,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>296</v>
       </c>
@@ -10414,7 +10420,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>296</v>
       </c>
@@ -10440,7 +10446,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>296</v>
       </c>
@@ -10466,7 +10472,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>296</v>
       </c>
@@ -10494,7 +10500,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>296</v>
       </c>
@@ -10522,7 +10528,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>296</v>
       </c>
@@ -10548,7 +10554,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>296</v>
       </c>
@@ -10572,7 +10578,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>296</v>
       </c>
@@ -10596,7 +10602,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>296</v>
       </c>
@@ -10620,7 +10626,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>296</v>
       </c>
@@ -10642,7 +10648,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>296</v>
       </c>
@@ -10668,7 +10674,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>296</v>
       </c>
@@ -10694,7 +10700,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>296</v>
       </c>
@@ -10722,7 +10728,7 @@
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>296</v>
       </c>
@@ -10750,7 +10756,7 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>296</v>
       </c>
@@ -10778,7 +10784,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>296</v>
       </c>
@@ -10802,7 +10808,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>473</v>
       </c>
@@ -10828,7 +10834,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>479</v>
       </c>
@@ -10856,7 +10862,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -10884,7 +10890,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -10908,7 +10914,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -10934,7 +10940,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>1</v>
       </c>
@@ -10960,7 +10966,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -10986,7 +10992,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -11012,7 +11018,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -11036,7 +11042,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -11064,7 +11070,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -11088,7 +11094,7 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -11112,7 +11118,7 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>1</v>
       </c>
@@ -11140,7 +11146,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>1</v>
       </c>
@@ -11168,7 +11174,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -11196,7 +11202,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -11224,7 +11230,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -11250,7 +11256,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -11276,7 +11282,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>1</v>
       </c>
@@ -11300,7 +11306,7 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -11324,7 +11330,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>1</v>
       </c>
@@ -11352,7 +11358,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>1</v>
       </c>
@@ -11374,7 +11380,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -11400,7 +11406,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -11422,7 +11428,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>1</v>
       </c>
@@ -11448,7 +11454,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -11472,7 +11478,7 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>1</v>
       </c>
@@ -11496,7 +11502,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>1</v>
       </c>
@@ -11522,7 +11528,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -11546,7 +11552,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>1</v>
       </c>
@@ -11574,7 +11580,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -11598,7 +11604,7 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -11624,7 +11630,7 @@
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -11650,7 +11656,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -11676,7 +11682,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -11698,7 +11704,7 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -11724,7 +11730,7 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -11752,7 +11758,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -11778,7 +11784,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -11804,7 +11810,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -11826,7 +11832,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -11852,7 +11858,7 @@
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -11876,7 +11882,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11900,7 +11906,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -11924,7 +11930,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -11948,7 +11954,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -11972,7 +11978,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -11998,7 +12004,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -12024,7 +12030,7 @@
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -12048,7 +12054,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -12072,7 +12078,7 @@
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>1</v>
       </c>
@@ -12100,7 +12106,7 @@
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>1</v>
       </c>
@@ -12128,7 +12134,7 @@
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>1</v>
       </c>
@@ -12154,7 +12160,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -12178,7 +12184,7 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -12204,7 +12210,7 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -12230,7 +12236,7 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -12256,7 +12262,7 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -12282,7 +12288,7 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -12308,7 +12314,7 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -12330,7 +12336,7 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -12356,7 +12362,7 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -12382,7 +12388,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>1</v>
       </c>
@@ -12408,7 +12414,7 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -12434,7 +12440,7 @@
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -12460,7 +12466,7 @@
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -12481,10 +12487,12 @@
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
+      <c r="I170" s="9" t="s">
+        <v>2520</v>
+      </c>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -12510,7 +12518,7 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>1</v>
       </c>
@@ -12536,7 +12544,7 @@
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>1</v>
       </c>
@@ -12562,7 +12570,7 @@
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>1</v>
       </c>
@@ -12588,7 +12596,7 @@
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -12614,7 +12622,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>1</v>
       </c>
@@ -12638,7 +12646,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -12664,7 +12672,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>1</v>
       </c>
@@ -12690,7 +12698,7 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>1</v>
       </c>
@@ -12716,7 +12724,7 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>1</v>
       </c>
@@ -12742,7 +12750,7 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -12768,7 +12776,7 @@
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>1</v>
       </c>
@@ -12794,7 +12802,7 @@
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -12820,7 +12828,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -12844,7 +12852,7 @@
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -12866,7 +12874,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -12892,7 +12900,7 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -12918,7 +12926,7 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -12944,7 +12952,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -12970,7 +12978,7 @@
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -12996,7 +13004,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -13022,7 +13030,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -13048,7 +13056,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -13074,7 +13082,7 @@
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -13102,7 +13110,7 @@
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -13130,7 +13138,7 @@
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -13158,7 +13166,7 @@
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>1</v>
       </c>
@@ -13186,7 +13194,7 @@
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -13214,7 +13222,7 @@
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -13242,7 +13250,7 @@
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>1</v>
       </c>
@@ -13266,7 +13274,7 @@
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>1</v>
       </c>
@@ -13292,7 +13300,7 @@
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -13320,7 +13328,7 @@
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>1</v>
       </c>
@@ -13348,7 +13356,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>1</v>
       </c>
@@ -13374,7 +13382,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>1</v>
       </c>
@@ -13400,7 +13408,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>1</v>
       </c>
@@ -13422,7 +13430,7 @@
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>1</v>
       </c>
@@ -13450,7 +13458,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>1</v>
       </c>
@@ -13478,7 +13486,7 @@
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>1</v>
       </c>
@@ -13506,7 +13514,7 @@
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>1</v>
       </c>
@@ -13534,7 +13542,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>1</v>
       </c>
@@ -13560,7 +13568,7 @@
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>1</v>
       </c>
@@ -13586,7 +13594,7 @@
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>1</v>
       </c>
@@ -13610,7 +13618,7 @@
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>1</v>
       </c>
@@ -13632,7 +13640,7 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>1</v>
       </c>
@@ -13660,7 +13668,7 @@
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>1</v>
       </c>
@@ -13686,7 +13694,7 @@
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>1</v>
       </c>
@@ -13712,7 +13720,7 @@
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>1</v>
       </c>
@@ -13736,7 +13744,7 @@
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>1</v>
       </c>
@@ -13762,7 +13770,7 @@
       <c r="I219" s="9"/>
       <c r="J219" s="9"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>1</v>
       </c>
@@ -13788,7 +13796,7 @@
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
     </row>
-    <row r="221" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>1</v>
       </c>
@@ -13814,7 +13822,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>1</v>
       </c>
@@ -13840,7 +13848,7 @@
       <c r="I222" s="9"/>
       <c r="J222" s="9"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>1</v>
       </c>
@@ -13868,7 +13876,7 @@
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>1</v>
       </c>
@@ -13890,7 +13898,7 @@
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>1</v>
       </c>
@@ -13918,7 +13926,7 @@
       <c r="I225" s="9"/>
       <c r="J225" s="9"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>1</v>
       </c>
@@ -13944,7 +13952,7 @@
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>1</v>
       </c>
@@ -13967,10 +13975,12 @@
         <v>1054</v>
       </c>
       <c r="H227" s="9"/>
-      <c r="I227" s="9"/>
+      <c r="I227" s="9" t="s">
+        <v>2520</v>
+      </c>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>1</v>
       </c>
@@ -13998,7 +14008,7 @@
       <c r="I228" s="9"/>
       <c r="J228" s="9"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>1</v>
       </c>
@@ -14024,7 +14034,7 @@
       <c r="I229" s="9"/>
       <c r="J229" s="9"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>1</v>
       </c>
@@ -14052,7 +14062,7 @@
       <c r="I230" s="9"/>
       <c r="J230" s="9"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>1</v>
       </c>
@@ -14080,7 +14090,7 @@
       <c r="I231" s="9"/>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>1</v>
       </c>
@@ -14104,7 +14114,7 @@
       <c r="I232" s="9"/>
       <c r="J232" s="9"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>1</v>
       </c>
@@ -14130,7 +14140,7 @@
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>1</v>
       </c>
@@ -14156,7 +14166,7 @@
       <c r="I234" s="9"/>
       <c r="J234" s="9"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>1</v>
       </c>
@@ -14180,7 +14190,7 @@
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>1</v>
       </c>
@@ -14206,7 +14216,7 @@
       <c r="I236" s="9"/>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>1</v>
       </c>
@@ -14230,7 +14240,7 @@
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>1</v>
       </c>
@@ -14256,7 +14266,7 @@
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>1</v>
       </c>
@@ -14282,7 +14292,7 @@
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>1</v>
       </c>
@@ -14308,7 +14318,7 @@
       <c r="I240" s="9"/>
       <c r="J240" s="9"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>1</v>
       </c>
@@ -14331,10 +14341,12 @@
         <v>1124</v>
       </c>
       <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
+      <c r="I241" s="9" t="s">
+        <v>2519</v>
+      </c>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>1</v>
       </c>
@@ -14360,7 +14372,7 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>1</v>
       </c>
@@ -14384,7 +14396,7 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>1</v>
       </c>
@@ -14408,7 +14420,7 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>1</v>
       </c>
@@ -14432,7 +14444,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>1</v>
       </c>
@@ -14456,7 +14468,7 @@
       <c r="I246" s="9"/>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>1</v>
       </c>
@@ -14482,7 +14494,7 @@
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>1</v>
       </c>
@@ -14508,7 +14520,7 @@
       <c r="I248" s="9"/>
       <c r="J248" s="9"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>1</v>
       </c>
@@ -14536,7 +14548,7 @@
       <c r="I249" s="9"/>
       <c r="J249" s="9"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>1</v>
       </c>
@@ -14564,7 +14576,7 @@
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>1</v>
       </c>
@@ -14592,7 +14604,7 @@
       <c r="I251" s="9"/>
       <c r="J251" s="9"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>1</v>
       </c>
@@ -14620,7 +14632,7 @@
       <c r="I252" s="9"/>
       <c r="J252" s="9"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>1</v>
       </c>
@@ -14648,7 +14660,7 @@
       <c r="I253" s="9"/>
       <c r="J253" s="9"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>1</v>
       </c>
@@ -14672,7 +14684,7 @@
       <c r="I254" s="9"/>
       <c r="J254" s="9"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>1</v>
       </c>
@@ -14698,7 +14710,7 @@
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>1</v>
       </c>
@@ -14722,7 +14734,7 @@
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>1</v>
       </c>
@@ -14746,7 +14758,7 @@
       <c r="I257" s="9"/>
       <c r="J257" s="9"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>0</v>
       </c>
@@ -14770,7 +14782,7 @@
       <c r="I258" s="9"/>
       <c r="J258" s="9"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>0</v>
       </c>
@@ -14794,7 +14806,7 @@
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>0</v>
       </c>
@@ -14818,7 +14830,7 @@
       <c r="I260" s="9"/>
       <c r="J260" s="9"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>0</v>
       </c>
@@ -14844,7 +14856,7 @@
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>0</v>
       </c>
@@ -14868,7 +14880,7 @@
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>0</v>
       </c>
@@ -14894,7 +14906,7 @@
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>0</v>
       </c>
@@ -14920,7 +14932,7 @@
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>0</v>
       </c>
@@ -14944,7 +14956,7 @@
       <c r="I265" s="9"/>
       <c r="J265" s="9"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>0</v>
       </c>
@@ -14970,7 +14982,7 @@
       <c r="I266" s="9"/>
       <c r="J266" s="9"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>0</v>
       </c>
@@ -14996,7 +15008,7 @@
       <c r="I267" s="9"/>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>0</v>
       </c>
@@ -15020,7 +15032,7 @@
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>0</v>
       </c>
@@ -15044,7 +15056,7 @@
       <c r="I269" s="9"/>
       <c r="J269" s="9"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>0</v>
       </c>
@@ -15070,7 +15082,7 @@
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>0</v>
       </c>
@@ -15094,7 +15106,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>0</v>
       </c>
@@ -15118,7 +15130,7 @@
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>0</v>
       </c>
@@ -15142,7 +15154,7 @@
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>0</v>
       </c>
@@ -15166,7 +15178,7 @@
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>0</v>
       </c>
@@ -15190,7 +15202,7 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>0</v>
       </c>
@@ -15214,7 +15226,7 @@
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>0</v>
       </c>
@@ -15238,7 +15250,7 @@
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>0</v>
       </c>
@@ -15262,7 +15274,7 @@
       <c r="I278" s="9"/>
       <c r="J278" s="9"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>0</v>
       </c>
@@ -15288,7 +15300,7 @@
       <c r="I279" s="9"/>
       <c r="J279" s="9"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>0</v>
       </c>
@@ -15312,7 +15324,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>0</v>
       </c>
@@ -15336,7 +15348,7 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>0</v>
       </c>
@@ -15362,7 +15374,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>0</v>
       </c>
@@ -15388,7 +15400,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>0</v>
       </c>
@@ -15412,7 +15424,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>0</v>
       </c>
@@ -15438,7 +15450,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>0</v>
       </c>
@@ -15464,7 +15476,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>0</v>
       </c>
@@ -15490,7 +15502,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>0</v>
       </c>
@@ -15514,7 +15526,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>0</v>
       </c>
@@ -15538,7 +15550,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>0</v>
       </c>
@@ -15564,7 +15576,7 @@
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>0</v>
       </c>
@@ -15590,7 +15602,7 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>0</v>
       </c>
@@ -15614,7 +15626,7 @@
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>0</v>
       </c>
@@ -15640,7 +15652,7 @@
       <c r="I293" s="9"/>
       <c r="J293" s="9"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>0</v>
       </c>
@@ -15666,7 +15678,7 @@
       <c r="I294" s="9"/>
       <c r="J294" s="9"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>0</v>
       </c>
@@ -15692,7 +15704,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>0</v>
       </c>
@@ -15716,7 +15728,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>0</v>
       </c>
@@ -15740,7 +15752,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>0</v>
       </c>
@@ -15766,7 +15778,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>0</v>
       </c>
@@ -15790,7 +15802,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>0</v>
       </c>
@@ -15812,7 +15824,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>0</v>
       </c>
@@ -15836,7 +15848,7 @@
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>0</v>
       </c>
@@ -15860,7 +15872,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>0</v>
       </c>
@@ -15886,7 +15898,7 @@
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>0</v>
       </c>
@@ -15910,7 +15922,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>0</v>
       </c>
@@ -15934,7 +15946,7 @@
       <c r="I305" s="9"/>
       <c r="J305" s="9"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>0</v>
       </c>
@@ -15958,7 +15970,7 @@
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>0</v>
       </c>
@@ -15982,7 +15994,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>0</v>
       </c>
@@ -16006,7 +16018,7 @@
       <c r="I308" s="9"/>
       <c r="J308" s="9"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>0</v>
       </c>
@@ -16032,7 +16044,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="9"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>0</v>
       </c>
@@ -16056,7 +16068,7 @@
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>0</v>
       </c>
@@ -16080,7 +16092,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>0</v>
       </c>
@@ -16104,7 +16116,7 @@
       <c r="I312" s="9"/>
       <c r="J312" s="9"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>0</v>
       </c>
@@ -16130,7 +16142,7 @@
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>0</v>
       </c>
@@ -16154,7 +16166,7 @@
       <c r="I314" s="9"/>
       <c r="J314" s="9"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>0</v>
       </c>
@@ -16180,7 +16192,7 @@
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>0</v>
       </c>
@@ -16204,7 +16216,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>0</v>
       </c>
@@ -16228,7 +16240,7 @@
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>0</v>
       </c>
@@ -16252,7 +16264,7 @@
       <c r="I318" s="9"/>
       <c r="J318" s="9"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>0</v>
       </c>
@@ -16278,7 +16290,7 @@
       <c r="I319" s="9"/>
       <c r="J319" s="9"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>0</v>
       </c>
@@ -16302,7 +16314,7 @@
       <c r="I320" s="9"/>
       <c r="J320" s="9"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>0</v>
       </c>
@@ -16326,7 +16338,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>0</v>
       </c>
@@ -16350,7 +16362,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>0</v>
       </c>
@@ -16376,7 +16388,7 @@
       <c r="I323" s="9"/>
       <c r="J323" s="9"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>0</v>
       </c>
@@ -16400,7 +16412,7 @@
       <c r="I324" s="9"/>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>0</v>
       </c>
@@ -16426,7 +16438,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>0</v>
       </c>
@@ -16452,7 +16464,7 @@
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>0</v>
       </c>
@@ -16478,7 +16490,7 @@
       <c r="I327" s="9"/>
       <c r="J327" s="9"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>0</v>
       </c>
@@ -16504,7 +16516,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>0</v>
       </c>
@@ -16530,7 +16542,7 @@
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>0</v>
       </c>
@@ -16556,7 +16568,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>0</v>
       </c>
@@ -16580,7 +16592,7 @@
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>0</v>
       </c>
@@ -16606,7 +16618,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="9"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>0</v>
       </c>
@@ -16630,7 +16642,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>0</v>
       </c>
@@ -16654,7 +16666,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>0</v>
       </c>
@@ -16678,7 +16690,7 @@
       <c r="I335" s="9"/>
       <c r="J335" s="9"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>0</v>
       </c>
@@ -16702,7 +16714,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="9"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>0</v>
       </c>
@@ -16728,7 +16740,7 @@
       <c r="I337" s="9"/>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>0</v>
       </c>
@@ -16754,7 +16766,7 @@
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>0</v>
       </c>
@@ -16780,7 +16792,7 @@
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>0</v>
       </c>
@@ -16806,7 +16818,7 @@
       <c r="I340" s="9"/>
       <c r="J340" s="9"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>0</v>
       </c>
@@ -16832,7 +16844,7 @@
       <c r="I341" s="9"/>
       <c r="J341" s="9"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>0</v>
       </c>
@@ -16858,7 +16870,7 @@
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>0</v>
       </c>
@@ -16884,7 +16896,7 @@
       <c r="I343" s="9"/>
       <c r="J343" s="9"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>0</v>
       </c>
@@ -16910,7 +16922,7 @@
       <c r="I344" s="9"/>
       <c r="J344" s="9"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>0</v>
       </c>
@@ -16936,7 +16948,7 @@
       <c r="I345" s="9"/>
       <c r="J345" s="9"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>0</v>
       </c>
@@ -16960,7 +16972,7 @@
       <c r="I346" s="9"/>
       <c r="J346" s="9"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>0</v>
       </c>
@@ -16986,7 +16998,7 @@
       <c r="I347" s="9"/>
       <c r="J347" s="9"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>0</v>
       </c>
@@ -17012,7 +17024,7 @@
       <c r="I348" s="9"/>
       <c r="J348" s="9"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>0</v>
       </c>
@@ -17038,7 +17050,7 @@
       <c r="I349" s="9"/>
       <c r="J349" s="9"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>0</v>
       </c>
@@ -17062,7 +17074,7 @@
       <c r="I350" s="9"/>
       <c r="J350" s="9"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>0</v>
       </c>
@@ -17088,7 +17100,7 @@
       <c r="I351" s="9"/>
       <c r="J351" s="9"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>0</v>
       </c>
@@ -17114,7 +17126,7 @@
       <c r="I352" s="9"/>
       <c r="J352" s="9"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>0</v>
       </c>
@@ -17138,7 +17150,7 @@
       <c r="I353" s="9"/>
       <c r="J353" s="9"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>0</v>
       </c>
@@ -17164,7 +17176,7 @@
       <c r="I354" s="9"/>
       <c r="J354" s="9"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>0</v>
       </c>
@@ -17190,7 +17202,7 @@
       <c r="I355" s="9"/>
       <c r="J355" s="9"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>0</v>
       </c>
@@ -17214,7 +17226,7 @@
       <c r="I356" s="9"/>
       <c r="J356" s="9"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>0</v>
       </c>
@@ -17236,7 +17248,7 @@
       <c r="I357" s="9"/>
       <c r="J357" s="9"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>0</v>
       </c>
@@ -17262,7 +17274,7 @@
       <c r="I358" s="9"/>
       <c r="J358" s="9"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>0</v>
       </c>
@@ -17288,7 +17300,7 @@
       <c r="I359" s="9"/>
       <c r="J359" s="9"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>0</v>
       </c>
@@ -17314,7 +17326,7 @@
       <c r="I360" s="9"/>
       <c r="J360" s="9"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>0</v>
       </c>
@@ -17340,7 +17352,7 @@
       <c r="I361" s="9"/>
       <c r="J361" s="9"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>0</v>
       </c>
@@ -17366,7 +17378,7 @@
       <c r="I362" s="9"/>
       <c r="J362" s="9"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>0</v>
       </c>
@@ -17392,7 +17404,7 @@
       <c r="I363" s="9"/>
       <c r="J363" s="9"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>0</v>
       </c>
@@ -17418,7 +17430,7 @@
       <c r="I364" s="9"/>
       <c r="J364" s="9"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>0</v>
       </c>
@@ -17444,7 +17456,7 @@
       <c r="I365" s="9"/>
       <c r="J365" s="9"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>0</v>
       </c>
@@ -17470,7 +17482,7 @@
       <c r="I366" s="9"/>
       <c r="J366" s="9"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>0</v>
       </c>
@@ -17496,7 +17508,7 @@
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>0</v>
       </c>
@@ -17522,7 +17534,7 @@
       <c r="I368" s="9"/>
       <c r="J368" s="9"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>0</v>
       </c>
@@ -17548,7 +17560,7 @@
       <c r="I369" s="9"/>
       <c r="J369" s="9"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>0</v>
       </c>
@@ -17574,7 +17586,7 @@
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>0</v>
       </c>
@@ -17598,7 +17610,7 @@
       <c r="I371" s="9"/>
       <c r="J371" s="9"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>0</v>
       </c>
@@ -17620,7 +17632,7 @@
       <c r="I372" s="9"/>
       <c r="J372" s="9"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>0</v>
       </c>
@@ -17646,7 +17658,7 @@
       <c r="I373" s="9"/>
       <c r="J373" s="9"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>0</v>
       </c>
@@ -17670,7 +17682,7 @@
       <c r="I374" s="9"/>
       <c r="J374" s="9"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>0</v>
       </c>
@@ -17694,7 +17706,7 @@
       <c r="I375" s="9"/>
       <c r="J375" s="9"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>0</v>
       </c>
@@ -17718,7 +17730,7 @@
       <c r="I376" s="9"/>
       <c r="J376" s="9"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>0</v>
       </c>
@@ -17742,7 +17754,7 @@
       <c r="I377" s="9"/>
       <c r="J377" s="9"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>0</v>
       </c>
@@ -17768,7 +17780,7 @@
       <c r="I378" s="9"/>
       <c r="J378" s="9"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>0</v>
       </c>
@@ -17792,7 +17804,7 @@
       <c r="I379" s="9"/>
       <c r="J379" s="9"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>0</v>
       </c>
@@ -17816,7 +17828,7 @@
       <c r="I380" s="9"/>
       <c r="J380" s="9"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>0</v>
       </c>
@@ -17842,7 +17854,7 @@
       <c r="I381" s="9"/>
       <c r="J381" s="9"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>0</v>
       </c>
@@ -17868,7 +17880,7 @@
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>0</v>
       </c>
@@ -17894,7 +17906,7 @@
       <c r="I383" s="9"/>
       <c r="J383" s="9"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>0</v>
       </c>
@@ -17920,7 +17932,7 @@
       <c r="I384" s="9"/>
       <c r="J384" s="9"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>0</v>
       </c>
@@ -17946,7 +17958,7 @@
       <c r="I385" s="9"/>
       <c r="J385" s="9"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>0</v>
       </c>
@@ -17972,7 +17984,7 @@
       <c r="I386" s="9"/>
       <c r="J386" s="9"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>0</v>
       </c>
@@ -17996,7 +18008,7 @@
       <c r="I387" s="9"/>
       <c r="J387" s="9"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
         <v>0</v>
       </c>
@@ -18022,7 +18034,7 @@
       <c r="I388" s="9"/>
       <c r="J388" s="9"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>0</v>
       </c>
@@ -18048,7 +18060,7 @@
       <c r="I389" s="9"/>
       <c r="J389" s="9"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>0</v>
       </c>
@@ -18072,7 +18084,7 @@
       <c r="I390" s="9"/>
       <c r="J390" s="9"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>0</v>
       </c>
@@ -18098,7 +18110,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="9"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>0</v>
       </c>
@@ -18122,7 +18134,7 @@
       <c r="I392" s="9"/>
       <c r="J392" s="9"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>0</v>
       </c>
@@ -18146,7 +18158,7 @@
       <c r="I393" s="9"/>
       <c r="J393" s="9"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>0</v>
       </c>
@@ -18170,7 +18182,7 @@
       <c r="I394" s="9"/>
       <c r="J394" s="9"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>0</v>
       </c>
@@ -18196,7 +18208,7 @@
       <c r="I395" s="9"/>
       <c r="J395" s="9"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>0</v>
       </c>
@@ -18220,7 +18232,7 @@
       <c r="I396" s="9"/>
       <c r="J396" s="9"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>0</v>
       </c>
@@ -18244,7 +18256,7 @@
       <c r="I397" s="9"/>
       <c r="J397" s="9"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>0</v>
       </c>
@@ -18268,7 +18280,7 @@
       <c r="I398" s="9"/>
       <c r="J398" s="9"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>0</v>
       </c>
@@ -18290,7 +18302,7 @@
       <c r="I399" s="9"/>
       <c r="J399" s="9"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>0</v>
       </c>
@@ -18314,7 +18326,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="9"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>0</v>
       </c>
@@ -18340,7 +18352,7 @@
       <c r="I401" s="9"/>
       <c r="J401" s="9"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>0</v>
       </c>
@@ -18366,7 +18378,7 @@
       <c r="I402" s="9"/>
       <c r="J402" s="9"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>0</v>
       </c>
@@ -18392,7 +18404,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>0</v>
       </c>
@@ -18416,7 +18428,7 @@
       <c r="I404" s="9"/>
       <c r="J404" s="9"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>0</v>
       </c>
@@ -18440,7 +18452,7 @@
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>0</v>
       </c>
@@ -18466,7 +18478,7 @@
       <c r="I406" s="9"/>
       <c r="J406" s="9"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>0</v>
       </c>
@@ -18490,7 +18502,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>0</v>
       </c>
@@ -18514,7 +18526,7 @@
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>0</v>
       </c>
@@ -18538,7 +18550,7 @@
       <c r="I409" s="9"/>
       <c r="J409" s="9"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>0</v>
       </c>
@@ -18564,7 +18576,7 @@
       <c r="I410" s="9"/>
       <c r="J410" s="9"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>0</v>
       </c>
@@ -18590,7 +18602,7 @@
       <c r="I411" s="9"/>
       <c r="J411" s="9"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>0</v>
       </c>
@@ -18616,7 +18628,7 @@
       <c r="I412" s="9"/>
       <c r="J412" s="9"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>0</v>
       </c>
@@ -18640,7 +18652,7 @@
       <c r="I413" s="9"/>
       <c r="J413" s="9"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>0</v>
       </c>
@@ -18664,7 +18676,7 @@
       <c r="I414" s="9"/>
       <c r="J414" s="9"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>0</v>
       </c>
@@ -18690,7 +18702,7 @@
       <c r="I415" s="9"/>
       <c r="J415" s="9"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>0</v>
       </c>
@@ -18716,7 +18728,7 @@
       <c r="I416" s="9"/>
       <c r="J416" s="9"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>0</v>
       </c>
@@ -18740,7 +18752,7 @@
       <c r="I417" s="9"/>
       <c r="J417" s="9"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>0</v>
       </c>
@@ -18766,7 +18778,7 @@
       <c r="I418" s="9"/>
       <c r="J418" s="9"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
         <v>0</v>
       </c>
@@ -18792,7 +18804,7 @@
       <c r="I419" s="9"/>
       <c r="J419" s="9"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>0</v>
       </c>
@@ -18814,7 +18826,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="9"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>0</v>
       </c>
@@ -18836,7 +18848,7 @@
       <c r="I421" s="9"/>
       <c r="J421" s="9"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>0</v>
       </c>
@@ -18862,7 +18874,7 @@
       <c r="I422" s="9"/>
       <c r="J422" s="9"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>0</v>
       </c>
@@ -18888,7 +18900,7 @@
       <c r="I423" s="9"/>
       <c r="J423" s="9"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>0</v>
       </c>
@@ -18914,7 +18926,7 @@
       <c r="I424" s="9"/>
       <c r="J424" s="9"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>0</v>
       </c>
@@ -18940,7 +18952,7 @@
       <c r="I425" s="9"/>
       <c r="J425" s="9"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>0</v>
       </c>
@@ -18964,7 +18976,7 @@
       <c r="I426" s="9"/>
       <c r="J426" s="9"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>0</v>
       </c>
@@ -18990,7 +19002,7 @@
       <c r="I427" s="9"/>
       <c r="J427" s="9"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>0</v>
       </c>
@@ -19016,7 +19028,7 @@
       <c r="I428" s="9"/>
       <c r="J428" s="9"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>0</v>
       </c>
@@ -19042,7 +19054,7 @@
       <c r="I429" s="9"/>
       <c r="J429" s="9"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>0</v>
       </c>
@@ -19068,7 +19080,7 @@
       <c r="I430" s="9"/>
       <c r="J430" s="9"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>0</v>
       </c>
@@ -19094,7 +19106,7 @@
       <c r="I431" s="9"/>
       <c r="J431" s="9"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>0</v>
       </c>
@@ -19120,7 +19132,7 @@
       <c r="I432" s="9"/>
       <c r="J432" s="9"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>0</v>
       </c>
@@ -19146,7 +19158,7 @@
       <c r="I433" s="9"/>
       <c r="J433" s="9"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>0</v>
       </c>
@@ -19170,7 +19182,7 @@
       <c r="I434" s="9"/>
       <c r="J434" s="9"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>0</v>
       </c>
@@ -19194,7 +19206,7 @@
       <c r="I435" s="9"/>
       <c r="J435" s="9"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>0</v>
       </c>
@@ -19220,7 +19232,7 @@
       <c r="I436" s="9"/>
       <c r="J436" s="9"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>0</v>
       </c>
@@ -19246,7 +19258,7 @@
       <c r="I437" s="9"/>
       <c r="J437" s="9"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>0</v>
       </c>
@@ -19270,7 +19282,7 @@
       <c r="I438" s="9"/>
       <c r="J438" s="9"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>0</v>
       </c>
@@ -19296,7 +19308,7 @@
       <c r="I439" s="9"/>
       <c r="J439" s="9"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>0</v>
       </c>
@@ -19322,7 +19334,7 @@
       <c r="I440" s="9"/>
       <c r="J440" s="9"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>0</v>
       </c>
@@ -19346,7 +19358,7 @@
       <c r="I441" s="9"/>
       <c r="J441" s="9"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>0</v>
       </c>
@@ -19370,7 +19382,7 @@
       <c r="I442" s="9"/>
       <c r="J442" s="9"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>0</v>
       </c>
@@ -19394,7 +19406,7 @@
       <c r="I443" s="9"/>
       <c r="J443" s="9"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>0</v>
       </c>
@@ -19418,7 +19430,7 @@
       <c r="I444" s="9"/>
       <c r="J444" s="9"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>0</v>
       </c>
@@ -19442,7 +19454,7 @@
       <c r="I445" s="9"/>
       <c r="J445" s="9"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>0</v>
       </c>
@@ -19468,7 +19480,7 @@
       <c r="I446" s="9"/>
       <c r="J446" s="9"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>0</v>
       </c>
@@ -19492,7 +19504,7 @@
       <c r="I447" s="9"/>
       <c r="J447" s="9"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>0</v>
       </c>
@@ -19518,7 +19530,7 @@
       <c r="I448" s="9"/>
       <c r="J448" s="9"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>0</v>
       </c>
@@ -19544,7 +19556,7 @@
       <c r="I449" s="9"/>
       <c r="J449" s="9"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>0</v>
       </c>
@@ -19570,7 +19582,7 @@
       <c r="I450" s="9"/>
       <c r="J450" s="9"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>0</v>
       </c>
@@ -19596,7 +19608,7 @@
       <c r="I451" s="9"/>
       <c r="J451" s="9"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>0</v>
       </c>
@@ -19622,7 +19634,7 @@
       <c r="I452" s="9"/>
       <c r="J452" s="9"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>0</v>
       </c>
@@ -19648,7 +19660,7 @@
       <c r="I453" s="9"/>
       <c r="J453" s="9"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>0</v>
       </c>
@@ -19674,7 +19686,7 @@
       <c r="I454" s="9"/>
       <c r="J454" s="9"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>0</v>
       </c>
@@ -19698,7 +19710,7 @@
       <c r="I455" s="9"/>
       <c r="J455" s="9"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>0</v>
       </c>
@@ -19722,7 +19734,7 @@
       <c r="I456" s="9"/>
       <c r="J456" s="9"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>0</v>
       </c>
@@ -19748,7 +19760,7 @@
       <c r="I457" s="9"/>
       <c r="J457" s="9"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>0</v>
       </c>
@@ -19770,7 +19782,7 @@
       <c r="I458" s="9"/>
       <c r="J458" s="9"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>0</v>
       </c>
@@ -19794,7 +19806,7 @@
       <c r="I459" s="9"/>
       <c r="J459" s="9"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>0</v>
       </c>
@@ -19816,7 +19828,7 @@
       <c r="I460" s="9"/>
       <c r="J460" s="9"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>0</v>
       </c>
@@ -19842,7 +19854,7 @@
       <c r="I461" s="9"/>
       <c r="J461" s="9"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>0</v>
       </c>
@@ -19866,7 +19878,7 @@
       <c r="I462" s="9"/>
       <c r="J462" s="9"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>0</v>
       </c>
@@ -19890,7 +19902,7 @@
       <c r="I463" s="9"/>
       <c r="J463" s="9"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>0</v>
       </c>
@@ -19914,7 +19926,7 @@
       <c r="I464" s="9"/>
       <c r="J464" s="9"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>0</v>
       </c>
@@ -19938,7 +19950,7 @@
       <c r="I465" s="9"/>
       <c r="J465" s="9"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>0</v>
       </c>
@@ -19962,7 +19974,7 @@
       <c r="I466" s="9"/>
       <c r="J466" s="9"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>0</v>
       </c>
@@ -19986,7 +19998,7 @@
       <c r="I467" s="9"/>
       <c r="J467" s="9"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>0</v>
       </c>
@@ -20010,7 +20022,7 @@
       <c r="I468" s="9"/>
       <c r="J468" s="9"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>0</v>
       </c>
@@ -20034,7 +20046,7 @@
       <c r="I469" s="9"/>
       <c r="J469" s="9"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>0</v>
       </c>
@@ -20060,7 +20072,7 @@
       <c r="I470" s="9"/>
       <c r="J470" s="9"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>0</v>
       </c>
@@ -20086,7 +20098,7 @@
       <c r="I471" s="9"/>
       <c r="J471" s="9"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>0</v>
       </c>
@@ -20112,7 +20124,7 @@
       <c r="I472" s="9"/>
       <c r="J472" s="9"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>0</v>
       </c>
@@ -20140,7 +20152,7 @@
       <c r="I473" s="9"/>
       <c r="J473" s="9"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>0</v>
       </c>
@@ -20166,7 +20178,7 @@
       <c r="I474" s="9"/>
       <c r="J474" s="9"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>0</v>
       </c>
@@ -20192,7 +20204,7 @@
       <c r="I475" s="9"/>
       <c r="J475" s="9"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>0</v>
       </c>
@@ -20218,7 +20230,7 @@
       <c r="I476" s="9"/>
       <c r="J476" s="9"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>0</v>
       </c>
@@ -20244,7 +20256,7 @@
       <c r="I477" s="9"/>
       <c r="J477" s="9"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>0</v>
       </c>
@@ -20270,7 +20282,7 @@
       <c r="I478" s="9"/>
       <c r="J478" s="9"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>0</v>
       </c>
@@ -20296,7 +20308,7 @@
       <c r="I479" s="9"/>
       <c r="J479" s="9"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>0</v>
       </c>
@@ -20322,7 +20334,7 @@
       <c r="I480" s="9"/>
       <c r="J480" s="9"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>0</v>
       </c>
@@ -20346,7 +20358,7 @@
       <c r="I481" s="9"/>
       <c r="J481" s="9"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>0</v>
       </c>
@@ -20368,7 +20380,7 @@
       <c r="I482" s="9"/>
       <c r="J482" s="9"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>0</v>
       </c>
@@ -20394,7 +20406,7 @@
       <c r="I483" s="9"/>
       <c r="J483" s="9"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>0</v>
       </c>
@@ -20418,7 +20430,7 @@
       <c r="I484" s="9"/>
       <c r="J484" s="9"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>0</v>
       </c>
@@ -20444,7 +20456,7 @@
       <c r="I485" s="9"/>
       <c r="J485" s="9"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>0</v>
       </c>
@@ -20468,7 +20480,7 @@
       <c r="I486" s="9"/>
       <c r="J486" s="9"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>0</v>
       </c>
@@ -20492,7 +20504,7 @@
       <c r="I487" s="9"/>
       <c r="J487" s="9"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>0</v>
       </c>
@@ -20516,7 +20528,7 @@
       <c r="I488" s="9"/>
       <c r="J488" s="9"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>0</v>
       </c>
@@ -20540,7 +20552,7 @@
       <c r="I489" s="9"/>
       <c r="J489" s="9"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>0</v>
       </c>
@@ -20564,7 +20576,7 @@
       <c r="I490" s="9"/>
       <c r="J490" s="9"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>0</v>
       </c>
@@ -20586,7 +20598,7 @@
       <c r="I491" s="9"/>
       <c r="J491" s="9"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>0</v>
       </c>
@@ -20612,7 +20624,7 @@
       <c r="I492" s="9"/>
       <c r="J492" s="9"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>0</v>
       </c>
@@ -20636,7 +20648,7 @@
       <c r="I493" s="9"/>
       <c r="J493" s="9"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>0</v>
       </c>
@@ -20662,7 +20674,7 @@
       <c r="I494" s="9"/>
       <c r="J494" s="9"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>0</v>
       </c>
@@ -20688,7 +20700,7 @@
       <c r="I495" s="9"/>
       <c r="J495" s="9"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>0</v>
       </c>
@@ -20714,7 +20726,7 @@
       <c r="I496" s="9"/>
       <c r="J496" s="9"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>0</v>
       </c>
@@ -20740,7 +20752,7 @@
       <c r="I497" s="9"/>
       <c r="J497" s="9"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>0</v>
       </c>
@@ -20766,7 +20778,7 @@
       <c r="I498" s="9"/>
       <c r="J498" s="9"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>0</v>
       </c>
@@ -20792,7 +20804,7 @@
       <c r="I499" s="9"/>
       <c r="J499" s="9"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>0</v>
       </c>
@@ -20816,7 +20828,7 @@
       <c r="I500" s="9"/>
       <c r="J500" s="9"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>0</v>
       </c>
@@ -20842,7 +20854,7 @@
       <c r="I501" s="9"/>
       <c r="J501" s="9"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>0</v>
       </c>
@@ -20868,7 +20880,7 @@
       <c r="I502" s="9"/>
       <c r="J502" s="9"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>0</v>
       </c>
@@ -20892,7 +20904,7 @@
       <c r="I503" s="9"/>
       <c r="J503" s="9"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>0</v>
       </c>
@@ -20918,7 +20930,7 @@
       <c r="I504" s="9"/>
       <c r="J504" s="9"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>0</v>
       </c>
@@ -20944,7 +20956,7 @@
       <c r="I505" s="9"/>
       <c r="J505" s="9"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>0</v>
       </c>
@@ -20972,7 +20984,7 @@
       <c r="I506" s="9"/>
       <c r="J506" s="9"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>0</v>
       </c>
@@ -20996,7 +21008,7 @@
       <c r="I507" s="9"/>
       <c r="J507" s="9"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>0</v>
       </c>
@@ -21018,7 +21030,7 @@
       <c r="I508" s="9"/>
       <c r="J508" s="9"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>0</v>
       </c>
@@ -21044,7 +21056,7 @@
       <c r="I509" s="9"/>
       <c r="J509" s="9"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>0</v>
       </c>
@@ -21068,7 +21080,7 @@
       <c r="I510" s="9"/>
       <c r="J510" s="9"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>0</v>
       </c>
@@ -21092,7 +21104,7 @@
       <c r="I511" s="9"/>
       <c r="J511" s="9"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>0</v>
       </c>
@@ -21116,7 +21128,7 @@
       <c r="I512" s="9"/>
       <c r="J512" s="9"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>0</v>
       </c>
@@ -21140,7 +21152,7 @@
       <c r="I513" s="9"/>
       <c r="J513" s="9"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>0</v>
       </c>
@@ -21164,7 +21176,7 @@
       <c r="I514" s="9"/>
       <c r="J514" s="9"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>0</v>
       </c>
@@ -21190,7 +21202,7 @@
       <c r="I515" s="9"/>
       <c r="J515" s="9"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>0</v>
       </c>
@@ -21214,7 +21226,7 @@
       <c r="I516" s="9"/>
       <c r="J516" s="9"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>0</v>
       </c>
@@ -21238,7 +21250,7 @@
       <c r="I517" s="9"/>
       <c r="J517" s="9"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>0</v>
       </c>
@@ -21262,7 +21274,7 @@
       <c r="I518" s="9"/>
       <c r="J518" s="9"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>0</v>
       </c>
@@ -21286,7 +21298,7 @@
       <c r="I519" s="9"/>
       <c r="J519" s="9"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>0</v>
       </c>
@@ -21310,7 +21322,7 @@
       <c r="I520" s="9"/>
       <c r="J520" s="9"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>0</v>
       </c>
@@ -21334,7 +21346,7 @@
       <c r="I521" s="9"/>
       <c r="J521" s="9"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>0</v>
       </c>
@@ -21358,7 +21370,7 @@
       <c r="I522" s="9"/>
       <c r="J522" s="9"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>0</v>
       </c>
@@ -21384,7 +21396,7 @@
       <c r="I523" s="9"/>
       <c r="J523" s="9"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>0</v>
       </c>
@@ -21408,7 +21420,7 @@
       <c r="I524" s="9"/>
       <c r="J524" s="9"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>0</v>
       </c>
@@ -21434,7 +21446,7 @@
       <c r="I525" s="9"/>
       <c r="J525" s="9"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>0</v>
       </c>
@@ -21460,7 +21472,7 @@
       <c r="I526" s="9"/>
       <c r="J526" s="9"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>0</v>
       </c>
@@ -21486,7 +21498,7 @@
       <c r="I527" s="9"/>
       <c r="J527" s="9"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>0</v>
       </c>
@@ -21512,7 +21524,7 @@
       <c r="I528" s="9"/>
       <c r="J528" s="9"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>0</v>
       </c>
@@ -21538,7 +21550,7 @@
       <c r="I529" s="9"/>
       <c r="J529" s="9"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>0</v>
       </c>
@@ -21562,7 +21574,7 @@
       <c r="I530" s="9"/>
       <c r="J530" s="9"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>0</v>
       </c>
@@ -21590,7 +21602,7 @@
       <c r="I531" s="9"/>
       <c r="J531" s="9"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>0</v>
       </c>
@@ -21614,7 +21626,7 @@
       <c r="I532" s="9"/>
       <c r="J532" s="9"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>0</v>
       </c>
@@ -21638,7 +21650,7 @@
       <c r="I533" s="9"/>
       <c r="J533" s="9"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>0</v>
       </c>
@@ -21662,7 +21674,7 @@
       <c r="I534" s="9"/>
       <c r="J534" s="9"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>0</v>
       </c>
@@ -21686,7 +21698,7 @@
       <c r="I535" s="9"/>
       <c r="J535" s="9"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>0</v>
       </c>
@@ -21710,7 +21722,7 @@
       <c r="I536" s="9"/>
       <c r="J536" s="9"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>0</v>
       </c>
@@ -21734,7 +21746,7 @@
       <c r="I537" s="9"/>
       <c r="J537" s="9"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>0</v>
       </c>
@@ -21758,7 +21770,7 @@
       <c r="I538" s="9"/>
       <c r="J538" s="9"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>0</v>
       </c>
@@ -21782,7 +21794,7 @@
       <c r="I539" s="9"/>
       <c r="J539" s="9"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>0</v>
       </c>
@@ -21806,7 +21818,7 @@
       <c r="I540" s="9"/>
       <c r="J540" s="9"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>0</v>
       </c>
@@ -21832,7 +21844,7 @@
       <c r="I541" s="9"/>
       <c r="J541" s="9"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>0</v>
       </c>
@@ -21858,7 +21870,7 @@
       <c r="I542" s="9"/>
       <c r="J542" s="9"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>0</v>
       </c>
@@ -21884,7 +21896,7 @@
       <c r="I543" s="9"/>
       <c r="J543" s="9"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>0</v>
       </c>
@@ -21908,7 +21920,7 @@
       <c r="I544" s="9"/>
       <c r="J544" s="9"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>0</v>
       </c>
@@ -21932,7 +21944,7 @@
       <c r="I545" s="9"/>
       <c r="J545" s="9"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>0</v>
       </c>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="2521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="2525">
   <si>
     <t>257?</t>
   </si>
@@ -7593,6 +7593,18 @@
   </si>
   <si>
     <t>Parisa</t>
+  </si>
+  <si>
+    <t>Automatic Requirement Categorization of Large Natural Language Specifications at Mercedes-Benz for Review Improvements</t>
+  </si>
+  <si>
+    <t>Daniel Ott</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-642-37422-7_4</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/chapter/10.1007/978-3-642-37422-7_4</t>
   </si>
 </sst>
 </file>
@@ -8004,15 +8016,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J546"/>
+  <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="G551" sqref="G551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
     <col min="7" max="7" width="58.140625" customWidth="1"/>
     <col min="8" max="8" width="53.28515625" customWidth="1"/>
@@ -21967,6 +21980,27 @@
       <c r="H546" s="9"/>
       <c r="I546" s="9"/>
       <c r="J546" s="9"/>
+    </row>
+    <row r="547" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="2">
+        <v>1</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D547" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E547" s="2"/>
+      <c r="F547" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>2524</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elahidoost\Documents\GitHub\ML_Requirements\literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\ML_Requirements\literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1545" windowWidth="30120" windowHeight="21405"/>
+    <workbookView xWindow="29400" yWindow="1543" windowWidth="30120" windowHeight="21403"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="2525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="2525">
   <si>
     <t>257?</t>
   </si>
@@ -8018,22 +8018,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="G551" sqref="G551"/>
+    <sheetView tabSelected="1" topLeftCell="F228" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.15234375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="7" max="7" width="58.140625" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" customWidth="1"/>
-    <col min="10" max="10" width="52.42578125" customWidth="1"/>
+    <col min="7" max="7" width="58.15234375" customWidth="1"/>
+    <col min="8" max="8" width="53.3046875" customWidth="1"/>
+    <col min="9" max="9" width="48.15234375" customWidth="1"/>
+    <col min="10" max="10" width="52.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>0</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>0</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>0</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -8911,7 +8911,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -9067,7 +9067,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -9173,7 +9173,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -9255,7 +9255,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>8</v>
       </c>
@@ -9341,7 +9341,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>0</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>8</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
@@ -9605,7 +9605,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>8</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>8</v>
       </c>
@@ -9661,7 +9661,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>8</v>
       </c>
@@ -9689,7 +9689,7 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>8</v>
       </c>
@@ -9717,7 +9717,7 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>8</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
@@ -9771,7 +9771,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -9819,7 +9819,7 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
@@ -9843,7 +9843,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
@@ -9871,7 +9871,7 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>296</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>296</v>
       </c>
@@ -9923,7 +9923,7 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>296</v>
       </c>
@@ -9949,7 +9949,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>296</v>
       </c>
@@ -9977,7 +9977,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>296</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>296</v>
       </c>
@@ -10033,7 +10033,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>296</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>296</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>296</v>
       </c>
@@ -10111,7 +10111,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>296</v>
       </c>
@@ -10133,7 +10133,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>296</v>
       </c>
@@ -10155,7 +10155,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>296</v>
       </c>
@@ -10181,7 +10181,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>296</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>296</v>
       </c>
@@ -10233,7 +10233,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>296</v>
       </c>
@@ -10259,7 +10259,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>296</v>
       </c>
@@ -10285,7 +10285,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>296</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>296</v>
       </c>
@@ -10335,7 +10335,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>296</v>
       </c>
@@ -10361,7 +10361,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>296</v>
       </c>
@@ -10385,7 +10385,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>296</v>
       </c>
@@ -10409,7 +10409,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>296</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>296</v>
       </c>
@@ -10459,7 +10459,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>296</v>
       </c>
@@ -10485,7 +10485,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>296</v>
       </c>
@@ -10513,7 +10513,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>296</v>
       </c>
@@ -10541,7 +10541,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>296</v>
       </c>
@@ -10564,10 +10564,12 @@
         <v>426</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="9" t="s">
+        <v>2519</v>
+      </c>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>296</v>
       </c>
@@ -10591,7 +10593,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>296</v>
       </c>
@@ -10615,7 +10617,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>296</v>
       </c>
@@ -10639,7 +10641,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>296</v>
       </c>
@@ -10661,7 +10663,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>296</v>
       </c>
@@ -10687,7 +10689,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>296</v>
       </c>
@@ -10713,7 +10715,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>296</v>
       </c>
@@ -10741,7 +10743,7 @@
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>296</v>
       </c>
@@ -10769,7 +10771,7 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>296</v>
       </c>
@@ -10797,7 +10799,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>296</v>
       </c>
@@ -10821,7 +10823,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
         <v>473</v>
       </c>
@@ -10847,7 +10849,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>479</v>
       </c>
@@ -10875,7 +10877,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -10903,7 +10905,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -10927,7 +10929,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -10953,7 +10955,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
         <v>1</v>
       </c>
@@ -10979,7 +10981,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -11005,7 +11007,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -11031,7 +11033,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -11055,7 +11057,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -11083,7 +11085,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -11107,7 +11109,7 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -11131,7 +11133,7 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>1</v>
       </c>
@@ -11159,7 +11161,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>1</v>
       </c>
@@ -11187,7 +11189,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -11215,7 +11217,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -11243,7 +11245,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -11269,7 +11271,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -11295,7 +11297,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>1</v>
       </c>
@@ -11319,7 +11321,7 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -11343,7 +11345,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>1</v>
       </c>
@@ -11371,7 +11373,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>1</v>
       </c>
@@ -11393,7 +11395,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -11419,7 +11421,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -11441,7 +11443,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>1</v>
       </c>
@@ -11467,7 +11469,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -11491,7 +11493,7 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>1</v>
       </c>
@@ -11515,7 +11517,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>1</v>
       </c>
@@ -11541,7 +11543,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -11565,7 +11567,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>1</v>
       </c>
@@ -11593,7 +11595,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -11617,7 +11619,7 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -11643,7 +11645,7 @@
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -11669,7 +11671,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -11695,7 +11697,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -11717,7 +11719,7 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -11743,7 +11745,7 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -11771,7 +11773,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -11797,7 +11799,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -11823,7 +11825,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -11845,7 +11847,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -11871,7 +11873,7 @@
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -11895,7 +11897,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11919,7 +11921,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -11943,7 +11945,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -11967,7 +11969,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -11991,7 +11993,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -12017,7 +12019,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -12043,7 +12045,7 @@
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -12067,7 +12069,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -12091,7 +12093,7 @@
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>1</v>
       </c>
@@ -12119,7 +12121,7 @@
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>1</v>
       </c>
@@ -12147,7 +12149,7 @@
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>1</v>
       </c>
@@ -12173,7 +12175,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -12197,7 +12199,7 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -12223,7 +12225,7 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -12249,7 +12251,7 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -12275,7 +12277,7 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -12301,7 +12303,7 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -12327,7 +12329,7 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -12349,7 +12351,7 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -12375,7 +12377,7 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -12401,7 +12403,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>1</v>
       </c>
@@ -12427,7 +12429,7 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -12453,7 +12455,7 @@
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -12479,7 +12481,7 @@
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -12505,7 +12507,7 @@
       </c>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -12531,7 +12533,7 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>1</v>
       </c>
@@ -12557,7 +12559,7 @@
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>1</v>
       </c>
@@ -12583,7 +12585,7 @@
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>1</v>
       </c>
@@ -12609,7 +12611,7 @@
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -12635,7 +12637,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>1</v>
       </c>
@@ -12659,7 +12661,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -12685,7 +12687,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>1</v>
       </c>
@@ -12711,7 +12713,7 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>1</v>
       </c>
@@ -12737,7 +12739,7 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>1</v>
       </c>
@@ -12763,7 +12765,7 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -12789,7 +12791,7 @@
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>1</v>
       </c>
@@ -12815,7 +12817,7 @@
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -12841,7 +12843,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -12865,7 +12867,7 @@
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -12887,7 +12889,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -12913,7 +12915,7 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -12939,7 +12941,7 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -12965,7 +12967,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -12991,7 +12993,7 @@
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -13017,7 +13019,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -13043,7 +13045,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -13069,7 +13071,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -13095,7 +13097,7 @@
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -13123,7 +13125,7 @@
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -13151,7 +13153,7 @@
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -13179,7 +13181,7 @@
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>1</v>
       </c>
@@ -13207,7 +13209,7 @@
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -13235,7 +13237,7 @@
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -13263,7 +13265,7 @@
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>1</v>
       </c>
@@ -13287,7 +13289,7 @@
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>1</v>
       </c>
@@ -13313,7 +13315,7 @@
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -13341,7 +13343,7 @@
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>1</v>
       </c>
@@ -13369,7 +13371,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>1</v>
       </c>
@@ -13395,7 +13397,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>1</v>
       </c>
@@ -13421,7 +13423,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>1</v>
       </c>
@@ -13443,7 +13445,7 @@
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>1</v>
       </c>
@@ -13471,7 +13473,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>1</v>
       </c>
@@ -13499,7 +13501,7 @@
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>1</v>
       </c>
@@ -13527,7 +13529,7 @@
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>1</v>
       </c>
@@ -13555,7 +13557,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>1</v>
       </c>
@@ -13581,7 +13583,7 @@
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>1</v>
       </c>
@@ -13607,7 +13609,7 @@
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>1</v>
       </c>
@@ -13631,7 +13633,7 @@
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>1</v>
       </c>
@@ -13653,7 +13655,7 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>1</v>
       </c>
@@ -13681,7 +13683,7 @@
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>1</v>
       </c>
@@ -13707,7 +13709,7 @@
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>1</v>
       </c>
@@ -13733,7 +13735,7 @@
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>1</v>
       </c>
@@ -13757,7 +13759,7 @@
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>1</v>
       </c>
@@ -13783,7 +13785,7 @@
       <c r="I219" s="9"/>
       <c r="J219" s="9"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>1</v>
       </c>
@@ -13809,7 +13811,7 @@
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
     </row>
-    <row r="221" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>1</v>
       </c>
@@ -13835,7 +13837,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>1</v>
       </c>
@@ -13861,7 +13863,7 @@
       <c r="I222" s="9"/>
       <c r="J222" s="9"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>1</v>
       </c>
@@ -13889,7 +13891,7 @@
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>1</v>
       </c>
@@ -13911,7 +13913,7 @@
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>1</v>
       </c>
@@ -13939,7 +13941,7 @@
       <c r="I225" s="9"/>
       <c r="J225" s="9"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>1</v>
       </c>
@@ -13965,7 +13967,7 @@
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>1</v>
       </c>
@@ -13993,7 +13995,7 @@
       </c>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>1</v>
       </c>
@@ -14021,7 +14023,7 @@
       <c r="I228" s="9"/>
       <c r="J228" s="9"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>1</v>
       </c>
@@ -14047,7 +14049,7 @@
       <c r="I229" s="9"/>
       <c r="J229" s="9"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>1</v>
       </c>
@@ -14075,7 +14077,7 @@
       <c r="I230" s="9"/>
       <c r="J230" s="9"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>1</v>
       </c>
@@ -14103,7 +14105,7 @@
       <c r="I231" s="9"/>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>1</v>
       </c>
@@ -14127,7 +14129,7 @@
       <c r="I232" s="9"/>
       <c r="J232" s="9"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>1</v>
       </c>
@@ -14153,7 +14155,7 @@
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>1</v>
       </c>
@@ -14179,7 +14181,7 @@
       <c r="I234" s="9"/>
       <c r="J234" s="9"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>1</v>
       </c>
@@ -14203,7 +14205,7 @@
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>1</v>
       </c>
@@ -14229,7 +14231,7 @@
       <c r="I236" s="9"/>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>1</v>
       </c>
@@ -14253,7 +14255,7 @@
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>1</v>
       </c>
@@ -14279,7 +14281,7 @@
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>1</v>
       </c>
@@ -14305,7 +14307,7 @@
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>1</v>
       </c>
@@ -14331,7 +14333,7 @@
       <c r="I240" s="9"/>
       <c r="J240" s="9"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>1</v>
       </c>
@@ -14359,7 +14361,7 @@
       </c>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>1</v>
       </c>
@@ -14385,7 +14387,7 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>1</v>
       </c>
@@ -14409,7 +14411,7 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>1</v>
       </c>
@@ -14433,7 +14435,7 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>1</v>
       </c>
@@ -14457,7 +14459,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>1</v>
       </c>
@@ -14481,7 +14483,7 @@
       <c r="I246" s="9"/>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>1</v>
       </c>
@@ -14507,7 +14509,7 @@
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>1</v>
       </c>
@@ -14533,7 +14535,7 @@
       <c r="I248" s="9"/>
       <c r="J248" s="9"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>1</v>
       </c>
@@ -14561,7 +14563,7 @@
       <c r="I249" s="9"/>
       <c r="J249" s="9"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>1</v>
       </c>
@@ -14589,7 +14591,7 @@
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>1</v>
       </c>
@@ -14617,7 +14619,7 @@
       <c r="I251" s="9"/>
       <c r="J251" s="9"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>1</v>
       </c>
@@ -14645,7 +14647,7 @@
       <c r="I252" s="9"/>
       <c r="J252" s="9"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>1</v>
       </c>
@@ -14673,7 +14675,7 @@
       <c r="I253" s="9"/>
       <c r="J253" s="9"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>1</v>
       </c>
@@ -14697,7 +14699,7 @@
       <c r="I254" s="9"/>
       <c r="J254" s="9"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>1</v>
       </c>
@@ -14723,7 +14725,7 @@
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>1</v>
       </c>
@@ -14747,7 +14749,7 @@
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>1</v>
       </c>
@@ -14771,7 +14773,7 @@
       <c r="I257" s="9"/>
       <c r="J257" s="9"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>0</v>
       </c>
@@ -14795,7 +14797,7 @@
       <c r="I258" s="9"/>
       <c r="J258" s="9"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>0</v>
       </c>
@@ -14819,7 +14821,7 @@
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>0</v>
       </c>
@@ -14843,7 +14845,7 @@
       <c r="I260" s="9"/>
       <c r="J260" s="9"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>0</v>
       </c>
@@ -14869,7 +14871,7 @@
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>0</v>
       </c>
@@ -14893,7 +14895,7 @@
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>0</v>
       </c>
@@ -14919,7 +14921,7 @@
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>0</v>
       </c>
@@ -14945,7 +14947,7 @@
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>0</v>
       </c>
@@ -14969,7 +14971,7 @@
       <c r="I265" s="9"/>
       <c r="J265" s="9"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>0</v>
       </c>
@@ -14995,7 +14997,7 @@
       <c r="I266" s="9"/>
       <c r="J266" s="9"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>0</v>
       </c>
@@ -15021,7 +15023,7 @@
       <c r="I267" s="9"/>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>0</v>
       </c>
@@ -15045,7 +15047,7 @@
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>0</v>
       </c>
@@ -15069,7 +15071,7 @@
       <c r="I269" s="9"/>
       <c r="J269" s="9"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>0</v>
       </c>
@@ -15095,7 +15097,7 @@
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>0</v>
       </c>
@@ -15119,7 +15121,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>0</v>
       </c>
@@ -15143,7 +15145,7 @@
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>0</v>
       </c>
@@ -15167,7 +15169,7 @@
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>0</v>
       </c>
@@ -15191,7 +15193,7 @@
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>0</v>
       </c>
@@ -15215,7 +15217,7 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>0</v>
       </c>
@@ -15239,7 +15241,7 @@
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>0</v>
       </c>
@@ -15263,7 +15265,7 @@
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>0</v>
       </c>
@@ -15287,7 +15289,7 @@
       <c r="I278" s="9"/>
       <c r="J278" s="9"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>0</v>
       </c>
@@ -15313,7 +15315,7 @@
       <c r="I279" s="9"/>
       <c r="J279" s="9"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>0</v>
       </c>
@@ -15337,7 +15339,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>0</v>
       </c>
@@ -15361,7 +15363,7 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>0</v>
       </c>
@@ -15387,7 +15389,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>0</v>
       </c>
@@ -15413,7 +15415,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>0</v>
       </c>
@@ -15437,7 +15439,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>0</v>
       </c>
@@ -15463,7 +15465,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>0</v>
       </c>
@@ -15489,7 +15491,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>0</v>
       </c>
@@ -15515,7 +15517,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>0</v>
       </c>
@@ -15539,7 +15541,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A289" s="7">
         <v>0</v>
       </c>
@@ -15563,7 +15565,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>0</v>
       </c>
@@ -15589,7 +15591,7 @@
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>0</v>
       </c>
@@ -15615,7 +15617,7 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>0</v>
       </c>
@@ -15639,7 +15641,7 @@
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A293" s="7">
         <v>0</v>
       </c>
@@ -15665,7 +15667,7 @@
       <c r="I293" s="9"/>
       <c r="J293" s="9"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>0</v>
       </c>
@@ -15691,7 +15693,7 @@
       <c r="I294" s="9"/>
       <c r="J294" s="9"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>0</v>
       </c>
@@ -15717,7 +15719,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>0</v>
       </c>
@@ -15741,7 +15743,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>0</v>
       </c>
@@ -15765,7 +15767,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>0</v>
       </c>
@@ -15791,7 +15793,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>0</v>
       </c>
@@ -15815,7 +15817,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>0</v>
       </c>
@@ -15837,7 +15839,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>0</v>
       </c>
@@ -15861,7 +15863,7 @@
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>0</v>
       </c>
@@ -15885,7 +15887,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>0</v>
       </c>
@@ -15911,7 +15913,7 @@
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>0</v>
       </c>
@@ -15935,7 +15937,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>0</v>
       </c>
@@ -15959,7 +15961,7 @@
       <c r="I305" s="9"/>
       <c r="J305" s="9"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>0</v>
       </c>
@@ -15983,7 +15985,7 @@
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>0</v>
       </c>
@@ -16007,7 +16009,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>0</v>
       </c>
@@ -16031,7 +16033,7 @@
       <c r="I308" s="9"/>
       <c r="J308" s="9"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>0</v>
       </c>
@@ -16057,7 +16059,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="9"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>0</v>
       </c>
@@ -16081,7 +16083,7 @@
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>0</v>
       </c>
@@ -16105,7 +16107,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>0</v>
       </c>
@@ -16129,7 +16131,7 @@
       <c r="I312" s="9"/>
       <c r="J312" s="9"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>0</v>
       </c>
@@ -16155,7 +16157,7 @@
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>0</v>
       </c>
@@ -16179,7 +16181,7 @@
       <c r="I314" s="9"/>
       <c r="J314" s="9"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>0</v>
       </c>
@@ -16205,7 +16207,7 @@
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>0</v>
       </c>
@@ -16229,7 +16231,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>0</v>
       </c>
@@ -16253,7 +16255,7 @@
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>0</v>
       </c>
@@ -16277,7 +16279,7 @@
       <c r="I318" s="9"/>
       <c r="J318" s="9"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>0</v>
       </c>
@@ -16303,7 +16305,7 @@
       <c r="I319" s="9"/>
       <c r="J319" s="9"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>0</v>
       </c>
@@ -16327,7 +16329,7 @@
       <c r="I320" s="9"/>
       <c r="J320" s="9"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>0</v>
       </c>
@@ -16351,7 +16353,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>0</v>
       </c>
@@ -16375,7 +16377,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>0</v>
       </c>
@@ -16401,7 +16403,7 @@
       <c r="I323" s="9"/>
       <c r="J323" s="9"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>0</v>
       </c>
@@ -16425,7 +16427,7 @@
       <c r="I324" s="9"/>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>0</v>
       </c>
@@ -16451,7 +16453,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>0</v>
       </c>
@@ -16477,7 +16479,7 @@
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>0</v>
       </c>
@@ -16503,7 +16505,7 @@
       <c r="I327" s="9"/>
       <c r="J327" s="9"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>0</v>
       </c>
@@ -16529,7 +16531,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>0</v>
       </c>
@@ -16555,7 +16557,7 @@
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>0</v>
       </c>
@@ -16581,7 +16583,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>0</v>
       </c>
@@ -16605,7 +16607,7 @@
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>0</v>
       </c>
@@ -16631,7 +16633,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="9"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>0</v>
       </c>
@@ -16655,7 +16657,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>0</v>
       </c>
@@ -16679,7 +16681,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>0</v>
       </c>
@@ -16703,7 +16705,7 @@
       <c r="I335" s="9"/>
       <c r="J335" s="9"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>0</v>
       </c>
@@ -16727,7 +16729,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="9"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>0</v>
       </c>
@@ -16753,7 +16755,7 @@
       <c r="I337" s="9"/>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>0</v>
       </c>
@@ -16779,7 +16781,7 @@
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>0</v>
       </c>
@@ -16805,7 +16807,7 @@
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>0</v>
       </c>
@@ -16831,7 +16833,7 @@
       <c r="I340" s="9"/>
       <c r="J340" s="9"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>0</v>
       </c>
@@ -16857,7 +16859,7 @@
       <c r="I341" s="9"/>
       <c r="J341" s="9"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>0</v>
       </c>
@@ -16883,7 +16885,7 @@
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>0</v>
       </c>
@@ -16909,7 +16911,7 @@
       <c r="I343" s="9"/>
       <c r="J343" s="9"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>0</v>
       </c>
@@ -16935,7 +16937,7 @@
       <c r="I344" s="9"/>
       <c r="J344" s="9"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>0</v>
       </c>
@@ -16961,7 +16963,7 @@
       <c r="I345" s="9"/>
       <c r="J345" s="9"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>0</v>
       </c>
@@ -16985,7 +16987,7 @@
       <c r="I346" s="9"/>
       <c r="J346" s="9"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>0</v>
       </c>
@@ -17011,7 +17013,7 @@
       <c r="I347" s="9"/>
       <c r="J347" s="9"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>0</v>
       </c>
@@ -17037,7 +17039,7 @@
       <c r="I348" s="9"/>
       <c r="J348" s="9"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>0</v>
       </c>
@@ -17063,7 +17065,7 @@
       <c r="I349" s="9"/>
       <c r="J349" s="9"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>0</v>
       </c>
@@ -17087,7 +17089,7 @@
       <c r="I350" s="9"/>
       <c r="J350" s="9"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>0</v>
       </c>
@@ -17113,7 +17115,7 @@
       <c r="I351" s="9"/>
       <c r="J351" s="9"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>0</v>
       </c>
@@ -17139,7 +17141,7 @@
       <c r="I352" s="9"/>
       <c r="J352" s="9"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>0</v>
       </c>
@@ -17163,7 +17165,7 @@
       <c r="I353" s="9"/>
       <c r="J353" s="9"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>0</v>
       </c>
@@ -17189,7 +17191,7 @@
       <c r="I354" s="9"/>
       <c r="J354" s="9"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>0</v>
       </c>
@@ -17215,7 +17217,7 @@
       <c r="I355" s="9"/>
       <c r="J355" s="9"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>0</v>
       </c>
@@ -17239,7 +17241,7 @@
       <c r="I356" s="9"/>
       <c r="J356" s="9"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>0</v>
       </c>
@@ -17261,7 +17263,7 @@
       <c r="I357" s="9"/>
       <c r="J357" s="9"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>0</v>
       </c>
@@ -17287,7 +17289,7 @@
       <c r="I358" s="9"/>
       <c r="J358" s="9"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>0</v>
       </c>
@@ -17313,7 +17315,7 @@
       <c r="I359" s="9"/>
       <c r="J359" s="9"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>0</v>
       </c>
@@ -17339,7 +17341,7 @@
       <c r="I360" s="9"/>
       <c r="J360" s="9"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>0</v>
       </c>
@@ -17365,7 +17367,7 @@
       <c r="I361" s="9"/>
       <c r="J361" s="9"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>0</v>
       </c>
@@ -17391,7 +17393,7 @@
       <c r="I362" s="9"/>
       <c r="J362" s="9"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>0</v>
       </c>
@@ -17417,7 +17419,7 @@
       <c r="I363" s="9"/>
       <c r="J363" s="9"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>0</v>
       </c>
@@ -17443,7 +17445,7 @@
       <c r="I364" s="9"/>
       <c r="J364" s="9"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>0</v>
       </c>
@@ -17469,7 +17471,7 @@
       <c r="I365" s="9"/>
       <c r="J365" s="9"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>0</v>
       </c>
@@ -17495,7 +17497,7 @@
       <c r="I366" s="9"/>
       <c r="J366" s="9"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>0</v>
       </c>
@@ -17521,7 +17523,7 @@
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>0</v>
       </c>
@@ -17547,7 +17549,7 @@
       <c r="I368" s="9"/>
       <c r="J368" s="9"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>0</v>
       </c>
@@ -17573,7 +17575,7 @@
       <c r="I369" s="9"/>
       <c r="J369" s="9"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>0</v>
       </c>
@@ -17599,7 +17601,7 @@
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>0</v>
       </c>
@@ -17623,7 +17625,7 @@
       <c r="I371" s="9"/>
       <c r="J371" s="9"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>0</v>
       </c>
@@ -17645,7 +17647,7 @@
       <c r="I372" s="9"/>
       <c r="J372" s="9"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>0</v>
       </c>
@@ -17671,7 +17673,7 @@
       <c r="I373" s="9"/>
       <c r="J373" s="9"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>0</v>
       </c>
@@ -17695,7 +17697,7 @@
       <c r="I374" s="9"/>
       <c r="J374" s="9"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>0</v>
       </c>
@@ -17719,7 +17721,7 @@
       <c r="I375" s="9"/>
       <c r="J375" s="9"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>0</v>
       </c>
@@ -17743,7 +17745,7 @@
       <c r="I376" s="9"/>
       <c r="J376" s="9"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>0</v>
       </c>
@@ -17767,7 +17769,7 @@
       <c r="I377" s="9"/>
       <c r="J377" s="9"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>0</v>
       </c>
@@ -17793,7 +17795,7 @@
       <c r="I378" s="9"/>
       <c r="J378" s="9"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>0</v>
       </c>
@@ -17817,7 +17819,7 @@
       <c r="I379" s="9"/>
       <c r="J379" s="9"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>0</v>
       </c>
@@ -17841,7 +17843,7 @@
       <c r="I380" s="9"/>
       <c r="J380" s="9"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>0</v>
       </c>
@@ -17867,7 +17869,7 @@
       <c r="I381" s="9"/>
       <c r="J381" s="9"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>0</v>
       </c>
@@ -17893,7 +17895,7 @@
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>0</v>
       </c>
@@ -17919,7 +17921,7 @@
       <c r="I383" s="9"/>
       <c r="J383" s="9"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>0</v>
       </c>
@@ -17945,7 +17947,7 @@
       <c r="I384" s="9"/>
       <c r="J384" s="9"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>0</v>
       </c>
@@ -17971,7 +17973,7 @@
       <c r="I385" s="9"/>
       <c r="J385" s="9"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>0</v>
       </c>
@@ -17997,7 +17999,7 @@
       <c r="I386" s="9"/>
       <c r="J386" s="9"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>0</v>
       </c>
@@ -18021,7 +18023,7 @@
       <c r="I387" s="9"/>
       <c r="J387" s="9"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A388" s="7">
         <v>0</v>
       </c>
@@ -18047,7 +18049,7 @@
       <c r="I388" s="9"/>
       <c r="J388" s="9"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>0</v>
       </c>
@@ -18073,7 +18075,7 @@
       <c r="I389" s="9"/>
       <c r="J389" s="9"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>0</v>
       </c>
@@ -18097,7 +18099,7 @@
       <c r="I390" s="9"/>
       <c r="J390" s="9"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>0</v>
       </c>
@@ -18123,7 +18125,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="9"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>0</v>
       </c>
@@ -18147,7 +18149,7 @@
       <c r="I392" s="9"/>
       <c r="J392" s="9"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>0</v>
       </c>
@@ -18171,7 +18173,7 @@
       <c r="I393" s="9"/>
       <c r="J393" s="9"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>0</v>
       </c>
@@ -18195,7 +18197,7 @@
       <c r="I394" s="9"/>
       <c r="J394" s="9"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>0</v>
       </c>
@@ -18221,7 +18223,7 @@
       <c r="I395" s="9"/>
       <c r="J395" s="9"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>0</v>
       </c>
@@ -18245,7 +18247,7 @@
       <c r="I396" s="9"/>
       <c r="J396" s="9"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>0</v>
       </c>
@@ -18269,7 +18271,7 @@
       <c r="I397" s="9"/>
       <c r="J397" s="9"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>0</v>
       </c>
@@ -18293,7 +18295,7 @@
       <c r="I398" s="9"/>
       <c r="J398" s="9"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>0</v>
       </c>
@@ -18315,7 +18317,7 @@
       <c r="I399" s="9"/>
       <c r="J399" s="9"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>0</v>
       </c>
@@ -18339,7 +18341,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="9"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>0</v>
       </c>
@@ -18365,7 +18367,7 @@
       <c r="I401" s="9"/>
       <c r="J401" s="9"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>0</v>
       </c>
@@ -18391,7 +18393,7 @@
       <c r="I402" s="9"/>
       <c r="J402" s="9"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>0</v>
       </c>
@@ -18417,7 +18419,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>0</v>
       </c>
@@ -18441,7 +18443,7 @@
       <c r="I404" s="9"/>
       <c r="J404" s="9"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>0</v>
       </c>
@@ -18465,7 +18467,7 @@
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>0</v>
       </c>
@@ -18491,7 +18493,7 @@
       <c r="I406" s="9"/>
       <c r="J406" s="9"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>0</v>
       </c>
@@ -18515,7 +18517,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>0</v>
       </c>
@@ -18539,7 +18541,7 @@
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>0</v>
       </c>
@@ -18563,7 +18565,7 @@
       <c r="I409" s="9"/>
       <c r="J409" s="9"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>0</v>
       </c>
@@ -18589,7 +18591,7 @@
       <c r="I410" s="9"/>
       <c r="J410" s="9"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>0</v>
       </c>
@@ -18615,7 +18617,7 @@
       <c r="I411" s="9"/>
       <c r="J411" s="9"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <v>0</v>
       </c>
@@ -18641,7 +18643,7 @@
       <c r="I412" s="9"/>
       <c r="J412" s="9"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>0</v>
       </c>
@@ -18665,7 +18667,7 @@
       <c r="I413" s="9"/>
       <c r="J413" s="9"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>0</v>
       </c>
@@ -18689,7 +18691,7 @@
       <c r="I414" s="9"/>
       <c r="J414" s="9"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>0</v>
       </c>
@@ -18715,7 +18717,7 @@
       <c r="I415" s="9"/>
       <c r="J415" s="9"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>0</v>
       </c>
@@ -18741,7 +18743,7 @@
       <c r="I416" s="9"/>
       <c r="J416" s="9"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>0</v>
       </c>
@@ -18765,7 +18767,7 @@
       <c r="I417" s="9"/>
       <c r="J417" s="9"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>0</v>
       </c>
@@ -18791,7 +18793,7 @@
       <c r="I418" s="9"/>
       <c r="J418" s="9"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A419" s="7">
         <v>0</v>
       </c>
@@ -18817,7 +18819,7 @@
       <c r="I419" s="9"/>
       <c r="J419" s="9"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>0</v>
       </c>
@@ -18839,7 +18841,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="9"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>0</v>
       </c>
@@ -18861,7 +18863,7 @@
       <c r="I421" s="9"/>
       <c r="J421" s="9"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>0</v>
       </c>
@@ -18887,7 +18889,7 @@
       <c r="I422" s="9"/>
       <c r="J422" s="9"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>0</v>
       </c>
@@ -18913,7 +18915,7 @@
       <c r="I423" s="9"/>
       <c r="J423" s="9"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>0</v>
       </c>
@@ -18939,7 +18941,7 @@
       <c r="I424" s="9"/>
       <c r="J424" s="9"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>0</v>
       </c>
@@ -18965,7 +18967,7 @@
       <c r="I425" s="9"/>
       <c r="J425" s="9"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>0</v>
       </c>
@@ -18989,7 +18991,7 @@
       <c r="I426" s="9"/>
       <c r="J426" s="9"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>0</v>
       </c>
@@ -19015,7 +19017,7 @@
       <c r="I427" s="9"/>
       <c r="J427" s="9"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>0</v>
       </c>
@@ -19041,7 +19043,7 @@
       <c r="I428" s="9"/>
       <c r="J428" s="9"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>0</v>
       </c>
@@ -19067,7 +19069,7 @@
       <c r="I429" s="9"/>
       <c r="J429" s="9"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>0</v>
       </c>
@@ -19093,7 +19095,7 @@
       <c r="I430" s="9"/>
       <c r="J430" s="9"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>0</v>
       </c>
@@ -19119,7 +19121,7 @@
       <c r="I431" s="9"/>
       <c r="J431" s="9"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>0</v>
       </c>
@@ -19145,7 +19147,7 @@
       <c r="I432" s="9"/>
       <c r="J432" s="9"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>0</v>
       </c>
@@ -19171,7 +19173,7 @@
       <c r="I433" s="9"/>
       <c r="J433" s="9"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>0</v>
       </c>
@@ -19195,7 +19197,7 @@
       <c r="I434" s="9"/>
       <c r="J434" s="9"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>0</v>
       </c>
@@ -19219,7 +19221,7 @@
       <c r="I435" s="9"/>
       <c r="J435" s="9"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <v>0</v>
       </c>
@@ -19245,7 +19247,7 @@
       <c r="I436" s="9"/>
       <c r="J436" s="9"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <v>0</v>
       </c>
@@ -19271,7 +19273,7 @@
       <c r="I437" s="9"/>
       <c r="J437" s="9"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>0</v>
       </c>
@@ -19295,7 +19297,7 @@
       <c r="I438" s="9"/>
       <c r="J438" s="9"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>0</v>
       </c>
@@ -19321,7 +19323,7 @@
       <c r="I439" s="9"/>
       <c r="J439" s="9"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>0</v>
       </c>
@@ -19347,7 +19349,7 @@
       <c r="I440" s="9"/>
       <c r="J440" s="9"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>0</v>
       </c>
@@ -19371,7 +19373,7 @@
       <c r="I441" s="9"/>
       <c r="J441" s="9"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>0</v>
       </c>
@@ -19395,7 +19397,7 @@
       <c r="I442" s="9"/>
       <c r="J442" s="9"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>0</v>
       </c>
@@ -19419,7 +19421,7 @@
       <c r="I443" s="9"/>
       <c r="J443" s="9"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>0</v>
       </c>
@@ -19443,7 +19445,7 @@
       <c r="I444" s="9"/>
       <c r="J444" s="9"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>0</v>
       </c>
@@ -19467,7 +19469,7 @@
       <c r="I445" s="9"/>
       <c r="J445" s="9"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>0</v>
       </c>
@@ -19493,7 +19495,7 @@
       <c r="I446" s="9"/>
       <c r="J446" s="9"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>0</v>
       </c>
@@ -19517,7 +19519,7 @@
       <c r="I447" s="9"/>
       <c r="J447" s="9"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>0</v>
       </c>
@@ -19543,7 +19545,7 @@
       <c r="I448" s="9"/>
       <c r="J448" s="9"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>0</v>
       </c>
@@ -19569,7 +19571,7 @@
       <c r="I449" s="9"/>
       <c r="J449" s="9"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>0</v>
       </c>
@@ -19595,7 +19597,7 @@
       <c r="I450" s="9"/>
       <c r="J450" s="9"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>0</v>
       </c>
@@ -19621,7 +19623,7 @@
       <c r="I451" s="9"/>
       <c r="J451" s="9"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>0</v>
       </c>
@@ -19647,7 +19649,7 @@
       <c r="I452" s="9"/>
       <c r="J452" s="9"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>0</v>
       </c>
@@ -19673,7 +19675,7 @@
       <c r="I453" s="9"/>
       <c r="J453" s="9"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <v>0</v>
       </c>
@@ -19699,7 +19701,7 @@
       <c r="I454" s="9"/>
       <c r="J454" s="9"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <v>0</v>
       </c>
@@ -19723,7 +19725,7 @@
       <c r="I455" s="9"/>
       <c r="J455" s="9"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <v>0</v>
       </c>
@@ -19747,7 +19749,7 @@
       <c r="I456" s="9"/>
       <c r="J456" s="9"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>0</v>
       </c>
@@ -19773,7 +19775,7 @@
       <c r="I457" s="9"/>
       <c r="J457" s="9"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>0</v>
       </c>
@@ -19795,7 +19797,7 @@
       <c r="I458" s="9"/>
       <c r="J458" s="9"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>0</v>
       </c>
@@ -19819,7 +19821,7 @@
       <c r="I459" s="9"/>
       <c r="J459" s="9"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>0</v>
       </c>
@@ -19841,7 +19843,7 @@
       <c r="I460" s="9"/>
       <c r="J460" s="9"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>0</v>
       </c>
@@ -19867,7 +19869,7 @@
       <c r="I461" s="9"/>
       <c r="J461" s="9"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>0</v>
       </c>
@@ -19891,7 +19893,7 @@
       <c r="I462" s="9"/>
       <c r="J462" s="9"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>0</v>
       </c>
@@ -19915,7 +19917,7 @@
       <c r="I463" s="9"/>
       <c r="J463" s="9"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <v>0</v>
       </c>
@@ -19939,7 +19941,7 @@
       <c r="I464" s="9"/>
       <c r="J464" s="9"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>0</v>
       </c>
@@ -19963,7 +19965,7 @@
       <c r="I465" s="9"/>
       <c r="J465" s="9"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>0</v>
       </c>
@@ -19987,7 +19989,7 @@
       <c r="I466" s="9"/>
       <c r="J466" s="9"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>0</v>
       </c>
@@ -20011,7 +20013,7 @@
       <c r="I467" s="9"/>
       <c r="J467" s="9"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>0</v>
       </c>
@@ -20035,7 +20037,7 @@
       <c r="I468" s="9"/>
       <c r="J468" s="9"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>0</v>
       </c>
@@ -20059,7 +20061,7 @@
       <c r="I469" s="9"/>
       <c r="J469" s="9"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>0</v>
       </c>
@@ -20085,7 +20087,7 @@
       <c r="I470" s="9"/>
       <c r="J470" s="9"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>0</v>
       </c>
@@ -20111,7 +20113,7 @@
       <c r="I471" s="9"/>
       <c r="J471" s="9"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>0</v>
       </c>
@@ -20137,7 +20139,7 @@
       <c r="I472" s="9"/>
       <c r="J472" s="9"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>0</v>
       </c>
@@ -20165,7 +20167,7 @@
       <c r="I473" s="9"/>
       <c r="J473" s="9"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>0</v>
       </c>
@@ -20191,7 +20193,7 @@
       <c r="I474" s="9"/>
       <c r="J474" s="9"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <v>0</v>
       </c>
@@ -20217,7 +20219,7 @@
       <c r="I475" s="9"/>
       <c r="J475" s="9"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>0</v>
       </c>
@@ -20243,7 +20245,7 @@
       <c r="I476" s="9"/>
       <c r="J476" s="9"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>0</v>
       </c>
@@ -20269,7 +20271,7 @@
       <c r="I477" s="9"/>
       <c r="J477" s="9"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>0</v>
       </c>
@@ -20295,7 +20297,7 @@
       <c r="I478" s="9"/>
       <c r="J478" s="9"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <v>0</v>
       </c>
@@ -20321,7 +20323,7 @@
       <c r="I479" s="9"/>
       <c r="J479" s="9"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>0</v>
       </c>
@@ -20347,7 +20349,7 @@
       <c r="I480" s="9"/>
       <c r="J480" s="9"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <v>0</v>
       </c>
@@ -20371,7 +20373,7 @@
       <c r="I481" s="9"/>
       <c r="J481" s="9"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>0</v>
       </c>
@@ -20393,7 +20395,7 @@
       <c r="I482" s="9"/>
       <c r="J482" s="9"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <v>0</v>
       </c>
@@ -20419,7 +20421,7 @@
       <c r="I483" s="9"/>
       <c r="J483" s="9"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>0</v>
       </c>
@@ -20443,7 +20445,7 @@
       <c r="I484" s="9"/>
       <c r="J484" s="9"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>0</v>
       </c>
@@ -20469,7 +20471,7 @@
       <c r="I485" s="9"/>
       <c r="J485" s="9"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <v>0</v>
       </c>
@@ -20493,7 +20495,7 @@
       <c r="I486" s="9"/>
       <c r="J486" s="9"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <v>0</v>
       </c>
@@ -20517,7 +20519,7 @@
       <c r="I487" s="9"/>
       <c r="J487" s="9"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <v>0</v>
       </c>
@@ -20541,7 +20543,7 @@
       <c r="I488" s="9"/>
       <c r="J488" s="9"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <v>0</v>
       </c>
@@ -20565,7 +20567,7 @@
       <c r="I489" s="9"/>
       <c r="J489" s="9"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <v>0</v>
       </c>
@@ -20589,7 +20591,7 @@
       <c r="I490" s="9"/>
       <c r="J490" s="9"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <v>0</v>
       </c>
@@ -20611,7 +20613,7 @@
       <c r="I491" s="9"/>
       <c r="J491" s="9"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <v>0</v>
       </c>
@@ -20637,7 +20639,7 @@
       <c r="I492" s="9"/>
       <c r="J492" s="9"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <v>0</v>
       </c>
@@ -20661,7 +20663,7 @@
       <c r="I493" s="9"/>
       <c r="J493" s="9"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <v>0</v>
       </c>
@@ -20687,7 +20689,7 @@
       <c r="I494" s="9"/>
       <c r="J494" s="9"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <v>0</v>
       </c>
@@ -20713,7 +20715,7 @@
       <c r="I495" s="9"/>
       <c r="J495" s="9"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <v>0</v>
       </c>
@@ -20739,7 +20741,7 @@
       <c r="I496" s="9"/>
       <c r="J496" s="9"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <v>0</v>
       </c>
@@ -20765,7 +20767,7 @@
       <c r="I497" s="9"/>
       <c r="J497" s="9"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>0</v>
       </c>
@@ -20791,7 +20793,7 @@
       <c r="I498" s="9"/>
       <c r="J498" s="9"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <v>0</v>
       </c>
@@ -20817,7 +20819,7 @@
       <c r="I499" s="9"/>
       <c r="J499" s="9"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <v>0</v>
       </c>
@@ -20841,7 +20843,7 @@
       <c r="I500" s="9"/>
       <c r="J500" s="9"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <v>0</v>
       </c>
@@ -20867,7 +20869,7 @@
       <c r="I501" s="9"/>
       <c r="J501" s="9"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <v>0</v>
       </c>
@@ -20893,7 +20895,7 @@
       <c r="I502" s="9"/>
       <c r="J502" s="9"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <v>0</v>
       </c>
@@ -20917,7 +20919,7 @@
       <c r="I503" s="9"/>
       <c r="J503" s="9"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <v>0</v>
       </c>
@@ -20943,7 +20945,7 @@
       <c r="I504" s="9"/>
       <c r="J504" s="9"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <v>0</v>
       </c>
@@ -20969,7 +20971,7 @@
       <c r="I505" s="9"/>
       <c r="J505" s="9"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <v>0</v>
       </c>
@@ -20997,7 +20999,7 @@
       <c r="I506" s="9"/>
       <c r="J506" s="9"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <v>0</v>
       </c>
@@ -21021,7 +21023,7 @@
       <c r="I507" s="9"/>
       <c r="J507" s="9"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <v>0</v>
       </c>
@@ -21043,7 +21045,7 @@
       <c r="I508" s="9"/>
       <c r="J508" s="9"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <v>0</v>
       </c>
@@ -21069,7 +21071,7 @@
       <c r="I509" s="9"/>
       <c r="J509" s="9"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <v>0</v>
       </c>
@@ -21093,7 +21095,7 @@
       <c r="I510" s="9"/>
       <c r="J510" s="9"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <v>0</v>
       </c>
@@ -21117,7 +21119,7 @@
       <c r="I511" s="9"/>
       <c r="J511" s="9"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <v>0</v>
       </c>
@@ -21141,7 +21143,7 @@
       <c r="I512" s="9"/>
       <c r="J512" s="9"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <v>0</v>
       </c>
@@ -21165,7 +21167,7 @@
       <c r="I513" s="9"/>
       <c r="J513" s="9"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <v>0</v>
       </c>
@@ -21189,7 +21191,7 @@
       <c r="I514" s="9"/>
       <c r="J514" s="9"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <v>0</v>
       </c>
@@ -21215,7 +21217,7 @@
       <c r="I515" s="9"/>
       <c r="J515" s="9"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <v>0</v>
       </c>
@@ -21239,7 +21241,7 @@
       <c r="I516" s="9"/>
       <c r="J516" s="9"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <v>0</v>
       </c>
@@ -21263,7 +21265,7 @@
       <c r="I517" s="9"/>
       <c r="J517" s="9"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <v>0</v>
       </c>
@@ -21287,7 +21289,7 @@
       <c r="I518" s="9"/>
       <c r="J518" s="9"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <v>0</v>
       </c>
@@ -21311,7 +21313,7 @@
       <c r="I519" s="9"/>
       <c r="J519" s="9"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <v>0</v>
       </c>
@@ -21335,7 +21337,7 @@
       <c r="I520" s="9"/>
       <c r="J520" s="9"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <v>0</v>
       </c>
@@ -21359,7 +21361,7 @@
       <c r="I521" s="9"/>
       <c r="J521" s="9"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <v>0</v>
       </c>
@@ -21383,7 +21385,7 @@
       <c r="I522" s="9"/>
       <c r="J522" s="9"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <v>0</v>
       </c>
@@ -21409,7 +21411,7 @@
       <c r="I523" s="9"/>
       <c r="J523" s="9"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <v>0</v>
       </c>
@@ -21433,7 +21435,7 @@
       <c r="I524" s="9"/>
       <c r="J524" s="9"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <v>0</v>
       </c>
@@ -21459,7 +21461,7 @@
       <c r="I525" s="9"/>
       <c r="J525" s="9"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <v>0</v>
       </c>
@@ -21485,7 +21487,7 @@
       <c r="I526" s="9"/>
       <c r="J526" s="9"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <v>0</v>
       </c>
@@ -21511,7 +21513,7 @@
       <c r="I527" s="9"/>
       <c r="J527" s="9"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <v>0</v>
       </c>
@@ -21537,7 +21539,7 @@
       <c r="I528" s="9"/>
       <c r="J528" s="9"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <v>0</v>
       </c>
@@ -21563,7 +21565,7 @@
       <c r="I529" s="9"/>
       <c r="J529" s="9"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <v>0</v>
       </c>
@@ -21587,7 +21589,7 @@
       <c r="I530" s="9"/>
       <c r="J530" s="9"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <v>0</v>
       </c>
@@ -21615,7 +21617,7 @@
       <c r="I531" s="9"/>
       <c r="J531" s="9"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <v>0</v>
       </c>
@@ -21639,7 +21641,7 @@
       <c r="I532" s="9"/>
       <c r="J532" s="9"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <v>0</v>
       </c>
@@ -21663,7 +21665,7 @@
       <c r="I533" s="9"/>
       <c r="J533" s="9"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <v>0</v>
       </c>
@@ -21687,7 +21689,7 @@
       <c r="I534" s="9"/>
       <c r="J534" s="9"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <v>0</v>
       </c>
@@ -21711,7 +21713,7 @@
       <c r="I535" s="9"/>
       <c r="J535" s="9"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <v>0</v>
       </c>
@@ -21735,7 +21737,7 @@
       <c r="I536" s="9"/>
       <c r="J536" s="9"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <v>0</v>
       </c>
@@ -21759,7 +21761,7 @@
       <c r="I537" s="9"/>
       <c r="J537" s="9"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <v>0</v>
       </c>
@@ -21783,7 +21785,7 @@
       <c r="I538" s="9"/>
       <c r="J538" s="9"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <v>0</v>
       </c>
@@ -21807,7 +21809,7 @@
       <c r="I539" s="9"/>
       <c r="J539" s="9"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <v>0</v>
       </c>
@@ -21831,7 +21833,7 @@
       <c r="I540" s="9"/>
       <c r="J540" s="9"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <v>0</v>
       </c>
@@ -21857,7 +21859,7 @@
       <c r="I541" s="9"/>
       <c r="J541" s="9"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <v>0</v>
       </c>
@@ -21883,7 +21885,7 @@
       <c r="I542" s="9"/>
       <c r="J542" s="9"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <v>0</v>
       </c>
@@ -21909,7 +21911,7 @@
       <c r="I543" s="9"/>
       <c r="J543" s="9"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <v>0</v>
       </c>
@@ -21933,7 +21935,7 @@
       <c r="I544" s="9"/>
       <c r="J544" s="9"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <v>0</v>
       </c>
@@ -21957,7 +21959,7 @@
       <c r="I545" s="9"/>
       <c r="J545" s="9"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <v>0</v>
       </c>
@@ -21981,7 +21983,7 @@
       <c r="I546" s="9"/>
       <c r="J546" s="9"/>
     </row>
-    <row r="547" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <v>1</v>
       </c>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\ML_Requirements\literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levilucio/git/ML_Requirements/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1543" windowWidth="30120" windowHeight="21403"/>
+    <workbookView xWindow="29400" yWindow="1540" windowWidth="30120" windowHeight="21400"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="2525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="2526">
   <si>
     <t>257?</t>
   </si>
@@ -7605,12 +7605,15 @@
   </si>
   <si>
     <t>http://link.springer.com/chapter/10.1007/978-3-642-37422-7_4</t>
+  </si>
+  <si>
+    <t>Levi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8018,22 +8021,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F228" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="F80" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.15234375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="7" max="7" width="58.15234375" customWidth="1"/>
-    <col min="8" max="8" width="53.3046875" customWidth="1"/>
-    <col min="9" max="9" width="48.15234375" customWidth="1"/>
-    <col min="10" max="10" width="52.3828125" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="5" max="5" width="80.5" customWidth="1"/>
+    <col min="7" max="7" width="58.1640625" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" customWidth="1"/>
+    <col min="9" max="9" width="48.1640625" customWidth="1"/>
+    <col min="10" max="10" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -8091,7 +8094,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -8175,7 +8178,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -8229,7 +8232,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -8285,7 +8288,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -8343,7 +8346,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +8372,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -8397,7 +8400,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -8451,7 +8454,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>0</v>
       </c>
@@ -8477,7 +8480,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -8559,7 +8562,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>0</v>
       </c>
@@ -8587,7 +8590,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>0</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -8643,7 +8646,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -8699,7 +8702,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -8751,7 +8754,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -8805,7 +8808,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -8861,7 +8864,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -8887,7 +8890,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -8911,7 +8914,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -8935,7 +8938,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -8989,7 +8992,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -9067,7 +9070,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -9093,7 +9096,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -9119,7 +9122,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -9147,7 +9150,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -9173,7 +9176,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -9201,7 +9204,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -9227,7 +9230,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -9255,7 +9258,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
@@ -9285,7 +9288,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
@@ -9313,7 +9316,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>8</v>
       </c>
@@ -9341,7 +9344,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>0</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
@@ -9399,7 +9402,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
@@ -9429,7 +9432,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
@@ -9459,7 +9462,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>8</v>
       </c>
@@ -9489,7 +9492,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
@@ -9519,7 +9522,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
@@ -9577,7 +9580,7 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
@@ -9605,7 +9608,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>8</v>
       </c>
@@ -9633,7 +9636,7 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>8</v>
       </c>
@@ -9661,7 +9664,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>8</v>
       </c>
@@ -9689,7 +9692,7 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>8</v>
       </c>
@@ -9717,7 +9720,7 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>8</v>
       </c>
@@ -9743,7 +9746,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
@@ -9771,7 +9774,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
@@ -9797,7 +9800,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -9819,7 +9822,7 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
@@ -9843,7 +9846,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
@@ -9871,7 +9874,7 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>296</v>
       </c>
@@ -9895,7 +9898,7 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>296</v>
       </c>
@@ -9923,7 +9926,7 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>296</v>
       </c>
@@ -9949,7 +9952,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>296</v>
       </c>
@@ -9977,7 +9980,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>296</v>
       </c>
@@ -10005,7 +10008,7 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>296</v>
       </c>
@@ -10033,7 +10036,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>296</v>
       </c>
@@ -10057,7 +10060,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>296</v>
       </c>
@@ -10083,7 +10086,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>296</v>
       </c>
@@ -10111,7 +10114,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>296</v>
       </c>
@@ -10133,7 +10136,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>296</v>
       </c>
@@ -10155,7 +10158,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>296</v>
       </c>
@@ -10181,7 +10184,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>296</v>
       </c>
@@ -10207,7 +10210,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>296</v>
       </c>
@@ -10233,7 +10236,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>296</v>
       </c>
@@ -10259,7 +10262,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>296</v>
       </c>
@@ -10285,7 +10288,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>296</v>
       </c>
@@ -10311,7 +10314,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>296</v>
       </c>
@@ -10335,7 +10338,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>296</v>
       </c>
@@ -10361,7 +10364,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>296</v>
       </c>
@@ -10385,7 +10388,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>296</v>
       </c>
@@ -10409,7 +10412,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>296</v>
       </c>
@@ -10433,7 +10436,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>296</v>
       </c>
@@ -10459,7 +10462,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>296</v>
       </c>
@@ -10485,7 +10488,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>296</v>
       </c>
@@ -10513,7 +10516,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>296</v>
       </c>
@@ -10541,7 +10544,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>296</v>
       </c>
@@ -10569,7 +10572,7 @@
       </c>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>296</v>
       </c>
@@ -10593,7 +10596,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>296</v>
       </c>
@@ -10617,7 +10620,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>296</v>
       </c>
@@ -10641,7 +10644,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>296</v>
       </c>
@@ -10663,7 +10666,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>296</v>
       </c>
@@ -10689,7 +10692,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>296</v>
       </c>
@@ -10715,7 +10718,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>296</v>
       </c>
@@ -10743,7 +10746,7 @@
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>296</v>
       </c>
@@ -10771,7 +10774,7 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>296</v>
       </c>
@@ -10799,7 +10802,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>296</v>
       </c>
@@ -10823,7 +10826,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>473</v>
       </c>
@@ -10849,7 +10852,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>479</v>
       </c>
@@ -10877,7 +10880,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -10905,7 +10908,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -10929,7 +10932,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -10955,7 +10958,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>1</v>
       </c>
@@ -10981,7 +10984,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -11007,7 +11010,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -11033,7 +11036,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -11057,7 +11060,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -11085,7 +11088,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -11109,7 +11112,7 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -11133,7 +11136,7 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>1</v>
       </c>
@@ -11161,7 +11164,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>1</v>
       </c>
@@ -11189,7 +11192,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -11217,7 +11220,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -11245,7 +11248,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -11271,7 +11274,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -11297,7 +11300,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>1</v>
       </c>
@@ -11321,7 +11324,7 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -11345,7 +11348,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>1</v>
       </c>
@@ -11373,7 +11376,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>1</v>
       </c>
@@ -11395,7 +11398,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -11421,7 +11424,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -11440,10 +11443,12 @@
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>1</v>
       </c>
@@ -11469,7 +11474,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -11490,10 +11495,12 @@
         <v>599</v>
       </c>
       <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>1</v>
       </c>
@@ -11517,7 +11524,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>1</v>
       </c>
@@ -11543,7 +11550,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -11567,7 +11574,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>1</v>
       </c>
@@ -11595,7 +11602,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -11619,7 +11626,7 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -11645,7 +11652,7 @@
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -11671,7 +11678,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -11697,7 +11704,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -11719,7 +11726,7 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -11745,7 +11752,7 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -11773,7 +11780,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -11799,7 +11806,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -11825,7 +11832,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -11847,7 +11854,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -11873,7 +11880,7 @@
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -11897,7 +11904,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11921,7 +11928,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -11945,7 +11952,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -11969,7 +11976,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -11993,7 +12000,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -12019,7 +12026,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -12045,7 +12052,7 @@
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -12069,7 +12076,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -12093,7 +12100,7 @@
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>1</v>
       </c>
@@ -12121,7 +12128,7 @@
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>1</v>
       </c>
@@ -12149,7 +12156,7 @@
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>1</v>
       </c>
@@ -12175,7 +12182,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -12199,7 +12206,7 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -12225,7 +12232,7 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -12251,7 +12258,7 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -12277,7 +12284,7 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -12303,7 +12310,7 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -12329,7 +12336,7 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -12351,7 +12358,7 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -12377,7 +12384,7 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -12403,7 +12410,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>1</v>
       </c>
@@ -12429,7 +12436,7 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -12455,7 +12462,7 @@
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -12481,7 +12488,7 @@
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -12507,7 +12514,7 @@
       </c>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -12533,7 +12540,7 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>1</v>
       </c>
@@ -12559,7 +12566,7 @@
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>1</v>
       </c>
@@ -12585,7 +12592,7 @@
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>1</v>
       </c>
@@ -12611,7 +12618,7 @@
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -12637,7 +12644,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>1</v>
       </c>
@@ -12661,7 +12668,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -12687,7 +12694,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>1</v>
       </c>
@@ -12713,7 +12720,7 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>1</v>
       </c>
@@ -12739,7 +12746,7 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>1</v>
       </c>
@@ -12765,7 +12772,7 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -12791,7 +12798,7 @@
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>1</v>
       </c>
@@ -12817,7 +12824,7 @@
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -12843,7 +12850,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -12867,7 +12874,7 @@
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -12889,7 +12896,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -12915,7 +12922,7 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -12941,7 +12948,7 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -12967,7 +12974,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -12993,7 +13000,7 @@
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -13019,7 +13026,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -13045,7 +13052,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -13071,7 +13078,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -13097,7 +13104,7 @@
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -13125,7 +13132,7 @@
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -13153,7 +13160,7 @@
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -13181,7 +13188,7 @@
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>1</v>
       </c>
@@ -13209,7 +13216,7 @@
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -13237,7 +13244,7 @@
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -13265,7 +13272,7 @@
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>1</v>
       </c>
@@ -13289,7 +13296,7 @@
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>1</v>
       </c>
@@ -13315,7 +13322,7 @@
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -13343,7 +13350,7 @@
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>1</v>
       </c>
@@ -13371,7 +13378,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>1</v>
       </c>
@@ -13397,7 +13404,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>1</v>
       </c>
@@ -13423,7 +13430,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>1</v>
       </c>
@@ -13445,7 +13452,7 @@
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>1</v>
       </c>
@@ -13473,7 +13480,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>1</v>
       </c>
@@ -13501,7 +13508,7 @@
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>1</v>
       </c>
@@ -13529,7 +13536,7 @@
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>1</v>
       </c>
@@ -13557,7 +13564,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>1</v>
       </c>
@@ -13583,7 +13590,7 @@
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>1</v>
       </c>
@@ -13609,7 +13616,7 @@
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>1</v>
       </c>
@@ -13633,7 +13640,7 @@
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>1</v>
       </c>
@@ -13655,7 +13662,7 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>1</v>
       </c>
@@ -13683,7 +13690,7 @@
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>1</v>
       </c>
@@ -13709,7 +13716,7 @@
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>1</v>
       </c>
@@ -13735,7 +13742,7 @@
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>1</v>
       </c>
@@ -13759,7 +13766,7 @@
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>1</v>
       </c>
@@ -13785,7 +13792,7 @@
       <c r="I219" s="9"/>
       <c r="J219" s="9"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>1</v>
       </c>
@@ -13811,7 +13818,7 @@
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
     </row>
-    <row r="221" spans="1:10" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>1</v>
       </c>
@@ -13837,7 +13844,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>1</v>
       </c>
@@ -13863,7 +13870,7 @@
       <c r="I222" s="9"/>
       <c r="J222" s="9"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>1</v>
       </c>
@@ -13891,7 +13898,7 @@
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>1</v>
       </c>
@@ -13913,7 +13920,7 @@
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>1</v>
       </c>
@@ -13941,7 +13948,7 @@
       <c r="I225" s="9"/>
       <c r="J225" s="9"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>1</v>
       </c>
@@ -13967,7 +13974,7 @@
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>1</v>
       </c>
@@ -13995,7 +14002,7 @@
       </c>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>1</v>
       </c>
@@ -14023,7 +14030,7 @@
       <c r="I228" s="9"/>
       <c r="J228" s="9"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>1</v>
       </c>
@@ -14049,7 +14056,7 @@
       <c r="I229" s="9"/>
       <c r="J229" s="9"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>1</v>
       </c>
@@ -14077,7 +14084,7 @@
       <c r="I230" s="9"/>
       <c r="J230" s="9"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>1</v>
       </c>
@@ -14105,7 +14112,7 @@
       <c r="I231" s="9"/>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>1</v>
       </c>
@@ -14129,7 +14136,7 @@
       <c r="I232" s="9"/>
       <c r="J232" s="9"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>1</v>
       </c>
@@ -14155,7 +14162,7 @@
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>1</v>
       </c>
@@ -14181,7 +14188,7 @@
       <c r="I234" s="9"/>
       <c r="J234" s="9"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>1</v>
       </c>
@@ -14205,7 +14212,7 @@
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>1</v>
       </c>
@@ -14231,7 +14238,7 @@
       <c r="I236" s="9"/>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>1</v>
       </c>
@@ -14255,7 +14262,7 @@
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>1</v>
       </c>
@@ -14281,7 +14288,7 @@
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>1</v>
       </c>
@@ -14307,7 +14314,7 @@
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>1</v>
       </c>
@@ -14333,7 +14340,7 @@
       <c r="I240" s="9"/>
       <c r="J240" s="9"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>1</v>
       </c>
@@ -14361,7 +14368,7 @@
       </c>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>1</v>
       </c>
@@ -14387,7 +14394,7 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>1</v>
       </c>
@@ -14411,7 +14418,7 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>1</v>
       </c>
@@ -14435,7 +14442,7 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>1</v>
       </c>
@@ -14459,7 +14466,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>1</v>
       </c>
@@ -14483,7 +14490,7 @@
       <c r="I246" s="9"/>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>1</v>
       </c>
@@ -14509,7 +14516,7 @@
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>1</v>
       </c>
@@ -14535,7 +14542,7 @@
       <c r="I248" s="9"/>
       <c r="J248" s="9"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>1</v>
       </c>
@@ -14563,7 +14570,7 @@
       <c r="I249" s="9"/>
       <c r="J249" s="9"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>1</v>
       </c>
@@ -14591,7 +14598,7 @@
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>1</v>
       </c>
@@ -14619,7 +14626,7 @@
       <c r="I251" s="9"/>
       <c r="J251" s="9"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>1</v>
       </c>
@@ -14647,7 +14654,7 @@
       <c r="I252" s="9"/>
       <c r="J252" s="9"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>1</v>
       </c>
@@ -14675,7 +14682,7 @@
       <c r="I253" s="9"/>
       <c r="J253" s="9"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>1</v>
       </c>
@@ -14699,7 +14706,7 @@
       <c r="I254" s="9"/>
       <c r="J254" s="9"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>1</v>
       </c>
@@ -14725,7 +14732,7 @@
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>1</v>
       </c>
@@ -14749,7 +14756,7 @@
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>1</v>
       </c>
@@ -14773,7 +14780,7 @@
       <c r="I257" s="9"/>
       <c r="J257" s="9"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>0</v>
       </c>
@@ -14797,7 +14804,7 @@
       <c r="I258" s="9"/>
       <c r="J258" s="9"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>0</v>
       </c>
@@ -14821,7 +14828,7 @@
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>0</v>
       </c>
@@ -14845,7 +14852,7 @@
       <c r="I260" s="9"/>
       <c r="J260" s="9"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>0</v>
       </c>
@@ -14871,7 +14878,7 @@
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>0</v>
       </c>
@@ -14895,7 +14902,7 @@
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>0</v>
       </c>
@@ -14921,7 +14928,7 @@
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>0</v>
       </c>
@@ -14947,7 +14954,7 @@
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>0</v>
       </c>
@@ -14971,7 +14978,7 @@
       <c r="I265" s="9"/>
       <c r="J265" s="9"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>0</v>
       </c>
@@ -14997,7 +15004,7 @@
       <c r="I266" s="9"/>
       <c r="J266" s="9"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>0</v>
       </c>
@@ -15023,7 +15030,7 @@
       <c r="I267" s="9"/>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>0</v>
       </c>
@@ -15047,7 +15054,7 @@
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>0</v>
       </c>
@@ -15071,7 +15078,7 @@
       <c r="I269" s="9"/>
       <c r="J269" s="9"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>0</v>
       </c>
@@ -15097,7 +15104,7 @@
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>0</v>
       </c>
@@ -15121,7 +15128,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>0</v>
       </c>
@@ -15145,7 +15152,7 @@
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>0</v>
       </c>
@@ -15169,7 +15176,7 @@
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>0</v>
       </c>
@@ -15193,7 +15200,7 @@
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>0</v>
       </c>
@@ -15217,7 +15224,7 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>0</v>
       </c>
@@ -15241,7 +15248,7 @@
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>0</v>
       </c>
@@ -15265,7 +15272,7 @@
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>0</v>
       </c>
@@ -15289,7 +15296,7 @@
       <c r="I278" s="9"/>
       <c r="J278" s="9"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>0</v>
       </c>
@@ -15315,7 +15322,7 @@
       <c r="I279" s="9"/>
       <c r="J279" s="9"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>0</v>
       </c>
@@ -15339,7 +15346,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>0</v>
       </c>
@@ -15363,7 +15370,7 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>0</v>
       </c>
@@ -15389,7 +15396,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>0</v>
       </c>
@@ -15415,7 +15422,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>0</v>
       </c>
@@ -15439,7 +15446,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>0</v>
       </c>
@@ -15465,7 +15472,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>0</v>
       </c>
@@ -15491,7 +15498,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>0</v>
       </c>
@@ -15517,7 +15524,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>0</v>
       </c>
@@ -15541,7 +15548,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>0</v>
       </c>
@@ -15565,7 +15572,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>0</v>
       </c>
@@ -15591,7 +15598,7 @@
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>0</v>
       </c>
@@ -15617,7 +15624,7 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>0</v>
       </c>
@@ -15641,7 +15648,7 @@
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>0</v>
       </c>
@@ -15667,7 +15674,7 @@
       <c r="I293" s="9"/>
       <c r="J293" s="9"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>0</v>
       </c>
@@ -15693,7 +15700,7 @@
       <c r="I294" s="9"/>
       <c r="J294" s="9"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>0</v>
       </c>
@@ -15719,7 +15726,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>0</v>
       </c>
@@ -15743,7 +15750,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>0</v>
       </c>
@@ -15767,7 +15774,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>0</v>
       </c>
@@ -15793,7 +15800,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>0</v>
       </c>
@@ -15817,7 +15824,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>0</v>
       </c>
@@ -15839,7 +15846,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>0</v>
       </c>
@@ -15863,7 +15870,7 @@
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>0</v>
       </c>
@@ -15887,7 +15894,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>0</v>
       </c>
@@ -15913,7 +15920,7 @@
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>0</v>
       </c>
@@ -15937,7 +15944,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>0</v>
       </c>
@@ -15961,7 +15968,7 @@
       <c r="I305" s="9"/>
       <c r="J305" s="9"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>0</v>
       </c>
@@ -15985,7 +15992,7 @@
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>0</v>
       </c>
@@ -16009,7 +16016,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>0</v>
       </c>
@@ -16033,7 +16040,7 @@
       <c r="I308" s="9"/>
       <c r="J308" s="9"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>0</v>
       </c>
@@ -16059,7 +16066,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="9"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>0</v>
       </c>
@@ -16083,7 +16090,7 @@
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>0</v>
       </c>
@@ -16107,7 +16114,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>0</v>
       </c>
@@ -16131,7 +16138,7 @@
       <c r="I312" s="9"/>
       <c r="J312" s="9"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>0</v>
       </c>
@@ -16157,7 +16164,7 @@
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>0</v>
       </c>
@@ -16181,7 +16188,7 @@
       <c r="I314" s="9"/>
       <c r="J314" s="9"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>0</v>
       </c>
@@ -16207,7 +16214,7 @@
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>0</v>
       </c>
@@ -16231,7 +16238,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>0</v>
       </c>
@@ -16255,7 +16262,7 @@
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>0</v>
       </c>
@@ -16279,7 +16286,7 @@
       <c r="I318" s="9"/>
       <c r="J318" s="9"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>0</v>
       </c>
@@ -16305,7 +16312,7 @@
       <c r="I319" s="9"/>
       <c r="J319" s="9"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>0</v>
       </c>
@@ -16329,7 +16336,7 @@
       <c r="I320" s="9"/>
       <c r="J320" s="9"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>0</v>
       </c>
@@ -16353,7 +16360,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>0</v>
       </c>
@@ -16377,7 +16384,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>0</v>
       </c>
@@ -16403,7 +16410,7 @@
       <c r="I323" s="9"/>
       <c r="J323" s="9"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>0</v>
       </c>
@@ -16427,7 +16434,7 @@
       <c r="I324" s="9"/>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>0</v>
       </c>
@@ -16453,7 +16460,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>0</v>
       </c>
@@ -16479,7 +16486,7 @@
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>0</v>
       </c>
@@ -16505,7 +16512,7 @@
       <c r="I327" s="9"/>
       <c r="J327" s="9"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>0</v>
       </c>
@@ -16531,7 +16538,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>0</v>
       </c>
@@ -16557,7 +16564,7 @@
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>0</v>
       </c>
@@ -16583,7 +16590,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>0</v>
       </c>
@@ -16607,7 +16614,7 @@
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>0</v>
       </c>
@@ -16633,7 +16640,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="9"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>0</v>
       </c>
@@ -16657,7 +16664,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>0</v>
       </c>
@@ -16681,7 +16688,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>0</v>
       </c>
@@ -16705,7 +16712,7 @@
       <c r="I335" s="9"/>
       <c r="J335" s="9"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>0</v>
       </c>
@@ -16729,7 +16736,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="9"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>0</v>
       </c>
@@ -16755,7 +16762,7 @@
       <c r="I337" s="9"/>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>0</v>
       </c>
@@ -16781,7 +16788,7 @@
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>0</v>
       </c>
@@ -16807,7 +16814,7 @@
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>0</v>
       </c>
@@ -16833,7 +16840,7 @@
       <c r="I340" s="9"/>
       <c r="J340" s="9"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>0</v>
       </c>
@@ -16859,7 +16866,7 @@
       <c r="I341" s="9"/>
       <c r="J341" s="9"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>0</v>
       </c>
@@ -16885,7 +16892,7 @@
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>0</v>
       </c>
@@ -16911,7 +16918,7 @@
       <c r="I343" s="9"/>
       <c r="J343" s="9"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>0</v>
       </c>
@@ -16937,7 +16944,7 @@
       <c r="I344" s="9"/>
       <c r="J344" s="9"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>0</v>
       </c>
@@ -16963,7 +16970,7 @@
       <c r="I345" s="9"/>
       <c r="J345" s="9"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>0</v>
       </c>
@@ -16987,7 +16994,7 @@
       <c r="I346" s="9"/>
       <c r="J346" s="9"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>0</v>
       </c>
@@ -17013,7 +17020,7 @@
       <c r="I347" s="9"/>
       <c r="J347" s="9"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>0</v>
       </c>
@@ -17039,7 +17046,7 @@
       <c r="I348" s="9"/>
       <c r="J348" s="9"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>0</v>
       </c>
@@ -17065,7 +17072,7 @@
       <c r="I349" s="9"/>
       <c r="J349" s="9"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>0</v>
       </c>
@@ -17089,7 +17096,7 @@
       <c r="I350" s="9"/>
       <c r="J350" s="9"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>0</v>
       </c>
@@ -17115,7 +17122,7 @@
       <c r="I351" s="9"/>
       <c r="J351" s="9"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>0</v>
       </c>
@@ -17141,7 +17148,7 @@
       <c r="I352" s="9"/>
       <c r="J352" s="9"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>0</v>
       </c>
@@ -17165,7 +17172,7 @@
       <c r="I353" s="9"/>
       <c r="J353" s="9"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>0</v>
       </c>
@@ -17191,7 +17198,7 @@
       <c r="I354" s="9"/>
       <c r="J354" s="9"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>0</v>
       </c>
@@ -17217,7 +17224,7 @@
       <c r="I355" s="9"/>
       <c r="J355" s="9"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>0</v>
       </c>
@@ -17241,7 +17248,7 @@
       <c r="I356" s="9"/>
       <c r="J356" s="9"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>0</v>
       </c>
@@ -17263,7 +17270,7 @@
       <c r="I357" s="9"/>
       <c r="J357" s="9"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>0</v>
       </c>
@@ -17289,7 +17296,7 @@
       <c r="I358" s="9"/>
       <c r="J358" s="9"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>0</v>
       </c>
@@ -17315,7 +17322,7 @@
       <c r="I359" s="9"/>
       <c r="J359" s="9"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>0</v>
       </c>
@@ -17341,7 +17348,7 @@
       <c r="I360" s="9"/>
       <c r="J360" s="9"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>0</v>
       </c>
@@ -17367,7 +17374,7 @@
       <c r="I361" s="9"/>
       <c r="J361" s="9"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>0</v>
       </c>
@@ -17393,7 +17400,7 @@
       <c r="I362" s="9"/>
       <c r="J362" s="9"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>0</v>
       </c>
@@ -17419,7 +17426,7 @@
       <c r="I363" s="9"/>
       <c r="J363" s="9"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>0</v>
       </c>
@@ -17445,7 +17452,7 @@
       <c r="I364" s="9"/>
       <c r="J364" s="9"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>0</v>
       </c>
@@ -17471,7 +17478,7 @@
       <c r="I365" s="9"/>
       <c r="J365" s="9"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>0</v>
       </c>
@@ -17497,7 +17504,7 @@
       <c r="I366" s="9"/>
       <c r="J366" s="9"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>0</v>
       </c>
@@ -17523,7 +17530,7 @@
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>0</v>
       </c>
@@ -17549,7 +17556,7 @@
       <c r="I368" s="9"/>
       <c r="J368" s="9"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>0</v>
       </c>
@@ -17575,7 +17582,7 @@
       <c r="I369" s="9"/>
       <c r="J369" s="9"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>0</v>
       </c>
@@ -17601,7 +17608,7 @@
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>0</v>
       </c>
@@ -17625,7 +17632,7 @@
       <c r="I371" s="9"/>
       <c r="J371" s="9"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>0</v>
       </c>
@@ -17647,7 +17654,7 @@
       <c r="I372" s="9"/>
       <c r="J372" s="9"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>0</v>
       </c>
@@ -17673,7 +17680,7 @@
       <c r="I373" s="9"/>
       <c r="J373" s="9"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>0</v>
       </c>
@@ -17697,7 +17704,7 @@
       <c r="I374" s="9"/>
       <c r="J374" s="9"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>0</v>
       </c>
@@ -17721,7 +17728,7 @@
       <c r="I375" s="9"/>
       <c r="J375" s="9"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>0</v>
       </c>
@@ -17745,7 +17752,7 @@
       <c r="I376" s="9"/>
       <c r="J376" s="9"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>0</v>
       </c>
@@ -17769,7 +17776,7 @@
       <c r="I377" s="9"/>
       <c r="J377" s="9"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>0</v>
       </c>
@@ -17795,7 +17802,7 @@
       <c r="I378" s="9"/>
       <c r="J378" s="9"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>0</v>
       </c>
@@ -17819,7 +17826,7 @@
       <c r="I379" s="9"/>
       <c r="J379" s="9"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>0</v>
       </c>
@@ -17843,7 +17850,7 @@
       <c r="I380" s="9"/>
       <c r="J380" s="9"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>0</v>
       </c>
@@ -17869,7 +17876,7 @@
       <c r="I381" s="9"/>
       <c r="J381" s="9"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>0</v>
       </c>
@@ -17895,7 +17902,7 @@
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>0</v>
       </c>
@@ -17921,7 +17928,7 @@
       <c r="I383" s="9"/>
       <c r="J383" s="9"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>0</v>
       </c>
@@ -17947,7 +17954,7 @@
       <c r="I384" s="9"/>
       <c r="J384" s="9"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>0</v>
       </c>
@@ -17973,7 +17980,7 @@
       <c r="I385" s="9"/>
       <c r="J385" s="9"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>0</v>
       </c>
@@ -17999,7 +18006,7 @@
       <c r="I386" s="9"/>
       <c r="J386" s="9"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>0</v>
       </c>
@@ -18023,7 +18030,7 @@
       <c r="I387" s="9"/>
       <c r="J387" s="9"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="7">
         <v>0</v>
       </c>
@@ -18049,7 +18056,7 @@
       <c r="I388" s="9"/>
       <c r="J388" s="9"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>0</v>
       </c>
@@ -18075,7 +18082,7 @@
       <c r="I389" s="9"/>
       <c r="J389" s="9"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>0</v>
       </c>
@@ -18099,7 +18106,7 @@
       <c r="I390" s="9"/>
       <c r="J390" s="9"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>0</v>
       </c>
@@ -18125,7 +18132,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="9"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>0</v>
       </c>
@@ -18149,7 +18156,7 @@
       <c r="I392" s="9"/>
       <c r="J392" s="9"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>0</v>
       </c>
@@ -18173,7 +18180,7 @@
       <c r="I393" s="9"/>
       <c r="J393" s="9"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>0</v>
       </c>
@@ -18197,7 +18204,7 @@
       <c r="I394" s="9"/>
       <c r="J394" s="9"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>0</v>
       </c>
@@ -18223,7 +18230,7 @@
       <c r="I395" s="9"/>
       <c r="J395" s="9"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>0</v>
       </c>
@@ -18247,7 +18254,7 @@
       <c r="I396" s="9"/>
       <c r="J396" s="9"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>0</v>
       </c>
@@ -18271,7 +18278,7 @@
       <c r="I397" s="9"/>
       <c r="J397" s="9"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>0</v>
       </c>
@@ -18295,7 +18302,7 @@
       <c r="I398" s="9"/>
       <c r="J398" s="9"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>0</v>
       </c>
@@ -18317,7 +18324,7 @@
       <c r="I399" s="9"/>
       <c r="J399" s="9"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>0</v>
       </c>
@@ -18341,7 +18348,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="9"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>0</v>
       </c>
@@ -18367,7 +18374,7 @@
       <c r="I401" s="9"/>
       <c r="J401" s="9"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>0</v>
       </c>
@@ -18393,7 +18400,7 @@
       <c r="I402" s="9"/>
       <c r="J402" s="9"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>0</v>
       </c>
@@ -18419,7 +18426,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>0</v>
       </c>
@@ -18443,7 +18450,7 @@
       <c r="I404" s="9"/>
       <c r="J404" s="9"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>0</v>
       </c>
@@ -18467,7 +18474,7 @@
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>0</v>
       </c>
@@ -18493,7 +18500,7 @@
       <c r="I406" s="9"/>
       <c r="J406" s="9"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>0</v>
       </c>
@@ -18517,7 +18524,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>0</v>
       </c>
@@ -18541,7 +18548,7 @@
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>0</v>
       </c>
@@ -18565,7 +18572,7 @@
       <c r="I409" s="9"/>
       <c r="J409" s="9"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>0</v>
       </c>
@@ -18591,7 +18598,7 @@
       <c r="I410" s="9"/>
       <c r="J410" s="9"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>0</v>
       </c>
@@ -18617,7 +18624,7 @@
       <c r="I411" s="9"/>
       <c r="J411" s="9"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>0</v>
       </c>
@@ -18643,7 +18650,7 @@
       <c r="I412" s="9"/>
       <c r="J412" s="9"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>0</v>
       </c>
@@ -18667,7 +18674,7 @@
       <c r="I413" s="9"/>
       <c r="J413" s="9"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>0</v>
       </c>
@@ -18691,7 +18698,7 @@
       <c r="I414" s="9"/>
       <c r="J414" s="9"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>0</v>
       </c>
@@ -18717,7 +18724,7 @@
       <c r="I415" s="9"/>
       <c r="J415" s="9"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>0</v>
       </c>
@@ -18743,7 +18750,7 @@
       <c r="I416" s="9"/>
       <c r="J416" s="9"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>0</v>
       </c>
@@ -18767,7 +18774,7 @@
       <c r="I417" s="9"/>
       <c r="J417" s="9"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>0</v>
       </c>
@@ -18793,7 +18800,7 @@
       <c r="I418" s="9"/>
       <c r="J418" s="9"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="7">
         <v>0</v>
       </c>
@@ -18819,7 +18826,7 @@
       <c r="I419" s="9"/>
       <c r="J419" s="9"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>0</v>
       </c>
@@ -18841,7 +18848,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="9"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>0</v>
       </c>
@@ -18863,7 +18870,7 @@
       <c r="I421" s="9"/>
       <c r="J421" s="9"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>0</v>
       </c>
@@ -18889,7 +18896,7 @@
       <c r="I422" s="9"/>
       <c r="J422" s="9"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>0</v>
       </c>
@@ -18915,7 +18922,7 @@
       <c r="I423" s="9"/>
       <c r="J423" s="9"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>0</v>
       </c>
@@ -18941,7 +18948,7 @@
       <c r="I424" s="9"/>
       <c r="J424" s="9"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>0</v>
       </c>
@@ -18967,7 +18974,7 @@
       <c r="I425" s="9"/>
       <c r="J425" s="9"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>0</v>
       </c>
@@ -18991,7 +18998,7 @@
       <c r="I426" s="9"/>
       <c r="J426" s="9"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>0</v>
       </c>
@@ -19017,7 +19024,7 @@
       <c r="I427" s="9"/>
       <c r="J427" s="9"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>0</v>
       </c>
@@ -19043,7 +19050,7 @@
       <c r="I428" s="9"/>
       <c r="J428" s="9"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>0</v>
       </c>
@@ -19069,7 +19076,7 @@
       <c r="I429" s="9"/>
       <c r="J429" s="9"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>0</v>
       </c>
@@ -19095,7 +19102,7 @@
       <c r="I430" s="9"/>
       <c r="J430" s="9"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>0</v>
       </c>
@@ -19121,7 +19128,7 @@
       <c r="I431" s="9"/>
       <c r="J431" s="9"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>0</v>
       </c>
@@ -19147,7 +19154,7 @@
       <c r="I432" s="9"/>
       <c r="J432" s="9"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>0</v>
       </c>
@@ -19173,7 +19180,7 @@
       <c r="I433" s="9"/>
       <c r="J433" s="9"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>0</v>
       </c>
@@ -19197,7 +19204,7 @@
       <c r="I434" s="9"/>
       <c r="J434" s="9"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>0</v>
       </c>
@@ -19221,7 +19228,7 @@
       <c r="I435" s="9"/>
       <c r="J435" s="9"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>0</v>
       </c>
@@ -19247,7 +19254,7 @@
       <c r="I436" s="9"/>
       <c r="J436" s="9"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>0</v>
       </c>
@@ -19273,7 +19280,7 @@
       <c r="I437" s="9"/>
       <c r="J437" s="9"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>0</v>
       </c>
@@ -19297,7 +19304,7 @@
       <c r="I438" s="9"/>
       <c r="J438" s="9"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>0</v>
       </c>
@@ -19323,7 +19330,7 @@
       <c r="I439" s="9"/>
       <c r="J439" s="9"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>0</v>
       </c>
@@ -19349,7 +19356,7 @@
       <c r="I440" s="9"/>
       <c r="J440" s="9"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>0</v>
       </c>
@@ -19373,7 +19380,7 @@
       <c r="I441" s="9"/>
       <c r="J441" s="9"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>0</v>
       </c>
@@ -19397,7 +19404,7 @@
       <c r="I442" s="9"/>
       <c r="J442" s="9"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>0</v>
       </c>
@@ -19421,7 +19428,7 @@
       <c r="I443" s="9"/>
       <c r="J443" s="9"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>0</v>
       </c>
@@ -19445,7 +19452,7 @@
       <c r="I444" s="9"/>
       <c r="J444" s="9"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>0</v>
       </c>
@@ -19469,7 +19476,7 @@
       <c r="I445" s="9"/>
       <c r="J445" s="9"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>0</v>
       </c>
@@ -19495,7 +19502,7 @@
       <c r="I446" s="9"/>
       <c r="J446" s="9"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>0</v>
       </c>
@@ -19519,7 +19526,7 @@
       <c r="I447" s="9"/>
       <c r="J447" s="9"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>0</v>
       </c>
@@ -19545,7 +19552,7 @@
       <c r="I448" s="9"/>
       <c r="J448" s="9"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>0</v>
       </c>
@@ -19571,7 +19578,7 @@
       <c r="I449" s="9"/>
       <c r="J449" s="9"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>0</v>
       </c>
@@ -19597,7 +19604,7 @@
       <c r="I450" s="9"/>
       <c r="J450" s="9"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>0</v>
       </c>
@@ -19623,7 +19630,7 @@
       <c r="I451" s="9"/>
       <c r="J451" s="9"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>0</v>
       </c>
@@ -19649,7 +19656,7 @@
       <c r="I452" s="9"/>
       <c r="J452" s="9"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>0</v>
       </c>
@@ -19675,7 +19682,7 @@
       <c r="I453" s="9"/>
       <c r="J453" s="9"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>0</v>
       </c>
@@ -19701,7 +19708,7 @@
       <c r="I454" s="9"/>
       <c r="J454" s="9"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>0</v>
       </c>
@@ -19725,7 +19732,7 @@
       <c r="I455" s="9"/>
       <c r="J455" s="9"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>0</v>
       </c>
@@ -19749,7 +19756,7 @@
       <c r="I456" s="9"/>
       <c r="J456" s="9"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>0</v>
       </c>
@@ -19775,7 +19782,7 @@
       <c r="I457" s="9"/>
       <c r="J457" s="9"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>0</v>
       </c>
@@ -19797,7 +19804,7 @@
       <c r="I458" s="9"/>
       <c r="J458" s="9"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>0</v>
       </c>
@@ -19821,7 +19828,7 @@
       <c r="I459" s="9"/>
       <c r="J459" s="9"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>0</v>
       </c>
@@ -19843,7 +19850,7 @@
       <c r="I460" s="9"/>
       <c r="J460" s="9"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>0</v>
       </c>
@@ -19869,7 +19876,7 @@
       <c r="I461" s="9"/>
       <c r="J461" s="9"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>0</v>
       </c>
@@ -19893,7 +19900,7 @@
       <c r="I462" s="9"/>
       <c r="J462" s="9"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>0</v>
       </c>
@@ -19917,7 +19924,7 @@
       <c r="I463" s="9"/>
       <c r="J463" s="9"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>0</v>
       </c>
@@ -19941,7 +19948,7 @@
       <c r="I464" s="9"/>
       <c r="J464" s="9"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>0</v>
       </c>
@@ -19965,7 +19972,7 @@
       <c r="I465" s="9"/>
       <c r="J465" s="9"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>0</v>
       </c>
@@ -19989,7 +19996,7 @@
       <c r="I466" s="9"/>
       <c r="J466" s="9"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>0</v>
       </c>
@@ -20013,7 +20020,7 @@
       <c r="I467" s="9"/>
       <c r="J467" s="9"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>0</v>
       </c>
@@ -20037,7 +20044,7 @@
       <c r="I468" s="9"/>
       <c r="J468" s="9"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>0</v>
       </c>
@@ -20061,7 +20068,7 @@
       <c r="I469" s="9"/>
       <c r="J469" s="9"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>0</v>
       </c>
@@ -20087,7 +20094,7 @@
       <c r="I470" s="9"/>
       <c r="J470" s="9"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>0</v>
       </c>
@@ -20113,7 +20120,7 @@
       <c r="I471" s="9"/>
       <c r="J471" s="9"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>0</v>
       </c>
@@ -20139,7 +20146,7 @@
       <c r="I472" s="9"/>
       <c r="J472" s="9"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>0</v>
       </c>
@@ -20167,7 +20174,7 @@
       <c r="I473" s="9"/>
       <c r="J473" s="9"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>0</v>
       </c>
@@ -20193,7 +20200,7 @@
       <c r="I474" s="9"/>
       <c r="J474" s="9"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>0</v>
       </c>
@@ -20219,7 +20226,7 @@
       <c r="I475" s="9"/>
       <c r="J475" s="9"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>0</v>
       </c>
@@ -20245,7 +20252,7 @@
       <c r="I476" s="9"/>
       <c r="J476" s="9"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>0</v>
       </c>
@@ -20271,7 +20278,7 @@
       <c r="I477" s="9"/>
       <c r="J477" s="9"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>0</v>
       </c>
@@ -20297,7 +20304,7 @@
       <c r="I478" s="9"/>
       <c r="J478" s="9"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>0</v>
       </c>
@@ -20323,7 +20330,7 @@
       <c r="I479" s="9"/>
       <c r="J479" s="9"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>0</v>
       </c>
@@ -20349,7 +20356,7 @@
       <c r="I480" s="9"/>
       <c r="J480" s="9"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>0</v>
       </c>
@@ -20373,7 +20380,7 @@
       <c r="I481" s="9"/>
       <c r="J481" s="9"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>0</v>
       </c>
@@ -20395,7 +20402,7 @@
       <c r="I482" s="9"/>
       <c r="J482" s="9"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>0</v>
       </c>
@@ -20421,7 +20428,7 @@
       <c r="I483" s="9"/>
       <c r="J483" s="9"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>0</v>
       </c>
@@ -20445,7 +20452,7 @@
       <c r="I484" s="9"/>
       <c r="J484" s="9"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>0</v>
       </c>
@@ -20471,7 +20478,7 @@
       <c r="I485" s="9"/>
       <c r="J485" s="9"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>0</v>
       </c>
@@ -20495,7 +20502,7 @@
       <c r="I486" s="9"/>
       <c r="J486" s="9"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>0</v>
       </c>
@@ -20519,7 +20526,7 @@
       <c r="I487" s="9"/>
       <c r="J487" s="9"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>0</v>
       </c>
@@ -20543,7 +20550,7 @@
       <c r="I488" s="9"/>
       <c r="J488" s="9"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>0</v>
       </c>
@@ -20567,7 +20574,7 @@
       <c r="I489" s="9"/>
       <c r="J489" s="9"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>0</v>
       </c>
@@ -20591,7 +20598,7 @@
       <c r="I490" s="9"/>
       <c r="J490" s="9"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>0</v>
       </c>
@@ -20613,7 +20620,7 @@
       <c r="I491" s="9"/>
       <c r="J491" s="9"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>0</v>
       </c>
@@ -20639,7 +20646,7 @@
       <c r="I492" s="9"/>
       <c r="J492" s="9"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>0</v>
       </c>
@@ -20663,7 +20670,7 @@
       <c r="I493" s="9"/>
       <c r="J493" s="9"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>0</v>
       </c>
@@ -20689,7 +20696,7 @@
       <c r="I494" s="9"/>
       <c r="J494" s="9"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>0</v>
       </c>
@@ -20715,7 +20722,7 @@
       <c r="I495" s="9"/>
       <c r="J495" s="9"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>0</v>
       </c>
@@ -20741,7 +20748,7 @@
       <c r="I496" s="9"/>
       <c r="J496" s="9"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>0</v>
       </c>
@@ -20767,7 +20774,7 @@
       <c r="I497" s="9"/>
       <c r="J497" s="9"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>0</v>
       </c>
@@ -20793,7 +20800,7 @@
       <c r="I498" s="9"/>
       <c r="J498" s="9"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>0</v>
       </c>
@@ -20819,7 +20826,7 @@
       <c r="I499" s="9"/>
       <c r="J499" s="9"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>0</v>
       </c>
@@ -20843,7 +20850,7 @@
       <c r="I500" s="9"/>
       <c r="J500" s="9"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>0</v>
       </c>
@@ -20869,7 +20876,7 @@
       <c r="I501" s="9"/>
       <c r="J501" s="9"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>0</v>
       </c>
@@ -20895,7 +20902,7 @@
       <c r="I502" s="9"/>
       <c r="J502" s="9"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>0</v>
       </c>
@@ -20919,7 +20926,7 @@
       <c r="I503" s="9"/>
       <c r="J503" s="9"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>0</v>
       </c>
@@ -20945,7 +20952,7 @@
       <c r="I504" s="9"/>
       <c r="J504" s="9"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>0</v>
       </c>
@@ -20971,7 +20978,7 @@
       <c r="I505" s="9"/>
       <c r="J505" s="9"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>0</v>
       </c>
@@ -20999,7 +21006,7 @@
       <c r="I506" s="9"/>
       <c r="J506" s="9"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>0</v>
       </c>
@@ -21023,7 +21030,7 @@
       <c r="I507" s="9"/>
       <c r="J507" s="9"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>0</v>
       </c>
@@ -21045,7 +21052,7 @@
       <c r="I508" s="9"/>
       <c r="J508" s="9"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>0</v>
       </c>
@@ -21071,7 +21078,7 @@
       <c r="I509" s="9"/>
       <c r="J509" s="9"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>0</v>
       </c>
@@ -21095,7 +21102,7 @@
       <c r="I510" s="9"/>
       <c r="J510" s="9"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>0</v>
       </c>
@@ -21119,7 +21126,7 @@
       <c r="I511" s="9"/>
       <c r="J511" s="9"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>0</v>
       </c>
@@ -21143,7 +21150,7 @@
       <c r="I512" s="9"/>
       <c r="J512" s="9"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>0</v>
       </c>
@@ -21167,7 +21174,7 @@
       <c r="I513" s="9"/>
       <c r="J513" s="9"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>0</v>
       </c>
@@ -21191,7 +21198,7 @@
       <c r="I514" s="9"/>
       <c r="J514" s="9"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>0</v>
       </c>
@@ -21217,7 +21224,7 @@
       <c r="I515" s="9"/>
       <c r="J515" s="9"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>0</v>
       </c>
@@ -21241,7 +21248,7 @@
       <c r="I516" s="9"/>
       <c r="J516" s="9"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>0</v>
       </c>
@@ -21265,7 +21272,7 @@
       <c r="I517" s="9"/>
       <c r="J517" s="9"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>0</v>
       </c>
@@ -21289,7 +21296,7 @@
       <c r="I518" s="9"/>
       <c r="J518" s="9"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>0</v>
       </c>
@@ -21313,7 +21320,7 @@
       <c r="I519" s="9"/>
       <c r="J519" s="9"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>0</v>
       </c>
@@ -21337,7 +21344,7 @@
       <c r="I520" s="9"/>
       <c r="J520" s="9"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>0</v>
       </c>
@@ -21361,7 +21368,7 @@
       <c r="I521" s="9"/>
       <c r="J521" s="9"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>0</v>
       </c>
@@ -21385,7 +21392,7 @@
       <c r="I522" s="9"/>
       <c r="J522" s="9"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>0</v>
       </c>
@@ -21411,7 +21418,7 @@
       <c r="I523" s="9"/>
       <c r="J523" s="9"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>0</v>
       </c>
@@ -21435,7 +21442,7 @@
       <c r="I524" s="9"/>
       <c r="J524" s="9"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>0</v>
       </c>
@@ -21461,7 +21468,7 @@
       <c r="I525" s="9"/>
       <c r="J525" s="9"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>0</v>
       </c>
@@ -21487,7 +21494,7 @@
       <c r="I526" s="9"/>
       <c r="J526" s="9"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>0</v>
       </c>
@@ -21513,7 +21520,7 @@
       <c r="I527" s="9"/>
       <c r="J527" s="9"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>0</v>
       </c>
@@ -21539,7 +21546,7 @@
       <c r="I528" s="9"/>
       <c r="J528" s="9"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>0</v>
       </c>
@@ -21565,7 +21572,7 @@
       <c r="I529" s="9"/>
       <c r="J529" s="9"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>0</v>
       </c>
@@ -21589,7 +21596,7 @@
       <c r="I530" s="9"/>
       <c r="J530" s="9"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>0</v>
       </c>
@@ -21617,7 +21624,7 @@
       <c r="I531" s="9"/>
       <c r="J531" s="9"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>0</v>
       </c>
@@ -21641,7 +21648,7 @@
       <c r="I532" s="9"/>
       <c r="J532" s="9"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>0</v>
       </c>
@@ -21665,7 +21672,7 @@
       <c r="I533" s="9"/>
       <c r="J533" s="9"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>0</v>
       </c>
@@ -21689,7 +21696,7 @@
       <c r="I534" s="9"/>
       <c r="J534" s="9"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>0</v>
       </c>
@@ -21713,7 +21720,7 @@
       <c r="I535" s="9"/>
       <c r="J535" s="9"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>0</v>
       </c>
@@ -21737,7 +21744,7 @@
       <c r="I536" s="9"/>
       <c r="J536" s="9"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>0</v>
       </c>
@@ -21761,7 +21768,7 @@
       <c r="I537" s="9"/>
       <c r="J537" s="9"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>0</v>
       </c>
@@ -21785,7 +21792,7 @@
       <c r="I538" s="9"/>
       <c r="J538" s="9"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>0</v>
       </c>
@@ -21809,7 +21816,7 @@
       <c r="I539" s="9"/>
       <c r="J539" s="9"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>0</v>
       </c>
@@ -21833,7 +21840,7 @@
       <c r="I540" s="9"/>
       <c r="J540" s="9"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>0</v>
       </c>
@@ -21859,7 +21866,7 @@
       <c r="I541" s="9"/>
       <c r="J541" s="9"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>0</v>
       </c>
@@ -21885,7 +21892,7 @@
       <c r="I542" s="9"/>
       <c r="J542" s="9"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>0</v>
       </c>
@@ -21911,7 +21918,7 @@
       <c r="I543" s="9"/>
       <c r="J543" s="9"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>0</v>
       </c>
@@ -21935,7 +21942,7 @@
       <c r="I544" s="9"/>
       <c r="J544" s="9"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>0</v>
       </c>
@@ -21959,7 +21966,7 @@
       <c r="I545" s="9"/>
       <c r="J545" s="9"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>0</v>
       </c>
@@ -21983,7 +21990,7 @@
       <c r="I546" s="9"/>
       <c r="J546" s="9"/>
     </row>
-    <row r="547" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>1</v>
       </c>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\ML_Requirements\literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levilucio/git/ML_Requirements/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1543" windowWidth="30120" windowHeight="21403"/>
+    <workbookView xWindow="29400" yWindow="1540" windowWidth="30120" windowHeight="21400"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">final!$I$1:$I$547</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="2526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="2526">
   <si>
     <t>257?</t>
   </si>
@@ -7616,7 +7616,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8024,22 +8024,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F32" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.765625" customWidth="1"/>
-    <col min="3" max="3" width="38.84375" customWidth="1"/>
-    <col min="5" max="5" width="80.3828125" customWidth="1"/>
-    <col min="7" max="7" width="58.15234375" customWidth="1"/>
-    <col min="8" max="8" width="53.3046875" customWidth="1"/>
-    <col min="9" max="9" width="48.15234375" customWidth="1"/>
-    <col min="10" max="10" width="52.3046875" customWidth="1"/>
+    <col min="2" max="2" width="65.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="5" max="5" width="80.33203125" customWidth="1"/>
+    <col min="7" max="7" width="58.1640625" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" customWidth="1"/>
+    <col min="9" max="9" width="48.1640625" customWidth="1"/>
+    <col min="10" max="10" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>296</v>
       </c>
@@ -8093,7 +8093,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8143,7 +8143,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -8167,7 +8167,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>296</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>296</v>
       </c>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>296</v>
       </c>
@@ -8319,7 +8319,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>296</v>
       </c>
@@ -8343,7 +8343,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>296</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>296</v>
       </c>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>296</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>296</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>296</v>
       </c>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>296</v>
       </c>
@@ -8503,7 +8503,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>296</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -8663,7 +8663,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -8847,7 +8847,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -8875,7 +8875,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>296</v>
       </c>
@@ -8957,7 +8957,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -9029,7 +9029,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -9053,7 +9053,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -9101,7 +9101,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -9125,7 +9125,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -9149,7 +9149,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -9173,7 +9173,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -9199,7 +9199,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -9251,7 +9251,7 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>296</v>
       </c>
@@ -9299,7 +9299,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>296</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>296</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>296</v>
       </c>
@@ -9373,7 +9373,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>296</v>
       </c>
@@ -9397,7 +9397,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>296</v>
       </c>
@@ -9423,7 +9423,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>296</v>
       </c>
@@ -9449,7 +9449,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>296</v>
       </c>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -9507,7 +9507,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -9533,7 +9533,7 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -9589,7 +9589,7 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -9645,7 +9645,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -9673,7 +9673,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -9694,10 +9694,12 @@
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -9723,7 +9725,7 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -9749,7 +9751,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -9773,7 +9775,7 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -9799,7 +9801,7 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -9825,7 +9827,7 @@
       </c>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -9851,7 +9853,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -9877,7 +9879,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -9903,7 +9905,7 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -9927,7 +9929,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -9951,7 +9953,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -9975,7 +9977,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -9999,7 +10001,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -10023,7 +10025,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -10049,7 +10051,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -10073,7 +10075,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -10097,7 +10099,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -10121,7 +10123,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -10145,7 +10147,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -10169,7 +10171,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -10193,7 +10195,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -10217,7 +10219,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -10243,7 +10245,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>0</v>
       </c>
@@ -10267,7 +10269,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>0</v>
       </c>
@@ -10295,7 +10297,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>0</v>
       </c>
@@ -10321,7 +10323,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -10347,7 +10349,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -10373,7 +10375,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -10399,7 +10401,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -10423,7 +10425,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>296</v>
       </c>
@@ -10445,7 +10447,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>296</v>
       </c>
@@ -10471,7 +10473,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>296</v>
       </c>
@@ -10497,7 +10499,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>296</v>
       </c>
@@ -10523,7 +10525,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>296</v>
       </c>
@@ -10549,7 +10551,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>296</v>
       </c>
@@ -10575,7 +10577,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>296</v>
       </c>
@@ -10601,7 +10603,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>1</v>
       </c>
@@ -10631,7 +10633,7 @@
       </c>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -10657,7 +10659,7 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -10683,7 +10685,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -10707,7 +10709,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>1</v>
       </c>
@@ -10733,7 +10735,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -10759,7 +10761,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -10785,7 +10787,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -10811,7 +10813,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -10839,7 +10841,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -10861,7 +10863,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -10885,7 +10887,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -10911,7 +10913,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>0</v>
       </c>
@@ -10935,7 +10937,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>0</v>
       </c>
@@ -10959,7 +10961,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>0</v>
       </c>
@@ -10983,7 +10985,7 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>0</v>
       </c>
@@ -11007,7 +11009,7 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>0</v>
       </c>
@@ -11031,7 +11033,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>0</v>
       </c>
@@ -11053,7 +11055,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>0</v>
       </c>
@@ -11079,7 +11081,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>0</v>
       </c>
@@ -11103,7 +11105,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>0</v>
       </c>
@@ -11129,7 +11131,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>0</v>
       </c>
@@ -11155,7 +11157,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>0</v>
       </c>
@@ -11181,7 +11183,7 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>0</v>
       </c>
@@ -11207,7 +11209,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>0</v>
       </c>
@@ -11233,7 +11235,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>0</v>
       </c>
@@ -11259,7 +11261,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -11283,7 +11285,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>0</v>
       </c>
@@ -11309,7 +11311,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -11335,7 +11337,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>0</v>
       </c>
@@ -11359,7 +11361,7 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -11385,7 +11387,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -11411,7 +11413,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>0</v>
       </c>
@@ -11439,7 +11441,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -11463,7 +11465,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>0</v>
       </c>
@@ -11485,7 +11487,7 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>296</v>
       </c>
@@ -11509,7 +11511,7 @@
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>296</v>
       </c>
@@ -11535,7 +11537,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>296</v>
       </c>
@@ -11563,7 +11565,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>296</v>
       </c>
@@ -11585,7 +11587,7 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -11613,7 +11615,7 @@
       </c>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -11641,7 +11643,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -11669,7 +11671,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -11695,7 +11697,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -11721,7 +11723,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -11743,7 +11745,7 @@
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -11771,7 +11773,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -11799,7 +11801,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>1</v>
       </c>
@@ -11827,7 +11829,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -11855,7 +11857,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -11881,7 +11883,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -11907,7 +11909,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -11931,7 +11933,7 @@
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -11953,7 +11955,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>0</v>
       </c>
@@ -11977,7 +11979,7 @@
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>0</v>
       </c>
@@ -11999,7 +12001,7 @@
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -12025,7 +12027,7 @@
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>0</v>
       </c>
@@ -12049,7 +12051,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>0</v>
       </c>
@@ -12073,7 +12075,7 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>0</v>
       </c>
@@ -12097,7 +12099,7 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -12121,7 +12123,7 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>0</v>
       </c>
@@ -12145,7 +12147,7 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>0</v>
       </c>
@@ -12169,7 +12171,7 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>0</v>
       </c>
@@ -12193,7 +12195,7 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>0</v>
       </c>
@@ -12217,7 +12219,7 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>0</v>
       </c>
@@ -12243,7 +12245,7 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -12269,7 +12271,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -12295,7 +12297,7 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>0</v>
       </c>
@@ -12323,7 +12325,7 @@
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>0</v>
       </c>
@@ -12349,7 +12351,7 @@
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>0</v>
       </c>
@@ -12375,7 +12377,7 @@
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>0</v>
       </c>
@@ -12401,7 +12403,7 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -12427,7 +12429,7 @@
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -12453,7 +12455,7 @@
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -12479,7 +12481,7 @@
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -12505,7 +12507,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -12529,7 +12531,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>0</v>
       </c>
@@ -12551,7 +12553,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -12577,7 +12579,7 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>296</v>
       </c>
@@ -12601,7 +12603,7 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>296</v>
       </c>
@@ -12629,7 +12631,7 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>296</v>
       </c>
@@ -12655,7 +12657,7 @@
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>296</v>
       </c>
@@ -12683,7 +12685,7 @@
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>296</v>
       </c>
@@ -12711,7 +12713,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>296</v>
       </c>
@@ -12739,7 +12741,7 @@
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>479</v>
       </c>
@@ -12767,7 +12769,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -12793,7 +12795,7 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -12819,7 +12821,7 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -12845,7 +12847,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -12871,7 +12873,7 @@
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -12897,7 +12899,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -12923,7 +12925,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -12951,7 +12953,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -12979,7 +12981,7 @@
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -13007,7 +13009,7 @@
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -13035,7 +13037,7 @@
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -13063,7 +13065,7 @@
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>1</v>
       </c>
@@ -13091,7 +13093,7 @@
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -13115,7 +13117,7 @@
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>0</v>
       </c>
@@ -13139,7 +13141,7 @@
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>0</v>
       </c>
@@ -13163,7 +13165,7 @@
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>0</v>
       </c>
@@ -13189,7 +13191,7 @@
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>0</v>
       </c>
@@ -13215,7 +13217,7 @@
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>0</v>
       </c>
@@ -13239,7 +13241,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>0</v>
       </c>
@@ -13263,7 +13265,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>0</v>
       </c>
@@ -13287,7 +13289,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>0</v>
       </c>
@@ -13311,7 +13313,7 @@
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>0</v>
       </c>
@@ -13335,7 +13337,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>0</v>
       </c>
@@ -13361,7 +13363,7 @@
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>0</v>
       </c>
@@ -13385,7 +13387,7 @@
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>0</v>
       </c>
@@ -13411,7 +13413,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -13437,7 +13439,7 @@
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -13463,7 +13465,7 @@
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -13489,7 +13491,7 @@
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -13515,7 +13517,7 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>0</v>
       </c>
@@ -13541,7 +13543,7 @@
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>0</v>
       </c>
@@ -13567,7 +13569,7 @@
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>0</v>
       </c>
@@ -13591,7 +13593,7 @@
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>0</v>
       </c>
@@ -13615,7 +13617,7 @@
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>0</v>
       </c>
@@ -13641,7 +13643,7 @@
       <c r="I219" s="9"/>
       <c r="J219" s="9"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>0</v>
       </c>
@@ -13663,7 +13665,7 @@
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
@@ -13689,7 +13691,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>8</v>
       </c>
@@ -13717,7 +13719,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>8</v>
       </c>
@@ -13743,7 +13745,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>8</v>
       </c>
@@ -13769,7 +13771,7 @@
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>8</v>
       </c>
@@ -13791,7 +13793,7 @@
       <c r="I225" s="9"/>
       <c r="J225" s="9"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>8</v>
       </c>
@@ -13815,7 +13817,7 @@
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>8</v>
       </c>
@@ -13843,7 +13845,7 @@
       <c r="I227" s="9"/>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>1</v>
       </c>
@@ -13871,7 +13873,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>1</v>
       </c>
@@ -13897,7 +13899,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>1</v>
       </c>
@@ -13923,7 +13925,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>1</v>
       </c>
@@ -13951,7 +13953,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>1</v>
       </c>
@@ -13977,7 +13979,7 @@
       <c r="I232" s="9"/>
       <c r="J232" s="9"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>1</v>
       </c>
@@ -14003,7 +14005,7 @@
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>1</v>
       </c>
@@ -14029,7 +14031,7 @@
       <c r="I234" s="9"/>
       <c r="J234" s="9"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>1</v>
       </c>
@@ -14053,7 +14055,7 @@
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>1</v>
       </c>
@@ -14075,7 +14077,7 @@
       <c r="I236" s="9"/>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>1</v>
       </c>
@@ -14101,7 +14103,7 @@
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>1</v>
       </c>
@@ -14127,7 +14129,7 @@
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>0</v>
       </c>
@@ -14153,7 +14155,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>0</v>
       </c>
@@ -14179,7 +14181,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>0</v>
       </c>
@@ -14203,7 +14205,7 @@
       <c r="I241" s="9"/>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>0</v>
       </c>
@@ -14227,7 +14229,7 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>0</v>
       </c>
@@ -14253,7 +14255,7 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>0</v>
       </c>
@@ -14279,7 +14281,7 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>0</v>
       </c>
@@ -14305,7 +14307,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>0</v>
       </c>
@@ -14329,7 +14331,7 @@
       <c r="I246" s="9"/>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>0</v>
       </c>
@@ -14353,7 +14355,7 @@
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>0</v>
       </c>
@@ -14379,7 +14381,7 @@
       <c r="I248" s="9"/>
       <c r="J248" s="9"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>0</v>
       </c>
@@ -14405,7 +14407,7 @@
       <c r="I249" s="9"/>
       <c r="J249" s="9"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>8</v>
       </c>
@@ -14433,7 +14435,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>8</v>
       </c>
@@ -14461,7 +14463,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>8</v>
       </c>
@@ -14489,7 +14491,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>8</v>
       </c>
@@ -14513,7 +14515,7 @@
       <c r="I253" s="9"/>
       <c r="J253" s="9"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
@@ -14537,7 +14539,7 @@
       <c r="I254" s="9"/>
       <c r="J254" s="9"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>8</v>
       </c>
@@ -14565,7 +14567,7 @@
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>1</v>
       </c>
@@ -14591,7 +14593,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>1</v>
       </c>
@@ -14615,7 +14617,7 @@
       <c r="I257" s="9"/>
       <c r="J257" s="9"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>1</v>
       </c>
@@ -14641,7 +14643,7 @@
       <c r="I258" s="9"/>
       <c r="J258" s="9"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>1</v>
       </c>
@@ -14667,7 +14669,7 @@
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>1</v>
       </c>
@@ -14691,7 +14693,7 @@
       <c r="I260" s="9"/>
       <c r="J260" s="9"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>1</v>
       </c>
@@ -14717,7 +14719,7 @@
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>1</v>
       </c>
@@ -14743,7 +14745,7 @@
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>1</v>
       </c>
@@ -14769,7 +14771,7 @@
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>1</v>
       </c>
@@ -14795,7 +14797,7 @@
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>0</v>
       </c>
@@ -14821,7 +14823,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>0</v>
       </c>
@@ -14847,7 +14849,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>0</v>
       </c>
@@ -14871,7 +14873,7 @@
       <c r="I267" s="9"/>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>0</v>
       </c>
@@ -14895,7 +14897,7 @@
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>0</v>
       </c>
@@ -14919,7 +14921,7 @@
       <c r="I269" s="9"/>
       <c r="J269" s="9"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>0</v>
       </c>
@@ -14945,7 +14947,7 @@
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>0</v>
       </c>
@@ -14969,7 +14971,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>0</v>
       </c>
@@ -14993,7 +14995,7 @@
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>0</v>
       </c>
@@ -15017,7 +15019,7 @@
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>0</v>
       </c>
@@ -15039,7 +15041,7 @@
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>0</v>
       </c>
@@ -15063,7 +15065,7 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>0</v>
       </c>
@@ -15089,7 +15091,7 @@
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>0</v>
       </c>
@@ -15115,7 +15117,7 @@
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>0</v>
       </c>
@@ -15141,7 +15143,7 @@
       <c r="I278" s="9"/>
       <c r="J278" s="9"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>0</v>
       </c>
@@ -15165,7 +15167,7 @@
       <c r="I279" s="9"/>
       <c r="J279" s="9"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>0</v>
       </c>
@@ -15189,7 +15191,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>0</v>
       </c>
@@ -15215,7 +15217,7 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>0</v>
       </c>
@@ -15239,7 +15241,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>0</v>
       </c>
@@ -15263,7 +15265,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>0</v>
       </c>
@@ -15287,7 +15289,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>0</v>
       </c>
@@ -15313,7 +15315,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>0</v>
       </c>
@@ -15339,7 +15341,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>0</v>
       </c>
@@ -15365,7 +15367,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>0</v>
       </c>
@@ -15391,7 +15393,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>8</v>
       </c>
@@ -15421,7 +15423,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>8</v>
       </c>
@@ -15447,7 +15449,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>8</v>
       </c>
@@ -15473,7 +15475,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>8</v>
       </c>
@@ -15501,7 +15503,7 @@
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>8</v>
       </c>
@@ -15529,7 +15531,7 @@
       <c r="I293" s="9"/>
       <c r="J293" s="9"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>8</v>
       </c>
@@ -15557,7 +15559,7 @@
       <c r="I294" s="9"/>
       <c r="J294" s="9"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>8</v>
       </c>
@@ -15583,7 +15585,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>1</v>
       </c>
@@ -15607,7 +15609,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>1</v>
       </c>
@@ -15633,7 +15635,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>1</v>
       </c>
@@ -15659,7 +15661,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>1</v>
       </c>
@@ -15683,7 +15685,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>1</v>
       </c>
@@ -15707,7 +15709,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>1</v>
       </c>
@@ -15735,7 +15737,7 @@
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>1</v>
       </c>
@@ -15763,7 +15765,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>1</v>
       </c>
@@ -15789,7 +15791,7 @@
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>1</v>
       </c>
@@ -15815,7 +15817,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>1</v>
       </c>
@@ -15841,7 +15843,7 @@
       </c>
       <c r="J305" s="9"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>1</v>
       </c>
@@ -15867,7 +15869,7 @@
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>1</v>
       </c>
@@ -15893,7 +15895,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>1</v>
       </c>
@@ -15919,7 +15921,7 @@
       <c r="I308" s="9"/>
       <c r="J308" s="9"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>0</v>
       </c>
@@ -15945,7 +15947,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>0</v>
       </c>
@@ -15973,7 +15975,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>0</v>
       </c>
@@ -16001,7 +16003,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>0</v>
       </c>
@@ -16027,7 +16029,7 @@
       <c r="I312" s="9"/>
       <c r="J312" s="9"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>0</v>
       </c>
@@ -16051,7 +16053,7 @@
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>0</v>
       </c>
@@ -16075,7 +16077,7 @@
       <c r="I314" s="9"/>
       <c r="J314" s="9"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>0</v>
       </c>
@@ -16099,7 +16101,7 @@
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>0</v>
       </c>
@@ -16123,7 +16125,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>0</v>
       </c>
@@ -16149,7 +16151,7 @@
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>0</v>
       </c>
@@ -16173,7 +16175,7 @@
       <c r="I318" s="9"/>
       <c r="J318" s="9"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>0</v>
       </c>
@@ -16197,7 +16199,7 @@
       <c r="I319" s="9"/>
       <c r="J319" s="9"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>0</v>
       </c>
@@ -16223,7 +16225,7 @@
       <c r="I320" s="9"/>
       <c r="J320" s="9"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>0</v>
       </c>
@@ -16249,7 +16251,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>0</v>
       </c>
@@ -16275,7 +16277,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>0</v>
       </c>
@@ -16301,7 +16303,7 @@
       <c r="I323" s="9"/>
       <c r="J323" s="9"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>0</v>
       </c>
@@ -16327,7 +16329,7 @@
       <c r="I324" s="9"/>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>0</v>
       </c>
@@ -16353,7 +16355,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>0</v>
       </c>
@@ -16377,7 +16379,7 @@
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="7">
         <v>0</v>
       </c>
@@ -16403,7 +16405,7 @@
       <c r="I327" s="9"/>
       <c r="J327" s="9"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>0</v>
       </c>
@@ -16429,7 +16431,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>0</v>
       </c>
@@ -16453,7 +16455,7 @@
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>0</v>
       </c>
@@ -16479,7 +16481,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>0</v>
       </c>
@@ -16505,7 +16507,7 @@
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>0</v>
       </c>
@@ -16531,7 +16533,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="9"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>0</v>
       </c>
@@ -16557,7 +16559,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>0</v>
       </c>
@@ -16583,7 +16585,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>8</v>
       </c>
@@ -16609,7 +16611,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
         <v>8</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>8</v>
       </c>
@@ -16665,7 +16667,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>8</v>
       </c>
@@ -16693,7 +16695,7 @@
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>8</v>
       </c>
@@ -16721,7 +16723,7 @@
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>8</v>
       </c>
@@ -16749,7 +16751,7 @@
       <c r="I340" s="9"/>
       <c r="J340" s="9"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>1</v>
       </c>
@@ -16775,7 +16777,7 @@
       <c r="I341" s="9"/>
       <c r="J341" s="9"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>1</v>
       </c>
@@ -16797,7 +16799,7 @@
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>1</v>
       </c>
@@ -16823,7 +16825,7 @@
       <c r="I343" s="9"/>
       <c r="J343" s="9"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>1</v>
       </c>
@@ -16847,7 +16849,7 @@
       <c r="I344" s="9"/>
       <c r="J344" s="9"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>1</v>
       </c>
@@ -16871,7 +16873,7 @@
       <c r="I345" s="9"/>
       <c r="J345" s="9"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>1</v>
       </c>
@@ -16895,7 +16897,7 @@
       <c r="I346" s="9"/>
       <c r="J346" s="9"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>1</v>
       </c>
@@ -16919,7 +16921,7 @@
       <c r="I347" s="9"/>
       <c r="J347" s="9"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>1</v>
       </c>
@@ -16945,7 +16947,7 @@
       <c r="I348" s="9"/>
       <c r="J348" s="9"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
         <v>0</v>
       </c>
@@ -16971,7 +16973,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
         <v>0</v>
       </c>
@@ -17001,7 +17003,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
         <v>0</v>
       </c>
@@ -17029,7 +17031,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>0</v>
       </c>
@@ -17055,7 +17057,7 @@
       <c r="I352" s="9"/>
       <c r="J352" s="9"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>0</v>
       </c>
@@ -17079,7 +17081,7 @@
       <c r="I353" s="9"/>
       <c r="J353" s="9"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>0</v>
       </c>
@@ -17105,7 +17107,7 @@
       <c r="I354" s="9"/>
       <c r="J354" s="9"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>0</v>
       </c>
@@ -17131,7 +17133,7 @@
       <c r="I355" s="9"/>
       <c r="J355" s="9"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>0</v>
       </c>
@@ -17155,7 +17157,7 @@
       <c r="I356" s="9"/>
       <c r="J356" s="9"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>0</v>
       </c>
@@ -17177,7 +17179,7 @@
       <c r="I357" s="9"/>
       <c r="J357" s="9"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>0</v>
       </c>
@@ -17203,7 +17205,7 @@
       <c r="I358" s="9"/>
       <c r="J358" s="9"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>0</v>
       </c>
@@ -17229,7 +17231,7 @@
       <c r="I359" s="9"/>
       <c r="J359" s="9"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>0</v>
       </c>
@@ -17255,7 +17257,7 @@
       <c r="I360" s="9"/>
       <c r="J360" s="9"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>0</v>
       </c>
@@ -17281,7 +17283,7 @@
       <c r="I361" s="9"/>
       <c r="J361" s="9"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>0</v>
       </c>
@@ -17307,7 +17309,7 @@
       <c r="I362" s="9"/>
       <c r="J362" s="9"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>0</v>
       </c>
@@ -17333,7 +17335,7 @@
       <c r="I363" s="9"/>
       <c r="J363" s="9"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>0</v>
       </c>
@@ -17359,7 +17361,7 @@
       <c r="I364" s="9"/>
       <c r="J364" s="9"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>0</v>
       </c>
@@ -17385,7 +17387,7 @@
       <c r="I365" s="9"/>
       <c r="J365" s="9"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>0</v>
       </c>
@@ -17411,7 +17413,7 @@
       <c r="I366" s="9"/>
       <c r="J366" s="9"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>0</v>
       </c>
@@ -17437,7 +17439,7 @@
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>0</v>
       </c>
@@ -17463,7 +17465,7 @@
       <c r="I368" s="9"/>
       <c r="J368" s="9"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>0</v>
       </c>
@@ -17489,7 +17491,7 @@
       <c r="I369" s="9"/>
       <c r="J369" s="9"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>0</v>
       </c>
@@ -17515,7 +17517,7 @@
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>0</v>
       </c>
@@ -17539,7 +17541,7 @@
       <c r="I371" s="9"/>
       <c r="J371" s="9"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>0</v>
       </c>
@@ -17561,7 +17563,7 @@
       <c r="I372" s="9"/>
       <c r="J372" s="9"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>8</v>
       </c>
@@ -17589,7 +17591,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>8</v>
       </c>
@@ -17615,7 +17617,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>8</v>
       </c>
@@ -17645,7 +17647,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>1</v>
       </c>
@@ -17673,7 +17675,7 @@
       <c r="I376" s="9"/>
       <c r="J376" s="9"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>1</v>
       </c>
@@ -17701,7 +17703,7 @@
       <c r="I377" s="9"/>
       <c r="J377" s="9"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>1</v>
       </c>
@@ -17725,7 +17727,7 @@
       <c r="I378" s="9"/>
       <c r="J378" s="9"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>1</v>
       </c>
@@ -17751,7 +17753,7 @@
       <c r="I379" s="9"/>
       <c r="J379" s="9"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>1</v>
       </c>
@@ -17777,7 +17779,7 @@
       <c r="I380" s="9"/>
       <c r="J380" s="9"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>1</v>
       </c>
@@ -17803,7 +17805,7 @@
       <c r="I381" s="9"/>
       <c r="J381" s="9"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>1</v>
       </c>
@@ -17825,7 +17827,7 @@
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>1</v>
       </c>
@@ -17851,7 +17853,7 @@
       <c r="I383" s="9"/>
       <c r="J383" s="9"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>1</v>
       </c>
@@ -17879,7 +17881,7 @@
       <c r="I384" s="9"/>
       <c r="J384" s="9"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>1</v>
       </c>
@@ -17905,7 +17907,7 @@
       <c r="I385" s="9"/>
       <c r="J385" s="9"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>1</v>
       </c>
@@ -17931,7 +17933,7 @@
       <c r="I386" s="9"/>
       <c r="J386" s="9"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>0</v>
       </c>
@@ -17955,7 +17957,7 @@
       <c r="I387" s="9"/>
       <c r="J387" s="9"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>0</v>
       </c>
@@ -17981,7 +17983,7 @@
       <c r="I388" s="9"/>
       <c r="J388" s="9"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>0</v>
       </c>
@@ -18005,7 +18007,7 @@
       <c r="I389" s="9"/>
       <c r="J389" s="9"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>0</v>
       </c>
@@ -18029,7 +18031,7 @@
       <c r="I390" s="9"/>
       <c r="J390" s="9"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>0</v>
       </c>
@@ -18053,7 +18055,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="9"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>0</v>
       </c>
@@ -18077,7 +18079,7 @@
       <c r="I392" s="9"/>
       <c r="J392" s="9"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>0</v>
       </c>
@@ -18103,7 +18105,7 @@
       <c r="I393" s="9"/>
       <c r="J393" s="9"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>0</v>
       </c>
@@ -18129,7 +18131,7 @@
       <c r="I394" s="9"/>
       <c r="J394" s="9"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>0</v>
       </c>
@@ -18155,7 +18157,7 @@
       <c r="I395" s="9"/>
       <c r="J395" s="9"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>0</v>
       </c>
@@ -18181,7 +18183,7 @@
       <c r="I396" s="9"/>
       <c r="J396" s="9"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>0</v>
       </c>
@@ -18207,7 +18209,7 @@
       <c r="I397" s="9"/>
       <c r="J397" s="9"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>0</v>
       </c>
@@ -18233,7 +18235,7 @@
       <c r="I398" s="9"/>
       <c r="J398" s="9"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>0</v>
       </c>
@@ -18259,7 +18261,7 @@
       <c r="I399" s="9"/>
       <c r="J399" s="9"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>0</v>
       </c>
@@ -18285,7 +18287,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="9"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>0</v>
       </c>
@@ -18311,7 +18313,7 @@
       <c r="I401" s="9"/>
       <c r="J401" s="9"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>0</v>
       </c>
@@ -18335,7 +18337,7 @@
       <c r="I402" s="9"/>
       <c r="J402" s="9"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>0</v>
       </c>
@@ -18361,7 +18363,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>0</v>
       </c>
@@ -18387,7 +18389,7 @@
       <c r="I404" s="9"/>
       <c r="J404" s="9"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>0</v>
       </c>
@@ -18413,7 +18415,7 @@
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>0</v>
       </c>
@@ -18437,7 +18439,7 @@
       <c r="I406" s="9"/>
       <c r="J406" s="9"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>0</v>
       </c>
@@ -18463,7 +18465,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>0</v>
       </c>
@@ -18489,7 +18491,7 @@
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>8</v>
       </c>
@@ -18515,7 +18517,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>1</v>
       </c>
@@ -18541,7 +18543,7 @@
       <c r="I410" s="9"/>
       <c r="J410" s="9"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>1</v>
       </c>
@@ -18565,7 +18567,7 @@
       </c>
       <c r="J411" s="9"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>1</v>
       </c>
@@ -18591,7 +18593,7 @@
       <c r="I412" s="9"/>
       <c r="J412" s="9"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>1</v>
       </c>
@@ -18617,7 +18619,7 @@
       </c>
       <c r="J413" s="9"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>1</v>
       </c>
@@ -18641,7 +18643,7 @@
       <c r="I414" s="9"/>
       <c r="J414" s="9"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>1</v>
       </c>
@@ -18667,7 +18669,7 @@
       <c r="I415" s="9"/>
       <c r="J415" s="9"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>1</v>
       </c>
@@ -18691,7 +18693,7 @@
       <c r="I416" s="9"/>
       <c r="J416" s="9"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>1</v>
       </c>
@@ -18717,7 +18719,7 @@
       <c r="I417" s="9"/>
       <c r="J417" s="9"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>1</v>
       </c>
@@ -18743,7 +18745,7 @@
       <c r="I418" s="9"/>
       <c r="J418" s="9"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>0</v>
       </c>
@@ -18773,7 +18775,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>0</v>
       </c>
@@ -18799,7 +18801,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="9"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>0</v>
       </c>
@@ -18823,7 +18825,7 @@
       <c r="I421" s="9"/>
       <c r="J421" s="9"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>0</v>
       </c>
@@ -18847,7 +18849,7 @@
       <c r="I422" s="9"/>
       <c r="J422" s="9"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>0</v>
       </c>
@@ -18871,7 +18873,7 @@
       <c r="I423" s="9"/>
       <c r="J423" s="9"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>0</v>
       </c>
@@ -18897,7 +18899,7 @@
       <c r="I424" s="9"/>
       <c r="J424" s="9"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>0</v>
       </c>
@@ -18921,7 +18923,7 @@
       <c r="I425" s="9"/>
       <c r="J425" s="9"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>0</v>
       </c>
@@ -18947,7 +18949,7 @@
       <c r="I426" s="9"/>
       <c r="J426" s="9"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>0</v>
       </c>
@@ -18973,7 +18975,7 @@
       <c r="I427" s="9"/>
       <c r="J427" s="9"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>0</v>
       </c>
@@ -18999,7 +19001,7 @@
       <c r="I428" s="9"/>
       <c r="J428" s="9"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>0</v>
       </c>
@@ -19025,7 +19027,7 @@
       <c r="I429" s="9"/>
       <c r="J429" s="9"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>0</v>
       </c>
@@ -19051,7 +19053,7 @@
       <c r="I430" s="9"/>
       <c r="J430" s="9"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>0</v>
       </c>
@@ -19077,7 +19079,7 @@
       <c r="I431" s="9"/>
       <c r="J431" s="9"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>0</v>
       </c>
@@ -19103,7 +19105,7 @@
       <c r="I432" s="9"/>
       <c r="J432" s="9"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>8</v>
       </c>
@@ -19133,7 +19135,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
         <v>473</v>
       </c>
@@ -19159,7 +19161,7 @@
       <c r="I434" s="9"/>
       <c r="J434" s="9"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>1</v>
       </c>
@@ -19185,7 +19187,7 @@
       <c r="I435" s="9"/>
       <c r="J435" s="9"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>1</v>
       </c>
@@ -19211,7 +19213,7 @@
       <c r="I436" s="9"/>
       <c r="J436" s="9"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>1</v>
       </c>
@@ -19233,7 +19235,7 @@
       <c r="I437" s="9"/>
       <c r="J437" s="9"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>0</v>
       </c>
@@ -19257,7 +19259,7 @@
       <c r="I438" s="9"/>
       <c r="J438" s="9"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>0</v>
       </c>
@@ -19281,7 +19283,7 @@
       <c r="I439" s="9"/>
       <c r="J439" s="9"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>0</v>
       </c>
@@ -19305,7 +19307,7 @@
       <c r="I440" s="9"/>
       <c r="J440" s="9"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>0</v>
       </c>
@@ -19331,7 +19333,7 @@
       <c r="I441" s="9"/>
       <c r="J441" s="9"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>0</v>
       </c>
@@ -19355,7 +19357,7 @@
       <c r="I442" s="9"/>
       <c r="J442" s="9"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>0</v>
       </c>
@@ -19379,7 +19381,7 @@
       <c r="I443" s="9"/>
       <c r="J443" s="9"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>0</v>
       </c>
@@ -19403,7 +19405,7 @@
       <c r="I444" s="9"/>
       <c r="J444" s="9"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>0</v>
       </c>
@@ -19429,7 +19431,7 @@
       <c r="I445" s="9"/>
       <c r="J445" s="9"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>0</v>
       </c>
@@ -19453,7 +19455,7 @@
       <c r="I446" s="9"/>
       <c r="J446" s="9"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>0</v>
       </c>
@@ -19479,7 +19481,7 @@
       <c r="I447" s="9"/>
       <c r="J447" s="9"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>0</v>
       </c>
@@ -19503,7 +19505,7 @@
       <c r="I448" s="9"/>
       <c r="J448" s="9"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>0</v>
       </c>
@@ -19527,7 +19529,7 @@
       <c r="I449" s="9"/>
       <c r="J449" s="9"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>0</v>
       </c>
@@ -19551,7 +19553,7 @@
       <c r="I450" s="9"/>
       <c r="J450" s="9"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>8</v>
       </c>
@@ -19579,7 +19581,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>8</v>
       </c>
@@ -19609,7 +19611,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>8</v>
       </c>
@@ -19639,7 +19641,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>1</v>
       </c>
@@ -19667,7 +19669,7 @@
       <c r="I454" s="9"/>
       <c r="J454" s="9"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>1</v>
       </c>
@@ -19695,7 +19697,7 @@
       <c r="I455" s="9"/>
       <c r="J455" s="9"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>1</v>
       </c>
@@ -19723,7 +19725,7 @@
       <c r="I456" s="9"/>
       <c r="J456" s="9"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>1</v>
       </c>
@@ -19749,7 +19751,7 @@
       <c r="I457" s="9"/>
       <c r="J457" s="9"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>1</v>
       </c>
@@ -19775,7 +19777,7 @@
       <c r="I458" s="9"/>
       <c r="J458" s="9"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>1</v>
       </c>
@@ -19799,7 +19801,7 @@
       <c r="I459" s="9"/>
       <c r="J459" s="9"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>1</v>
       </c>
@@ -19823,7 +19825,7 @@
       <c r="I460" s="9"/>
       <c r="J460" s="9"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>1</v>
       </c>
@@ -19851,7 +19853,7 @@
       <c r="I461" s="9"/>
       <c r="J461" s="9"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>1</v>
       </c>
@@ -19873,7 +19875,7 @@
       <c r="I462" s="9"/>
       <c r="J462" s="9"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>1</v>
       </c>
@@ -19899,7 +19901,7 @@
       <c r="I463" s="9"/>
       <c r="J463" s="9"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>1</v>
       </c>
@@ -19925,7 +19927,7 @@
       <c r="I464" s="9"/>
       <c r="J464" s="9"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>0</v>
       </c>
@@ -19949,7 +19951,7 @@
       <c r="I465" s="9"/>
       <c r="J465" s="9"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>0</v>
       </c>
@@ -19971,7 +19973,7 @@
       <c r="I466" s="9"/>
       <c r="J466" s="9"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>0</v>
       </c>
@@ -19995,7 +19997,7 @@
       <c r="I467" s="9"/>
       <c r="J467" s="9"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>0</v>
       </c>
@@ -20019,7 +20021,7 @@
       <c r="I468" s="9"/>
       <c r="J468" s="9"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>0</v>
       </c>
@@ -20045,7 +20047,7 @@
       <c r="I469" s="9"/>
       <c r="J469" s="9"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>0</v>
       </c>
@@ -20069,7 +20071,7 @@
       <c r="I470" s="9"/>
       <c r="J470" s="9"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>0</v>
       </c>
@@ -20093,7 +20095,7 @@
       <c r="I471" s="9"/>
       <c r="J471" s="9"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
         <v>8</v>
       </c>
@@ -20123,7 +20125,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>0</v>
       </c>
@@ -20147,7 +20149,7 @@
       <c r="I473" s="9"/>
       <c r="J473" s="9"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>0</v>
       </c>
@@ -20171,7 +20173,7 @@
       <c r="I474" s="9"/>
       <c r="J474" s="9"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>0</v>
       </c>
@@ -20197,7 +20199,7 @@
       <c r="I475" s="9"/>
       <c r="J475" s="9"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
         <v>8</v>
       </c>
@@ -20225,7 +20227,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>1</v>
       </c>
@@ -20249,7 +20251,7 @@
       <c r="I477" s="9"/>
       <c r="J477" s="9"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>1</v>
       </c>
@@ -20277,7 +20279,7 @@
       <c r="I478" s="9"/>
       <c r="J478" s="9"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>0</v>
       </c>
@@ -20301,7 +20303,7 @@
       <c r="I479" s="9"/>
       <c r="J479" s="9"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="7">
         <v>0</v>
       </c>
@@ -20327,7 +20329,7 @@
       <c r="I480" s="9"/>
       <c r="J480" s="9"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>0</v>
       </c>
@@ -20353,7 +20355,7 @@
       <c r="I481" s="9"/>
       <c r="J481" s="9"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>0</v>
       </c>
@@ -20379,7 +20381,7 @@
       <c r="I482" s="9"/>
       <c r="J482" s="9"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
         <v>8</v>
       </c>
@@ -20407,7 +20409,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="5">
         <v>1</v>
       </c>
@@ -20433,7 +20435,7 @@
       <c r="I484" s="9"/>
       <c r="J484" s="9"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>1</v>
       </c>
@@ -20461,7 +20463,7 @@
       <c r="I485" s="9"/>
       <c r="J485" s="9"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>1</v>
       </c>
@@ -20485,7 +20487,7 @@
       <c r="I486" s="9"/>
       <c r="J486" s="9"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>1</v>
       </c>
@@ -20511,7 +20513,7 @@
       <c r="I487" s="9"/>
       <c r="J487" s="9"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>0</v>
       </c>
@@ -20539,7 +20541,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="7">
         <v>0</v>
       </c>
@@ -20563,7 +20565,7 @@
       <c r="I489" s="9"/>
       <c r="J489" s="9"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>0</v>
       </c>
@@ -20589,7 +20591,7 @@
       <c r="I490" s="9"/>
       <c r="J490" s="9"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>0</v>
       </c>
@@ -20615,7 +20617,7 @@
       <c r="I491" s="9"/>
       <c r="J491" s="9"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>1</v>
       </c>
@@ -20641,7 +20643,7 @@
       <c r="I492" s="9"/>
       <c r="J492" s="9"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>1</v>
       </c>
@@ -20665,7 +20667,7 @@
       <c r="I493" s="9"/>
       <c r="J493" s="9"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>0</v>
       </c>
@@ -20689,7 +20691,7 @@
       <c r="I494" s="9"/>
       <c r="J494" s="9"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>0</v>
       </c>
@@ -20715,7 +20717,7 @@
       <c r="I495" s="9"/>
       <c r="J495" s="9"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>0</v>
       </c>
@@ -20741,7 +20743,7 @@
       <c r="I496" s="9"/>
       <c r="J496" s="9"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>0</v>
       </c>
@@ -20767,7 +20769,7 @@
       <c r="I497" s="9"/>
       <c r="J497" s="9"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>0</v>
       </c>
@@ -20791,7 +20793,7 @@
       <c r="I498" s="9"/>
       <c r="J498" s="9"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>1</v>
       </c>
@@ -20817,7 +20819,7 @@
       <c r="I499" s="9"/>
       <c r="J499" s="9"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>0</v>
       </c>
@@ -20841,7 +20843,7 @@
       <c r="I500" s="9"/>
       <c r="J500" s="9"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>0</v>
       </c>
@@ -20865,7 +20867,7 @@
       <c r="I501" s="9"/>
       <c r="J501" s="9"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>0</v>
       </c>
@@ -20891,7 +20893,7 @@
       <c r="I502" s="9"/>
       <c r="J502" s="9"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>0</v>
       </c>
@@ -20917,7 +20919,7 @@
       <c r="I503" s="9"/>
       <c r="J503" s="9"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>0</v>
       </c>
@@ -20943,7 +20945,7 @@
       <c r="I504" s="9"/>
       <c r="J504" s="9"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
         <v>8</v>
       </c>
@@ -20971,7 +20973,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>0</v>
       </c>
@@ -20995,7 +20997,7 @@
       <c r="I506" s="9"/>
       <c r="J506" s="9"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>0</v>
       </c>
@@ -21021,7 +21023,7 @@
       <c r="I507" s="9"/>
       <c r="J507" s="9"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>0</v>
       </c>
@@ -21045,7 +21047,7 @@
       <c r="I508" s="9"/>
       <c r="J508" s="9"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>1</v>
       </c>
@@ -21069,7 +21071,7 @@
       <c r="I509" s="9"/>
       <c r="J509" s="9"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>1</v>
       </c>
@@ -21095,7 +21097,7 @@
       <c r="I510" s="9"/>
       <c r="J510" s="9"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>1</v>
       </c>
@@ -21121,7 +21123,7 @@
       <c r="I511" s="9"/>
       <c r="J511" s="9"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="5">
         <v>0</v>
       </c>
@@ -21149,7 +21151,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="5">
         <v>0</v>
       </c>
@@ -21177,7 +21179,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>0</v>
       </c>
@@ -21201,7 +21203,7 @@
       <c r="I514" s="9"/>
       <c r="J514" s="9"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>0</v>
       </c>
@@ -21225,7 +21227,7 @@
       <c r="I515" s="9"/>
       <c r="J515" s="9"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>0</v>
       </c>
@@ -21249,7 +21251,7 @@
       <c r="I516" s="9"/>
       <c r="J516" s="9"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>0</v>
       </c>
@@ -21273,7 +21275,7 @@
       <c r="I517" s="9"/>
       <c r="J517" s="9"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>0</v>
       </c>
@@ -21297,7 +21299,7 @@
       <c r="I518" s="9"/>
       <c r="J518" s="9"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>0</v>
       </c>
@@ -21321,7 +21323,7 @@
       <c r="I519" s="9"/>
       <c r="J519" s="9"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="5" t="s">
         <v>8</v>
       </c>
@@ -21349,7 +21351,7 @@
       <c r="I520" s="9"/>
       <c r="J520" s="9"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>1</v>
       </c>
@@ -21377,7 +21379,7 @@
       <c r="I521" s="9"/>
       <c r="J521" s="9"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>0</v>
       </c>
@@ -21405,7 +21407,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>0</v>
       </c>
@@ -21429,7 +21431,7 @@
       <c r="I523" s="9"/>
       <c r="J523" s="9"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>0</v>
       </c>
@@ -21455,7 +21457,7 @@
       <c r="I524" s="9"/>
       <c r="J524" s="9"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>0</v>
       </c>
@@ -21479,7 +21481,7 @@
       <c r="I525" s="9"/>
       <c r="J525" s="9"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>0</v>
       </c>
@@ -21505,7 +21507,7 @@
       <c r="I526" s="9"/>
       <c r="J526" s="9"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>0</v>
       </c>
@@ -21531,7 +21533,7 @@
       <c r="I527" s="9"/>
       <c r="J527" s="9"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>0</v>
       </c>
@@ -21555,7 +21557,7 @@
       <c r="I528" s="9"/>
       <c r="J528" s="9"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>0</v>
       </c>
@@ -21581,7 +21583,7 @@
       <c r="I529" s="9"/>
       <c r="J529" s="9"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>0</v>
       </c>
@@ -21607,7 +21609,7 @@
       <c r="I530" s="9"/>
       <c r="J530" s="9"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>0</v>
       </c>
@@ -21631,7 +21633,7 @@
       <c r="I531" s="9"/>
       <c r="J531" s="9"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
         <v>8</v>
       </c>
@@ -21659,7 +21661,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>1</v>
       </c>
@@ -21685,7 +21687,7 @@
       <c r="I533" s="9"/>
       <c r="J533" s="9"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>0</v>
       </c>
@@ -21711,7 +21713,7 @@
       <c r="I534" s="9"/>
       <c r="J534" s="9"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>0</v>
       </c>
@@ -21737,7 +21739,7 @@
       <c r="I535" s="9"/>
       <c r="J535" s="9"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" s="5" t="s">
         <v>8</v>
       </c>
@@ -21767,7 +21769,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>1</v>
       </c>
@@ -21795,7 +21797,7 @@
       <c r="I537" s="9"/>
       <c r="J537" s="9"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>0</v>
       </c>
@@ -21821,7 +21823,7 @@
       <c r="I538" s="9"/>
       <c r="J538" s="9"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>0</v>
       </c>
@@ -21845,7 +21847,7 @@
       <c r="I539" s="9"/>
       <c r="J539" s="9"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>0</v>
       </c>
@@ -21871,7 +21873,7 @@
       <c r="I540" s="9"/>
       <c r="J540" s="9"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>0</v>
       </c>
@@ -21895,7 +21897,7 @@
       <c r="I541" s="9"/>
       <c r="J541" s="9"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>0</v>
       </c>
@@ -21919,7 +21921,7 @@
       <c r="I542" s="9"/>
       <c r="J542" s="9"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>0</v>
       </c>
@@ -21943,7 +21945,7 @@
       <c r="I543" s="9"/>
       <c r="J543" s="9"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>0</v>
       </c>
@@ -21971,7 +21973,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>0</v>
       </c>
@@ -21993,7 +21995,7 @@
       <c r="I545" s="9"/>
       <c r="J545" s="9"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" s="7">
         <v>0</v>
       </c>
@@ -22019,7 +22021,7 @@
       <c r="I546" s="9"/>
       <c r="J546" s="9"/>
     </row>
-    <row r="547" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>0</v>
       </c>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1540" windowWidth="30120" windowHeight="21400"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="2526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="2526">
   <si>
     <t>257?</t>
   </si>
@@ -7656,10 +7656,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -7733,7 +7733,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -7741,6 +7740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8024,8 +8024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F32" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="H38" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8757,7 +8757,7 @@
       <c r="G28" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="18" t="s">
         <v>1091</v>
       </c>
       <c r="I28" s="9"/>
@@ -9719,10 +9719,12 @@
       <c r="G65" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="18" t="s">
         <v>1086</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="I65" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -18521,22 +18523,22 @@
       <c r="A410" s="2">
         <v>1</v>
       </c>
-      <c r="B410" s="18" t="s">
+      <c r="B410" s="17" t="s">
         <v>2511</v>
       </c>
-      <c r="C410" s="18" t="s">
+      <c r="C410" s="17" t="s">
         <v>2512</v>
       </c>
       <c r="D410" s="2">
         <v>2007</v>
       </c>
-      <c r="E410" s="18" t="s">
+      <c r="E410" s="17" t="s">
         <v>2513</v>
       </c>
-      <c r="F410" s="18" t="s">
+      <c r="F410" s="17" t="s">
         <v>2514</v>
       </c>
-      <c r="G410" s="18" t="s">
+      <c r="G410" s="17" t="s">
         <v>2515</v>
       </c>
       <c r="H410" s="13"/>
@@ -20153,7 +20155,7 @@
       <c r="A474" s="2">
         <v>0</v>
       </c>
-      <c r="B474" s="16" t="s">
+      <c r="B474" s="15" t="s">
         <v>1372</v>
       </c>
       <c r="C474" s="9" t="s">
@@ -20429,7 +20431,7 @@
       <c r="G484" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H484" s="17" t="s">
+      <c r="H484" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I484" s="9"/>
@@ -21435,7 +21437,7 @@
       <c r="A524" s="2">
         <v>0</v>
       </c>
-      <c r="B524" s="16" t="s">
+      <c r="B524" s="15" t="s">
         <v>1252</v>
       </c>
       <c r="C524" s="9" t="s">
@@ -21969,7 +21971,7 @@
         <v>13</v>
       </c>
       <c r="I544" s="9"/>
-      <c r="J544" s="18" t="s">
+      <c r="J544" s="17" t="s">
         <v>2484</v>
       </c>
     </row>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="2526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="2526">
   <si>
     <t>257?</t>
   </si>
@@ -8024,8 +8024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H38" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="H237" workbookViewId="0">
+      <selection activeCell="J251" sqref="J251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14460,7 +14460,9 @@
         <v>132</v>
       </c>
       <c r="H251" s="9"/>
-      <c r="I251" s="9"/>
+      <c r="I251" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="J251" s="9" t="s">
         <v>2492</v>
       </c>
@@ -22048,7 +22050,7 @@
   </sheetData>
   <autoFilter ref="I1:I547"/>
   <sortState ref="A1:J547">
-    <sortCondition descending="1" ref="D174"/>
+    <sortCondition descending="1" ref="D1:D547"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F549" r:id="rId1" display="https://doi.org/10.1016/j.jss.2016.09.043"/>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="28840" yWindow="1340" windowWidth="32380" windowHeight="21680"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="2526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="2527">
   <si>
     <t>257?</t>
   </si>
@@ -7611,6 +7611,9 @@
   </si>
   <si>
     <t>Levi</t>
+  </si>
+  <si>
+    <t>Sets the ground for learning, but no learning is done</t>
   </si>
 </sst>
 </file>
@@ -8024,8 +8027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H237" workbookViewId="0">
-      <selection activeCell="J251" sqref="J251"/>
+    <sheetView tabSelected="1" topLeftCell="F234" workbookViewId="0">
+      <selection activeCell="J265" sqref="J265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14030,7 +14033,9 @@
         <v>838</v>
       </c>
       <c r="H234" s="9"/>
-      <c r="I234" s="9"/>
+      <c r="I234" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="J234" s="9"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -14054,7 +14059,9 @@
       </c>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
-      <c r="I235" s="9"/>
+      <c r="I235" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="J235" s="9"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
@@ -14438,8 +14445,8 @@
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
-        <v>8</v>
+      <c r="A251" s="2">
+        <v>1</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>128</v>
@@ -14464,7 +14471,7 @@
         <v>2525</v>
       </c>
       <c r="J251" s="9" t="s">
-        <v>2492</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="23100" windowHeight="15460"/>
+    <workbookView xWindow="26260" yWindow="3600" windowWidth="30680" windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="2537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="2537">
   <si>
     <t>257?</t>
   </si>
@@ -8060,8 +8060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F298" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H314" sqref="H314"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="96" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9678,7 +9678,9 @@
       <c r="H62" s="9" t="s">
         <v>1071</v>
       </c>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -8058,9 +8058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C353" zoomScale="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" workbookViewId="0">
       <selection activeCell="E366" sqref="E366"/>
     </sheetView>
   </sheetViews>
@@ -8105,7 +8106,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>296</v>
       </c>
@@ -8129,7 +8130,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8153,7 +8154,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8179,7 +8180,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -8203,7 +8204,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -8227,7 +8228,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -8251,7 +8252,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -8275,7 +8276,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>296</v>
       </c>
@@ -8331,7 +8332,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>296</v>
       </c>
@@ -8355,7 +8356,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>296</v>
       </c>
@@ -8379,7 +8380,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>296</v>
       </c>
@@ -8513,7 +8514,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>296</v>
       </c>
@@ -8541,7 +8542,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>296</v>
       </c>
@@ -8653,7 +8654,7 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -8677,7 +8678,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -8701,7 +8702,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -8725,7 +8726,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -8749,7 +8750,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -8775,7 +8776,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -8801,7 +8802,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -8829,7 +8830,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -8857,7 +8858,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -8885,7 +8886,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -8913,7 +8914,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -8941,7 +8942,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -8967,7 +8968,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>296</v>
       </c>
@@ -8995,7 +8996,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -9019,7 +9020,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -9043,7 +9044,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -9067,7 +9068,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -9091,7 +9092,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -9115,7 +9116,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -9139,7 +9140,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -9163,7 +9164,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -9187,7 +9188,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -9211,7 +9212,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -9237,7 +9238,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -9263,7 +9264,7 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -9289,7 +9290,7 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -9313,7 +9314,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>296</v>
       </c>
@@ -9337,7 +9338,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>296</v>
       </c>
@@ -9363,7 +9364,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>296</v>
       </c>
@@ -9387,7 +9388,7 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>296</v>
       </c>
@@ -9411,7 +9412,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>296</v>
       </c>
@@ -9435,7 +9436,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>296</v>
       </c>
@@ -9461,7 +9462,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>296</v>
       </c>
@@ -9517,7 +9518,7 @@
       </c>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -9573,7 +9574,7 @@
       </c>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -9689,7 +9690,7 @@
       </c>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -9717,7 +9718,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -9743,7 +9744,7 @@
       </c>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -9771,7 +9772,7 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -9797,7 +9798,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -9821,7 +9822,7 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -9873,7 +9874,7 @@
       </c>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -9899,7 +9900,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -9925,7 +9926,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -9951,7 +9952,7 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -9975,7 +9976,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -9999,7 +10000,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -10023,7 +10024,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -10047,7 +10048,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -10071,7 +10072,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -10097,7 +10098,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -10121,7 +10122,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -10145,7 +10146,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -10169,7 +10170,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -10193,7 +10194,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -10217,7 +10218,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -10241,7 +10242,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -10265,7 +10266,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -10291,7 +10292,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>0</v>
       </c>
@@ -10315,7 +10316,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>0</v>
       </c>
@@ -10343,7 +10344,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>0</v>
       </c>
@@ -10369,7 +10370,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -10395,7 +10396,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -10421,7 +10422,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -10447,7 +10448,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -10471,7 +10472,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>296</v>
       </c>
@@ -10493,7 +10494,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>296</v>
       </c>
@@ -10519,7 +10520,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>296</v>
       </c>
@@ -10545,7 +10546,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>296</v>
       </c>
@@ -10571,7 +10572,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>296</v>
       </c>
@@ -10597,7 +10598,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>296</v>
       </c>
@@ -10623,7 +10624,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>296</v>
       </c>
@@ -10649,7 +10650,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>1</v>
       </c>
@@ -10679,7 +10680,7 @@
       </c>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -10705,7 +10706,7 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -10731,7 +10732,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -10755,7 +10756,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>1</v>
       </c>
@@ -10781,7 +10782,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -10807,7 +10808,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" ht="17.149999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -10833,7 +10834,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -10859,7 +10860,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -10887,7 +10888,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -10909,7 +10910,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -10933,7 +10934,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -10959,7 +10960,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>0</v>
       </c>
@@ -10983,7 +10984,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>0</v>
       </c>
@@ -11007,7 +11008,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>0</v>
       </c>
@@ -11031,7 +11032,7 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>0</v>
       </c>
@@ -11055,7 +11056,7 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>0</v>
       </c>
@@ -11079,7 +11080,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>0</v>
       </c>
@@ -11101,7 +11102,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>0</v>
       </c>
@@ -11127,7 +11128,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>0</v>
       </c>
@@ -11151,7 +11152,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>0</v>
       </c>
@@ -11177,7 +11178,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>0</v>
       </c>
@@ -11203,7 +11204,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>0</v>
       </c>
@@ -11229,7 +11230,7 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>0</v>
       </c>
@@ -11255,7 +11256,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>0</v>
       </c>
@@ -11281,7 +11282,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>0</v>
       </c>
@@ -11307,7 +11308,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -11331,7 +11332,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>0</v>
       </c>
@@ -11357,7 +11358,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -11383,7 +11384,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>0</v>
       </c>
@@ -11407,7 +11408,7 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -11433,7 +11434,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -11459,7 +11460,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>0</v>
       </c>
@@ -11487,7 +11488,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -11511,7 +11512,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>0</v>
       </c>
@@ -11533,7 +11534,7 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>296</v>
       </c>
@@ -11557,7 +11558,7 @@
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>296</v>
       </c>
@@ -11583,7 +11584,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>296</v>
       </c>
@@ -11611,7 +11612,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>296</v>
       </c>
@@ -11633,7 +11634,7 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -11661,7 +11662,7 @@
       </c>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -11689,7 +11690,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -11717,7 +11718,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -11743,7 +11744,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -11769,7 +11770,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -11791,7 +11792,7 @@
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -11819,7 +11820,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -11847,7 +11848,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>1</v>
       </c>
@@ -11875,7 +11876,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -11903,7 +11904,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -11929,7 +11930,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -11955,7 +11956,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -11979,7 +11980,7 @@
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -12001,7 +12002,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>0</v>
       </c>
@@ -12025,7 +12026,7 @@
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>0</v>
       </c>
@@ -12047,7 +12048,7 @@
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -12073,7 +12074,7 @@
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>0</v>
       </c>
@@ -12097,7 +12098,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>0</v>
       </c>
@@ -12121,7 +12122,7 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>0</v>
       </c>
@@ -12145,7 +12146,7 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -12169,7 +12170,7 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>0</v>
       </c>
@@ -12193,7 +12194,7 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>0</v>
       </c>
@@ -12217,7 +12218,7 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>0</v>
       </c>
@@ -12241,7 +12242,7 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>0</v>
       </c>
@@ -12265,7 +12266,7 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>0</v>
       </c>
@@ -12291,7 +12292,7 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -12317,7 +12318,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -12343,7 +12344,7 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>0</v>
       </c>
@@ -12371,7 +12372,7 @@
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>0</v>
       </c>
@@ -12397,7 +12398,7 @@
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>0</v>
       </c>
@@ -12423,7 +12424,7 @@
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>0</v>
       </c>
@@ -12449,7 +12450,7 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -12475,7 +12476,7 @@
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -12501,7 +12502,7 @@
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -12527,7 +12528,7 @@
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -12553,7 +12554,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -12577,7 +12578,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>0</v>
       </c>
@@ -12599,7 +12600,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -12625,7 +12626,7 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>296</v>
       </c>
@@ -12649,7 +12650,7 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>296</v>
       </c>
@@ -12677,7 +12678,7 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>296</v>
       </c>
@@ -12703,7 +12704,7 @@
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>296</v>
       </c>
@@ -12731,7 +12732,7 @@
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>296</v>
       </c>
@@ -12759,7 +12760,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>296</v>
       </c>
@@ -12787,7 +12788,7 @@
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>479</v>
       </c>
@@ -12815,7 +12816,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -12841,7 +12842,7 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -12867,7 +12868,7 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -12893,7 +12894,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -12919,7 +12920,7 @@
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -12945,7 +12946,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -12971,7 +12972,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -12999,7 +13000,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -13027,7 +13028,7 @@
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -13055,7 +13056,7 @@
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -13083,7 +13084,7 @@
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -13111,7 +13112,7 @@
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>1</v>
       </c>
@@ -13139,7 +13140,7 @@
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
     </row>
-    <row r="198" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -13165,7 +13166,7 @@
       </c>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -13189,7 +13190,7 @@
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>0</v>
       </c>
@@ -13213,7 +13214,7 @@
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>0</v>
       </c>
@@ -13237,7 +13238,7 @@
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>0</v>
       </c>
@@ -13263,7 +13264,7 @@
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>0</v>
       </c>
@@ -13289,7 +13290,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>0</v>
       </c>
@@ -13313,7 +13314,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>0</v>
       </c>
@@ -13337,7 +13338,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>0</v>
       </c>
@@ -13361,7 +13362,7 @@
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>0</v>
       </c>
@@ -13385,7 +13386,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>0</v>
       </c>
@@ -13409,7 +13410,7 @@
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>0</v>
       </c>
@@ -13435,7 +13436,7 @@
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>0</v>
       </c>
@@ -13459,7 +13460,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -13485,7 +13486,7 @@
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -13511,7 +13512,7 @@
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -13537,7 +13538,7 @@
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -13563,7 +13564,7 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>0</v>
       </c>
@@ -13589,7 +13590,7 @@
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>0</v>
       </c>
@@ -13615,7 +13616,7 @@
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>0</v>
       </c>
@@ -13641,7 +13642,7 @@
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>0</v>
       </c>
@@ -13665,7 +13666,7 @@
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>0</v>
       </c>
@@ -13689,7 +13690,7 @@
       <c r="I219" s="9"/>
       <c r="J219" s="9"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>0</v>
       </c>
@@ -13715,7 +13716,7 @@
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>0</v>
       </c>
@@ -13737,7 +13738,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
         <v>8</v>
       </c>
@@ -13763,7 +13764,7 @@
       <c r="I222" s="9"/>
       <c r="J222" s="9"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>8</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>8</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" s="5" t="s">
         <v>8</v>
       </c>
@@ -13843,7 +13844,7 @@
       <c r="I225" s="9"/>
       <c r="J225" s="9"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
@@ -13865,7 +13866,7 @@
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" s="5" t="s">
         <v>8</v>
       </c>
@@ -13889,7 +13890,7 @@
       <c r="I227" s="9"/>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" s="5" t="s">
         <v>8</v>
       </c>
@@ -13917,7 +13918,7 @@
       <c r="I228" s="9"/>
       <c r="J228" s="9"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>1</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>1</v>
       </c>
@@ -13971,7 +13972,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>1</v>
       </c>
@@ -13997,7 +13998,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>1</v>
       </c>
@@ -14025,7 +14026,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>1</v>
       </c>
@@ -14051,7 +14052,7 @@
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>1</v>
       </c>
@@ -14077,7 +14078,7 @@
       <c r="I234" s="9"/>
       <c r="J234" s="9"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>1</v>
       </c>
@@ -14105,7 +14106,7 @@
       </c>
       <c r="J235" s="9"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>1</v>
       </c>
@@ -14131,7 +14132,7 @@
       </c>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>1</v>
       </c>
@@ -14153,7 +14154,7 @@
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>1</v>
       </c>
@@ -14179,7 +14180,7 @@
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>1</v>
       </c>
@@ -14205,7 +14206,7 @@
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>0</v>
       </c>
@@ -14231,7 +14232,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>0</v>
       </c>
@@ -14257,7 +14258,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>0</v>
       </c>
@@ -14281,7 +14282,7 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>0</v>
       </c>
@@ -14305,7 +14306,7 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>0</v>
       </c>
@@ -14331,7 +14332,7 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>0</v>
       </c>
@@ -14357,7 +14358,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>0</v>
       </c>
@@ -14383,7 +14384,7 @@
       <c r="I246" s="9"/>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>0</v>
       </c>
@@ -14407,7 +14408,7 @@
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>0</v>
       </c>
@@ -14431,7 +14432,7 @@
       <c r="I248" s="9"/>
       <c r="J248" s="9"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>0</v>
       </c>
@@ -14457,7 +14458,7 @@
       <c r="I249" s="9"/>
       <c r="J249" s="9"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>0</v>
       </c>
@@ -14483,7 +14484,7 @@
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>8</v>
       </c>
@@ -14511,7 +14512,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>1</v>
       </c>
@@ -14541,7 +14542,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>8</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
@@ -14593,7 +14594,7 @@
       <c r="I254" s="9"/>
       <c r="J254" s="9"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
         <v>8</v>
       </c>
@@ -14617,7 +14618,7 @@
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256" s="5" t="s">
         <v>8</v>
       </c>
@@ -14645,7 +14646,7 @@
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>1</v>
       </c>
@@ -14671,7 +14672,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>1</v>
       </c>
@@ -14695,7 +14696,7 @@
       <c r="I258" s="9"/>
       <c r="J258" s="9"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>1</v>
       </c>
@@ -14721,7 +14722,7 @@
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>1</v>
       </c>
@@ -14747,7 +14748,7 @@
       <c r="I260" s="9"/>
       <c r="J260" s="9"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>1</v>
       </c>
@@ -14771,7 +14772,7 @@
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>1</v>
       </c>
@@ -14797,7 +14798,7 @@
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>1</v>
       </c>
@@ -14823,7 +14824,7 @@
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>1</v>
       </c>
@@ -14849,7 +14850,7 @@
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>1</v>
       </c>
@@ -14875,7 +14876,7 @@
       <c r="I265" s="9"/>
       <c r="J265" s="9"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>0</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>0</v>
       </c>
@@ -14927,7 +14928,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>0</v>
       </c>
@@ -14951,7 +14952,7 @@
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>0</v>
       </c>
@@ -14975,7 +14976,7 @@
       <c r="I269" s="9"/>
       <c r="J269" s="9"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>0</v>
       </c>
@@ -14999,7 +15000,7 @@
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>0</v>
       </c>
@@ -15025,7 +15026,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>0</v>
       </c>
@@ -15049,7 +15050,7 @@
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>0</v>
       </c>
@@ -15073,7 +15074,7 @@
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>0</v>
       </c>
@@ -15097,7 +15098,7 @@
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>0</v>
       </c>
@@ -15119,7 +15120,7 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>0</v>
       </c>
@@ -15143,7 +15144,7 @@
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>0</v>
       </c>
@@ -15169,7 +15170,7 @@
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>0</v>
       </c>
@@ -15195,7 +15196,7 @@
       <c r="I278" s="9"/>
       <c r="J278" s="9"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>0</v>
       </c>
@@ -15221,7 +15222,7 @@
       <c r="I279" s="9"/>
       <c r="J279" s="9"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>0</v>
       </c>
@@ -15245,7 +15246,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>0</v>
       </c>
@@ -15269,7 +15270,7 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>0</v>
       </c>
@@ -15295,7 +15296,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>0</v>
       </c>
@@ -15319,7 +15320,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>0</v>
       </c>
@@ -15343,7 +15344,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>0</v>
       </c>
@@ -15367,7 +15368,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>0</v>
       </c>
@@ -15393,7 +15394,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>0</v>
       </c>
@@ -15419,7 +15420,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>0</v>
       </c>
@@ -15445,7 +15446,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>0</v>
       </c>
@@ -15471,7 +15472,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" s="5" t="s">
         <v>8</v>
       </c>
@@ -15501,7 +15502,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
         <v>8</v>
       </c>
@@ -15527,7 +15528,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" s="2" t="s">
         <v>8</v>
       </c>
@@ -15553,7 +15554,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="s">
         <v>8</v>
       </c>
@@ -15581,7 +15582,7 @@
       <c r="I293" s="9"/>
       <c r="J293" s="9"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="s">
         <v>8</v>
       </c>
@@ -15609,7 +15610,7 @@
       <c r="I294" s="9"/>
       <c r="J294" s="9"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="s">
         <v>8</v>
       </c>
@@ -15637,7 +15638,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="s">
         <v>8</v>
       </c>
@@ -15663,7 +15664,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>1</v>
       </c>
@@ -15687,7 +15688,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>1</v>
       </c>
@@ -15713,7 +15714,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>1</v>
       </c>
@@ -15739,7 +15740,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>1</v>
       </c>
@@ -15763,7 +15764,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>1</v>
       </c>
@@ -15787,7 +15788,7 @@
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" s="5">
         <v>1</v>
       </c>
@@ -15815,7 +15816,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303" s="5">
         <v>1</v>
       </c>
@@ -15843,7 +15844,7 @@
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304" s="5">
         <v>1</v>
       </c>
@@ -15869,7 +15870,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>1</v>
       </c>
@@ -15895,7 +15896,7 @@
       <c r="I305" s="9"/>
       <c r="J305" s="9"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>1</v>
       </c>
@@ -15921,7 +15922,7 @@
       </c>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>1</v>
       </c>
@@ -15947,7 +15948,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>1</v>
       </c>
@@ -15973,7 +15974,7 @@
       <c r="I308" s="9"/>
       <c r="J308" s="9"/>
     </row>
-    <row r="309" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>1</v>
       </c>
@@ -15999,7 +16000,7 @@
       </c>
       <c r="J309" s="9"/>
     </row>
-    <row r="310" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>1</v>
       </c>
@@ -16021,7 +16022,7 @@
       </c>
       <c r="J310" s="9"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>1</v>
       </c>
@@ -16047,7 +16048,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" s="5">
         <v>0</v>
       </c>
@@ -16073,7 +16074,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>0</v>
       </c>
@@ -16101,7 +16102,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>0</v>
       </c>
@@ -16129,7 +16130,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>0</v>
       </c>
@@ -16155,7 +16156,7 @@
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>0</v>
       </c>
@@ -16179,7 +16180,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>0</v>
       </c>
@@ -16203,7 +16204,7 @@
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>0</v>
       </c>
@@ -16227,7 +16228,7 @@
       <c r="I318" s="9"/>
       <c r="J318" s="9"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>0</v>
       </c>
@@ -16251,7 +16252,7 @@
       <c r="I319" s="9"/>
       <c r="J319" s="9"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>0</v>
       </c>
@@ -16277,7 +16278,7 @@
       <c r="I320" s="9"/>
       <c r="J320" s="9"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>0</v>
       </c>
@@ -16301,7 +16302,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>0</v>
       </c>
@@ -16325,7 +16326,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>0</v>
       </c>
@@ -16351,7 +16352,7 @@
       <c r="I323" s="9"/>
       <c r="J323" s="9"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>0</v>
       </c>
@@ -16377,7 +16378,7 @@
       <c r="I324" s="9"/>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>0</v>
       </c>
@@ -16403,7 +16404,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>0</v>
       </c>
@@ -16429,7 +16430,7 @@
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>0</v>
       </c>
@@ -16455,7 +16456,7 @@
       <c r="I327" s="9"/>
       <c r="J327" s="9"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>0</v>
       </c>
@@ -16481,7 +16482,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>0</v>
       </c>
@@ -16505,7 +16506,7 @@
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A330" s="7">
         <v>0</v>
       </c>
@@ -16531,7 +16532,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>0</v>
       </c>
@@ -16557,7 +16558,7 @@
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>0</v>
       </c>
@@ -16581,7 +16582,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="9"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>0</v>
       </c>
@@ -16607,7 +16608,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>0</v>
       </c>
@@ -16633,7 +16634,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>0</v>
       </c>
@@ -16659,7 +16660,7 @@
       <c r="I335" s="9"/>
       <c r="J335" s="9"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>0</v>
       </c>
@@ -16685,7 +16686,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="9"/>
     </row>
-    <row r="337" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>0</v>
       </c>
@@ -16711,7 +16712,7 @@
       <c r="I337" s="9"/>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A338" s="5" t="s">
         <v>8</v>
       </c>
@@ -16737,7 +16738,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339" s="5" t="s">
         <v>8</v>
       </c>
@@ -16763,7 +16764,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340" s="5" t="s">
         <v>8</v>
       </c>
@@ -16793,7 +16794,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341" s="5" t="s">
         <v>8</v>
       </c>
@@ -16821,7 +16822,7 @@
       <c r="I341" s="9"/>
       <c r="J341" s="9"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342" s="5" t="s">
         <v>8</v>
       </c>
@@ -16849,7 +16850,7 @@
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343" s="5" t="s">
         <v>8</v>
       </c>
@@ -16877,7 +16878,7 @@
       <c r="I343" s="9"/>
       <c r="J343" s="9"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>1</v>
       </c>
@@ -16903,7 +16904,7 @@
       <c r="I344" s="9"/>
       <c r="J344" s="9"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>1</v>
       </c>
@@ -16925,7 +16926,7 @@
       <c r="I345" s="9"/>
       <c r="J345" s="9"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>1</v>
       </c>
@@ -16951,7 +16952,7 @@
       <c r="I346" s="9"/>
       <c r="J346" s="9"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>1</v>
       </c>
@@ -16975,7 +16976,7 @@
       <c r="I347" s="9"/>
       <c r="J347" s="9"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348" s="5">
         <v>1</v>
       </c>
@@ -16999,7 +17000,7 @@
       <c r="I348" s="9"/>
       <c r="J348" s="9"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349" s="5">
         <v>1</v>
       </c>
@@ -17023,7 +17024,7 @@
       <c r="I349" s="9"/>
       <c r="J349" s="9"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350" s="5">
         <v>1</v>
       </c>
@@ -17047,7 +17048,7 @@
       <c r="I350" s="9"/>
       <c r="J350" s="9"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>1</v>
       </c>
@@ -17073,7 +17074,7 @@
       <c r="I351" s="9"/>
       <c r="J351" s="9"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" s="5">
         <v>0</v>
       </c>
@@ -17099,7 +17100,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" s="5">
         <v>0</v>
       </c>
@@ -17129,7 +17130,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" s="5">
         <v>0</v>
       </c>
@@ -17157,7 +17158,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>0</v>
       </c>
@@ -17183,7 +17184,7 @@
       <c r="I355" s="9"/>
       <c r="J355" s="9"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>0</v>
       </c>
@@ -17207,7 +17208,7 @@
       <c r="I356" s="9"/>
       <c r="J356" s="9"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>0</v>
       </c>
@@ -17233,7 +17234,7 @@
       <c r="I357" s="9"/>
       <c r="J357" s="9"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>0</v>
       </c>
@@ -17259,7 +17260,7 @@
       <c r="I358" s="9"/>
       <c r="J358" s="9"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>0</v>
       </c>
@@ -17283,7 +17284,7 @@
       <c r="I359" s="9"/>
       <c r="J359" s="9"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>0</v>
       </c>
@@ -17305,7 +17306,7 @@
       <c r="I360" s="9"/>
       <c r="J360" s="9"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>0</v>
       </c>
@@ -17331,7 +17332,7 @@
       <c r="I361" s="9"/>
       <c r="J361" s="9"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>0</v>
       </c>
@@ -17357,7 +17358,7 @@
       <c r="I362" s="9"/>
       <c r="J362" s="9"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>0</v>
       </c>
@@ -17383,7 +17384,7 @@
       <c r="I363" s="9"/>
       <c r="J363" s="9"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>0</v>
       </c>
@@ -17409,7 +17410,7 @@
       <c r="I364" s="9"/>
       <c r="J364" s="9"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>0</v>
       </c>
@@ -17435,7 +17436,7 @@
       <c r="I365" s="9"/>
       <c r="J365" s="9"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>0</v>
       </c>
@@ -17461,7 +17462,7 @@
       <c r="I366" s="9"/>
       <c r="J366" s="9"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>0</v>
       </c>
@@ -17487,7 +17488,7 @@
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>0</v>
       </c>
@@ -17513,7 +17514,7 @@
       <c r="I368" s="9"/>
       <c r="J368" s="9"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>0</v>
       </c>
@@ -17539,7 +17540,7 @@
       <c r="I369" s="9"/>
       <c r="J369" s="9"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>0</v>
       </c>
@@ -17565,7 +17566,7 @@
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>0</v>
       </c>
@@ -17591,7 +17592,7 @@
       <c r="I371" s="9"/>
       <c r="J371" s="9"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>0</v>
       </c>
@@ -17617,7 +17618,7 @@
       <c r="I372" s="9"/>
       <c r="J372" s="9"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>0</v>
       </c>
@@ -17643,7 +17644,7 @@
       <c r="I373" s="9"/>
       <c r="J373" s="9"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>0</v>
       </c>
@@ -17667,7 +17668,7 @@
       <c r="I374" s="9"/>
       <c r="J374" s="9"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>0</v>
       </c>
@@ -17689,7 +17690,7 @@
       <c r="I375" s="9"/>
       <c r="J375" s="9"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" s="5" t="s">
         <v>8</v>
       </c>
@@ -17717,7 +17718,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" s="5" t="s">
         <v>8</v>
       </c>
@@ -17743,7 +17744,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" s="5" t="s">
         <v>8</v>
       </c>
@@ -17773,7 +17774,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" s="5">
         <v>1</v>
       </c>
@@ -17801,7 +17802,7 @@
       <c r="I379" s="9"/>
       <c r="J379" s="9"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>1</v>
       </c>
@@ -17829,7 +17830,7 @@
       <c r="I380" s="9"/>
       <c r="J380" s="9"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>1</v>
       </c>
@@ -17853,7 +17854,7 @@
       <c r="I381" s="9"/>
       <c r="J381" s="9"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>1</v>
       </c>
@@ -17879,7 +17880,7 @@
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>1</v>
       </c>
@@ -17905,7 +17906,7 @@
       <c r="I383" s="9"/>
       <c r="J383" s="9"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>1</v>
       </c>
@@ -17931,7 +17932,7 @@
       <c r="I384" s="9"/>
       <c r="J384" s="9"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>1</v>
       </c>
@@ -17953,7 +17954,7 @@
       <c r="I385" s="9"/>
       <c r="J385" s="9"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>1</v>
       </c>
@@ -17979,7 +17980,7 @@
       <c r="I386" s="9"/>
       <c r="J386" s="9"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387" s="5">
         <v>1</v>
       </c>
@@ -18007,7 +18008,7 @@
       <c r="I387" s="9"/>
       <c r="J387" s="9"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>1</v>
       </c>
@@ -18033,7 +18034,7 @@
       <c r="I388" s="9"/>
       <c r="J388" s="9"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>1</v>
       </c>
@@ -18059,7 +18060,7 @@
       <c r="I389" s="9"/>
       <c r="J389" s="9"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>0</v>
       </c>
@@ -18083,7 +18084,7 @@
       <c r="I390" s="9"/>
       <c r="J390" s="9"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>0</v>
       </c>
@@ -18109,7 +18110,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="9"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>0</v>
       </c>
@@ -18133,7 +18134,7 @@
       <c r="I392" s="9"/>
       <c r="J392" s="9"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>0</v>
       </c>
@@ -18157,7 +18158,7 @@
       <c r="I393" s="9"/>
       <c r="J393" s="9"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>0</v>
       </c>
@@ -18181,7 +18182,7 @@
       <c r="I394" s="9"/>
       <c r="J394" s="9"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>0</v>
       </c>
@@ -18205,7 +18206,7 @@
       <c r="I395" s="9"/>
       <c r="J395" s="9"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>0</v>
       </c>
@@ -18231,7 +18232,7 @@
       <c r="I396" s="9"/>
       <c r="J396" s="9"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>0</v>
       </c>
@@ -18257,7 +18258,7 @@
       <c r="I397" s="9"/>
       <c r="J397" s="9"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>0</v>
       </c>
@@ -18283,7 +18284,7 @@
       <c r="I398" s="9"/>
       <c r="J398" s="9"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>0</v>
       </c>
@@ -18309,7 +18310,7 @@
       <c r="I399" s="9"/>
       <c r="J399" s="9"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>0</v>
       </c>
@@ -18335,7 +18336,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="9"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>0</v>
       </c>
@@ -18361,7 +18362,7 @@
       <c r="I401" s="9"/>
       <c r="J401" s="9"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>0</v>
       </c>
@@ -18387,7 +18388,7 @@
       <c r="I402" s="9"/>
       <c r="J402" s="9"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>0</v>
       </c>
@@ -18413,7 +18414,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>0</v>
       </c>
@@ -18439,7 +18440,7 @@
       <c r="I404" s="9"/>
       <c r="J404" s="9"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>0</v>
       </c>
@@ -18463,7 +18464,7 @@
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>0</v>
       </c>
@@ -18489,7 +18490,7 @@
       <c r="I406" s="9"/>
       <c r="J406" s="9"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>0</v>
       </c>
@@ -18515,7 +18516,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>0</v>
       </c>
@@ -18541,7 +18542,7 @@
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>0</v>
       </c>
@@ -18565,7 +18566,7 @@
       <c r="I409" s="9"/>
       <c r="J409" s="9"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>0</v>
       </c>
@@ -18591,7 +18592,7 @@
       <c r="I410" s="9"/>
       <c r="J410" s="9"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>0</v>
       </c>
@@ -18617,7 +18618,7 @@
       <c r="I411" s="9"/>
       <c r="J411" s="9"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A412" s="5" t="s">
         <v>8</v>
       </c>
@@ -18643,7 +18644,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>1</v>
       </c>
@@ -18669,7 +18670,7 @@
       <c r="I413" s="9"/>
       <c r="J413" s="9"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>1</v>
       </c>
@@ -18695,7 +18696,7 @@
       <c r="I414" s="9"/>
       <c r="J414" s="9"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>1</v>
       </c>
@@ -18719,7 +18720,7 @@
       </c>
       <c r="J415" s="9"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>1</v>
       </c>
@@ -18743,7 +18744,7 @@
       <c r="I416" s="9"/>
       <c r="J416" s="9"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>1</v>
       </c>
@@ -18769,7 +18770,7 @@
       </c>
       <c r="J417" s="9"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>1</v>
       </c>
@@ -18795,7 +18796,7 @@
       <c r="I418" s="9"/>
       <c r="J418" s="9"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <v>1</v>
       </c>
@@ -18819,7 +18820,7 @@
       <c r="I419" s="9"/>
       <c r="J419" s="9"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>1</v>
       </c>
@@ -18845,7 +18846,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="9"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>1</v>
       </c>
@@ -18871,7 +18872,7 @@
       <c r="I421" s="9"/>
       <c r="J421" s="9"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A422" s="5">
         <v>0</v>
       </c>
@@ -18901,7 +18902,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>0</v>
       </c>
@@ -18927,7 +18928,7 @@
       <c r="I423" s="9"/>
       <c r="J423" s="9"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>0</v>
       </c>
@@ -18951,7 +18952,7 @@
       <c r="I424" s="9"/>
       <c r="J424" s="9"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>0</v>
       </c>
@@ -18975,7 +18976,7 @@
       <c r="I425" s="9"/>
       <c r="J425" s="9"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>0</v>
       </c>
@@ -18999,7 +19000,7 @@
       <c r="I426" s="9"/>
       <c r="J426" s="9"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>0</v>
       </c>
@@ -19025,7 +19026,7 @@
       <c r="I427" s="9"/>
       <c r="J427" s="9"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>0</v>
       </c>
@@ -19049,7 +19050,7 @@
       <c r="I428" s="9"/>
       <c r="J428" s="9"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>0</v>
       </c>
@@ -19075,7 +19076,7 @@
       <c r="I429" s="9"/>
       <c r="J429" s="9"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>0</v>
       </c>
@@ -19101,7 +19102,7 @@
       <c r="I430" s="9"/>
       <c r="J430" s="9"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>0</v>
       </c>
@@ -19127,7 +19128,7 @@
       <c r="I431" s="9"/>
       <c r="J431" s="9"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>0</v>
       </c>
@@ -19153,7 +19154,7 @@
       <c r="I432" s="9"/>
       <c r="J432" s="9"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>0</v>
       </c>
@@ -19179,7 +19180,7 @@
       <c r="I433" s="9"/>
       <c r="J433" s="9"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>0</v>
       </c>
@@ -19205,7 +19206,7 @@
       <c r="I434" s="9"/>
       <c r="J434" s="9"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>0</v>
       </c>
@@ -19231,7 +19232,7 @@
       <c r="I435" s="9"/>
       <c r="J435" s="9"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A436" s="5" t="s">
         <v>8</v>
       </c>
@@ -19261,7 +19262,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437" s="5" t="s">
         <v>473</v>
       </c>
@@ -19287,7 +19288,7 @@
       <c r="I437" s="9"/>
       <c r="J437" s="9"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>1</v>
       </c>
@@ -19313,7 +19314,7 @@
       <c r="I438" s="9"/>
       <c r="J438" s="9"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>1</v>
       </c>
@@ -19339,7 +19340,7 @@
       <c r="I439" s="9"/>
       <c r="J439" s="9"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>1</v>
       </c>
@@ -19361,7 +19362,7 @@
       <c r="I440" s="9"/>
       <c r="J440" s="9"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>0</v>
       </c>
@@ -19385,7 +19386,7 @@
       <c r="I441" s="9"/>
       <c r="J441" s="9"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>0</v>
       </c>
@@ -19409,7 +19410,7 @@
       <c r="I442" s="9"/>
       <c r="J442" s="9"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>0</v>
       </c>
@@ -19433,7 +19434,7 @@
       <c r="I443" s="9"/>
       <c r="J443" s="9"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>0</v>
       </c>
@@ -19459,7 +19460,7 @@
       <c r="I444" s="9"/>
       <c r="J444" s="9"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>0</v>
       </c>
@@ -19483,7 +19484,7 @@
       <c r="I445" s="9"/>
       <c r="J445" s="9"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>0</v>
       </c>
@@ -19507,7 +19508,7 @@
       <c r="I446" s="9"/>
       <c r="J446" s="9"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>0</v>
       </c>
@@ -19531,7 +19532,7 @@
       <c r="I447" s="9"/>
       <c r="J447" s="9"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>0</v>
       </c>
@@ -19557,7 +19558,7 @@
       <c r="I448" s="9"/>
       <c r="J448" s="9"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>0</v>
       </c>
@@ -19581,7 +19582,7 @@
       <c r="I449" s="9"/>
       <c r="J449" s="9"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>0</v>
       </c>
@@ -19607,7 +19608,7 @@
       <c r="I450" s="9"/>
       <c r="J450" s="9"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>0</v>
       </c>
@@ -19631,7 +19632,7 @@
       <c r="I451" s="9"/>
       <c r="J451" s="9"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>0</v>
       </c>
@@ -19655,7 +19656,7 @@
       <c r="I452" s="9"/>
       <c r="J452" s="9"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>0</v>
       </c>
@@ -19679,7 +19680,7 @@
       <c r="I453" s="9"/>
       <c r="J453" s="9"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A454" s="2" t="s">
         <v>8</v>
       </c>
@@ -19707,7 +19708,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455" s="5" t="s">
         <v>8</v>
       </c>
@@ -19737,7 +19738,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A456" s="5" t="s">
         <v>8</v>
       </c>
@@ -19767,7 +19768,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>1</v>
       </c>
@@ -19795,7 +19796,7 @@
       <c r="I457" s="9"/>
       <c r="J457" s="9"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>1</v>
       </c>
@@ -19823,7 +19824,7 @@
       <c r="I458" s="9"/>
       <c r="J458" s="9"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>1</v>
       </c>
@@ -19851,7 +19852,7 @@
       <c r="I459" s="9"/>
       <c r="J459" s="9"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>1</v>
       </c>
@@ -19877,7 +19878,7 @@
       <c r="I460" s="9"/>
       <c r="J460" s="9"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>1</v>
       </c>
@@ -19903,7 +19904,7 @@
       <c r="I461" s="9"/>
       <c r="J461" s="9"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>1</v>
       </c>
@@ -19927,7 +19928,7 @@
       <c r="I462" s="9"/>
       <c r="J462" s="9"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>1</v>
       </c>
@@ -19951,7 +19952,7 @@
       <c r="I463" s="9"/>
       <c r="J463" s="9"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A464" s="5">
         <v>1</v>
       </c>
@@ -19979,7 +19980,7 @@
       <c r="I464" s="9"/>
       <c r="J464" s="9"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A465" s="5">
         <v>1</v>
       </c>
@@ -20001,7 +20002,7 @@
       <c r="I465" s="9"/>
       <c r="J465" s="9"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>1</v>
       </c>
@@ -20027,7 +20028,7 @@
       <c r="I466" s="9"/>
       <c r="J466" s="9"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>1</v>
       </c>
@@ -20053,7 +20054,7 @@
       <c r="I467" s="9"/>
       <c r="J467" s="9"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>0</v>
       </c>
@@ -20077,7 +20078,7 @@
       <c r="I468" s="9"/>
       <c r="J468" s="9"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>0</v>
       </c>
@@ -20099,7 +20100,7 @@
       <c r="I469" s="9"/>
       <c r="J469" s="9"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>0</v>
       </c>
@@ -20123,7 +20124,7 @@
       <c r="I470" s="9"/>
       <c r="J470" s="9"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>0</v>
       </c>
@@ -20147,7 +20148,7 @@
       <c r="I471" s="9"/>
       <c r="J471" s="9"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>0</v>
       </c>
@@ -20173,7 +20174,7 @@
       <c r="I472" s="9"/>
       <c r="J472" s="9"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>0</v>
       </c>
@@ -20197,7 +20198,7 @@
       <c r="I473" s="9"/>
       <c r="J473" s="9"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>0</v>
       </c>
@@ -20221,7 +20222,7 @@
       <c r="I474" s="9"/>
       <c r="J474" s="9"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A475" s="5" t="s">
         <v>8</v>
       </c>
@@ -20251,7 +20252,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>0</v>
       </c>
@@ -20275,7 +20276,7 @@
       <c r="I476" s="9"/>
       <c r="J476" s="9"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>0</v>
       </c>
@@ -20299,7 +20300,7 @@
       <c r="I477" s="9"/>
       <c r="J477" s="9"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>0</v>
       </c>
@@ -20325,7 +20326,7 @@
       <c r="I478" s="9"/>
       <c r="J478" s="9"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A479" s="5" t="s">
         <v>8</v>
       </c>
@@ -20353,7 +20354,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>1</v>
       </c>
@@ -20377,7 +20378,7 @@
       <c r="I480" s="9"/>
       <c r="J480" s="9"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A481" s="5">
         <v>1</v>
       </c>
@@ -20405,7 +20406,7 @@
       <c r="I481" s="9"/>
       <c r="J481" s="9"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>0</v>
       </c>
@@ -20429,7 +20430,7 @@
       <c r="I482" s="9"/>
       <c r="J482" s="9"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A483" s="7">
         <v>0</v>
       </c>
@@ -20455,7 +20456,7 @@
       <c r="I483" s="9"/>
       <c r="J483" s="9"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>0</v>
       </c>
@@ -20481,7 +20482,7 @@
       <c r="I484" s="9"/>
       <c r="J484" s="9"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>0</v>
       </c>
@@ -20507,7 +20508,7 @@
       <c r="I485" s="9"/>
       <c r="J485" s="9"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A486" s="5" t="s">
         <v>8</v>
       </c>
@@ -20535,7 +20536,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A487" s="5">
         <v>1</v>
       </c>
@@ -20561,7 +20562,7 @@
       <c r="I487" s="9"/>
       <c r="J487" s="9"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A488" s="6">
         <v>1</v>
       </c>
@@ -20589,7 +20590,7 @@
       <c r="I488" s="9"/>
       <c r="J488" s="9"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <v>1</v>
       </c>
@@ -20613,7 +20614,7 @@
       <c r="I489" s="9"/>
       <c r="J489" s="9"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <v>1</v>
       </c>
@@ -20639,7 +20640,7 @@
       <c r="I490" s="9"/>
       <c r="J490" s="9"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A491" s="5">
         <v>0</v>
       </c>
@@ -20667,7 +20668,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A492" s="7">
         <v>0</v>
       </c>
@@ -20691,7 +20692,7 @@
       <c r="I492" s="9"/>
       <c r="J492" s="9"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <v>0</v>
       </c>
@@ -20717,7 +20718,7 @@
       <c r="I493" s="9"/>
       <c r="J493" s="9"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <v>0</v>
       </c>
@@ -20743,7 +20744,7 @@
       <c r="I494" s="9"/>
       <c r="J494" s="9"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <v>1</v>
       </c>
@@ -20769,7 +20770,7 @@
       <c r="I495" s="9"/>
       <c r="J495" s="9"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <v>1</v>
       </c>
@@ -20793,7 +20794,7 @@
       <c r="I496" s="9"/>
       <c r="J496" s="9"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <v>0</v>
       </c>
@@ -20817,7 +20818,7 @@
       <c r="I497" s="9"/>
       <c r="J497" s="9"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>0</v>
       </c>
@@ -20843,7 +20844,7 @@
       <c r="I498" s="9"/>
       <c r="J498" s="9"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <v>0</v>
       </c>
@@ -20869,7 +20870,7 @@
       <c r="I499" s="9"/>
       <c r="J499" s="9"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <v>0</v>
       </c>
@@ -20895,7 +20896,7 @@
       <c r="I500" s="9"/>
       <c r="J500" s="9"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <v>0</v>
       </c>
@@ -20919,7 +20920,7 @@
       <c r="I501" s="9"/>
       <c r="J501" s="9"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <v>1</v>
       </c>
@@ -20945,7 +20946,7 @@
       <c r="I502" s="9"/>
       <c r="J502" s="9"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <v>0</v>
       </c>
@@ -20969,7 +20970,7 @@
       <c r="I503" s="9"/>
       <c r="J503" s="9"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <v>0</v>
       </c>
@@ -20993,7 +20994,7 @@
       <c r="I504" s="9"/>
       <c r="J504" s="9"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <v>0</v>
       </c>
@@ -21019,7 +21020,7 @@
       <c r="I505" s="9"/>
       <c r="J505" s="9"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <v>0</v>
       </c>
@@ -21045,7 +21046,7 @@
       <c r="I506" s="9"/>
       <c r="J506" s="9"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <v>0</v>
       </c>
@@ -21071,7 +21072,7 @@
       <c r="I507" s="9"/>
       <c r="J507" s="9"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A508" s="5" t="s">
         <v>8</v>
       </c>
@@ -21099,7 +21100,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <v>0</v>
       </c>
@@ -21123,7 +21124,7 @@
       <c r="I509" s="9"/>
       <c r="J509" s="9"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <v>0</v>
       </c>
@@ -21149,7 +21150,7 @@
       <c r="I510" s="9"/>
       <c r="J510" s="9"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <v>0</v>
       </c>
@@ -21173,7 +21174,7 @@
       <c r="I511" s="9"/>
       <c r="J511" s="9"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <v>1</v>
       </c>
@@ -21197,7 +21198,7 @@
       <c r="I512" s="9"/>
       <c r="J512" s="9"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <v>1</v>
       </c>
@@ -21223,7 +21224,7 @@
       <c r="I513" s="9"/>
       <c r="J513" s="9"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A514" s="6">
         <v>1</v>
       </c>
@@ -21249,7 +21250,7 @@
       <c r="I514" s="9"/>
       <c r="J514" s="9"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A515" s="5">
         <v>0</v>
       </c>
@@ -21277,7 +21278,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A516" s="5">
         <v>0</v>
       </c>
@@ -21305,7 +21306,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <v>0</v>
       </c>
@@ -21329,7 +21330,7 @@
       <c r="I517" s="9"/>
       <c r="J517" s="9"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <v>0</v>
       </c>
@@ -21353,7 +21354,7 @@
       <c r="I518" s="9"/>
       <c r="J518" s="9"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <v>0</v>
       </c>
@@ -21377,7 +21378,7 @@
       <c r="I519" s="9"/>
       <c r="J519" s="9"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <v>0</v>
       </c>
@@ -21401,7 +21402,7 @@
       <c r="I520" s="9"/>
       <c r="J520" s="9"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <v>0</v>
       </c>
@@ -21425,7 +21426,7 @@
       <c r="I521" s="9"/>
       <c r="J521" s="9"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <v>0</v>
       </c>
@@ -21449,7 +21450,7 @@
       <c r="I522" s="9"/>
       <c r="J522" s="9"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A523" s="5" t="s">
         <v>8</v>
       </c>
@@ -21477,7 +21478,7 @@
       <c r="I523" s="9"/>
       <c r="J523" s="9"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <v>1</v>
       </c>
@@ -21505,7 +21506,7 @@
       <c r="I524" s="9"/>
       <c r="J524" s="9"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A525" s="5">
         <v>0</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <v>0</v>
       </c>
@@ -21557,7 +21558,7 @@
       <c r="I526" s="9"/>
       <c r="J526" s="9"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <v>0</v>
       </c>
@@ -21583,7 +21584,7 @@
       <c r="I527" s="9"/>
       <c r="J527" s="9"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <v>0</v>
       </c>
@@ -21607,7 +21608,7 @@
       <c r="I528" s="9"/>
       <c r="J528" s="9"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <v>0</v>
       </c>
@@ -21633,7 +21634,7 @@
       <c r="I529" s="9"/>
       <c r="J529" s="9"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <v>0</v>
       </c>
@@ -21659,7 +21660,7 @@
       <c r="I530" s="9"/>
       <c r="J530" s="9"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <v>0</v>
       </c>
@@ -21683,7 +21684,7 @@
       <c r="I531" s="9"/>
       <c r="J531" s="9"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <v>0</v>
       </c>
@@ -21709,7 +21710,7 @@
       <c r="I532" s="9"/>
       <c r="J532" s="9"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <v>0</v>
       </c>
@@ -21735,7 +21736,7 @@
       <c r="I533" s="9"/>
       <c r="J533" s="9"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <v>0</v>
       </c>
@@ -21759,7 +21760,7 @@
       <c r="I534" s="9"/>
       <c r="J534" s="9"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A535" s="5" t="s">
         <v>8</v>
       </c>
@@ -21787,7 +21788,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <v>1</v>
       </c>
@@ -21813,7 +21814,7 @@
       <c r="I536" s="9"/>
       <c r="J536" s="9"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <v>0</v>
       </c>
@@ -21839,7 +21840,7 @@
       <c r="I537" s="9"/>
       <c r="J537" s="9"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <v>0</v>
       </c>
@@ -21865,7 +21866,7 @@
       <c r="I538" s="9"/>
       <c r="J538" s="9"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A539" s="5" t="s">
         <v>8</v>
       </c>
@@ -21895,7 +21896,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A540" s="5">
         <v>1</v>
       </c>
@@ -21923,7 +21924,7 @@
       <c r="I540" s="9"/>
       <c r="J540" s="9"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <v>0</v>
       </c>
@@ -21949,7 +21950,7 @@
       <c r="I541" s="9"/>
       <c r="J541" s="9"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <v>0</v>
       </c>
@@ -21973,7 +21974,7 @@
       <c r="I542" s="9"/>
       <c r="J542" s="9"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <v>0</v>
       </c>
@@ -21999,7 +22000,7 @@
       <c r="I543" s="9"/>
       <c r="J543" s="9"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <v>0</v>
       </c>
@@ -22023,7 +22024,7 @@
       <c r="I544" s="9"/>
       <c r="J544" s="9"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <v>0</v>
       </c>
@@ -22047,7 +22048,7 @@
       <c r="I545" s="9"/>
       <c r="J545" s="9"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <v>0</v>
       </c>
@@ -22071,7 +22072,7 @@
       <c r="I546" s="9"/>
       <c r="J546" s="9"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A547" s="5">
         <v>0</v>
       </c>
@@ -22099,7 +22100,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <v>0</v>
       </c>
@@ -22121,7 +22122,7 @@
       <c r="I548" s="9"/>
       <c r="J548" s="9"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A549" s="7">
         <v>0</v>
       </c>
@@ -22147,7 +22148,7 @@
       <c r="I549" s="9"/>
       <c r="J549" s="9"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <v>0</v>
       </c>
@@ -22167,7 +22168,7 @@
       <c r="I550" s="9"/>
       <c r="J550" s="9"/>
     </row>
-    <row r="551" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <v>1</v>
       </c>
@@ -22184,7 +22185,13 @@
       <c r="J551" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I551"/>
+  <autoFilter ref="I1:I551">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Tahira"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A1:J551">
     <sortCondition descending="1" ref="D1"/>
   </sortState>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">final!$I$1:$I$551</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">final!$I$1:$I$551</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">final!$I$1:$I$551</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">final!$I$1:$I$551</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="2540">
   <si>
     <t xml:space="preserve">257?</t>
   </si>
@@ -125,6 +126,9 @@
     <t xml:space="preserve">http://link.springer.com/chapter/10.1007/978-3-642-30353-1_42</t>
   </si>
   <si>
+    <t xml:space="preserve">Saad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Situation-Oriented Evaluation and Prioritization of Requirements</t>
   </si>
   <si>
@@ -2172,9 +2176,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.1145/2593861.2593862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saad</t>
   </si>
   <si>
     <t xml:space="preserve">Verifying Software Requirements Based on Answer Set Programming</t>
@@ -7948,23 +7949,19 @@
   </sheetPr>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E154" activeCellId="0" sqref="E154"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.2704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8118,7 +8115,9 @@
         <v>31</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8126,20 +8125,20 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -8150,20 +8149,20 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -8174,25 +8173,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -8202,26 +8201,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -8230,20 +8229,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -8254,20 +8253,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -8278,20 +8277,20 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -8302,22 +8301,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -8326,26 +8325,26 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -8354,26 +8353,26 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -8382,28 +8381,28 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="3"/>
     </row>
@@ -8412,22 +8411,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>23</v>
@@ -8440,22 +8439,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>23</v>
@@ -8468,26 +8467,26 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" s="3"/>
     </row>
@@ -8496,26 +8495,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J21" s="3"/>
     </row>
@@ -8524,26 +8523,26 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -8552,24 +8551,24 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -8578,24 +8577,24 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J24" s="3"/>
     </row>
@@ -8604,24 +8603,24 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J25" s="3"/>
     </row>
@@ -8630,20 +8629,20 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -8654,23 +8653,23 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -8680,26 +8679,26 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J28" s="3"/>
     </row>
@@ -8708,25 +8707,25 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -8736,25 +8735,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -8764,25 +8763,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -8792,25 +8791,25 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -8820,22 +8819,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>23</v>
@@ -8848,24 +8847,24 @@
         <v>1</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -8874,25 +8873,25 @@
         <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -8902,20 +8901,20 @@
         <v>0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -8926,20 +8925,20 @@
         <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -8950,20 +8949,20 @@
         <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -8974,20 +8973,20 @@
         <v>0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -8998,20 +8997,20 @@
         <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9022,20 +9021,20 @@
         <v>0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -9046,20 +9045,20 @@
         <v>0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9070,20 +9069,20 @@
         <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9094,20 +9093,20 @@
         <v>0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -9118,22 +9117,22 @@
         <v>0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -9144,22 +9143,22 @@
         <v>0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -9170,22 +9169,22 @@
         <v>0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -9196,19 +9195,19 @@
         <v>0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -9220,20 +9219,20 @@
         <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -9244,22 +9243,22 @@
         <v>9</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -9270,19 +9269,19 @@
         <v>9</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -9294,20 +9293,20 @@
         <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -9318,20 +9317,20 @@
         <v>9</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -9342,22 +9341,22 @@
         <v>9</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -9368,22 +9367,22 @@
         <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -9394,28 +9393,28 @@
         <v>9</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56" s="3"/>
     </row>
@@ -9424,28 +9423,28 @@
         <v>1</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J57" s="3"/>
     </row>
@@ -9454,26 +9453,26 @@
         <v>1</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J58" s="3"/>
     </row>
@@ -9482,26 +9481,26 @@
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J59" s="3"/>
     </row>
@@ -9510,28 +9509,28 @@
         <v>1</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J60" s="3"/>
     </row>
@@ -9540,26 +9539,26 @@
         <v>1</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J61" s="3"/>
     </row>
@@ -9568,28 +9567,28 @@
         <v>1</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J62" s="3"/>
     </row>
@@ -9598,28 +9597,28 @@
         <v>1</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J63" s="3"/>
     </row>
@@ -9628,24 +9627,24 @@
         <v>1</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J64" s="3"/>
     </row>
@@ -9654,26 +9653,26 @@
         <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J65" s="3"/>
     </row>
@@ -9682,23 +9681,23 @@
         <v>1</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -9708,20 +9707,20 @@
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -9732,23 +9731,23 @@
         <v>1</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -9758,24 +9757,24 @@
         <v>1</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J69" s="3"/>
     </row>
@@ -9784,26 +9783,26 @@
         <v>1</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J70" s="3"/>
     </row>
@@ -9812,26 +9811,26 @@
         <v>1</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J71" s="3"/>
     </row>
@@ -9840,22 +9839,22 @@
         <v>0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -9866,20 +9865,20 @@
         <v>0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -9890,20 +9889,20 @@
         <v>0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -9914,20 +9913,20 @@
         <v>0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -9938,20 +9937,20 @@
         <v>0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -9962,20 +9961,20 @@
         <v>0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -9986,23 +9985,23 @@
         <v>0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -10012,20 +10011,20 @@
         <v>0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D79" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -10036,20 +10035,20 @@
         <v>0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -10060,20 +10059,20 @@
         <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -10084,20 +10083,20 @@
         <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -10108,20 +10107,20 @@
         <v>0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -10132,20 +10131,20 @@
         <v>0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -10156,20 +10155,20 @@
         <v>0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -10180,22 +10179,22 @@
         <v>0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -10206,20 +10205,20 @@
         <v>0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -10230,25 +10229,25 @@
         <v>0</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -10258,22 +10257,22 @@
         <v>0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -10284,22 +10283,22 @@
         <v>0</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -10310,22 +10309,22 @@
         <v>0</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -10336,22 +10335,22 @@
         <v>0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -10362,20 +10361,20 @@
         <v>0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -10386,17 +10385,17 @@
         <v>9</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -10408,22 +10407,22 @@
         <v>9</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -10434,22 +10433,22 @@
         <v>9</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -10460,22 +10459,22 @@
         <v>9</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -10486,22 +10485,22 @@
         <v>9</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -10512,22 +10511,22 @@
         <v>9</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -10538,22 +10537,22 @@
         <v>9</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -10564,28 +10563,28 @@
         <v>1</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D101" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J101" s="3"/>
     </row>
@@ -10594,22 +10593,22 @@
         <v>1</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D102" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -10620,22 +10619,22 @@
         <v>1</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -10646,24 +10645,24 @@
         <v>1</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J104" s="3"/>
     </row>
@@ -10672,23 +10671,23 @@
         <v>1</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -10698,22 +10697,22 @@
         <v>1</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -10724,23 +10723,23 @@
         <v>1</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -10750,22 +10749,22 @@
         <v>1</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -10776,25 +10775,25 @@
         <v>1</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -10804,17 +10803,17 @@
         <v>1</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -10826,20 +10825,20 @@
         <v>0</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -10850,22 +10849,22 @@
         <v>0</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -10876,20 +10875,20 @@
         <v>0</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -10900,20 +10899,20 @@
         <v>0</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -10924,20 +10923,20 @@
         <v>0</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -10948,20 +10947,20 @@
         <v>0</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -10972,20 +10971,20 @@
         <v>0</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -10996,17 +10995,17 @@
         <v>0</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -11018,22 +11017,22 @@
         <v>0</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -11044,19 +11043,19 @@
         <v>0</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -11068,22 +11067,22 @@
         <v>0</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -11094,22 +11093,22 @@
         <v>0</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -11120,22 +11119,22 @@
         <v>0</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -11146,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -11172,22 +11171,22 @@
         <v>0</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -11198,22 +11197,22 @@
         <v>0</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -11224,20 +11223,20 @@
         <v>0</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -11248,23 +11247,23 @@
         <v>0</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -11274,22 +11273,22 @@
         <v>0</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -11300,20 +11299,20 @@
         <v>0</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -11324,22 +11323,22 @@
         <v>0</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -11350,22 +11349,22 @@
         <v>0</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -11376,25 +11375,25 @@
         <v>0</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -11404,19 +11403,19 @@
         <v>0</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -11428,17 +11427,17 @@
         <v>0</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -11450,20 +11449,20 @@
         <v>9</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -11474,22 +11473,22 @@
         <v>9</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -11500,25 +11499,25 @@
         <v>9</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -11528,17 +11527,17 @@
         <v>9</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D139" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -11550,26 +11549,26 @@
         <v>1</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -11578,25 +11577,25 @@
         <v>1</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D141" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -11606,28 +11605,28 @@
         <v>1</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D142" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J142" s="3"/>
     </row>
@@ -11636,20 +11635,20 @@
         <v>1</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D143" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>23</v>
@@ -11662,23 +11661,23 @@
         <v>1</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D144" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -11688,17 +11687,17 @@
         <v>1</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D145" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -11710,25 +11709,25 @@
         <v>1</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D146" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -11738,25 +11737,25 @@
         <v>1</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D147" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -11766,25 +11765,25 @@
         <v>1</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D148" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
@@ -11794,25 +11793,25 @@
         <v>1</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D149" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -11822,23 +11821,23 @@
         <v>1</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D150" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -11848,22 +11847,22 @@
         <v>1</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D151" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -11874,19 +11873,19 @@
         <v>1</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D152" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -11898,24 +11897,24 @@
         <v>0</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D153" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3" t="s">
-        <v>715</v>
+        <v>32</v>
       </c>
       <c r="J153" s="3"/>
     </row>
@@ -12783,7 +12782,7 @@
       </c>
       <c r="H187" s="3"/>
       <c r="I187" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J187" s="3"/>
     </row>
@@ -12811,7 +12810,7 @@
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J188" s="3"/>
     </row>
@@ -13083,7 +13082,7 @@
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J198" s="3"/>
     </row>
@@ -14023,7 +14022,7 @@
       </c>
       <c r="H235" s="3"/>
       <c r="I235" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J235" s="3"/>
     </row>
@@ -14049,7 +14048,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J236" s="3"/>
     </row>
@@ -14457,7 +14456,7 @@
       </c>
       <c r="H252" s="3"/>
       <c r="I252" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J252" s="3" t="s">
         <v>1181</v>
@@ -15416,7 +15415,7 @@
         <v>1353</v>
       </c>
       <c r="H290" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I290" s="3"/>
       <c r="J290" s="3" t="s">
@@ -15630,7 +15629,7 @@
         <v>1387</v>
       </c>
       <c r="H298" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
@@ -15839,7 +15838,7 @@
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J306" s="3"/>
     </row>
@@ -15917,7 +15916,7 @@
       </c>
       <c r="H309" s="3"/>
       <c r="I309" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J309" s="3"/>
     </row>
@@ -15939,7 +15938,7 @@
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J310" s="3"/>
     </row>
@@ -16887,7 +16886,7 @@
         <v>1392</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J347" s="3"/>
     </row>
@@ -17767,7 +17766,7 @@
         <v>1763</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>715</v>
+        <v>32</v>
       </c>
       <c r="J381" s="3"/>
     </row>
@@ -17871,7 +17870,7 @@
         <v>1777</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J385" s="3"/>
     </row>
@@ -18633,7 +18632,7 @@
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J415" s="3"/>
     </row>
@@ -18661,7 +18660,7 @@
       </c>
       <c r="H416" s="3"/>
       <c r="I416" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J416" s="3"/>
     </row>
@@ -18687,7 +18686,7 @@
       </c>
       <c r="H417" s="3"/>
       <c r="I417" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J417" s="3"/>
     </row>
@@ -20533,7 +20532,7 @@
         <v>1763</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>715</v>
+        <v>32</v>
       </c>
       <c r="J489" s="3"/>
     </row>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="2540">
   <si>
     <t>257?</t>
   </si>
@@ -7745,7 +7745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7788,6 +7788,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8140,8 +8142,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B563" sqref="B563"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8184,7 +8186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -8208,7 +8210,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8262,7 +8264,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8312,7 +8314,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -8336,7 +8338,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8353,14 +8355,14 @@
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -8379,7 +8381,7 @@
       <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -8388,7 +8390,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -8416,7 +8418,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -8437,10 +8439,12 @@
         <v>56</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -8457,14 +8461,16 @@
       <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="21" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -8488,7 +8494,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -8512,7 +8518,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -8540,7 +8546,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -8568,7 +8574,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -8598,7 +8604,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -8626,7 +8632,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -8654,7 +8660,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -8682,7 +8688,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -8710,7 +8716,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -8816,7 +8822,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -8837,10 +8843,12 @@
         <v>125</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -8894,7 +8902,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -8922,7 +8930,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -8950,7 +8958,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -8978,7 +8986,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -9006,7 +9014,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -9060,7 +9068,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -9088,7 +9096,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -9112,7 +9120,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -9136,7 +9144,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -9160,7 +9168,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -9184,9 +9192,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>191</v>
@@ -9208,7 +9216,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -9232,7 +9240,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -9256,7 +9264,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -9280,7 +9288,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -9304,7 +9312,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -9330,7 +9338,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -9356,7 +9364,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>0</v>
       </c>
@@ -9382,7 +9390,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -9406,7 +9414,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -9430,7 +9438,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -9456,7 +9464,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -9480,7 +9488,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -9504,7 +9512,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -9528,7 +9536,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -9554,7 +9562,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -9580,7 +9588,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -9640,7 +9648,7 @@
       </c>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -9696,7 +9704,7 @@
       </c>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -9726,7 +9734,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -9868,7 +9876,7 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -9894,7 +9902,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -9918,7 +9926,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -9944,7 +9952,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -10026,7 +10034,7 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>0</v>
       </c>
@@ -10052,7 +10060,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>0</v>
       </c>
@@ -10076,7 +10084,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>0</v>
       </c>
@@ -10100,7 +10108,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>0</v>
       </c>
@@ -10124,7 +10132,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>0</v>
       </c>
@@ -10148,7 +10156,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>0</v>
       </c>
@@ -10172,7 +10180,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>0</v>
       </c>
@@ -10198,7 +10206,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>0</v>
       </c>
@@ -10222,7 +10230,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>0</v>
       </c>
@@ -10246,7 +10254,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>0</v>
       </c>
@@ -10270,7 +10278,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>0</v>
       </c>
@@ -10294,7 +10302,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>0</v>
       </c>
@@ -10318,7 +10326,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>0</v>
       </c>
@@ -10342,7 +10350,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>0</v>
       </c>
@@ -10366,7 +10374,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>0</v>
       </c>
@@ -10392,7 +10400,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>0</v>
       </c>
@@ -10416,7 +10424,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>0</v>
       </c>
@@ -10444,7 +10452,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>0</v>
       </c>
@@ -10470,7 +10478,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>0</v>
       </c>
@@ -10496,7 +10504,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>0</v>
       </c>
@@ -10522,7 +10530,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>0</v>
       </c>
@@ -10548,7 +10556,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>0</v>
       </c>
@@ -10572,7 +10580,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
         <v>9</v>
       </c>
@@ -10594,7 +10602,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>9</v>
       </c>
@@ -10620,7 +10628,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
@@ -10646,7 +10654,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
         <v>9</v>
       </c>
@@ -10672,7 +10680,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
         <v>9</v>
       </c>
@@ -10698,7 +10706,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -10724,7 +10732,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
         <v>9</v>
       </c>
@@ -10780,7 +10788,7 @@
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -10806,7 +10814,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -10858,7 +10866,7 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -10884,7 +10892,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>1</v>
       </c>
@@ -10910,7 +10918,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" ht="17.149999999999999" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -10936,7 +10944,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>1</v>
       </c>
@@ -10962,7 +10970,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>1</v>
       </c>
@@ -10990,7 +10998,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>1</v>
       </c>
@@ -11012,7 +11020,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>0</v>
       </c>
@@ -11036,7 +11044,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>0</v>
       </c>
@@ -11062,7 +11070,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>0</v>
       </c>
@@ -11086,7 +11094,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>0</v>
       </c>
@@ -11110,7 +11118,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>0</v>
       </c>
@@ -11134,7 +11142,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>0</v>
       </c>
@@ -11158,7 +11166,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>0</v>
       </c>
@@ -11182,7 +11190,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>0</v>
       </c>
@@ -11204,7 +11212,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>0</v>
       </c>
@@ -11230,7 +11238,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>0</v>
       </c>
@@ -11254,7 +11262,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>0</v>
       </c>
@@ -11280,7 +11288,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>0</v>
       </c>
@@ -11306,7 +11314,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>0</v>
       </c>
@@ -11332,7 +11340,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>0</v>
       </c>
@@ -11358,7 +11366,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>0</v>
       </c>
@@ -11384,7 +11392,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>0</v>
       </c>
@@ -11410,7 +11418,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>0</v>
       </c>
@@ -11434,7 +11442,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>0</v>
       </c>
@@ -11460,7 +11468,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>0</v>
       </c>
@@ -11486,7 +11494,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>0</v>
       </c>
@@ -11510,7 +11518,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>0</v>
       </c>
@@ -11536,7 +11544,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>0</v>
       </c>
@@ -11562,7 +11570,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>0</v>
       </c>
@@ -11590,7 +11598,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>0</v>
       </c>
@@ -11614,7 +11622,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>0</v>
       </c>
@@ -11636,7 +11644,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -11660,7 +11668,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="5" t="s">
         <v>9</v>
       </c>
@@ -11686,7 +11694,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
         <v>9</v>
       </c>
@@ -11714,7 +11722,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -11764,7 +11772,7 @@
       </c>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -11822,7 +11830,7 @@
       </c>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>1</v>
       </c>
@@ -11848,7 +11856,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -11874,7 +11882,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>1</v>
       </c>
@@ -11896,7 +11904,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>1</v>
       </c>
@@ -11924,7 +11932,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11982,7 +11990,7 @@
       </c>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -12010,7 +12018,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -12036,7 +12044,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -12062,7 +12070,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>1</v>
       </c>
@@ -12112,7 +12120,7 @@
       </c>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>0</v>
       </c>
@@ -12136,7 +12144,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>0</v>
       </c>
@@ -12158,7 +12166,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>0</v>
       </c>
@@ -12184,7 +12192,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>0</v>
       </c>
@@ -12208,7 +12216,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>0</v>
       </c>
@@ -12232,7 +12240,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>0</v>
       </c>
@@ -12256,7 +12264,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>0</v>
       </c>
@@ -12280,7 +12288,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>0</v>
       </c>
@@ -12304,7 +12312,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>0</v>
       </c>
@@ -12328,7 +12336,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>0</v>
       </c>
@@ -12352,7 +12360,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>0</v>
       </c>
@@ -12376,7 +12384,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>0</v>
       </c>
@@ -12402,7 +12410,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>0</v>
       </c>
@@ -12428,7 +12436,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>0</v>
       </c>
@@ -12454,7 +12462,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>0</v>
       </c>
@@ -12482,7 +12490,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>0</v>
       </c>
@@ -12508,7 +12516,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>0</v>
       </c>
@@ -12534,7 +12542,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>0</v>
       </c>
@@ -12560,7 +12568,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
         <v>0</v>
       </c>
@@ -12586,7 +12594,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
         <v>0</v>
       </c>
@@ -12612,7 +12620,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
         <v>0</v>
       </c>
@@ -12638,7 +12646,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
         <v>0</v>
       </c>
@@ -12664,7 +12672,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
         <v>0</v>
       </c>
@@ -12688,7 +12696,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
         <v>0</v>
       </c>
@@ -12710,7 +12718,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
         <v>0</v>
       </c>
@@ -12736,7 +12744,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -12760,7 +12768,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="5" t="s">
         <v>9</v>
       </c>
@@ -12788,7 +12796,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
         <v>9</v>
       </c>
@@ -12814,7 +12822,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
         <v>9</v>
       </c>
@@ -12842,7 +12850,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
         <v>9</v>
       </c>
@@ -12870,7 +12878,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
         <v>9</v>
       </c>
@@ -12898,7 +12906,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
         <v>860</v>
       </c>
@@ -12926,7 +12934,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>1</v>
       </c>
@@ -13008,7 +13016,7 @@
       </c>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
         <v>1</v>
       </c>
@@ -13034,7 +13042,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
         <v>1</v>
       </c>
@@ -13060,7 +13068,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -13086,7 +13094,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -13114,7 +13122,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
         <v>1</v>
       </c>
@@ -13142,7 +13150,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
         <v>1</v>
       </c>
@@ -13170,7 +13178,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -13198,7 +13206,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
         <v>1</v>
       </c>
@@ -13226,7 +13234,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -13280,7 +13288,7 @@
       </c>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -13304,7 +13312,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
         <v>0</v>
       </c>
@@ -13328,7 +13336,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
         <v>0</v>
       </c>
@@ -13352,7 +13360,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
         <v>0</v>
       </c>
@@ -13378,7 +13386,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
         <v>0</v>
       </c>
@@ -13404,7 +13412,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
         <v>0</v>
       </c>
@@ -13428,7 +13436,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
         <v>0</v>
       </c>
@@ -13452,7 +13460,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A206" s="5">
         <v>0</v>
       </c>
@@ -13476,7 +13484,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A207" s="5">
         <v>0</v>
       </c>
@@ -13500,7 +13508,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A208" s="5">
         <v>0</v>
       </c>
@@ -13524,7 +13532,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A209" s="5">
         <v>0</v>
       </c>
@@ -13550,7 +13558,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A210" s="5">
         <v>0</v>
       </c>
@@ -13574,7 +13582,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211" s="5">
         <v>0</v>
       </c>
@@ -13600,7 +13608,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212" s="5">
         <v>0</v>
       </c>
@@ -13626,7 +13634,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213" s="5">
         <v>0</v>
       </c>
@@ -13652,7 +13660,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214" s="5">
         <v>0</v>
       </c>
@@ -13678,7 +13686,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215" s="5">
         <v>0</v>
       </c>
@@ -13704,7 +13712,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216" s="5">
         <v>0</v>
       </c>
@@ -13730,7 +13738,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217" s="5">
         <v>0</v>
       </c>
@@ -13756,7 +13764,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218" s="5">
         <v>0</v>
       </c>
@@ -13780,7 +13788,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219" s="5">
         <v>0</v>
       </c>
@@ -13804,7 +13812,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A220" s="5">
         <v>0</v>
       </c>
@@ -13830,7 +13838,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A221" s="5">
         <v>0</v>
       </c>
@@ -13852,7 +13860,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A222" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13878,7 +13886,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A223" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13906,7 +13914,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A224" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13932,7 +13940,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A225" s="12" t="s">
         <v>1037</v>
       </c>
@@ -13958,7 +13966,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A226" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13980,7 +13988,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14004,7 +14012,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A228" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14032,7 +14040,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -14060,7 +14068,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230" s="5">
         <v>1</v>
       </c>
@@ -14086,7 +14094,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A231" s="5">
         <v>1</v>
       </c>
@@ -14112,7 +14120,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A232" s="5">
         <v>1</v>
       </c>
@@ -14140,7 +14148,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A233" s="5">
         <v>1</v>
       </c>
@@ -14166,7 +14174,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234" s="5">
         <v>1</v>
       </c>
@@ -14246,7 +14254,7 @@
       </c>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A237" s="5">
         <v>1</v>
       </c>
@@ -14268,7 +14276,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238" s="5">
         <v>1</v>
       </c>
@@ -14294,7 +14302,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A239" s="5">
         <v>1</v>
       </c>
@@ -14320,7 +14328,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A240" s="5">
         <v>0</v>
       </c>
@@ -14346,7 +14354,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A241" s="5">
         <v>0</v>
       </c>
@@ -14372,7 +14380,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A242" s="5">
         <v>0</v>
       </c>
@@ -14396,7 +14404,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A243" s="5">
         <v>0</v>
       </c>
@@ -14420,7 +14428,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A244" s="5">
         <v>0</v>
       </c>
@@ -14446,7 +14454,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A245" s="5">
         <v>0</v>
       </c>
@@ -14472,7 +14480,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A246" s="5">
         <v>0</v>
       </c>
@@ -14498,7 +14506,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A247" s="5">
         <v>0</v>
       </c>
@@ -14522,7 +14530,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A248" s="5">
         <v>0</v>
       </c>
@@ -14546,7 +14554,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A249" s="5">
         <v>0</v>
       </c>
@@ -14572,7 +14580,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A250" s="5">
         <v>0</v>
       </c>
@@ -14598,7 +14606,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A251" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14656,7 +14664,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A253" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14684,7 +14692,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A254" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14708,7 +14716,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A255" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14732,7 +14740,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A256" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14760,7 +14768,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257" s="5">
         <v>1</v>
       </c>
@@ -14786,7 +14794,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258" s="5">
         <v>1</v>
       </c>
@@ -14810,7 +14818,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A259" s="5">
         <v>1</v>
       </c>
@@ -14836,7 +14844,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260" s="5">
         <v>1</v>
       </c>
@@ -14862,7 +14870,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261" s="5">
         <v>1</v>
       </c>
@@ -14886,7 +14894,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A262" s="5">
         <v>1</v>
       </c>
@@ -14912,7 +14920,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263" s="5">
         <v>1</v>
       </c>
@@ -14938,7 +14946,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264" s="5">
         <v>1</v>
       </c>
@@ -14964,7 +14972,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A265" s="5">
         <v>1</v>
       </c>
@@ -14990,7 +14998,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266" s="5">
         <v>0</v>
       </c>
@@ -15016,7 +15024,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267" s="5">
         <v>0</v>
       </c>
@@ -15042,7 +15050,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268" s="5">
         <v>0</v>
       </c>
@@ -15066,7 +15074,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269" s="5">
         <v>0</v>
       </c>
@@ -15090,7 +15098,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270" s="5">
         <v>0</v>
       </c>
@@ -15114,7 +15122,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A271" s="5">
         <v>0</v>
       </c>
@@ -15140,7 +15148,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272" s="5">
         <v>0</v>
       </c>
@@ -15164,7 +15172,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A273" s="5">
         <v>0</v>
       </c>
@@ -15188,7 +15196,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A274" s="5">
         <v>0</v>
       </c>
@@ -15212,7 +15220,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A275" s="5">
         <v>0</v>
       </c>
@@ -15234,7 +15242,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A276" s="5">
         <v>0</v>
       </c>
@@ -15258,7 +15266,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A277" s="5">
         <v>0</v>
       </c>
@@ -15284,7 +15292,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A278" s="5">
         <v>0</v>
       </c>
@@ -15310,7 +15318,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A279" s="5">
         <v>0</v>
       </c>
@@ -15336,7 +15344,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A280" s="5">
         <v>0</v>
       </c>
@@ -15360,7 +15368,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A281" s="5">
         <v>0</v>
       </c>
@@ -15384,7 +15392,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A282" s="5">
         <v>0</v>
       </c>
@@ -15410,7 +15418,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A283" s="5">
         <v>0</v>
       </c>
@@ -15434,7 +15442,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A284" s="5">
         <v>0</v>
       </c>
@@ -15458,7 +15466,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A285" s="5">
         <v>0</v>
       </c>
@@ -15482,7 +15490,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A286" s="5">
         <v>0</v>
       </c>
@@ -15508,7 +15516,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A287" s="5">
         <v>0</v>
       </c>
@@ -15534,7 +15542,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A288" s="5">
         <v>0</v>
       </c>
@@ -15560,7 +15568,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A289" s="5">
         <v>0</v>
       </c>
@@ -15586,7 +15594,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A290" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15616,7 +15624,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A291" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15642,7 +15650,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A292" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15668,7 +15676,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A293" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15696,7 +15704,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A294" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15724,7 +15732,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A295" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15752,7 +15760,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A296" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15778,7 +15786,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A297" s="5">
         <v>1</v>
       </c>
@@ -15802,7 +15810,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A298" s="5">
         <v>1</v>
       </c>
@@ -15828,7 +15836,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A299" s="5">
         <v>1</v>
       </c>
@@ -15854,7 +15862,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A300" s="5">
         <v>1</v>
       </c>
@@ -15878,7 +15886,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A301" s="5">
         <v>1</v>
       </c>
@@ -15902,7 +15910,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A302" s="12">
         <v>1</v>
       </c>
@@ -15930,7 +15938,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A303" s="12">
         <v>1</v>
       </c>
@@ -15958,7 +15966,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A304" s="12">
         <v>1</v>
       </c>
@@ -15984,7 +15992,7 @@
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A305" s="5">
         <v>1</v>
       </c>
@@ -16036,7 +16044,7 @@
       </c>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A307" s="5">
         <v>1</v>
       </c>
@@ -16062,7 +16070,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A308" s="5">
         <v>1</v>
       </c>
@@ -16136,7 +16144,7 @@
       </c>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A311" s="5">
         <v>1</v>
       </c>
@@ -16162,7 +16170,7 @@
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A312" s="12">
         <v>0</v>
       </c>
@@ -16188,7 +16196,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A313" s="5">
         <v>0</v>
       </c>
@@ -16216,7 +16224,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A314" s="5">
         <v>0</v>
       </c>
@@ -16244,7 +16252,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A315" s="5">
         <v>0</v>
       </c>
@@ -16270,7 +16278,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A316" s="5">
         <v>0</v>
       </c>
@@ -16294,7 +16302,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A317" s="5">
         <v>0</v>
       </c>
@@ -16318,7 +16326,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A318" s="5">
         <v>0</v>
       </c>
@@ -16342,7 +16350,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A319" s="5">
         <v>0</v>
       </c>
@@ -16366,7 +16374,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A320" s="5">
         <v>0</v>
       </c>
@@ -16392,7 +16400,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A321" s="5">
         <v>0</v>
       </c>
@@ -16416,7 +16424,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A322" s="5">
         <v>0</v>
       </c>
@@ -16440,7 +16448,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A323" s="5">
         <v>0</v>
       </c>
@@ -16466,7 +16474,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A324" s="5">
         <v>0</v>
       </c>
@@ -16492,7 +16500,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A325" s="5">
         <v>0</v>
       </c>
@@ -16518,7 +16526,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A326" s="5">
         <v>0</v>
       </c>
@@ -16544,7 +16552,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A327" s="5">
         <v>0</v>
       </c>
@@ -16570,7 +16578,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A328" s="5">
         <v>0</v>
       </c>
@@ -16596,7 +16604,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A329" s="5">
         <v>0</v>
       </c>
@@ -16620,7 +16628,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A330" s="13">
         <v>0</v>
       </c>
@@ -16646,7 +16654,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A331" s="5">
         <v>0</v>
       </c>
@@ -16672,7 +16680,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A332" s="5">
         <v>0</v>
       </c>
@@ -16696,7 +16704,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A333" s="5">
         <v>0</v>
       </c>
@@ -16722,7 +16730,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A334" s="5">
         <v>0</v>
       </c>
@@ -16748,7 +16756,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A335" s="5">
         <v>0</v>
       </c>
@@ -16774,7 +16782,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A336" s="5">
         <v>0</v>
       </c>
@@ -16800,7 +16808,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A337" s="5">
         <v>1</v>
       </c>
@@ -16816,7 +16824,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A338" s="5">
         <v>0</v>
       </c>
@@ -16842,7 +16850,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A339" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16868,7 +16876,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A340" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16894,7 +16902,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A341" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16924,7 +16932,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A342" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16952,7 +16960,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A343" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16980,7 +16988,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A344" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17008,7 +17016,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A345" s="5">
         <v>1</v>
       </c>
@@ -17034,7 +17042,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A346" s="5">
         <v>1</v>
       </c>
@@ -17084,7 +17092,7 @@
       </c>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A348" s="5">
         <v>1</v>
       </c>
@@ -17108,7 +17116,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A349" s="12">
         <v>1</v>
       </c>
@@ -17132,7 +17140,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A350" s="12">
         <v>1</v>
       </c>
@@ -17156,7 +17164,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A351" s="12">
         <v>1</v>
       </c>
@@ -17180,7 +17188,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A352" s="5">
         <v>1</v>
       </c>
@@ -17206,7 +17214,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A353" s="12">
         <v>0</v>
       </c>
@@ -17232,7 +17240,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A354" s="12">
         <v>0</v>
       </c>
@@ -17262,7 +17270,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A355" s="12">
         <v>0</v>
       </c>
@@ -17290,7 +17298,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A356" s="5">
         <v>0</v>
       </c>
@@ -17316,7 +17324,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A357" s="5">
         <v>0</v>
       </c>
@@ -17340,7 +17348,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A358" s="5">
         <v>0</v>
       </c>
@@ -17366,7 +17374,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A359" s="5">
         <v>0</v>
       </c>
@@ -17392,7 +17400,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A360" s="5">
         <v>0</v>
       </c>
@@ -17416,7 +17424,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A361" s="5">
         <v>0</v>
       </c>
@@ -17438,7 +17446,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A362" s="5">
         <v>0</v>
       </c>
@@ -17464,7 +17472,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A363" s="5">
         <v>0</v>
       </c>
@@ -17490,7 +17498,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A364" s="5">
         <v>0</v>
       </c>
@@ -17516,7 +17524,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A365" s="5">
         <v>0</v>
       </c>
@@ -17542,7 +17550,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A366" s="5">
         <v>0</v>
       </c>
@@ -17568,7 +17576,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A367" s="5">
         <v>0</v>
       </c>
@@ -17594,7 +17602,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A368" s="5">
         <v>0</v>
       </c>
@@ -17620,7 +17628,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A369" s="5">
         <v>0</v>
       </c>
@@ -17646,7 +17654,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A370" s="5">
         <v>0</v>
       </c>
@@ -17672,7 +17680,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A371" s="5">
         <v>0</v>
       </c>
@@ -17698,7 +17706,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A372" s="5">
         <v>0</v>
       </c>
@@ -17724,7 +17732,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A373" s="5">
         <v>0</v>
       </c>
@@ -17750,7 +17758,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A374" s="5">
         <v>0</v>
       </c>
@@ -17776,7 +17784,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A375" s="5">
         <v>0</v>
       </c>
@@ -17800,7 +17808,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A376" s="5">
         <v>0</v>
       </c>
@@ -17822,7 +17830,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A377" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17850,7 +17858,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A378" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17876,7 +17884,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A379" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17906,7 +17914,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A380" s="12">
         <v>1</v>
       </c>
@@ -17964,7 +17972,7 @@
       </c>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A382" s="5">
         <v>1</v>
       </c>
@@ -17988,7 +17996,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A383" s="5">
         <v>1</v>
       </c>
@@ -18014,7 +18022,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A384" s="5">
         <v>1</v>
       </c>
@@ -18068,7 +18076,7 @@
       </c>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A386" s="5">
         <v>1</v>
       </c>
@@ -18090,7 +18098,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A387" s="5">
         <v>1</v>
       </c>
@@ -18116,7 +18124,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A388" s="12">
         <v>1</v>
       </c>
@@ -18144,7 +18152,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A389" s="5">
         <v>1</v>
       </c>
@@ -18170,7 +18178,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A390" s="5">
         <v>1</v>
       </c>
@@ -18196,7 +18204,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A391" s="5">
         <v>0</v>
       </c>
@@ -18220,7 +18228,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A392" s="5">
         <v>0</v>
       </c>
@@ -18246,7 +18254,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A393" s="5">
         <v>0</v>
       </c>
@@ -18270,7 +18278,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A394" s="5">
         <v>0</v>
       </c>
@@ -18294,7 +18302,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A395" s="5">
         <v>0</v>
       </c>
@@ -18318,7 +18326,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A396" s="5">
         <v>0</v>
       </c>
@@ -18342,7 +18350,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A397" s="5">
         <v>0</v>
       </c>
@@ -18368,7 +18376,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A398" s="5">
         <v>0</v>
       </c>
@@ -18394,7 +18402,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A399" s="5">
         <v>0</v>
       </c>
@@ -18420,7 +18428,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A400" s="5">
         <v>0</v>
       </c>
@@ -18446,7 +18454,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A401" s="5">
         <v>0</v>
       </c>
@@ -18472,7 +18480,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A402" s="5">
         <v>0</v>
       </c>
@@ -18498,7 +18506,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A403" s="5">
         <v>0</v>
       </c>
@@ -18524,7 +18532,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A404" s="5">
         <v>0</v>
       </c>
@@ -18550,7 +18558,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A405" s="5">
         <v>0</v>
       </c>
@@ -18576,7 +18584,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A406" s="5">
         <v>0</v>
       </c>
@@ -18600,7 +18608,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A407" s="5">
         <v>0</v>
       </c>
@@ -18626,7 +18634,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A408" s="5">
         <v>0</v>
       </c>
@@ -18652,7 +18660,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A409" s="5">
         <v>0</v>
       </c>
@@ -18678,7 +18686,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A410" s="5">
         <v>0</v>
       </c>
@@ -18702,7 +18710,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A411" s="5">
         <v>0</v>
       </c>
@@ -18728,7 +18736,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A412" s="5">
         <v>0</v>
       </c>
@@ -18754,7 +18762,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A413" s="12" t="s">
         <v>1037</v>
       </c>
@@ -18780,7 +18788,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A414" s="5">
         <v>1</v>
       </c>
@@ -18884,7 +18892,7 @@
       </c>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A418" s="5">
         <v>1</v>
       </c>
@@ -18908,7 +18916,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A419" s="5">
         <v>1</v>
       </c>
@@ -18934,7 +18942,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A420" s="5">
         <v>1</v>
       </c>
@@ -18958,7 +18966,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A421" s="5">
         <v>1</v>
       </c>
@@ -18984,7 +18992,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A422" s="5">
         <v>1</v>
       </c>
@@ -19010,7 +19018,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A423" s="12">
         <v>0</v>
       </c>
@@ -19040,7 +19048,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A424" s="5">
         <v>0</v>
       </c>
@@ -19066,7 +19074,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A425" s="5">
         <v>0</v>
       </c>
@@ -19090,7 +19098,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A426" s="5">
         <v>0</v>
       </c>
@@ -19114,7 +19122,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A427" s="5">
         <v>0</v>
       </c>
@@ -19138,7 +19146,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A428" s="5">
         <v>0</v>
       </c>
@@ -19164,7 +19172,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A429" s="5">
         <v>0</v>
       </c>
@@ -19188,7 +19196,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A430" s="5">
         <v>0</v>
       </c>
@@ -19214,7 +19222,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A431" s="5">
         <v>0</v>
       </c>
@@ -19240,7 +19248,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A432" s="5">
         <v>0</v>
       </c>
@@ -19266,7 +19274,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A433" s="5">
         <v>0</v>
       </c>
@@ -19292,7 +19300,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A434" s="5">
         <v>0</v>
       </c>
@@ -19318,7 +19326,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A435" s="5">
         <v>0</v>
       </c>
@@ -19344,7 +19352,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A436" s="5">
         <v>0</v>
       </c>
@@ -19370,7 +19378,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A437" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19400,7 +19408,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A438" s="12" t="s">
         <v>2019</v>
       </c>
@@ -19426,7 +19434,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A439" s="5">
         <v>1</v>
       </c>
@@ -19452,7 +19460,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A440" s="5">
         <v>1</v>
       </c>
@@ -19478,7 +19486,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A441" s="5">
         <v>1</v>
       </c>
@@ -19500,7 +19508,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A442" s="5">
         <v>0</v>
       </c>
@@ -19524,7 +19532,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A443" s="5">
         <v>0</v>
       </c>
@@ -19548,7 +19556,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A444" s="5">
         <v>0</v>
       </c>
@@ -19572,7 +19580,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A445" s="5">
         <v>0</v>
       </c>
@@ -19598,7 +19606,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A446" s="5">
         <v>0</v>
       </c>
@@ -19622,7 +19630,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A447" s="5">
         <v>0</v>
       </c>
@@ -19646,7 +19654,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A448" s="5">
         <v>0</v>
       </c>
@@ -19670,7 +19678,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A449" s="5">
         <v>0</v>
       </c>
@@ -19696,7 +19704,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A450" s="5">
         <v>0</v>
       </c>
@@ -19720,7 +19728,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A451" s="5">
         <v>0</v>
       </c>
@@ -19746,7 +19754,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A452" s="5">
         <v>0</v>
       </c>
@@ -19770,7 +19778,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A453" s="5">
         <v>0</v>
       </c>
@@ -19794,7 +19802,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A454" s="5">
         <v>0</v>
       </c>
@@ -19818,7 +19826,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A455" s="5" t="s">
         <v>1037</v>
       </c>
@@ -19846,7 +19854,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A456" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19876,7 +19884,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A457" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19906,7 +19914,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A458" s="5">
         <v>1</v>
       </c>
@@ -19934,7 +19942,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A459" s="5">
         <v>1</v>
       </c>
@@ -19962,7 +19970,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A460" s="5">
         <v>1</v>
       </c>
@@ -19990,7 +19998,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A461" s="5">
         <v>1</v>
       </c>
@@ -20016,7 +20024,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A462" s="5">
         <v>1</v>
       </c>
@@ -20042,7 +20050,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A463" s="5">
         <v>1</v>
       </c>
@@ -20066,7 +20074,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A464" s="5">
         <v>1</v>
       </c>
@@ -20090,7 +20098,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A465" s="12">
         <v>1</v>
       </c>
@@ -20118,7 +20126,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A466" s="12">
         <v>1</v>
       </c>
@@ -20140,7 +20148,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A467" s="5">
         <v>1</v>
       </c>
@@ -20166,7 +20174,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A468" s="5">
         <v>1</v>
       </c>
@@ -20192,7 +20200,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A469" s="5">
         <v>0</v>
       </c>
@@ -20216,7 +20224,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A470" s="5">
         <v>0</v>
       </c>
@@ -20238,7 +20246,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A471" s="5">
         <v>0</v>
       </c>
@@ -20262,7 +20270,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A472" s="5">
         <v>0</v>
       </c>
@@ -20286,7 +20294,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A473" s="5">
         <v>0</v>
       </c>
@@ -20312,7 +20320,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A474" s="5">
         <v>0</v>
       </c>
@@ -20336,7 +20344,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A475" s="5">
         <v>0</v>
       </c>
@@ -20360,7 +20368,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A476" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20390,7 +20398,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A477" s="5">
         <v>0</v>
       </c>
@@ -20414,7 +20422,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A478" s="5">
         <v>0</v>
       </c>
@@ -20438,7 +20446,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A479" s="5">
         <v>0</v>
       </c>
@@ -20464,7 +20472,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A480" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20492,7 +20500,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A481" s="5">
         <v>1</v>
       </c>
@@ -20516,7 +20524,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A482" s="12">
         <v>1</v>
       </c>
@@ -20544,7 +20552,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A483" s="5">
         <v>0</v>
       </c>
@@ -20568,7 +20576,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A484" s="13">
         <v>0</v>
       </c>
@@ -20594,7 +20602,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A485" s="5">
         <v>0</v>
       </c>
@@ -20620,7 +20628,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A486" s="5">
         <v>0</v>
       </c>
@@ -20646,7 +20654,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A487" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20674,7 +20682,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A488" s="12">
         <v>1</v>
       </c>
@@ -20730,7 +20738,7 @@
       </c>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A490" s="5">
         <v>1</v>
       </c>
@@ -20754,7 +20762,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A491" s="5">
         <v>1</v>
       </c>
@@ -20780,7 +20788,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A492" s="12">
         <v>0</v>
       </c>
@@ -20808,7 +20816,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A493" s="13">
         <v>0</v>
       </c>
@@ -20832,7 +20840,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A494" s="5">
         <v>0</v>
       </c>
@@ -20858,7 +20866,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A495" s="5">
         <v>0</v>
       </c>
@@ -20884,7 +20892,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A496" s="5">
         <v>1</v>
       </c>
@@ -20910,7 +20918,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A497" s="5">
         <v>1</v>
       </c>
@@ -20934,7 +20942,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A498" s="5">
         <v>0</v>
       </c>
@@ -20958,7 +20966,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A499" s="5">
         <v>0</v>
       </c>
@@ -20984,7 +20992,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A500" s="5">
         <v>0</v>
       </c>
@@ -21010,7 +21018,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A501" s="5">
         <v>0</v>
       </c>
@@ -21036,7 +21044,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A502" s="5">
         <v>0</v>
       </c>
@@ -21060,7 +21068,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A503" s="5">
         <v>1</v>
       </c>
@@ -21086,7 +21094,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A504" s="5">
         <v>0</v>
       </c>
@@ -21110,7 +21118,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A505" s="5">
         <v>0</v>
       </c>
@@ -21134,7 +21142,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A506" s="5">
         <v>0</v>
       </c>
@@ -21160,7 +21168,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A507" s="5">
         <v>0</v>
       </c>
@@ -21186,7 +21194,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A508" s="5">
         <v>0</v>
       </c>
@@ -21212,7 +21220,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A509" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21240,7 +21248,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A510" s="5">
         <v>0</v>
       </c>
@@ -21264,7 +21272,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A511" s="5">
         <v>0</v>
       </c>
@@ -21290,7 +21298,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A512" s="5">
         <v>0</v>
       </c>
@@ -21314,7 +21322,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A513" s="5">
         <v>1</v>
       </c>
@@ -21338,7 +21346,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A514" s="5">
         <v>1</v>
       </c>
@@ -21364,7 +21372,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A515" s="19">
         <v>1</v>
       </c>
@@ -21390,7 +21398,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A516" s="12">
         <v>0</v>
       </c>
@@ -21418,7 +21426,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A517" s="12">
         <v>0</v>
       </c>
@@ -21446,7 +21454,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A518" s="5">
         <v>0</v>
       </c>
@@ -21470,7 +21478,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A519" s="5">
         <v>0</v>
       </c>
@@ -21494,7 +21502,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A520" s="5">
         <v>0</v>
       </c>
@@ -21518,7 +21526,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A521" s="5">
         <v>0</v>
       </c>
@@ -21542,7 +21550,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A522" s="5">
         <v>0</v>
       </c>
@@ -21566,7 +21574,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A523" s="5">
         <v>0</v>
       </c>
@@ -21590,7 +21598,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A524" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21618,7 +21626,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A525" s="5">
         <v>1</v>
       </c>
@@ -21646,7 +21654,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A526" s="12">
         <v>0</v>
       </c>
@@ -21674,7 +21682,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A527" s="5">
         <v>0</v>
       </c>
@@ -21698,7 +21706,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A528" s="5">
         <v>0</v>
       </c>
@@ -21724,7 +21732,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A529" s="5">
         <v>0</v>
       </c>
@@ -21748,7 +21756,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A530" s="5">
         <v>0</v>
       </c>
@@ -21774,7 +21782,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A531" s="5">
         <v>0</v>
       </c>
@@ -21800,7 +21808,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A532" s="5">
         <v>0</v>
       </c>
@@ -21824,7 +21832,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A533" s="5">
         <v>0</v>
       </c>
@@ -21850,7 +21858,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A534" s="5">
         <v>0</v>
       </c>
@@ -21876,7 +21884,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A535" s="5">
         <v>0</v>
       </c>
@@ -21900,7 +21908,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A536" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21928,7 +21936,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A537" s="5">
         <v>1</v>
       </c>
@@ -21954,7 +21962,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A538" s="5">
         <v>0</v>
       </c>
@@ -21980,7 +21988,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A539" s="5">
         <v>0</v>
       </c>
@@ -22006,7 +22014,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A540" s="12" t="s">
         <v>1037</v>
       </c>
@@ -22036,7 +22044,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A541" s="12">
         <v>1</v>
       </c>
@@ -22064,7 +22072,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A542" s="5">
         <v>0</v>
       </c>
@@ -22090,7 +22098,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A543" s="5">
         <v>0</v>
       </c>
@@ -22114,7 +22122,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A544" s="5">
         <v>0</v>
       </c>
@@ -22140,7 +22148,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A545" s="5">
         <v>0</v>
       </c>
@@ -22164,7 +22172,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A546" s="5">
         <v>0</v>
       </c>
@@ -22188,7 +22196,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A547" s="5">
         <v>0</v>
       </c>
@@ -22212,7 +22220,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A548" s="12">
         <v>0</v>
       </c>
@@ -22240,7 +22248,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A549" s="5">
         <v>0</v>
       </c>
@@ -22262,7 +22270,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A550" s="13">
         <v>0</v>
       </c>
@@ -22288,7 +22296,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A551" s="5">
         <v>0</v>
       </c>
@@ -22310,9 +22318,7 @@
   </sheetData>
   <autoFilter ref="I1:I551">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Tahira"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
@@ -22502,6 +22508,8 @@
     <hyperlink ref="F503" r:id="rId184"/>
     <hyperlink ref="F504" r:id="rId185"/>
     <hyperlink ref="F536" r:id="rId186"/>
+    <hyperlink ref="G8" r:id="rId187"/>
+    <hyperlink ref="G9" r:id="rId188"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\ML_Requirements\literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levilucio/git/ML_Requirements/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22780" windowHeight="15120" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">final!$I$1:$I$551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">final!$I$1:$I$551</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">final!$I$1:$I$551</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">final!$I$1:$I$551</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">final!$I$1:$I$551</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">final!$I$1:$I$551</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="2540">
   <si>
     <t>257?</t>
   </si>
@@ -105,31 +111,31 @@
     <t>Natural Language Processing</t>
   </si>
   <si>
+    <t>Innovations in Natural Language Document Processing for Requirements Engineering</t>
+  </si>
+  <si>
+    <t>Valdis BerzinsCraig MartellLuqiPaige Adams</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-540-89778-1_11</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/chapter/10.1007/978-3-540-89778-1_11</t>
+  </si>
+  <si>
+    <t>Semantic Analysis of Functional and Non-Functional Requirements in Software Requirements Specifications</t>
+  </si>
+  <si>
+    <t>Abderahman Rashwan</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-642-30353-1_42</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/chapter/10.1007/978-3-642-30353-1_42</t>
+  </si>
+  <si>
     <t>Saad</t>
-  </si>
-  <si>
-    <t>Innovations in Natural Language Document Processing for Requirements Engineering</t>
-  </si>
-  <si>
-    <t>Valdis BerzinsCraig MartellLuqiPaige Adams</t>
-  </si>
-  <si>
-    <t>10.1007/978-3-540-89778-1_11</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/chapter/10.1007/978-3-540-89778-1_11</t>
-  </si>
-  <si>
-    <t>Semantic Analysis of Functional and Non-Functional Requirements in Software Requirements Specifications</t>
-  </si>
-  <si>
-    <t>Abderahman Rashwan</t>
-  </si>
-  <si>
-    <t>10.1007/978-3-642-30353-1_42</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/chapter/10.1007/978-3-642-30353-1_42</t>
   </si>
   <si>
     <t>Situation-Oriented Evaluation and Prioritization of Requirements</t>
@@ -7658,7 +7664,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7745,7 +7751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7788,15 +7794,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -7869,9 +7873,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -7893,7 +7894,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -7905,7 +7906,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -7922,9 +7923,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -7957,9 +7958,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -8139,24 +8140,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.61328125"/>
-    <col min="2" max="2" width="82.23046875"/>
-    <col min="3" max="3" width="20"/>
-    <col min="4" max="7" width="8.61328125"/>
-    <col min="8" max="8" width="47.53515625"/>
-    <col min="9" max="1025" width="8.61328125"/>
+    <col min="2" max="2" width="59.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8186,7 +8183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -8210,7 +8207,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8236,7 +8233,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -8259,62 +8256,60 @@
       <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="5">
         <v>2018</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="5">
         <v>2018</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -8338,7 +8333,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8355,14 +8350,14 @@
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -8381,7 +8376,7 @@
       <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -8390,7 +8385,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -8418,7 +8413,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -8439,12 +8434,10 @@
         <v>56</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -8461,16 +8454,14 @@
       <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -8494,7 +8485,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -8518,7 +8509,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -8546,7 +8537,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -8574,7 +8565,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -8604,7 +8595,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -8632,7 +8623,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -8660,7 +8651,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -8688,7 +8679,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -8716,7 +8707,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -8744,7 +8735,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -8770,7 +8761,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -8796,7 +8787,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -8822,7 +8813,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -8843,12 +8834,10 @@
         <v>125</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -8874,7 +8863,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -8902,7 +8891,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -8930,7 +8919,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -8958,7 +8947,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -8986,7 +8975,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -9014,7 +9003,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -9042,7 +9031,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -9068,7 +9057,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -9096,7 +9085,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -9120,7 +9109,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -9144,7 +9133,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -9168,7 +9157,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -9192,9 +9181,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>191</v>
@@ -9216,7 +9205,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -9240,7 +9229,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -9264,7 +9253,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -9288,7 +9277,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -9312,7 +9301,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -9338,7 +9327,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -9364,7 +9353,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>0</v>
       </c>
@@ -9390,7 +9379,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -9414,7 +9403,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -9438,7 +9427,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -9464,7 +9453,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -9488,7 +9477,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -9512,7 +9501,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -9536,7 +9525,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -9562,7 +9551,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -9588,7 +9577,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -9618,7 +9607,7 @@
       </c>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -9648,7 +9637,7 @@
       </c>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -9676,7 +9665,7 @@
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -9704,7 +9693,7 @@
       </c>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -9734,7 +9723,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -9762,7 +9751,7 @@
       </c>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -9792,7 +9781,7 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>1</v>
       </c>
@@ -9822,7 +9811,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>1</v>
       </c>
@@ -9848,7 +9837,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -9876,7 +9865,7 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -9902,7 +9891,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -9926,7 +9915,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -9952,7 +9941,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -9978,7 +9967,7 @@
       </c>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -10006,7 +9995,7 @@
       </c>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -10034,7 +10023,7 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>0</v>
       </c>
@@ -10060,7 +10049,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>0</v>
       </c>
@@ -10084,7 +10073,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>0</v>
       </c>
@@ -10108,7 +10097,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>0</v>
       </c>
@@ -10132,7 +10121,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>0</v>
       </c>
@@ -10156,7 +10145,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>0</v>
       </c>
@@ -10180,7 +10169,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>0</v>
       </c>
@@ -10206,7 +10195,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>0</v>
       </c>
@@ -10230,7 +10219,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>0</v>
       </c>
@@ -10254,7 +10243,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>0</v>
       </c>
@@ -10278,7 +10267,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>0</v>
       </c>
@@ -10302,7 +10291,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>0</v>
       </c>
@@ -10326,7 +10315,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>0</v>
       </c>
@@ -10350,7 +10339,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>0</v>
       </c>
@@ -10374,7 +10363,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>0</v>
       </c>
@@ -10400,7 +10389,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>0</v>
       </c>
@@ -10424,7 +10413,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>0</v>
       </c>
@@ -10452,7 +10441,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>0</v>
       </c>
@@ -10478,7 +10467,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>0</v>
       </c>
@@ -10504,7 +10493,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>0</v>
       </c>
@@ -10530,7 +10519,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>0</v>
       </c>
@@ -10556,7 +10545,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>0</v>
       </c>
@@ -10580,7 +10569,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>9</v>
       </c>
@@ -10602,7 +10591,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>9</v>
       </c>
@@ -10628,7 +10617,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
@@ -10654,7 +10643,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>9</v>
       </c>
@@ -10680,7 +10669,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>9</v>
       </c>
@@ -10706,7 +10695,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -10732,7 +10721,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>9</v>
       </c>
@@ -10758,7 +10747,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -10788,7 +10777,7 @@
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -10814,7 +10803,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -10840,7 +10829,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -10866,7 +10855,7 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -10892,7 +10881,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>1</v>
       </c>
@@ -10918,7 +10907,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -10944,7 +10933,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>1</v>
       </c>
@@ -10970,7 +10959,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>1</v>
       </c>
@@ -10998,7 +10987,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>1</v>
       </c>
@@ -11020,7 +11009,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>0</v>
       </c>
@@ -11044,7 +11033,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>0</v>
       </c>
@@ -11070,7 +11059,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>0</v>
       </c>
@@ -11094,7 +11083,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>0</v>
       </c>
@@ -11118,7 +11107,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>0</v>
       </c>
@@ -11142,7 +11131,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>0</v>
       </c>
@@ -11166,7 +11155,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>0</v>
       </c>
@@ -11190,7 +11179,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>0</v>
       </c>
@@ -11212,7 +11201,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>0</v>
       </c>
@@ -11238,7 +11227,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>0</v>
       </c>
@@ -11262,7 +11251,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>0</v>
       </c>
@@ -11288,7 +11277,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>0</v>
       </c>
@@ -11314,7 +11303,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>0</v>
       </c>
@@ -11340,7 +11329,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>0</v>
       </c>
@@ -11366,7 +11355,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>0</v>
       </c>
@@ -11392,7 +11381,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>0</v>
       </c>
@@ -11418,7 +11407,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>0</v>
       </c>
@@ -11442,7 +11431,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>0</v>
       </c>
@@ -11468,7 +11457,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>0</v>
       </c>
@@ -11494,7 +11483,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>0</v>
       </c>
@@ -11518,7 +11507,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>0</v>
       </c>
@@ -11544,7 +11533,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>0</v>
       </c>
@@ -11570,7 +11559,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>0</v>
       </c>
@@ -11598,7 +11587,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>0</v>
       </c>
@@ -11622,7 +11611,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>0</v>
       </c>
@@ -11644,7 +11633,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -11668,7 +11657,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>9</v>
       </c>
@@ -11694,7 +11683,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>9</v>
       </c>
@@ -11722,7 +11711,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -11744,7 +11733,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -11772,7 +11761,7 @@
       </c>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -11800,7 +11789,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>1</v>
       </c>
@@ -11830,7 +11819,7 @@
       </c>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>1</v>
       </c>
@@ -11856,7 +11845,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -11882,7 +11871,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>1</v>
       </c>
@@ -11904,7 +11893,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>1</v>
       </c>
@@ -11932,7 +11921,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11960,7 +11949,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -11990,7 +11979,7 @@
       </c>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -12018,7 +12007,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -12044,7 +12033,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -12070,7 +12059,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>1</v>
       </c>
@@ -12094,7 +12083,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>0</v>
       </c>
@@ -12116,11 +12105,11 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>0</v>
       </c>
@@ -12144,7 +12133,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>0</v>
       </c>
@@ -12166,7 +12155,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>0</v>
       </c>
@@ -12192,7 +12181,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>0</v>
       </c>
@@ -12216,7 +12205,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>0</v>
       </c>
@@ -12240,7 +12229,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>0</v>
       </c>
@@ -12264,7 +12253,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>0</v>
       </c>
@@ -12288,7 +12277,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>0</v>
       </c>
@@ -12312,7 +12301,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>0</v>
       </c>
@@ -12336,7 +12325,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>0</v>
       </c>
@@ -12360,7 +12349,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>0</v>
       </c>
@@ -12384,7 +12373,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>0</v>
       </c>
@@ -12410,7 +12399,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>0</v>
       </c>
@@ -12436,7 +12425,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>0</v>
       </c>
@@ -12462,7 +12451,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>0</v>
       </c>
@@ -12490,7 +12479,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>0</v>
       </c>
@@ -12516,7 +12505,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>0</v>
       </c>
@@ -12542,7 +12531,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>0</v>
       </c>
@@ -12568,7 +12557,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>0</v>
       </c>
@@ -12594,7 +12583,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>0</v>
       </c>
@@ -12620,7 +12609,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>0</v>
       </c>
@@ -12646,7 +12635,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>0</v>
       </c>
@@ -12672,7 +12661,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>0</v>
       </c>
@@ -12696,7 +12685,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>0</v>
       </c>
@@ -12718,7 +12707,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>0</v>
       </c>
@@ -12744,7 +12733,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -12768,7 +12757,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>9</v>
       </c>
@@ -12796,7 +12785,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>9</v>
       </c>
@@ -12822,7 +12811,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>9</v>
       </c>
@@ -12850,7 +12839,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>9</v>
       </c>
@@ -12878,7 +12867,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>9</v>
       </c>
@@ -12906,7 +12895,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>860</v>
       </c>
@@ -12934,7 +12923,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>1</v>
       </c>
@@ -12960,7 +12949,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -12988,7 +12977,7 @@
       </c>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>1</v>
       </c>
@@ -13016,7 +13005,7 @@
       </c>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>1</v>
       </c>
@@ -13042,7 +13031,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>1</v>
       </c>
@@ -13068,7 +13057,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -13094,7 +13083,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -13122,7 +13111,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>1</v>
       </c>
@@ -13150,7 +13139,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>1</v>
       </c>
@@ -13178,7 +13167,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -13206,7 +13195,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>1</v>
       </c>
@@ -13234,7 +13223,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -13262,7 +13251,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" s="8" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" s="8" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>1</v>
       </c>
@@ -13288,7 +13277,7 @@
       </c>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -13312,7 +13301,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>0</v>
       </c>
@@ -13336,7 +13325,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>0</v>
       </c>
@@ -13360,7 +13349,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>0</v>
       </c>
@@ -13386,7 +13375,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>0</v>
       </c>
@@ -13412,7 +13401,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>0</v>
       </c>
@@ -13436,7 +13425,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>0</v>
       </c>
@@ -13460,7 +13449,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>0</v>
       </c>
@@ -13484,7 +13473,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>0</v>
       </c>
@@ -13508,7 +13497,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>0</v>
       </c>
@@ -13532,7 +13521,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>0</v>
       </c>
@@ -13558,7 +13547,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>0</v>
       </c>
@@ -13582,7 +13571,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>0</v>
       </c>
@@ -13608,7 +13597,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>0</v>
       </c>
@@ -13634,7 +13623,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>0</v>
       </c>
@@ -13660,7 +13649,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>0</v>
       </c>
@@ -13686,7 +13675,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>0</v>
       </c>
@@ -13712,7 +13701,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>0</v>
       </c>
@@ -13738,7 +13727,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>0</v>
       </c>
@@ -13764,7 +13753,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>0</v>
       </c>
@@ -13788,7 +13777,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>0</v>
       </c>
@@ -13812,7 +13801,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>0</v>
       </c>
@@ -13838,7 +13827,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>0</v>
       </c>
@@ -13860,7 +13849,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13886,7 +13875,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13914,7 +13903,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13940,7 +13929,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
         <v>1037</v>
       </c>
@@ -13966,7 +13955,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13988,7 +13977,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14012,7 +14001,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14040,7 +14029,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -14068,7 +14057,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>1</v>
       </c>
@@ -14094,7 +14083,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>1</v>
       </c>
@@ -14120,7 +14109,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>1</v>
       </c>
@@ -14148,7 +14137,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>1</v>
       </c>
@@ -14174,7 +14163,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>1</v>
       </c>
@@ -14200,7 +14189,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>1</v>
       </c>
@@ -14228,7 +14217,7 @@
       </c>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>1</v>
       </c>
@@ -14254,7 +14243,7 @@
       </c>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>1</v>
       </c>
@@ -14276,7 +14265,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>1</v>
       </c>
@@ -14302,7 +14291,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>1</v>
       </c>
@@ -14328,7 +14317,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>0</v>
       </c>
@@ -14354,7 +14343,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>0</v>
       </c>
@@ -14380,7 +14369,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>0</v>
       </c>
@@ -14404,7 +14393,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>0</v>
       </c>
@@ -14428,7 +14417,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>0</v>
       </c>
@@ -14454,7 +14443,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>0</v>
       </c>
@@ -14480,7 +14469,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>0</v>
       </c>
@@ -14506,7 +14495,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>0</v>
       </c>
@@ -14530,7 +14519,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>0</v>
       </c>
@@ -14554,7 +14543,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>0</v>
       </c>
@@ -14580,7 +14569,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>0</v>
       </c>
@@ -14606,7 +14595,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14634,7 +14623,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>1</v>
       </c>
@@ -14664,7 +14653,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14692,7 +14681,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14716,7 +14705,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14740,7 +14729,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14768,7 +14757,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>1</v>
       </c>
@@ -14794,7 +14783,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>1</v>
       </c>
@@ -14818,7 +14807,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>1</v>
       </c>
@@ -14844,7 +14833,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>1</v>
       </c>
@@ -14870,7 +14859,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>1</v>
       </c>
@@ -14894,7 +14883,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>1</v>
       </c>
@@ -14920,7 +14909,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>1</v>
       </c>
@@ -14946,7 +14935,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>1</v>
       </c>
@@ -14972,7 +14961,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>1</v>
       </c>
@@ -14998,7 +14987,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>0</v>
       </c>
@@ -15024,7 +15013,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>0</v>
       </c>
@@ -15050,7 +15039,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>0</v>
       </c>
@@ -15074,7 +15063,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>0</v>
       </c>
@@ -15098,7 +15087,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>0</v>
       </c>
@@ -15122,7 +15111,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>0</v>
       </c>
@@ -15148,7 +15137,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>0</v>
       </c>
@@ -15172,7 +15161,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>0</v>
       </c>
@@ -15196,7 +15185,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>0</v>
       </c>
@@ -15220,7 +15209,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>0</v>
       </c>
@@ -15242,7 +15231,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>0</v>
       </c>
@@ -15266,7 +15255,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>0</v>
       </c>
@@ -15292,7 +15281,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>0</v>
       </c>
@@ -15318,7 +15307,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>0</v>
       </c>
@@ -15344,7 +15333,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>0</v>
       </c>
@@ -15368,7 +15357,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>0</v>
       </c>
@@ -15392,7 +15381,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>0</v>
       </c>
@@ -15418,7 +15407,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>0</v>
       </c>
@@ -15442,7 +15431,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>0</v>
       </c>
@@ -15466,7 +15455,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>0</v>
       </c>
@@ -15490,7 +15479,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>0</v>
       </c>
@@ -15516,7 +15505,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>0</v>
       </c>
@@ -15542,7 +15531,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>0</v>
       </c>
@@ -15568,7 +15557,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>0</v>
       </c>
@@ -15594,7 +15583,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15624,7 +15613,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15650,7 +15639,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15676,7 +15665,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15704,7 +15693,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15732,7 +15721,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15760,7 +15749,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15786,7 +15775,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>1</v>
       </c>
@@ -15810,7 +15799,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>1</v>
       </c>
@@ -15836,7 +15825,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>1</v>
       </c>
@@ -15862,7 +15851,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>1</v>
       </c>
@@ -15886,7 +15875,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>1</v>
       </c>
@@ -15910,7 +15899,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="12">
         <v>1</v>
       </c>
@@ -15938,7 +15927,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="12">
         <v>1</v>
       </c>
@@ -15966,7 +15955,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="12">
         <v>1</v>
       </c>
@@ -15992,7 +15981,7 @@
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>1</v>
       </c>
@@ -16018,7 +16007,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>1</v>
       </c>
@@ -16044,7 +16033,7 @@
       </c>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>1</v>
       </c>
@@ -16070,7 +16059,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>1</v>
       </c>
@@ -16096,7 +16085,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>1</v>
       </c>
@@ -16122,7 +16111,7 @@
       </c>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>1</v>
       </c>
@@ -16144,7 +16133,7 @@
       </c>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>1</v>
       </c>
@@ -16170,7 +16159,7 @@
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="12">
         <v>0</v>
       </c>
@@ -16196,7 +16185,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>0</v>
       </c>
@@ -16224,7 +16213,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>0</v>
       </c>
@@ -16252,7 +16241,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>0</v>
       </c>
@@ -16278,7 +16267,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>0</v>
       </c>
@@ -16302,7 +16291,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>0</v>
       </c>
@@ -16326,7 +16315,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>0</v>
       </c>
@@ -16350,7 +16339,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>0</v>
       </c>
@@ -16374,7 +16363,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>0</v>
       </c>
@@ -16400,7 +16389,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>0</v>
       </c>
@@ -16424,7 +16413,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>0</v>
       </c>
@@ -16448,7 +16437,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>0</v>
       </c>
@@ -16474,7 +16463,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>0</v>
       </c>
@@ -16500,7 +16489,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>0</v>
       </c>
@@ -16526,7 +16515,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>0</v>
       </c>
@@ -16552,7 +16541,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>0</v>
       </c>
@@ -16578,7 +16567,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>0</v>
       </c>
@@ -16604,7 +16593,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>0</v>
       </c>
@@ -16628,7 +16617,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="13">
         <v>0</v>
       </c>
@@ -16654,7 +16643,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>0</v>
       </c>
@@ -16680,7 +16669,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>0</v>
       </c>
@@ -16704,7 +16693,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>0</v>
       </c>
@@ -16730,7 +16719,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>0</v>
       </c>
@@ -16756,7 +16745,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>0</v>
       </c>
@@ -16782,7 +16771,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>0</v>
       </c>
@@ -16808,7 +16797,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>1</v>
       </c>
@@ -16824,7 +16813,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>0</v>
       </c>
@@ -16850,7 +16839,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16876,7 +16865,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16902,7 +16891,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16932,7 +16921,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16960,7 +16949,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16988,7 +16977,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17016,7 +17005,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>1</v>
       </c>
@@ -17042,7 +17031,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>1</v>
       </c>
@@ -17064,7 +17053,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>1</v>
       </c>
@@ -17092,7 +17081,7 @@
       </c>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>1</v>
       </c>
@@ -17116,7 +17105,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="12">
         <v>1</v>
       </c>
@@ -17140,7 +17129,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="12">
         <v>1</v>
       </c>
@@ -17164,7 +17153,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="12">
         <v>1</v>
       </c>
@@ -17188,7 +17177,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>1</v>
       </c>
@@ -17214,7 +17203,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="12">
         <v>0</v>
       </c>
@@ -17240,7 +17229,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="12">
         <v>0</v>
       </c>
@@ -17270,7 +17259,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="12">
         <v>0</v>
       </c>
@@ -17298,7 +17287,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>0</v>
       </c>
@@ -17324,7 +17313,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>0</v>
       </c>
@@ -17348,7 +17337,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>0</v>
       </c>
@@ -17374,7 +17363,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>0</v>
       </c>
@@ -17400,7 +17389,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>0</v>
       </c>
@@ -17424,7 +17413,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>0</v>
       </c>
@@ -17446,7 +17435,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>0</v>
       </c>
@@ -17472,7 +17461,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>0</v>
       </c>
@@ -17498,7 +17487,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>0</v>
       </c>
@@ -17524,7 +17513,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>0</v>
       </c>
@@ -17550,7 +17539,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>0</v>
       </c>
@@ -17576,7 +17565,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
         <v>0</v>
       </c>
@@ -17602,7 +17591,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>0</v>
       </c>
@@ -17628,7 +17617,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>0</v>
       </c>
@@ -17654,7 +17643,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>0</v>
       </c>
@@ -17680,7 +17669,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>0</v>
       </c>
@@ -17706,7 +17695,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>0</v>
       </c>
@@ -17732,7 +17721,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>0</v>
       </c>
@@ -17758,7 +17747,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>0</v>
       </c>
@@ -17784,7 +17773,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>0</v>
       </c>
@@ -17808,7 +17797,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>0</v>
       </c>
@@ -17830,7 +17819,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17858,7 +17847,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17884,7 +17873,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17914,7 +17903,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="12">
         <v>1</v>
       </c>
@@ -17942,7 +17931,7 @@
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>1</v>
       </c>
@@ -17968,11 +17957,11 @@
         <v>1763</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>1</v>
       </c>
@@ -17996,7 +17985,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>1</v>
       </c>
@@ -18022,7 +18011,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>1</v>
       </c>
@@ -18048,7 +18037,7 @@
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>1</v>
       </c>
@@ -18076,7 +18065,7 @@
       </c>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>1</v>
       </c>
@@ -18098,7 +18087,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>1</v>
       </c>
@@ -18124,7 +18113,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="12">
         <v>1</v>
       </c>
@@ -18152,7 +18141,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>1</v>
       </c>
@@ -18178,7 +18167,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>1</v>
       </c>
@@ -18204,7 +18193,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>0</v>
       </c>
@@ -18228,7 +18217,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>0</v>
       </c>
@@ -18254,7 +18243,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>0</v>
       </c>
@@ -18278,7 +18267,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>0</v>
       </c>
@@ -18302,7 +18291,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>0</v>
       </c>
@@ -18326,7 +18315,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>0</v>
       </c>
@@ -18350,7 +18339,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>0</v>
       </c>
@@ -18376,7 +18365,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>0</v>
       </c>
@@ -18402,7 +18391,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>0</v>
       </c>
@@ -18428,7 +18417,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>0</v>
       </c>
@@ -18454,7 +18443,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>0</v>
       </c>
@@ -18480,7 +18469,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>0</v>
       </c>
@@ -18506,7 +18495,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>0</v>
       </c>
@@ -18532,7 +18521,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>0</v>
       </c>
@@ -18558,7 +18547,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>0</v>
       </c>
@@ -18584,7 +18573,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>0</v>
       </c>
@@ -18608,7 +18597,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>0</v>
       </c>
@@ -18634,7 +18623,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>0</v>
       </c>
@@ -18660,7 +18649,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>0</v>
       </c>
@@ -18686,7 +18675,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>0</v>
       </c>
@@ -18710,7 +18699,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>0</v>
       </c>
@@ -18736,7 +18725,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>0</v>
       </c>
@@ -18762,7 +18751,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="12" t="s">
         <v>1037</v>
       </c>
@@ -18788,7 +18777,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>1</v>
       </c>
@@ -18814,7 +18803,7 @@
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>1</v>
       </c>
@@ -18838,7 +18827,7 @@
       </c>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>1</v>
       </c>
@@ -18866,7 +18855,7 @@
       </c>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>1</v>
       </c>
@@ -18892,7 +18881,7 @@
       </c>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>1</v>
       </c>
@@ -18916,7 +18905,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>1</v>
       </c>
@@ -18942,7 +18931,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>1</v>
       </c>
@@ -18966,7 +18955,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>1</v>
       </c>
@@ -18992,7 +18981,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>1</v>
       </c>
@@ -19018,7 +19007,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="12">
         <v>0</v>
       </c>
@@ -19048,7 +19037,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>0</v>
       </c>
@@ -19074,7 +19063,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>0</v>
       </c>
@@ -19098,7 +19087,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>0</v>
       </c>
@@ -19122,7 +19111,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>0</v>
       </c>
@@ -19146,7 +19135,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>0</v>
       </c>
@@ -19172,7 +19161,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>0</v>
       </c>
@@ -19196,7 +19185,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>0</v>
       </c>
@@ -19222,7 +19211,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>0</v>
       </c>
@@ -19248,7 +19237,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>0</v>
       </c>
@@ -19274,7 +19263,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>0</v>
       </c>
@@ -19300,7 +19289,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>0</v>
       </c>
@@ -19326,7 +19315,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>0</v>
       </c>
@@ -19352,7 +19341,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>0</v>
       </c>
@@ -19378,7 +19367,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19408,7 +19397,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="12" t="s">
         <v>2019</v>
       </c>
@@ -19434,7 +19423,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>1</v>
       </c>
@@ -19460,7 +19449,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>1</v>
       </c>
@@ -19486,7 +19475,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>1</v>
       </c>
@@ -19508,7 +19497,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>0</v>
       </c>
@@ -19532,7 +19521,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>0</v>
       </c>
@@ -19556,7 +19545,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>0</v>
       </c>
@@ -19580,7 +19569,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>0</v>
       </c>
@@ -19606,7 +19595,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>0</v>
       </c>
@@ -19630,7 +19619,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>0</v>
       </c>
@@ -19654,7 +19643,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>0</v>
       </c>
@@ -19678,7 +19667,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>0</v>
       </c>
@@ -19704,7 +19693,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="5">
         <v>0</v>
       </c>
@@ -19728,7 +19717,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>0</v>
       </c>
@@ -19754,7 +19743,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>0</v>
       </c>
@@ -19778,7 +19767,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>0</v>
       </c>
@@ -19802,7 +19791,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>0</v>
       </c>
@@ -19826,7 +19815,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>1037</v>
       </c>
@@ -19854,7 +19843,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19884,7 +19873,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19914,7 +19903,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>1</v>
       </c>
@@ -19942,7 +19931,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>1</v>
       </c>
@@ -19970,7 +19959,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>1</v>
       </c>
@@ -19998,7 +19987,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>1</v>
       </c>
@@ -20024,7 +20013,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>1</v>
       </c>
@@ -20050,7 +20039,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>1</v>
       </c>
@@ -20074,7 +20063,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>1</v>
       </c>
@@ -20098,7 +20087,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="12">
         <v>1</v>
       </c>
@@ -20126,7 +20115,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="12">
         <v>1</v>
       </c>
@@ -20148,7 +20137,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>1</v>
       </c>
@@ -20174,7 +20163,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>1</v>
       </c>
@@ -20200,7 +20189,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>0</v>
       </c>
@@ -20224,7 +20213,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>0</v>
       </c>
@@ -20246,7 +20235,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>0</v>
       </c>
@@ -20270,7 +20259,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>0</v>
       </c>
@@ -20294,7 +20283,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>0</v>
       </c>
@@ -20320,7 +20309,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>0</v>
       </c>
@@ -20344,7 +20333,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>0</v>
       </c>
@@ -20368,7 +20357,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20398,7 +20387,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>0</v>
       </c>
@@ -20422,7 +20411,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>0</v>
       </c>
@@ -20446,7 +20435,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>0</v>
       </c>
@@ -20472,7 +20461,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20500,7 +20489,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="5">
         <v>1</v>
       </c>
@@ -20524,7 +20513,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="12">
         <v>1</v>
       </c>
@@ -20552,7 +20541,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="5">
         <v>0</v>
       </c>
@@ -20576,7 +20565,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="13">
         <v>0</v>
       </c>
@@ -20602,7 +20591,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>0</v>
       </c>
@@ -20628,7 +20617,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="5">
         <v>0</v>
       </c>
@@ -20654,7 +20643,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20682,7 +20671,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="12">
         <v>1</v>
       </c>
@@ -20708,7 +20697,7 @@
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="19">
         <v>1</v>
       </c>
@@ -20734,11 +20723,11 @@
         <v>1763</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>1</v>
       </c>
@@ -20762,7 +20751,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>1</v>
       </c>
@@ -20788,7 +20777,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="12">
         <v>0</v>
       </c>
@@ -20816,7 +20805,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="13">
         <v>0</v>
       </c>
@@ -20840,7 +20829,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>0</v>
       </c>
@@ -20866,7 +20855,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>0</v>
       </c>
@@ -20892,7 +20881,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>1</v>
       </c>
@@ -20918,7 +20907,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>1</v>
       </c>
@@ -20942,7 +20931,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>0</v>
       </c>
@@ -20966,7 +20955,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>0</v>
       </c>
@@ -20992,7 +20981,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>0</v>
       </c>
@@ -21018,7 +21007,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>0</v>
       </c>
@@ -21044,7 +21033,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>0</v>
       </c>
@@ -21068,7 +21057,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>1</v>
       </c>
@@ -21094,7 +21083,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>0</v>
       </c>
@@ -21118,7 +21107,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>0</v>
       </c>
@@ -21142,7 +21131,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>0</v>
       </c>
@@ -21168,7 +21157,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>0</v>
       </c>
@@ -21194,7 +21183,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>0</v>
       </c>
@@ -21220,7 +21209,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21248,7 +21237,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>0</v>
       </c>
@@ -21272,7 +21261,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="5">
         <v>0</v>
       </c>
@@ -21298,7 +21287,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="5">
         <v>0</v>
       </c>
@@ -21322,7 +21311,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="5">
         <v>1</v>
       </c>
@@ -21346,7 +21335,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="5">
         <v>1</v>
       </c>
@@ -21372,7 +21361,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="19">
         <v>1</v>
       </c>
@@ -21398,7 +21387,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="12">
         <v>0</v>
       </c>
@@ -21426,7 +21415,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="12">
         <v>0</v>
       </c>
@@ -21454,7 +21443,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="5">
         <v>0</v>
       </c>
@@ -21478,7 +21467,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="5">
         <v>0</v>
       </c>
@@ -21502,7 +21491,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="5">
         <v>0</v>
       </c>
@@ -21526,7 +21515,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>0</v>
       </c>
@@ -21550,7 +21539,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>0</v>
       </c>
@@ -21574,7 +21563,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>0</v>
       </c>
@@ -21598,7 +21587,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21626,7 +21615,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>1</v>
       </c>
@@ -21654,7 +21643,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" s="12">
         <v>0</v>
       </c>
@@ -21682,7 +21671,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>0</v>
       </c>
@@ -21706,7 +21695,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>0</v>
       </c>
@@ -21732,7 +21721,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>0</v>
       </c>
@@ -21756,7 +21745,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>0</v>
       </c>
@@ -21782,7 +21771,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>0</v>
       </c>
@@ -21808,7 +21797,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>0</v>
       </c>
@@ -21832,7 +21821,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>0</v>
       </c>
@@ -21858,7 +21847,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>0</v>
       </c>
@@ -21884,7 +21873,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>0</v>
       </c>
@@ -21908,7 +21897,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21936,7 +21925,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>1</v>
       </c>
@@ -21962,7 +21951,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>0</v>
       </c>
@@ -21988,7 +21977,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>0</v>
       </c>
@@ -22014,7 +22003,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" s="12" t="s">
         <v>1037</v>
       </c>
@@ -22044,7 +22033,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541" s="12">
         <v>1</v>
       </c>
@@ -22072,7 +22061,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" s="5">
         <v>0</v>
       </c>
@@ -22098,7 +22087,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="5">
         <v>0</v>
       </c>
@@ -22122,7 +22111,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>0</v>
       </c>
@@ -22148,7 +22137,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>0</v>
       </c>
@@ -22172,7 +22161,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>0</v>
       </c>
@@ -22196,7 +22185,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>0</v>
       </c>
@@ -22220,7 +22209,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548" s="12">
         <v>0</v>
       </c>
@@ -22248,7 +22237,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>0</v>
       </c>
@@ -22270,7 +22259,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550" s="13">
         <v>0</v>
       </c>
@@ -22296,7 +22285,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>0</v>
       </c>
@@ -22316,11 +22305,7 @@
       <c r="J551" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I551">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="I1:I551"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
@@ -22508,8 +22493,6 @@
     <hyperlink ref="F503" r:id="rId184"/>
     <hyperlink ref="F504" r:id="rId185"/>
     <hyperlink ref="F536" r:id="rId186"/>
-    <hyperlink ref="G8" r:id="rId187"/>
-    <hyperlink ref="G9" r:id="rId188"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22780" windowHeight="15120" tabRatio="993"/>
+    <workbookView xWindow="29340" yWindow="2820" windowWidth="25880" windowHeight="19600" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="2540">
   <si>
     <t>257?</t>
   </si>
@@ -8142,8 +8142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9912,7 +9912,9 @@
         <v>322</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levilucio/git/ML_Requirements/literature/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\ML_Requirements\literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="2820" windowWidth="25880" windowHeight="19600" tabRatio="993"/>
+    <workbookView xWindow="29340" yWindow="2820" windowWidth="25883" windowHeight="19598" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">final!$I$1:$I$551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">final!$I$1:$I$551</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">final!$I$1:$I$551</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">final!$I$1:$I$551</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">final!$I$1:$I$551</definedName>
@@ -24,7 +24,7 @@
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="2540">
   <si>
     <t>257?</t>
   </si>
@@ -7664,7 +7664,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7872,6 +7872,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8140,20 +8143,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="59.83203125" customWidth="1"/>
+    <col min="2" max="2" width="59.796875" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="48.1640625" customWidth="1"/>
+    <col min="8" max="8" width="48.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8183,7 +8187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -8207,7 +8211,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8233,7 +8237,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -8259,7 +8263,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8283,7 +8287,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -8309,7 +8313,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -8333,7 +8337,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8357,7 +8361,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -8385,7 +8389,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -8413,7 +8417,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -8434,10 +8438,12 @@
         <v>56</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -8458,10 +8464,12 @@
         <v>60</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -8485,7 +8493,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -8509,7 +8517,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -8537,7 +8545,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -8565,7 +8573,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -8595,7 +8603,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -8623,7 +8631,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -8651,7 +8659,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -8679,7 +8687,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -8707,7 +8715,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -8735,7 +8743,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -8761,7 +8769,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -8787,7 +8795,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -8813,7 +8821,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -8837,7 +8845,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -8863,7 +8871,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -8891,7 +8899,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -8919,7 +8927,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -8947,7 +8955,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -8975,7 +8983,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -9003,7 +9011,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -9031,7 +9039,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -9057,7 +9065,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -9085,7 +9093,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -9109,7 +9117,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -9133,7 +9141,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -9157,7 +9165,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -9181,7 +9189,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0</v>
       </c>
@@ -9205,7 +9213,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -9229,7 +9237,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -9253,7 +9261,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -9277,7 +9285,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -9301,7 +9309,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -9327,7 +9335,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -9353,7 +9361,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>0</v>
       </c>
@@ -9379,7 +9387,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -9403,7 +9411,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -9427,7 +9435,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -9453,7 +9461,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -9477,7 +9485,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -9501,7 +9509,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -9525,7 +9533,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -9551,7 +9559,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -9577,7 +9585,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -9607,7 +9615,7 @@
       </c>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -9637,7 +9645,7 @@
       </c>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -9665,7 +9673,7 @@
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -9693,7 +9701,7 @@
       </c>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -9723,7 +9731,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -9751,7 +9759,7 @@
       </c>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -9781,7 +9789,7 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="5">
         <v>1</v>
       </c>
@@ -9811,7 +9819,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5">
         <v>1</v>
       </c>
@@ -9837,7 +9845,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -9865,7 +9873,7 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -9891,7 +9899,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -9917,7 +9925,7 @@
       </c>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -9943,7 +9951,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -9969,7 +9977,7 @@
       </c>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -9997,7 +10005,7 @@
       </c>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -10025,7 +10033,7 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5">
         <v>0</v>
       </c>
@@ -10051,7 +10059,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="5">
         <v>0</v>
       </c>
@@ -10075,7 +10083,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5">
         <v>0</v>
       </c>
@@ -10099,7 +10107,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="5">
         <v>0</v>
       </c>
@@ -10123,7 +10131,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5">
         <v>0</v>
       </c>
@@ -10147,7 +10155,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>0</v>
       </c>
@@ -10171,7 +10179,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>0</v>
       </c>
@@ -10197,7 +10205,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>0</v>
       </c>
@@ -10221,7 +10229,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>0</v>
       </c>
@@ -10245,7 +10253,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
         <v>0</v>
       </c>
@@ -10269,7 +10277,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5">
         <v>0</v>
       </c>
@@ -10293,7 +10301,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="5">
         <v>0</v>
       </c>
@@ -10317,7 +10325,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5">
         <v>0</v>
       </c>
@@ -10341,7 +10349,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="5">
         <v>0</v>
       </c>
@@ -10365,7 +10373,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
         <v>0</v>
       </c>
@@ -10391,7 +10399,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
         <v>0</v>
       </c>
@@ -10415,7 +10423,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="5">
         <v>0</v>
       </c>
@@ -10443,7 +10451,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
         <v>0</v>
       </c>
@@ -10469,7 +10477,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
         <v>0</v>
       </c>
@@ -10495,7 +10503,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="5">
         <v>0</v>
       </c>
@@ -10521,7 +10529,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="5">
         <v>0</v>
       </c>
@@ -10547,7 +10555,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="5">
         <v>0</v>
       </c>
@@ -10571,7 +10579,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>9</v>
       </c>
@@ -10593,7 +10601,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>9</v>
       </c>
@@ -10619,7 +10627,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
@@ -10645,7 +10653,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>9</v>
       </c>
@@ -10671,7 +10679,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>9</v>
       </c>
@@ -10697,7 +10705,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -10723,7 +10731,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>9</v>
       </c>
@@ -10749,7 +10757,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -10779,7 +10787,7 @@
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -10805,7 +10813,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -10831,7 +10839,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -10857,7 +10865,7 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -10883,7 +10891,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
         <v>1</v>
       </c>
@@ -10909,7 +10917,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="16.899999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -10935,7 +10943,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>1</v>
       </c>
@@ -10961,7 +10969,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>1</v>
       </c>
@@ -10989,7 +10997,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
         <v>1</v>
       </c>
@@ -11011,7 +11019,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
         <v>0</v>
       </c>
@@ -11035,7 +11043,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
         <v>0</v>
       </c>
@@ -11061,7 +11069,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="5">
         <v>0</v>
       </c>
@@ -11085,7 +11093,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="5">
         <v>0</v>
       </c>
@@ -11109,7 +11117,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="5">
         <v>0</v>
       </c>
@@ -11133,7 +11141,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="5">
         <v>0</v>
       </c>
@@ -11157,7 +11165,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="5">
         <v>0</v>
       </c>
@@ -11181,7 +11189,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="5">
         <v>0</v>
       </c>
@@ -11203,7 +11211,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="5">
         <v>0</v>
       </c>
@@ -11229,7 +11237,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="5">
         <v>0</v>
       </c>
@@ -11253,7 +11261,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="5">
         <v>0</v>
       </c>
@@ -11279,7 +11287,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="5">
         <v>0</v>
       </c>
@@ -11305,7 +11313,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="5">
         <v>0</v>
       </c>
@@ -11331,7 +11339,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="5">
         <v>0</v>
       </c>
@@ -11357,7 +11365,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="5">
         <v>0</v>
       </c>
@@ -11383,7 +11391,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="5">
         <v>0</v>
       </c>
@@ -11409,7 +11417,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="5">
         <v>0</v>
       </c>
@@ -11433,7 +11441,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="5">
         <v>0</v>
       </c>
@@ -11459,7 +11467,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="5">
         <v>0</v>
       </c>
@@ -11485,7 +11493,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="5">
         <v>0</v>
       </c>
@@ -11509,7 +11517,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="5">
         <v>0</v>
       </c>
@@ -11535,7 +11543,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="5">
         <v>0</v>
       </c>
@@ -11561,7 +11569,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="5">
         <v>0</v>
       </c>
@@ -11589,7 +11597,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="5">
         <v>0</v>
       </c>
@@ -11613,7 +11621,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="5">
         <v>0</v>
       </c>
@@ -11635,7 +11643,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -11659,7 +11667,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
         <v>9</v>
       </c>
@@ -11685,7 +11693,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>9</v>
       </c>
@@ -11713,7 +11721,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -11735,7 +11743,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -11763,7 +11771,7 @@
       </c>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -11791,7 +11799,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="5">
         <v>1</v>
       </c>
@@ -11821,7 +11829,7 @@
       </c>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="5">
         <v>1</v>
       </c>
@@ -11847,7 +11855,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -11873,7 +11881,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="5">
         <v>1</v>
       </c>
@@ -11895,7 +11903,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="5">
         <v>1</v>
       </c>
@@ -11923,7 +11931,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11951,7 +11959,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -11981,7 +11989,7 @@
       </c>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -12009,7 +12017,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -12035,7 +12043,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -12061,7 +12069,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="5">
         <v>1</v>
       </c>
@@ -12085,7 +12093,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="5">
         <v>0</v>
       </c>
@@ -12111,7 +12119,7 @@
       </c>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="5">
         <v>0</v>
       </c>
@@ -12135,7 +12143,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="5">
         <v>0</v>
       </c>
@@ -12157,7 +12165,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="5">
         <v>0</v>
       </c>
@@ -12183,7 +12191,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="5">
         <v>0</v>
       </c>
@@ -12207,7 +12215,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="5">
         <v>0</v>
       </c>
@@ -12231,7 +12239,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="5">
         <v>0</v>
       </c>
@@ -12255,7 +12263,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="5">
         <v>0</v>
       </c>
@@ -12279,7 +12287,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="5">
         <v>0</v>
       </c>
@@ -12303,7 +12311,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="5">
         <v>0</v>
       </c>
@@ -12327,7 +12335,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="5">
         <v>0</v>
       </c>
@@ -12351,7 +12359,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="5">
         <v>0</v>
       </c>
@@ -12375,7 +12383,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="5">
         <v>0</v>
       </c>
@@ -12401,7 +12409,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="5">
         <v>0</v>
       </c>
@@ -12427,7 +12435,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="5">
         <v>0</v>
       </c>
@@ -12453,7 +12461,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="5">
         <v>0</v>
       </c>
@@ -12481,7 +12489,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="5">
         <v>0</v>
       </c>
@@ -12507,7 +12515,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="5">
         <v>0</v>
       </c>
@@ -12533,7 +12541,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="5">
         <v>0</v>
       </c>
@@ -12559,7 +12567,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="5">
         <v>0</v>
       </c>
@@ -12585,7 +12593,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="5">
         <v>0</v>
       </c>
@@ -12611,7 +12619,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="5">
         <v>0</v>
       </c>
@@ -12637,7 +12645,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="5">
         <v>0</v>
       </c>
@@ -12663,7 +12671,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="5">
         <v>0</v>
       </c>
@@ -12687,7 +12695,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="5">
         <v>0</v>
       </c>
@@ -12709,7 +12717,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="5">
         <v>0</v>
       </c>
@@ -12735,7 +12743,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -12759,7 +12767,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
         <v>9</v>
       </c>
@@ -12787,7 +12795,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
         <v>9</v>
       </c>
@@ -12813,7 +12821,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
         <v>9</v>
       </c>
@@ -12841,7 +12849,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
         <v>9</v>
       </c>
@@ -12869,7 +12877,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
         <v>9</v>
       </c>
@@ -12897,7 +12905,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
         <v>860</v>
       </c>
@@ -12925,7 +12933,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="5">
         <v>1</v>
       </c>
@@ -12951,7 +12959,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -12979,7 +12987,7 @@
       </c>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="5">
         <v>1</v>
       </c>
@@ -13007,7 +13015,7 @@
       </c>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="5">
         <v>1</v>
       </c>
@@ -13033,7 +13041,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="5">
         <v>1</v>
       </c>
@@ -13059,7 +13067,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -13085,7 +13093,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -13113,7 +13121,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="5">
         <v>1</v>
       </c>
@@ -13141,7 +13149,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="5">
         <v>1</v>
       </c>
@@ -13169,7 +13177,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -13197,7 +13205,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="5">
         <v>1</v>
       </c>
@@ -13225,7 +13233,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -13253,7 +13261,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" s="8" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" s="8" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="5">
         <v>1</v>
       </c>
@@ -13279,7 +13287,7 @@
       </c>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -13303,7 +13311,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="5">
         <v>0</v>
       </c>
@@ -13327,7 +13335,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="5">
         <v>0</v>
       </c>
@@ -13351,7 +13359,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="5">
         <v>0</v>
       </c>
@@ -13377,7 +13385,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="5">
         <v>0</v>
       </c>
@@ -13403,7 +13411,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="5">
         <v>0</v>
       </c>
@@ -13427,7 +13435,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="5">
         <v>0</v>
       </c>
@@ -13451,7 +13459,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="5">
         <v>0</v>
       </c>
@@ -13475,7 +13483,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="5">
         <v>0</v>
       </c>
@@ -13499,7 +13507,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="5">
         <v>0</v>
       </c>
@@ -13523,7 +13531,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="5">
         <v>0</v>
       </c>
@@ -13549,7 +13557,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="5">
         <v>0</v>
       </c>
@@ -13573,7 +13581,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="5">
         <v>0</v>
       </c>
@@ -13599,7 +13607,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="5">
         <v>0</v>
       </c>
@@ -13625,7 +13633,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="5">
         <v>0</v>
       </c>
@@ -13651,7 +13659,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="5">
         <v>0</v>
       </c>
@@ -13677,7 +13685,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="5">
         <v>0</v>
       </c>
@@ -13703,7 +13711,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="5">
         <v>0</v>
       </c>
@@ -13729,7 +13737,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="5">
         <v>0</v>
       </c>
@@ -13755,7 +13763,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" s="5">
         <v>0</v>
       </c>
@@ -13779,7 +13787,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="5">
         <v>0</v>
       </c>
@@ -13803,7 +13811,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="5">
         <v>0</v>
       </c>
@@ -13829,7 +13837,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" s="5">
         <v>0</v>
       </c>
@@ -13851,7 +13859,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13877,7 +13885,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13905,7 +13913,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13931,7 +13939,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="12" t="s">
         <v>1037</v>
       </c>
@@ -13957,7 +13965,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13979,7 +13987,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14003,7 +14011,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14031,7 +14039,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -14059,7 +14067,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" s="5">
         <v>1</v>
       </c>
@@ -14085,7 +14093,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="5">
         <v>1</v>
       </c>
@@ -14111,7 +14119,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="5">
         <v>1</v>
       </c>
@@ -14139,7 +14147,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="5">
         <v>1</v>
       </c>
@@ -14165,7 +14173,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="5">
         <v>1</v>
       </c>
@@ -14191,7 +14199,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="5">
         <v>1</v>
       </c>
@@ -14219,7 +14227,7 @@
       </c>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="5">
         <v>1</v>
       </c>
@@ -14245,7 +14253,7 @@
       </c>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="5">
         <v>1</v>
       </c>
@@ -14267,7 +14275,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="5">
         <v>1</v>
       </c>
@@ -14293,7 +14301,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="5">
         <v>1</v>
       </c>
@@ -14319,7 +14327,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="5">
         <v>0</v>
       </c>
@@ -14345,7 +14353,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="5">
         <v>0</v>
       </c>
@@ -14371,7 +14379,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="5">
         <v>0</v>
       </c>
@@ -14395,7 +14403,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="5">
         <v>0</v>
       </c>
@@ -14419,7 +14427,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="5">
         <v>0</v>
       </c>
@@ -14445,7 +14453,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="5">
         <v>0</v>
       </c>
@@ -14471,7 +14479,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="5">
         <v>0</v>
       </c>
@@ -14497,7 +14505,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="5">
         <v>0</v>
       </c>
@@ -14521,7 +14529,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="5">
         <v>0</v>
       </c>
@@ -14545,7 +14553,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" s="5">
         <v>0</v>
       </c>
@@ -14571,7 +14579,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="5">
         <v>0</v>
       </c>
@@ -14597,7 +14605,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14625,7 +14633,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="5">
         <v>1</v>
       </c>
@@ -14655,7 +14663,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14683,7 +14691,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14707,7 +14715,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14731,7 +14739,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14759,7 +14767,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="5">
         <v>1</v>
       </c>
@@ -14785,7 +14793,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" s="5">
         <v>1</v>
       </c>
@@ -14809,7 +14817,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="5">
         <v>1</v>
       </c>
@@ -14835,7 +14843,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="5">
         <v>1</v>
       </c>
@@ -14861,7 +14869,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="5">
         <v>1</v>
       </c>
@@ -14885,7 +14893,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="5">
         <v>1</v>
       </c>
@@ -14911,7 +14919,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="5">
         <v>1</v>
       </c>
@@ -14937,7 +14945,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" s="5">
         <v>1</v>
       </c>
@@ -14963,7 +14971,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="5">
         <v>1</v>
       </c>
@@ -14989,7 +14997,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="5">
         <v>0</v>
       </c>
@@ -15015,7 +15023,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="5">
         <v>0</v>
       </c>
@@ -15041,7 +15049,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="5">
         <v>0</v>
       </c>
@@ -15065,7 +15073,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" s="5">
         <v>0</v>
       </c>
@@ -15089,7 +15097,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" s="5">
         <v>0</v>
       </c>
@@ -15113,7 +15121,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="5">
         <v>0</v>
       </c>
@@ -15139,7 +15147,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="5">
         <v>0</v>
       </c>
@@ -15163,7 +15171,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="5">
         <v>0</v>
       </c>
@@ -15187,7 +15195,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="5">
         <v>0</v>
       </c>
@@ -15211,7 +15219,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="5">
         <v>0</v>
       </c>
@@ -15233,7 +15241,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="5">
         <v>0</v>
       </c>
@@ -15257,7 +15265,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="5">
         <v>0</v>
       </c>
@@ -15283,7 +15291,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="5">
         <v>0</v>
       </c>
@@ -15309,7 +15317,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="5">
         <v>0</v>
       </c>
@@ -15335,7 +15343,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="5">
         <v>0</v>
       </c>
@@ -15359,7 +15367,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="5">
         <v>0</v>
       </c>
@@ -15383,7 +15391,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="5">
         <v>0</v>
       </c>
@@ -15409,7 +15417,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="5">
         <v>0</v>
       </c>
@@ -15433,7 +15441,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="5">
         <v>0</v>
       </c>
@@ -15457,7 +15465,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="5">
         <v>0</v>
       </c>
@@ -15481,7 +15489,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="5">
         <v>0</v>
       </c>
@@ -15507,7 +15515,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="5">
         <v>0</v>
       </c>
@@ -15533,7 +15541,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="5">
         <v>0</v>
       </c>
@@ -15559,7 +15567,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="5">
         <v>0</v>
       </c>
@@ -15585,7 +15593,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15615,7 +15623,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15641,7 +15649,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15667,7 +15675,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15695,7 +15703,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15723,7 +15731,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15751,7 +15759,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15777,7 +15785,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="5">
         <v>1</v>
       </c>
@@ -15801,7 +15809,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="5">
         <v>1</v>
       </c>
@@ -15827,7 +15835,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="5">
         <v>1</v>
       </c>
@@ -15853,7 +15861,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="5">
         <v>1</v>
       </c>
@@ -15877,7 +15885,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="5">
         <v>1</v>
       </c>
@@ -15901,7 +15909,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="12">
         <v>1</v>
       </c>
@@ -15929,7 +15937,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="12">
         <v>1</v>
       </c>
@@ -15957,7 +15965,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="12">
         <v>1</v>
       </c>
@@ -15983,7 +15991,7 @@
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="5">
         <v>1</v>
       </c>
@@ -16009,7 +16017,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="5">
         <v>1</v>
       </c>
@@ -16035,7 +16043,7 @@
       </c>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="5">
         <v>1</v>
       </c>
@@ -16061,7 +16069,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="5">
         <v>1</v>
       </c>
@@ -16087,7 +16095,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="5">
         <v>1</v>
       </c>
@@ -16113,7 +16121,7 @@
       </c>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="5">
         <v>1</v>
       </c>
@@ -16135,7 +16143,7 @@
       </c>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="5">
         <v>1</v>
       </c>
@@ -16161,7 +16169,7 @@
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="12">
         <v>0</v>
       </c>
@@ -16187,7 +16195,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="5">
         <v>0</v>
       </c>
@@ -16215,7 +16223,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="5">
         <v>0</v>
       </c>
@@ -16243,7 +16251,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="5">
         <v>0</v>
       </c>
@@ -16269,7 +16277,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="5">
         <v>0</v>
       </c>
@@ -16293,7 +16301,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="5">
         <v>0</v>
       </c>
@@ -16317,7 +16325,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="5">
         <v>0</v>
       </c>
@@ -16341,7 +16349,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="5">
         <v>0</v>
       </c>
@@ -16365,7 +16373,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="5">
         <v>0</v>
       </c>
@@ -16391,7 +16399,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="5">
         <v>0</v>
       </c>
@@ -16415,7 +16423,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="5">
         <v>0</v>
       </c>
@@ -16439,7 +16447,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="5">
         <v>0</v>
       </c>
@@ -16465,7 +16473,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="5">
         <v>0</v>
       </c>
@@ -16491,7 +16499,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="5">
         <v>0</v>
       </c>
@@ -16517,7 +16525,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="5">
         <v>0</v>
       </c>
@@ -16543,7 +16551,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="5">
         <v>0</v>
       </c>
@@ -16569,7 +16577,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="5">
         <v>0</v>
       </c>
@@ -16595,7 +16603,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="5">
         <v>0</v>
       </c>
@@ -16619,7 +16627,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="13">
         <v>0</v>
       </c>
@@ -16645,7 +16653,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="5">
         <v>0</v>
       </c>
@@ -16671,7 +16679,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="5">
         <v>0</v>
       </c>
@@ -16695,7 +16703,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="5">
         <v>0</v>
       </c>
@@ -16721,7 +16729,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="5">
         <v>0</v>
       </c>
@@ -16747,7 +16755,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="5">
         <v>0</v>
       </c>
@@ -16773,7 +16781,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="5">
         <v>0</v>
       </c>
@@ -16799,7 +16807,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="5">
         <v>1</v>
       </c>
@@ -16815,7 +16823,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" s="5">
         <v>0</v>
       </c>
@@ -16841,7 +16849,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16867,7 +16875,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16893,7 +16901,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16923,7 +16931,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16951,7 +16959,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16979,7 +16987,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17007,7 +17015,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="5">
         <v>1</v>
       </c>
@@ -17033,7 +17041,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="5">
         <v>1</v>
       </c>
@@ -17055,7 +17063,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="5">
         <v>1</v>
       </c>
@@ -17083,7 +17091,7 @@
       </c>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="5">
         <v>1</v>
       </c>
@@ -17107,7 +17115,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="12">
         <v>1</v>
       </c>
@@ -17131,7 +17139,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="12">
         <v>1</v>
       </c>
@@ -17155,7 +17163,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="12">
         <v>1</v>
       </c>
@@ -17179,7 +17187,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="5">
         <v>1</v>
       </c>
@@ -17205,7 +17213,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="12">
         <v>0</v>
       </c>
@@ -17231,7 +17239,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="12">
         <v>0</v>
       </c>
@@ -17261,7 +17269,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="12">
         <v>0</v>
       </c>
@@ -17289,7 +17297,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="5">
         <v>0</v>
       </c>
@@ -17315,7 +17323,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="5">
         <v>0</v>
       </c>
@@ -17339,7 +17347,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="5">
         <v>0</v>
       </c>
@@ -17365,7 +17373,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="5">
         <v>0</v>
       </c>
@@ -17391,7 +17399,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="5">
         <v>0</v>
       </c>
@@ -17415,7 +17423,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="5">
         <v>0</v>
       </c>
@@ -17437,7 +17445,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="5">
         <v>0</v>
       </c>
@@ -17463,7 +17471,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="5">
         <v>0</v>
       </c>
@@ -17489,7 +17497,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="5">
         <v>0</v>
       </c>
@@ -17515,7 +17523,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="5">
         <v>0</v>
       </c>
@@ -17541,7 +17549,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="5">
         <v>0</v>
       </c>
@@ -17567,7 +17575,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="5">
         <v>0</v>
       </c>
@@ -17593,7 +17601,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="5">
         <v>0</v>
       </c>
@@ -17619,7 +17627,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="5">
         <v>0</v>
       </c>
@@ -17645,7 +17653,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" s="5">
         <v>0</v>
       </c>
@@ -17671,7 +17679,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="5">
         <v>0</v>
       </c>
@@ -17697,7 +17705,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="5">
         <v>0</v>
       </c>
@@ -17723,7 +17731,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="5">
         <v>0</v>
       </c>
@@ -17749,7 +17757,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="5">
         <v>0</v>
       </c>
@@ -17775,7 +17783,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="5">
         <v>0</v>
       </c>
@@ -17799,7 +17807,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="5">
         <v>0</v>
       </c>
@@ -17821,7 +17829,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17849,7 +17857,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17875,7 +17883,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17905,7 +17913,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="12">
         <v>1</v>
       </c>
@@ -17933,7 +17941,7 @@
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="5">
         <v>1</v>
       </c>
@@ -17963,7 +17971,7 @@
       </c>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="5">
         <v>1</v>
       </c>
@@ -17987,7 +17995,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="5">
         <v>1</v>
       </c>
@@ -18013,7 +18021,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="5">
         <v>1</v>
       </c>
@@ -18039,7 +18047,7 @@
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="5">
         <v>1</v>
       </c>
@@ -18067,7 +18075,7 @@
       </c>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="5">
         <v>1</v>
       </c>
@@ -18089,7 +18097,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="5">
         <v>1</v>
       </c>
@@ -18115,7 +18123,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="12">
         <v>1</v>
       </c>
@@ -18143,7 +18151,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="5">
         <v>1</v>
       </c>
@@ -18169,7 +18177,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="5">
         <v>1</v>
       </c>
@@ -18195,7 +18203,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="5">
         <v>0</v>
       </c>
@@ -18219,7 +18227,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="5">
         <v>0</v>
       </c>
@@ -18245,7 +18253,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="5">
         <v>0</v>
       </c>
@@ -18269,7 +18277,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="5">
         <v>0</v>
       </c>
@@ -18293,7 +18301,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="5">
         <v>0</v>
       </c>
@@ -18317,7 +18325,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="5">
         <v>0</v>
       </c>
@@ -18341,7 +18349,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="5">
         <v>0</v>
       </c>
@@ -18367,7 +18375,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="5">
         <v>0</v>
       </c>
@@ -18393,7 +18401,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="5">
         <v>0</v>
       </c>
@@ -18419,7 +18427,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="5">
         <v>0</v>
       </c>
@@ -18445,7 +18453,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="5">
         <v>0</v>
       </c>
@@ -18471,7 +18479,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="5">
         <v>0</v>
       </c>
@@ -18497,7 +18505,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="5">
         <v>0</v>
       </c>
@@ -18523,7 +18531,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="5">
         <v>0</v>
       </c>
@@ -18549,7 +18557,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="5">
         <v>0</v>
       </c>
@@ -18575,7 +18583,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="5">
         <v>0</v>
       </c>
@@ -18599,7 +18607,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="5">
         <v>0</v>
       </c>
@@ -18625,7 +18633,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="5">
         <v>0</v>
       </c>
@@ -18651,7 +18659,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="5">
         <v>0</v>
       </c>
@@ -18677,7 +18685,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="5">
         <v>0</v>
       </c>
@@ -18701,7 +18709,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="5">
         <v>0</v>
       </c>
@@ -18727,7 +18735,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" s="5">
         <v>0</v>
       </c>
@@ -18753,7 +18761,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="12" t="s">
         <v>1037</v>
       </c>
@@ -18779,7 +18787,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="5">
         <v>1</v>
       </c>
@@ -18805,7 +18813,7 @@
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" s="5">
         <v>1</v>
       </c>
@@ -18829,7 +18837,7 @@
       </c>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" s="5">
         <v>1</v>
       </c>
@@ -18857,7 +18865,7 @@
       </c>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="5">
         <v>1</v>
       </c>
@@ -18883,7 +18891,7 @@
       </c>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="5">
         <v>1</v>
       </c>
@@ -18907,7 +18915,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="5">
         <v>1</v>
       </c>
@@ -18933,7 +18941,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="5">
         <v>1</v>
       </c>
@@ -18957,7 +18965,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="5">
         <v>1</v>
       </c>
@@ -18983,7 +18991,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" s="5">
         <v>1</v>
       </c>
@@ -19009,7 +19017,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" s="12">
         <v>0</v>
       </c>
@@ -19039,7 +19047,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" s="5">
         <v>0</v>
       </c>
@@ -19065,7 +19073,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" s="5">
         <v>0</v>
       </c>
@@ -19089,7 +19097,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" s="5">
         <v>0</v>
       </c>
@@ -19113,7 +19121,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" s="5">
         <v>0</v>
       </c>
@@ -19137,7 +19145,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" s="5">
         <v>0</v>
       </c>
@@ -19163,7 +19171,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" s="5">
         <v>0</v>
       </c>
@@ -19187,7 +19195,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" s="5">
         <v>0</v>
       </c>
@@ -19213,7 +19221,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" s="5">
         <v>0</v>
       </c>
@@ -19239,7 +19247,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" s="5">
         <v>0</v>
       </c>
@@ -19265,7 +19273,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" s="5">
         <v>0</v>
       </c>
@@ -19291,7 +19299,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" s="5">
         <v>0</v>
       </c>
@@ -19317,7 +19325,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" s="5">
         <v>0</v>
       </c>
@@ -19343,7 +19351,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" s="5">
         <v>0</v>
       </c>
@@ -19369,7 +19377,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19399,7 +19407,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" s="12" t="s">
         <v>2019</v>
       </c>
@@ -19425,7 +19433,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" s="5">
         <v>1</v>
       </c>
@@ -19451,7 +19459,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" s="5">
         <v>1</v>
       </c>
@@ -19477,7 +19485,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" s="5">
         <v>1</v>
       </c>
@@ -19499,7 +19507,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" s="5">
         <v>0</v>
       </c>
@@ -19523,7 +19531,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" s="5">
         <v>0</v>
       </c>
@@ -19547,7 +19555,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" s="5">
         <v>0</v>
       </c>
@@ -19571,7 +19579,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" s="5">
         <v>0</v>
       </c>
@@ -19597,7 +19605,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" s="5">
         <v>0</v>
       </c>
@@ -19621,7 +19629,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" s="5">
         <v>0</v>
       </c>
@@ -19645,7 +19653,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" s="5">
         <v>0</v>
       </c>
@@ -19669,7 +19677,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" s="5">
         <v>0</v>
       </c>
@@ -19695,7 +19703,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" s="5">
         <v>0</v>
       </c>
@@ -19719,7 +19727,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" s="5">
         <v>0</v>
       </c>
@@ -19745,7 +19753,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452" s="5">
         <v>0</v>
       </c>
@@ -19769,7 +19777,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" s="5">
         <v>0</v>
       </c>
@@ -19793,7 +19801,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" s="5">
         <v>0</v>
       </c>
@@ -19817,7 +19825,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" s="5" t="s">
         <v>1037</v>
       </c>
@@ -19845,7 +19853,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19875,7 +19883,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19905,7 +19913,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" s="5">
         <v>1</v>
       </c>
@@ -19933,7 +19941,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" s="5">
         <v>1</v>
       </c>
@@ -19961,7 +19969,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" s="5">
         <v>1</v>
       </c>
@@ -19989,7 +19997,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" s="5">
         <v>1</v>
       </c>
@@ -20015,7 +20023,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" s="5">
         <v>1</v>
       </c>
@@ -20041,7 +20049,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463" s="5">
         <v>1</v>
       </c>
@@ -20065,7 +20073,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464" s="5">
         <v>1</v>
       </c>
@@ -20089,7 +20097,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" s="12">
         <v>1</v>
       </c>
@@ -20117,7 +20125,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" s="12">
         <v>1</v>
       </c>
@@ -20139,7 +20147,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467" s="5">
         <v>1</v>
       </c>
@@ -20165,7 +20173,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468" s="5">
         <v>1</v>
       </c>
@@ -20191,7 +20199,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" s="5">
         <v>0</v>
       </c>
@@ -20215,7 +20223,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470" s="5">
         <v>0</v>
       </c>
@@ -20237,7 +20245,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" s="5">
         <v>0</v>
       </c>
@@ -20261,7 +20269,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472" s="5">
         <v>0</v>
       </c>
@@ -20285,7 +20293,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473" s="5">
         <v>0</v>
       </c>
@@ -20311,7 +20319,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474" s="5">
         <v>0</v>
       </c>
@@ -20335,7 +20343,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" s="5">
         <v>0</v>
       </c>
@@ -20359,7 +20367,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20389,7 +20397,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" s="5">
         <v>0</v>
       </c>
@@ -20413,7 +20421,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" s="5">
         <v>0</v>
       </c>
@@ -20437,7 +20445,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" s="5">
         <v>0</v>
       </c>
@@ -20463,7 +20471,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20491,7 +20499,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" s="5">
         <v>1</v>
       </c>
@@ -20515,7 +20523,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" s="12">
         <v>1</v>
       </c>
@@ -20543,7 +20551,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" s="5">
         <v>0</v>
       </c>
@@ -20567,7 +20575,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" s="13">
         <v>0</v>
       </c>
@@ -20593,7 +20601,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" s="5">
         <v>0</v>
       </c>
@@ -20619,7 +20627,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" s="5">
         <v>0</v>
       </c>
@@ -20645,7 +20653,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20673,7 +20681,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" s="12">
         <v>1</v>
       </c>
@@ -20699,7 +20707,7 @@
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489" s="19">
         <v>1</v>
       </c>
@@ -20729,7 +20737,7 @@
       </c>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490" s="5">
         <v>1</v>
       </c>
@@ -20753,7 +20761,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491" s="5">
         <v>1</v>
       </c>
@@ -20779,7 +20787,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" s="12">
         <v>0</v>
       </c>
@@ -20807,7 +20815,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" s="13">
         <v>0</v>
       </c>
@@ -20831,7 +20839,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" s="5">
         <v>0</v>
       </c>
@@ -20857,7 +20865,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" s="5">
         <v>0</v>
       </c>
@@ -20883,7 +20891,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" s="5">
         <v>1</v>
       </c>
@@ -20909,7 +20917,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497" s="5">
         <v>1</v>
       </c>
@@ -20933,7 +20941,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498" s="5">
         <v>0</v>
       </c>
@@ -20957,7 +20965,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499" s="5">
         <v>0</v>
       </c>
@@ -20983,7 +20991,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500" s="5">
         <v>0</v>
       </c>
@@ -21009,7 +21017,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" s="5">
         <v>0</v>
       </c>
@@ -21035,7 +21043,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A502" s="5">
         <v>0</v>
       </c>
@@ -21059,7 +21067,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503" s="5">
         <v>1</v>
       </c>
@@ -21085,7 +21093,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504" s="5">
         <v>0</v>
       </c>
@@ -21109,7 +21117,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A505" s="5">
         <v>0</v>
       </c>
@@ -21133,7 +21141,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506" s="5">
         <v>0</v>
       </c>
@@ -21159,7 +21167,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507" s="5">
         <v>0</v>
       </c>
@@ -21185,7 +21193,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508" s="5">
         <v>0</v>
       </c>
@@ -21211,7 +21219,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21239,7 +21247,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510" s="5">
         <v>0</v>
       </c>
@@ -21263,7 +21271,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511" s="5">
         <v>0</v>
       </c>
@@ -21289,7 +21297,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512" s="5">
         <v>0</v>
       </c>
@@ -21313,7 +21321,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513" s="5">
         <v>1</v>
       </c>
@@ -21337,7 +21345,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" s="5">
         <v>1</v>
       </c>
@@ -21363,7 +21371,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" s="19">
         <v>1</v>
       </c>
@@ -21389,7 +21397,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516" s="12">
         <v>0</v>
       </c>
@@ -21417,7 +21425,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" s="12">
         <v>0</v>
       </c>
@@ -21445,7 +21453,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518" s="5">
         <v>0</v>
       </c>
@@ -21469,7 +21477,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" s="5">
         <v>0</v>
       </c>
@@ -21493,7 +21501,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520" s="5">
         <v>0</v>
       </c>
@@ -21517,7 +21525,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A521" s="5">
         <v>0</v>
       </c>
@@ -21541,7 +21549,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522" s="5">
         <v>0</v>
       </c>
@@ -21565,7 +21573,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A523" s="5">
         <v>0</v>
       </c>
@@ -21589,7 +21597,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A524" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21617,7 +21625,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A525" s="5">
         <v>1</v>
       </c>
@@ -21645,7 +21653,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A526" s="12">
         <v>0</v>
       </c>
@@ -21673,7 +21681,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A527" s="5">
         <v>0</v>
       </c>
@@ -21697,7 +21705,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A528" s="5">
         <v>0</v>
       </c>
@@ -21723,7 +21731,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A529" s="5">
         <v>0</v>
       </c>
@@ -21747,7 +21755,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A530" s="5">
         <v>0</v>
       </c>
@@ -21773,7 +21781,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531" s="5">
         <v>0</v>
       </c>
@@ -21799,7 +21807,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A532" s="5">
         <v>0</v>
       </c>
@@ -21823,7 +21831,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A533" s="5">
         <v>0</v>
       </c>
@@ -21849,7 +21857,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A534" s="5">
         <v>0</v>
       </c>
@@ -21875,7 +21883,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A535" s="5">
         <v>0</v>
       </c>
@@ -21899,7 +21907,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A536" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21927,7 +21935,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A537" s="5">
         <v>1</v>
       </c>
@@ -21953,7 +21961,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A538" s="5">
         <v>0</v>
       </c>
@@ -21979,7 +21987,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A539" s="5">
         <v>0</v>
       </c>
@@ -22005,7 +22013,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
         <v>1037</v>
       </c>
@@ -22035,7 +22043,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A541" s="12">
         <v>1</v>
       </c>
@@ -22063,7 +22071,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A542" s="5">
         <v>0</v>
       </c>
@@ -22089,7 +22097,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543" s="5">
         <v>0</v>
       </c>
@@ -22113,7 +22121,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A544" s="5">
         <v>0</v>
       </c>
@@ -22139,7 +22147,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A545" s="5">
         <v>0</v>
       </c>
@@ -22163,7 +22171,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A546" s="5">
         <v>0</v>
       </c>
@@ -22187,7 +22195,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A547" s="5">
         <v>0</v>
       </c>
@@ -22211,7 +22219,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A548" s="12">
         <v>0</v>
       </c>
@@ -22239,7 +22247,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A549" s="5">
         <v>0</v>
       </c>
@@ -22261,7 +22269,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A550" s="13">
         <v>0</v>
       </c>
@@ -22287,7 +22295,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A551" s="5">
         <v>0</v>
       </c>
@@ -22307,7 +22315,13 @@
       <c r="J551" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I551"/>
+  <autoFilter ref="I1:I551">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Tahira"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="2540">
   <si>
     <t>257?</t>
   </si>
@@ -7751,7 +7751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7794,6 +7794,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8143,11 +8145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="C106" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8187,7 +8188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -8211,7 +8212,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8237,7 +8238,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -8263,7 +8264,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8287,7 +8288,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -8313,7 +8314,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -8337,7 +8338,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8361,7 +8362,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -8386,7 +8387,9 @@
       <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -8469,7 +8472,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -8603,7 +8606,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -8631,7 +8634,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -8743,7 +8746,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -8769,7 +8772,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -8795,7 +8798,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -8821,7 +8824,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -8842,10 +8845,12 @@
         <v>125</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -8871,7 +8876,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -8899,7 +8904,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -8927,7 +8932,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -8952,10 +8957,12 @@
       <c r="H30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -8983,7 +8990,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -9011,7 +9018,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -9039,7 +9046,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -9065,7 +9072,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -9093,7 +9100,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -9117,7 +9124,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -9141,7 +9148,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -9165,7 +9172,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -9189,7 +9196,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0</v>
       </c>
@@ -9213,7 +9220,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -9237,7 +9244,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -9261,7 +9268,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -9285,7 +9292,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -9309,7 +9316,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -9335,7 +9342,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -9361,7 +9368,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>0</v>
       </c>
@@ -9387,7 +9394,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -9411,7 +9418,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -9435,7 +9442,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -9461,7 +9468,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -9485,7 +9492,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -9509,7 +9516,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -9533,7 +9540,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -9559,7 +9566,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -9615,7 +9622,7 @@
       </c>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -9673,7 +9680,7 @@
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -9759,7 +9766,7 @@
       </c>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -9789,7 +9796,7 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="5">
         <v>1</v>
       </c>
@@ -9819,7 +9826,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="5">
         <v>1</v>
       </c>
@@ -9845,7 +9852,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -9873,7 +9880,7 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -9899,7 +9906,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -9925,7 +9932,7 @@
       </c>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -9977,7 +9984,7 @@
       </c>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -10005,7 +10012,7 @@
       </c>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -10033,7 +10040,7 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="5">
         <v>0</v>
       </c>
@@ -10059,7 +10066,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="5">
         <v>0</v>
       </c>
@@ -10083,7 +10090,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="5">
         <v>0</v>
       </c>
@@ -10107,7 +10114,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="5">
         <v>0</v>
       </c>
@@ -10131,7 +10138,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="5">
         <v>0</v>
       </c>
@@ -10155,7 +10162,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>0</v>
       </c>
@@ -10179,7 +10186,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>0</v>
       </c>
@@ -10205,7 +10212,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>0</v>
       </c>
@@ -10229,7 +10236,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>0</v>
       </c>
@@ -10253,7 +10260,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
         <v>0</v>
       </c>
@@ -10277,7 +10284,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="5">
         <v>0</v>
       </c>
@@ -10301,7 +10308,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="5">
         <v>0</v>
       </c>
@@ -10325,7 +10332,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="5">
         <v>0</v>
       </c>
@@ -10349,7 +10356,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="5">
         <v>0</v>
       </c>
@@ -10373,7 +10380,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
         <v>0</v>
       </c>
@@ -10399,7 +10406,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
         <v>0</v>
       </c>
@@ -10423,7 +10430,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="5">
         <v>0</v>
       </c>
@@ -10451,7 +10458,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
         <v>0</v>
       </c>
@@ -10477,7 +10484,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
         <v>0</v>
       </c>
@@ -10503,7 +10510,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="5">
         <v>0</v>
       </c>
@@ -10529,7 +10536,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="5">
         <v>0</v>
       </c>
@@ -10555,7 +10562,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="5">
         <v>0</v>
       </c>
@@ -10579,7 +10586,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>9</v>
       </c>
@@ -10601,7 +10608,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>9</v>
       </c>
@@ -10627,7 +10634,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
@@ -10653,7 +10660,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>9</v>
       </c>
@@ -10679,7 +10686,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>9</v>
       </c>
@@ -10705,7 +10712,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -10731,7 +10738,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>9</v>
       </c>
@@ -10757,7 +10764,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -10787,7 +10794,7 @@
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -10813,7 +10820,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -10839,7 +10846,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -10865,7 +10872,7 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -10891,7 +10898,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
         <v>1</v>
       </c>
@@ -10917,7 +10924,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" ht="16.899999999999999" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" ht="16.899999999999999" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -10943,7 +10950,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>1</v>
       </c>
@@ -10969,7 +10976,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>1</v>
       </c>
@@ -10997,7 +11004,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
         <v>1</v>
       </c>
@@ -11019,7 +11026,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
         <v>0</v>
       </c>
@@ -11043,7 +11050,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
         <v>0</v>
       </c>
@@ -11069,7 +11076,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="5">
         <v>0</v>
       </c>
@@ -11093,7 +11100,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="5">
         <v>0</v>
       </c>
@@ -11117,7 +11124,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="5">
         <v>0</v>
       </c>
@@ -11141,7 +11148,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="5">
         <v>0</v>
       </c>
@@ -11165,7 +11172,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="5">
         <v>0</v>
       </c>
@@ -11189,7 +11196,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" s="5">
         <v>0</v>
       </c>
@@ -11211,7 +11218,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="5">
         <v>0</v>
       </c>
@@ -11237,7 +11244,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="5">
         <v>0</v>
       </c>
@@ -11261,7 +11268,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="5">
         <v>0</v>
       </c>
@@ -11287,7 +11294,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="5">
         <v>0</v>
       </c>
@@ -11313,7 +11320,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="5">
         <v>0</v>
       </c>
@@ -11339,7 +11346,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="5">
         <v>0</v>
       </c>
@@ -11365,7 +11372,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="5">
         <v>0</v>
       </c>
@@ -11391,7 +11398,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="5">
         <v>0</v>
       </c>
@@ -11410,16 +11417,16 @@
       <c r="F126" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="G126" s="6" t="s">
+      <c r="G126" s="20" t="s">
         <v>589</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="5">
-        <v>0</v>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A127" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>590</v>
@@ -11438,10 +11445,12 @@
         <v>593</v>
       </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
+      <c r="I127" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="5">
         <v>0</v>
       </c>
@@ -11467,7 +11476,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="5">
         <v>0</v>
       </c>
@@ -11493,7 +11502,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="5">
         <v>0</v>
       </c>
@@ -11517,7 +11526,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="5">
         <v>0</v>
       </c>
@@ -11543,7 +11552,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="5">
         <v>0</v>
       </c>
@@ -11569,7 +11578,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="5">
         <v>0</v>
       </c>
@@ -11597,7 +11606,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="5">
         <v>0</v>
       </c>
@@ -11621,7 +11630,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="5">
         <v>0</v>
       </c>
@@ -11643,7 +11652,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -11667,7 +11676,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
         <v>9</v>
       </c>
@@ -11693,7 +11702,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>9</v>
       </c>
@@ -11721,7 +11730,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -11743,7 +11752,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -11771,7 +11780,7 @@
       </c>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -11790,16 +11799,18 @@
       <c r="F141" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="G141" s="6" t="s">
+      <c r="G141" s="20" t="s">
         <v>657</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="I141" s="3"/>
+      <c r="I141" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="5">
         <v>1</v>
       </c>
@@ -11829,7 +11840,7 @@
       </c>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="5">
         <v>1</v>
       </c>
@@ -11855,7 +11866,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -11881,7 +11892,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" s="5">
         <v>1</v>
       </c>
@@ -11903,7 +11914,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" s="5">
         <v>1</v>
       </c>
@@ -11931,7 +11942,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11959,7 +11970,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -11989,7 +12000,7 @@
       </c>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -12017,7 +12028,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -12043,7 +12054,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -12069,7 +12080,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" s="5">
         <v>1</v>
       </c>
@@ -12093,7 +12104,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" s="5">
         <v>0</v>
       </c>
@@ -12119,7 +12130,7 @@
       </c>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" s="5">
         <v>0</v>
       </c>
@@ -12143,7 +12154,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" s="5">
         <v>0</v>
       </c>
@@ -12165,7 +12176,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" s="5">
         <v>0</v>
       </c>
@@ -12191,7 +12202,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" s="5">
         <v>0</v>
       </c>
@@ -12215,7 +12226,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" s="5">
         <v>0</v>
       </c>
@@ -12239,7 +12250,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" s="5">
         <v>0</v>
       </c>
@@ -12263,7 +12274,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" s="5">
         <v>0</v>
       </c>
@@ -12287,7 +12298,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" s="5">
         <v>0</v>
       </c>
@@ -12311,7 +12322,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" s="5">
         <v>0</v>
       </c>
@@ -12335,7 +12346,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163" s="5">
         <v>0</v>
       </c>
@@ -12359,7 +12370,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164" s="5">
         <v>0</v>
       </c>
@@ -12383,7 +12394,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165" s="5">
         <v>0</v>
       </c>
@@ -12409,7 +12420,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166" s="5">
         <v>0</v>
       </c>
@@ -12435,7 +12446,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167" s="5">
         <v>0</v>
       </c>
@@ -12461,7 +12472,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168" s="5">
         <v>0</v>
       </c>
@@ -12489,7 +12500,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169" s="5">
         <v>0</v>
       </c>
@@ -12515,7 +12526,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170" s="5">
         <v>0</v>
       </c>
@@ -12541,7 +12552,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171" s="5">
         <v>0</v>
       </c>
@@ -12567,7 +12578,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172" s="5">
         <v>0</v>
       </c>
@@ -12593,7 +12604,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173" s="5">
         <v>0</v>
       </c>
@@ -12619,7 +12630,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174" s="5">
         <v>0</v>
       </c>
@@ -12645,7 +12656,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A175" s="5">
         <v>0</v>
       </c>
@@ -12671,7 +12682,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176" s="5">
         <v>0</v>
       </c>
@@ -12695,7 +12706,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177" s="5">
         <v>0</v>
       </c>
@@ -12717,7 +12728,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178" s="5">
         <v>0</v>
       </c>
@@ -12743,7 +12754,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -12767,7 +12778,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
         <v>9</v>
       </c>
@@ -12795,7 +12806,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
         <v>9</v>
       </c>
@@ -12821,7 +12832,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
         <v>9</v>
       </c>
@@ -12849,7 +12860,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
         <v>9</v>
       </c>
@@ -12877,7 +12888,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
         <v>9</v>
       </c>
@@ -12905,7 +12916,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
         <v>860</v>
       </c>
@@ -12933,7 +12944,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A186" s="5">
         <v>1</v>
       </c>
@@ -12959,7 +12970,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -12987,7 +12998,7 @@
       </c>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188" s="5">
         <v>1</v>
       </c>
@@ -13015,7 +13026,7 @@
       </c>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A189" s="5">
         <v>1</v>
       </c>
@@ -13041,7 +13052,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A190" s="5">
         <v>1</v>
       </c>
@@ -13067,7 +13078,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -13093,7 +13104,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -13121,7 +13132,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A193" s="5">
         <v>1</v>
       </c>
@@ -13149,7 +13160,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A194" s="5">
         <v>1</v>
       </c>
@@ -13177,7 +13188,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -13205,7 +13216,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A196" s="5">
         <v>1</v>
       </c>
@@ -13233,7 +13244,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -13261,7 +13272,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" s="8" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A198" s="5">
         <v>1</v>
       </c>
@@ -13287,7 +13298,7 @@
       </c>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -13311,7 +13322,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A200" s="5">
         <v>0</v>
       </c>
@@ -13335,7 +13346,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A201" s="5">
         <v>0</v>
       </c>
@@ -13359,7 +13370,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A202" s="5">
         <v>0</v>
       </c>
@@ -13385,7 +13396,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A203" s="5">
         <v>0</v>
       </c>
@@ -13411,7 +13422,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A204" s="5">
         <v>0</v>
       </c>
@@ -13435,7 +13446,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A205" s="5">
         <v>0</v>
       </c>
@@ -13459,7 +13470,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A206" s="5">
         <v>0</v>
       </c>
@@ -13483,7 +13494,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A207" s="5">
         <v>0</v>
       </c>
@@ -13507,7 +13518,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A208" s="5">
         <v>0</v>
       </c>
@@ -13531,7 +13542,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209" s="5">
         <v>0</v>
       </c>
@@ -13557,7 +13568,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210" s="5">
         <v>0</v>
       </c>
@@ -13581,7 +13592,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211" s="5">
         <v>0</v>
       </c>
@@ -13607,7 +13618,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212" s="5">
         <v>0</v>
       </c>
@@ -13633,7 +13644,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213" s="5">
         <v>0</v>
       </c>
@@ -13659,7 +13670,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214" s="5">
         <v>0</v>
       </c>
@@ -13685,7 +13696,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215" s="5">
         <v>0</v>
       </c>
@@ -13711,7 +13722,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216" s="5">
         <v>0</v>
       </c>
@@ -13737,7 +13748,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217" s="5">
         <v>0</v>
       </c>
@@ -13763,7 +13774,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218" s="5">
         <v>0</v>
       </c>
@@ -13787,7 +13798,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219" s="5">
         <v>0</v>
       </c>
@@ -13811,7 +13822,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220" s="5">
         <v>0</v>
       </c>
@@ -13837,7 +13848,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221" s="5">
         <v>0</v>
       </c>
@@ -13859,7 +13870,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13885,7 +13896,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13913,7 +13924,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13939,7 +13950,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225" s="12" t="s">
         <v>1037</v>
       </c>
@@ -13965,7 +13976,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13987,7 +13998,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14011,7 +14022,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14039,7 +14050,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -14067,7 +14078,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230" s="5">
         <v>1</v>
       </c>
@@ -14093,7 +14104,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231" s="5">
         <v>1</v>
       </c>
@@ -14119,7 +14130,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232" s="5">
         <v>1</v>
       </c>
@@ -14147,7 +14158,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233" s="5">
         <v>1</v>
       </c>
@@ -14173,7 +14184,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234" s="5">
         <v>1</v>
       </c>
@@ -14199,7 +14210,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235" s="5">
         <v>1</v>
       </c>
@@ -14227,7 +14238,7 @@
       </c>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236" s="5">
         <v>1</v>
       </c>
@@ -14253,7 +14264,7 @@
       </c>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237" s="5">
         <v>1</v>
       </c>
@@ -14275,7 +14286,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238" s="5">
         <v>1</v>
       </c>
@@ -14301,7 +14312,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239" s="5">
         <v>1</v>
       </c>
@@ -14327,7 +14338,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240" s="5">
         <v>0</v>
       </c>
@@ -14353,7 +14364,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A241" s="5">
         <v>0</v>
       </c>
@@ -14379,7 +14390,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A242" s="5">
         <v>0</v>
       </c>
@@ -14403,7 +14414,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A243" s="5">
         <v>0</v>
       </c>
@@ -14427,7 +14438,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A244" s="5">
         <v>0</v>
       </c>
@@ -14453,7 +14464,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A245" s="5">
         <v>0</v>
       </c>
@@ -14479,7 +14490,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A246" s="5">
         <v>0</v>
       </c>
@@ -14505,7 +14516,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A247" s="5">
         <v>0</v>
       </c>
@@ -14529,7 +14540,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A248" s="5">
         <v>0</v>
       </c>
@@ -14553,7 +14564,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A249" s="5">
         <v>0</v>
       </c>
@@ -14579,7 +14590,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250" s="5">
         <v>0</v>
       </c>
@@ -14605,7 +14616,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14633,7 +14644,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252" s="5">
         <v>1</v>
       </c>
@@ -14663,7 +14674,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14691,7 +14702,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14715,7 +14726,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14739,7 +14750,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14767,7 +14778,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A257" s="5">
         <v>1</v>
       </c>
@@ -14793,7 +14804,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A258" s="5">
         <v>1</v>
       </c>
@@ -14817,7 +14828,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A259" s="5">
         <v>1</v>
       </c>
@@ -14843,7 +14854,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A260" s="5">
         <v>1</v>
       </c>
@@ -14869,7 +14880,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A261" s="5">
         <v>1</v>
       </c>
@@ -14893,7 +14904,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A262" s="5">
         <v>1</v>
       </c>
@@ -14919,7 +14930,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A263" s="5">
         <v>1</v>
       </c>
@@ -14945,7 +14956,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A264" s="5">
         <v>1</v>
       </c>
@@ -14971,7 +14982,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A265" s="5">
         <v>1</v>
       </c>
@@ -14997,7 +15008,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A266" s="5">
         <v>0</v>
       </c>
@@ -15023,7 +15034,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A267" s="5">
         <v>0</v>
       </c>
@@ -15049,7 +15060,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A268" s="5">
         <v>0</v>
       </c>
@@ -15073,7 +15084,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A269" s="5">
         <v>0</v>
       </c>
@@ -15097,7 +15108,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A270" s="5">
         <v>0</v>
       </c>
@@ -15121,7 +15132,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A271" s="5">
         <v>0</v>
       </c>
@@ -15147,7 +15158,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A272" s="5">
         <v>0</v>
       </c>
@@ -15171,7 +15182,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A273" s="5">
         <v>0</v>
       </c>
@@ -15195,7 +15206,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A274" s="5">
         <v>0</v>
       </c>
@@ -15219,7 +15230,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A275" s="5">
         <v>0</v>
       </c>
@@ -15241,7 +15252,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A276" s="5">
         <v>0</v>
       </c>
@@ -15265,7 +15276,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A277" s="5">
         <v>0</v>
       </c>
@@ -15291,7 +15302,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A278" s="5">
         <v>0</v>
       </c>
@@ -15317,7 +15328,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A279" s="5">
         <v>0</v>
       </c>
@@ -15343,7 +15354,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A280" s="5">
         <v>0</v>
       </c>
@@ -15367,7 +15378,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A281" s="5">
         <v>0</v>
       </c>
@@ -15391,7 +15402,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A282" s="5">
         <v>0</v>
       </c>
@@ -15417,7 +15428,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A283" s="5">
         <v>0</v>
       </c>
@@ -15441,7 +15452,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A284" s="5">
         <v>0</v>
       </c>
@@ -15465,7 +15476,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A285" s="5">
         <v>0</v>
       </c>
@@ -15489,7 +15500,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A286" s="5">
         <v>0</v>
       </c>
@@ -15515,7 +15526,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A287" s="5">
         <v>0</v>
       </c>
@@ -15541,7 +15552,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A288" s="5">
         <v>0</v>
       </c>
@@ -15567,7 +15578,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A289" s="5">
         <v>0</v>
       </c>
@@ -15593,7 +15604,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A290" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15623,7 +15634,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A291" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15649,7 +15660,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A292" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15675,7 +15686,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A293" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15703,7 +15714,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A294" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15731,7 +15742,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A295" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15759,7 +15770,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A296" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15785,7 +15796,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A297" s="5">
         <v>1</v>
       </c>
@@ -15809,7 +15820,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A298" s="5">
         <v>1</v>
       </c>
@@ -15835,7 +15846,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A299" s="5">
         <v>1</v>
       </c>
@@ -15861,7 +15872,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A300" s="5">
         <v>1</v>
       </c>
@@ -15885,7 +15896,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A301" s="5">
         <v>1</v>
       </c>
@@ -15909,7 +15920,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A302" s="12">
         <v>1</v>
       </c>
@@ -15937,7 +15948,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A303" s="12">
         <v>1</v>
       </c>
@@ -15965,7 +15976,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A304" s="12">
         <v>1</v>
       </c>
@@ -15984,14 +15995,16 @@
       <c r="F304" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="G304" s="3" t="s">
+      <c r="G304" s="21" t="s">
         <v>1416</v>
       </c>
       <c r="H304" s="3"/>
-      <c r="I304" s="3"/>
+      <c r="I304" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A305" s="5">
         <v>1</v>
       </c>
@@ -16017,7 +16030,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A306" s="5">
         <v>1</v>
       </c>
@@ -16043,7 +16056,7 @@
       </c>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A307" s="5">
         <v>1</v>
       </c>
@@ -16069,7 +16082,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A308" s="5">
         <v>1</v>
       </c>
@@ -16095,7 +16108,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A309" s="5">
         <v>1</v>
       </c>
@@ -16121,7 +16134,7 @@
       </c>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A310" s="5">
         <v>1</v>
       </c>
@@ -16143,7 +16156,7 @@
       </c>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A311" s="5">
         <v>1</v>
       </c>
@@ -16162,14 +16175,16 @@
       <c r="F311" s="3" t="s">
         <v>1444</v>
       </c>
-      <c r="G311" s="3" t="s">
+      <c r="G311" s="21" t="s">
         <v>1445</v>
       </c>
       <c r="H311" s="3"/>
-      <c r="I311" s="3"/>
+      <c r="I311" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A312" s="12">
         <v>0</v>
       </c>
@@ -16195,7 +16210,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A313" s="5">
         <v>0</v>
       </c>
@@ -16223,7 +16238,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A314" s="5">
         <v>0</v>
       </c>
@@ -16251,7 +16266,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A315" s="5">
         <v>0</v>
       </c>
@@ -16277,7 +16292,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A316" s="5">
         <v>0</v>
       </c>
@@ -16301,7 +16316,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A317" s="5">
         <v>0</v>
       </c>
@@ -16325,7 +16340,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A318" s="5">
         <v>0</v>
       </c>
@@ -16349,7 +16364,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A319" s="5">
         <v>0</v>
       </c>
@@ -16373,7 +16388,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A320" s="5">
         <v>0</v>
       </c>
@@ -16399,7 +16414,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A321" s="5">
         <v>0</v>
       </c>
@@ -16423,7 +16438,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A322" s="5">
         <v>0</v>
       </c>
@@ -16447,7 +16462,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A323" s="5">
         <v>0</v>
       </c>
@@ -16473,7 +16488,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A324" s="5">
         <v>0</v>
       </c>
@@ -16499,7 +16514,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A325" s="5">
         <v>0</v>
       </c>
@@ -16525,7 +16540,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A326" s="5">
         <v>0</v>
       </c>
@@ -16551,7 +16566,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A327" s="5">
         <v>0</v>
       </c>
@@ -16577,7 +16592,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A328" s="5">
         <v>0</v>
       </c>
@@ -16603,7 +16618,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A329" s="5">
         <v>0</v>
       </c>
@@ -16627,7 +16642,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A330" s="13">
         <v>0</v>
       </c>
@@ -16653,7 +16668,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A331" s="5">
         <v>0</v>
       </c>
@@ -16679,7 +16694,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A332" s="5">
         <v>0</v>
       </c>
@@ -16703,7 +16718,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A333" s="5">
         <v>0</v>
       </c>
@@ -16729,7 +16744,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A334" s="5">
         <v>0</v>
       </c>
@@ -16755,7 +16770,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A335" s="5">
         <v>0</v>
       </c>
@@ -16781,7 +16796,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A336" s="5">
         <v>0</v>
       </c>
@@ -16807,7 +16822,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A337" s="5">
         <v>1</v>
       </c>
@@ -16823,7 +16838,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A338" s="5">
         <v>0</v>
       </c>
@@ -16849,7 +16864,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A339" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16875,7 +16890,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A340" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16901,7 +16916,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A341" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16931,7 +16946,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16959,7 +16974,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A343" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16987,7 +17002,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A344" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17015,7 +17030,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A345" s="5">
         <v>1</v>
       </c>
@@ -17041,7 +17056,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A346" s="5">
         <v>1</v>
       </c>
@@ -17063,7 +17078,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A347" s="5">
         <v>1</v>
       </c>
@@ -17091,7 +17106,7 @@
       </c>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A348" s="5">
         <v>1</v>
       </c>
@@ -17115,7 +17130,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A349" s="12">
         <v>1</v>
       </c>
@@ -17139,7 +17154,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A350" s="12">
         <v>1</v>
       </c>
@@ -17163,7 +17178,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A351" s="12">
         <v>1</v>
       </c>
@@ -17187,7 +17202,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A352" s="5">
         <v>1</v>
       </c>
@@ -17213,7 +17228,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A353" s="12">
         <v>0</v>
       </c>
@@ -17239,7 +17254,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A354" s="12">
         <v>0</v>
       </c>
@@ -17269,7 +17284,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A355" s="12">
         <v>0</v>
       </c>
@@ -17297,7 +17312,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A356" s="5">
         <v>0</v>
       </c>
@@ -17323,7 +17338,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A357" s="5">
         <v>0</v>
       </c>
@@ -17347,7 +17362,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A358" s="5">
         <v>0</v>
       </c>
@@ -17373,7 +17388,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A359" s="5">
         <v>0</v>
       </c>
@@ -17399,7 +17414,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A360" s="5">
         <v>0</v>
       </c>
@@ -17423,7 +17438,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A361" s="5">
         <v>0</v>
       </c>
@@ -17445,7 +17460,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A362" s="5">
         <v>0</v>
       </c>
@@ -17471,7 +17486,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A363" s="5">
         <v>0</v>
       </c>
@@ -17497,7 +17512,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A364" s="5">
         <v>0</v>
       </c>
@@ -17523,7 +17538,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A365" s="5">
         <v>0</v>
       </c>
@@ -17549,7 +17564,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A366" s="5">
         <v>0</v>
       </c>
@@ -17575,7 +17590,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A367" s="5">
         <v>0</v>
       </c>
@@ -17601,7 +17616,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A368" s="5">
         <v>0</v>
       </c>
@@ -17627,7 +17642,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A369" s="5">
         <v>0</v>
       </c>
@@ -17653,7 +17668,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A370" s="5">
         <v>0</v>
       </c>
@@ -17679,7 +17694,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A371" s="5">
         <v>0</v>
       </c>
@@ -17705,7 +17720,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A372" s="5">
         <v>0</v>
       </c>
@@ -17731,7 +17746,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A373" s="5">
         <v>0</v>
       </c>
@@ -17757,7 +17772,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A374" s="5">
         <v>0</v>
       </c>
@@ -17783,7 +17798,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A375" s="5">
         <v>0</v>
       </c>
@@ -17807,7 +17822,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A376" s="5">
         <v>0</v>
       </c>
@@ -17829,7 +17844,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A377" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17857,7 +17872,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17883,7 +17898,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A379" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17913,7 +17928,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A380" s="12">
         <v>1</v>
       </c>
@@ -17941,7 +17956,7 @@
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A381" s="5">
         <v>1</v>
       </c>
@@ -17971,7 +17986,7 @@
       </c>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A382" s="5">
         <v>1</v>
       </c>
@@ -17995,7 +18010,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A383" s="5">
         <v>1</v>
       </c>
@@ -18021,7 +18036,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A384" s="5">
         <v>1</v>
       </c>
@@ -18047,7 +18062,7 @@
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A385" s="5">
         <v>1</v>
       </c>
@@ -18075,7 +18090,7 @@
       </c>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A386" s="5">
         <v>1</v>
       </c>
@@ -18097,7 +18112,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A387" s="5">
         <v>1</v>
       </c>
@@ -18123,7 +18138,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A388" s="12">
         <v>1</v>
       </c>
@@ -18151,7 +18166,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A389" s="5">
         <v>1</v>
       </c>
@@ -18177,7 +18192,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A390" s="5">
         <v>1</v>
       </c>
@@ -18203,7 +18218,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A391" s="5">
         <v>0</v>
       </c>
@@ -18227,7 +18242,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A392" s="5">
         <v>0</v>
       </c>
@@ -18253,7 +18268,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A393" s="5">
         <v>0</v>
       </c>
@@ -18277,7 +18292,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A394" s="5">
         <v>0</v>
       </c>
@@ -18301,7 +18316,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A395" s="5">
         <v>0</v>
       </c>
@@ -18325,7 +18340,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A396" s="5">
         <v>0</v>
       </c>
@@ -18349,7 +18364,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A397" s="5">
         <v>0</v>
       </c>
@@ -18375,7 +18390,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A398" s="5">
         <v>0</v>
       </c>
@@ -18401,7 +18416,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A399" s="5">
         <v>0</v>
       </c>
@@ -18427,7 +18442,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A400" s="5">
         <v>0</v>
       </c>
@@ -18453,7 +18468,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A401" s="5">
         <v>0</v>
       </c>
@@ -18479,7 +18494,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A402" s="5">
         <v>0</v>
       </c>
@@ -18505,7 +18520,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A403" s="5">
         <v>0</v>
       </c>
@@ -18531,7 +18546,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A404" s="5">
         <v>0</v>
       </c>
@@ -18557,7 +18572,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A405" s="5">
         <v>0</v>
       </c>
@@ -18583,7 +18598,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A406" s="5">
         <v>0</v>
       </c>
@@ -18607,7 +18622,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A407" s="5">
         <v>0</v>
       </c>
@@ -18633,7 +18648,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A408" s="5">
         <v>0</v>
       </c>
@@ -18659,7 +18674,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A409" s="5">
         <v>0</v>
       </c>
@@ -18685,7 +18700,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A410" s="5">
         <v>0</v>
       </c>
@@ -18709,7 +18724,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A411" s="5">
         <v>0</v>
       </c>
@@ -18735,7 +18750,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A412" s="5">
         <v>0</v>
       </c>
@@ -18761,7 +18776,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A413" s="12" t="s">
         <v>1037</v>
       </c>
@@ -18787,7 +18802,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A414" s="5">
         <v>1</v>
       </c>
@@ -18813,7 +18828,7 @@
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A415" s="5">
         <v>1</v>
       </c>
@@ -18837,7 +18852,7 @@
       </c>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A416" s="5">
         <v>1</v>
       </c>
@@ -18865,7 +18880,7 @@
       </c>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A417" s="5">
         <v>1</v>
       </c>
@@ -18891,7 +18906,7 @@
       </c>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A418" s="5">
         <v>1</v>
       </c>
@@ -18915,7 +18930,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A419" s="5">
         <v>1</v>
       </c>
@@ -18941,7 +18956,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A420" s="5">
         <v>1</v>
       </c>
@@ -18965,7 +18980,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A421" s="5">
         <v>1</v>
       </c>
@@ -18991,7 +19006,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A422" s="5">
         <v>1</v>
       </c>
@@ -19017,7 +19032,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A423" s="12">
         <v>0</v>
       </c>
@@ -19047,7 +19062,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A424" s="5">
         <v>0</v>
       </c>
@@ -19073,7 +19088,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A425" s="5">
         <v>0</v>
       </c>
@@ -19097,7 +19112,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A426" s="5">
         <v>0</v>
       </c>
@@ -19121,7 +19136,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A427" s="5">
         <v>0</v>
       </c>
@@ -19145,7 +19160,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A428" s="5">
         <v>0</v>
       </c>
@@ -19171,7 +19186,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A429" s="5">
         <v>0</v>
       </c>
@@ -19195,7 +19210,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A430" s="5">
         <v>0</v>
       </c>
@@ -19221,7 +19236,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A431" s="5">
         <v>0</v>
       </c>
@@ -19247,7 +19262,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A432" s="5">
         <v>0</v>
       </c>
@@ -19273,7 +19288,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A433" s="5">
         <v>0</v>
       </c>
@@ -19299,7 +19314,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A434" s="5">
         <v>0</v>
       </c>
@@ -19325,7 +19340,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A435" s="5">
         <v>0</v>
       </c>
@@ -19351,7 +19366,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A436" s="5">
         <v>0</v>
       </c>
@@ -19377,7 +19392,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A437" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19407,7 +19422,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A438" s="12" t="s">
         <v>2019</v>
       </c>
@@ -19433,7 +19448,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A439" s="5">
         <v>1</v>
       </c>
@@ -19459,7 +19474,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A440" s="5">
         <v>1</v>
       </c>
@@ -19485,7 +19500,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A441" s="5">
         <v>1</v>
       </c>
@@ -19507,7 +19522,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A442" s="5">
         <v>0</v>
       </c>
@@ -19531,7 +19546,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A443" s="5">
         <v>0</v>
       </c>
@@ -19555,7 +19570,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A444" s="5">
         <v>0</v>
       </c>
@@ -19579,7 +19594,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A445" s="5">
         <v>0</v>
       </c>
@@ -19605,7 +19620,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A446" s="5">
         <v>0</v>
       </c>
@@ -19629,7 +19644,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A447" s="5">
         <v>0</v>
       </c>
@@ -19653,7 +19668,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A448" s="5">
         <v>0</v>
       </c>
@@ -19677,7 +19692,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A449" s="5">
         <v>0</v>
       </c>
@@ -19703,7 +19718,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A450" s="5">
         <v>0</v>
       </c>
@@ -19727,7 +19742,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A451" s="5">
         <v>0</v>
       </c>
@@ -19753,7 +19768,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A452" s="5">
         <v>0</v>
       </c>
@@ -19777,7 +19792,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A453" s="5">
         <v>0</v>
       </c>
@@ -19801,7 +19816,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A454" s="5">
         <v>0</v>
       </c>
@@ -19825,7 +19840,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A455" s="5" t="s">
         <v>1037</v>
       </c>
@@ -19853,7 +19868,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A456" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19883,7 +19898,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A457" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19913,7 +19928,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A458" s="5">
         <v>1</v>
       </c>
@@ -19941,7 +19956,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A459" s="5">
         <v>1</v>
       </c>
@@ -19969,7 +19984,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A460" s="5">
         <v>1</v>
       </c>
@@ -19997,7 +20012,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A461" s="5">
         <v>1</v>
       </c>
@@ -20023,7 +20038,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A462" s="5">
         <v>1</v>
       </c>
@@ -20049,7 +20064,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A463" s="5">
         <v>1</v>
       </c>
@@ -20073,7 +20088,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A464" s="5">
         <v>1</v>
       </c>
@@ -20097,7 +20112,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A465" s="12">
         <v>1</v>
       </c>
@@ -20125,7 +20140,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A466" s="12">
         <v>1</v>
       </c>
@@ -20147,7 +20162,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A467" s="5">
         <v>1</v>
       </c>
@@ -20173,7 +20188,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A468" s="5">
         <v>1</v>
       </c>
@@ -20199,7 +20214,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A469" s="5">
         <v>0</v>
       </c>
@@ -20223,7 +20238,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A470" s="5">
         <v>0</v>
       </c>
@@ -20245,7 +20260,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A471" s="5">
         <v>0</v>
       </c>
@@ -20269,7 +20284,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A472" s="5">
         <v>0</v>
       </c>
@@ -20293,7 +20308,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A473" s="5">
         <v>0</v>
       </c>
@@ -20319,7 +20334,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A474" s="5">
         <v>0</v>
       </c>
@@ -20343,7 +20358,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A475" s="5">
         <v>0</v>
       </c>
@@ -20367,7 +20382,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A476" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20397,7 +20412,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A477" s="5">
         <v>0</v>
       </c>
@@ -20421,7 +20436,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A478" s="5">
         <v>0</v>
       </c>
@@ -20445,7 +20460,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A479" s="5">
         <v>0</v>
       </c>
@@ -20471,7 +20486,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20499,7 +20514,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A481" s="5">
         <v>1</v>
       </c>
@@ -20523,7 +20538,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A482" s="12">
         <v>1</v>
       </c>
@@ -20551,7 +20566,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A483" s="5">
         <v>0</v>
       </c>
@@ -20575,7 +20590,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A484" s="13">
         <v>0</v>
       </c>
@@ -20601,7 +20616,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A485" s="5">
         <v>0</v>
       </c>
@@ -20627,7 +20642,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A486" s="5">
         <v>0</v>
       </c>
@@ -20653,7 +20668,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A487" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20681,7 +20696,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A488" s="12">
         <v>1</v>
       </c>
@@ -20707,7 +20722,7 @@
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A489" s="19">
         <v>1</v>
       </c>
@@ -20737,7 +20752,7 @@
       </c>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A490" s="5">
         <v>1</v>
       </c>
@@ -20761,7 +20776,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A491" s="5">
         <v>1</v>
       </c>
@@ -20787,7 +20802,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A492" s="12">
         <v>0</v>
       </c>
@@ -20815,7 +20830,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A493" s="13">
         <v>0</v>
       </c>
@@ -20839,7 +20854,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A494" s="5">
         <v>0</v>
       </c>
@@ -20865,7 +20880,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A495" s="5">
         <v>0</v>
       </c>
@@ -20891,7 +20906,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A496" s="5">
         <v>1</v>
       </c>
@@ -20917,7 +20932,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A497" s="5">
         <v>1</v>
       </c>
@@ -20941,7 +20956,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A498" s="5">
         <v>0</v>
       </c>
@@ -20965,7 +20980,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A499" s="5">
         <v>0</v>
       </c>
@@ -20991,7 +21006,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A500" s="5">
         <v>0</v>
       </c>
@@ -21017,7 +21032,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A501" s="5">
         <v>0</v>
       </c>
@@ -21043,7 +21058,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A502" s="5">
         <v>0</v>
       </c>
@@ -21067,7 +21082,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A503" s="5">
         <v>1</v>
       </c>
@@ -21093,7 +21108,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A504" s="5">
         <v>0</v>
       </c>
@@ -21117,7 +21132,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A505" s="5">
         <v>0</v>
       </c>
@@ -21141,7 +21156,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A506" s="5">
         <v>0</v>
       </c>
@@ -21167,7 +21182,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A507" s="5">
         <v>0</v>
       </c>
@@ -21193,7 +21208,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A508" s="5">
         <v>0</v>
       </c>
@@ -21219,7 +21234,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A509" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21247,7 +21262,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A510" s="5">
         <v>0</v>
       </c>
@@ -21271,7 +21286,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A511" s="5">
         <v>0</v>
       </c>
@@ -21297,7 +21312,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A512" s="5">
         <v>0</v>
       </c>
@@ -21321,7 +21336,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A513" s="5">
         <v>1</v>
       </c>
@@ -21345,7 +21360,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A514" s="5">
         <v>1</v>
       </c>
@@ -21371,7 +21386,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A515" s="19">
         <v>1</v>
       </c>
@@ -21397,7 +21412,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A516" s="12">
         <v>0</v>
       </c>
@@ -21425,7 +21440,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A517" s="12">
         <v>0</v>
       </c>
@@ -21453,7 +21468,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A518" s="5">
         <v>0</v>
       </c>
@@ -21477,7 +21492,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A519" s="5">
         <v>0</v>
       </c>
@@ -21501,7 +21516,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A520" s="5">
         <v>0</v>
       </c>
@@ -21525,7 +21540,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A521" s="5">
         <v>0</v>
       </c>
@@ -21549,7 +21564,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A522" s="5">
         <v>0</v>
       </c>
@@ -21573,7 +21588,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A523" s="5">
         <v>0</v>
       </c>
@@ -21597,7 +21612,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A524" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21625,7 +21640,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A525" s="5">
         <v>1</v>
       </c>
@@ -21653,7 +21668,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A526" s="12">
         <v>0</v>
       </c>
@@ -21681,7 +21696,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A527" s="5">
         <v>0</v>
       </c>
@@ -21705,7 +21720,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A528" s="5">
         <v>0</v>
       </c>
@@ -21731,7 +21746,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A529" s="5">
         <v>0</v>
       </c>
@@ -21755,7 +21770,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A530" s="5">
         <v>0</v>
       </c>
@@ -21781,7 +21796,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A531" s="5">
         <v>0</v>
       </c>
@@ -21807,7 +21822,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A532" s="5">
         <v>0</v>
       </c>
@@ -21831,7 +21846,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A533" s="5">
         <v>0</v>
       </c>
@@ -21857,7 +21872,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A534" s="5">
         <v>0</v>
       </c>
@@ -21883,7 +21898,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A535" s="5">
         <v>0</v>
       </c>
@@ -21907,7 +21922,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A536" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21935,7 +21950,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A537" s="5">
         <v>1</v>
       </c>
@@ -21961,7 +21976,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A538" s="5">
         <v>0</v>
       </c>
@@ -21987,7 +22002,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A539" s="5">
         <v>0</v>
       </c>
@@ -22013,7 +22028,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
         <v>1037</v>
       </c>
@@ -22043,7 +22058,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A541" s="12">
         <v>1</v>
       </c>
@@ -22071,7 +22086,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A542" s="5">
         <v>0</v>
       </c>
@@ -22097,7 +22112,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A543" s="5">
         <v>0</v>
       </c>
@@ -22121,7 +22136,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A544" s="5">
         <v>0</v>
       </c>
@@ -22147,7 +22162,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A545" s="5">
         <v>0</v>
       </c>
@@ -22171,7 +22186,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A546" s="5">
         <v>0</v>
       </c>
@@ -22195,7 +22210,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A547" s="5">
         <v>0</v>
       </c>
@@ -22219,7 +22234,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A548" s="12">
         <v>0</v>
       </c>
@@ -22247,7 +22262,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A549" s="5">
         <v>0</v>
       </c>
@@ -22269,7 +22284,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A550" s="13">
         <v>0</v>
       </c>
@@ -22295,7 +22310,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A551" s="5">
         <v>0</v>
       </c>
@@ -22315,13 +22330,7 @@
       <c r="J551" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I551">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tahira"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="I1:I551"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
@@ -22509,6 +22518,8 @@
     <hyperlink ref="F503" r:id="rId184"/>
     <hyperlink ref="F504" r:id="rId185"/>
     <hyperlink ref="F536" r:id="rId186"/>
+    <hyperlink ref="G304" r:id="rId187"/>
+    <hyperlink ref="G311" r:id="rId188"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -8145,10 +8145,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C106" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8188,7 +8189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -8212,7 +8213,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8238,7 +8239,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -8264,7 +8265,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8288,7 +8289,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -8314,7 +8315,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -8338,7 +8339,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8472,7 +8473,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -8606,7 +8607,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -8634,7 +8635,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -8746,7 +8747,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -8772,7 +8773,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -8798,7 +8799,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -8850,7 +8851,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -8876,7 +8877,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -8904,7 +8905,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -8962,7 +8963,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -8990,7 +8991,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -9018,7 +9019,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -9046,7 +9047,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -9072,7 +9073,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -9100,7 +9101,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -9124,7 +9125,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -9148,7 +9149,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -9172,7 +9173,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -9196,7 +9197,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0</v>
       </c>
@@ -9220,7 +9221,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -9244,7 +9245,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -9268,7 +9269,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -9292,7 +9293,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -9316,7 +9317,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -9342,7 +9343,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -9368,7 +9369,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>0</v>
       </c>
@@ -9394,7 +9395,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -9418,7 +9419,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -9442,7 +9443,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -9468,7 +9469,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -9492,7 +9493,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -9516,7 +9517,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -9540,7 +9541,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -9566,7 +9567,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -9622,7 +9623,7 @@
       </c>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -9680,7 +9681,7 @@
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -9766,7 +9767,7 @@
       </c>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -9796,7 +9797,7 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="5">
         <v>1</v>
       </c>
@@ -9826,7 +9827,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5">
         <v>1</v>
       </c>
@@ -9852,7 +9853,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -9880,7 +9881,7 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -9906,7 +9907,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -9932,7 +9933,7 @@
       </c>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -9984,7 +9985,7 @@
       </c>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -10012,7 +10013,7 @@
       </c>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -10040,7 +10041,7 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5">
         <v>0</v>
       </c>
@@ -10066,7 +10067,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="5">
         <v>0</v>
       </c>
@@ -10090,7 +10091,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5">
         <v>0</v>
       </c>
@@ -10114,7 +10115,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="5">
         <v>0</v>
       </c>
@@ -10138,7 +10139,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5">
         <v>0</v>
       </c>
@@ -10162,7 +10163,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>0</v>
       </c>
@@ -10186,7 +10187,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>0</v>
       </c>
@@ -10212,7 +10213,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>0</v>
       </c>
@@ -10236,7 +10237,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>0</v>
       </c>
@@ -10260,7 +10261,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
         <v>0</v>
       </c>
@@ -10284,7 +10285,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5">
         <v>0</v>
       </c>
@@ -10308,7 +10309,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="5">
         <v>0</v>
       </c>
@@ -10332,7 +10333,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5">
         <v>0</v>
       </c>
@@ -10356,7 +10357,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="5">
         <v>0</v>
       </c>
@@ -10380,7 +10381,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
         <v>0</v>
       </c>
@@ -10406,7 +10407,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
         <v>0</v>
       </c>
@@ -10430,7 +10431,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="5">
         <v>0</v>
       </c>
@@ -10458,7 +10459,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
         <v>0</v>
       </c>
@@ -10484,7 +10485,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
         <v>0</v>
       </c>
@@ -10510,7 +10511,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="5">
         <v>0</v>
       </c>
@@ -10536,7 +10537,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="5">
         <v>0</v>
       </c>
@@ -10562,7 +10563,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="5">
         <v>0</v>
       </c>
@@ -10586,7 +10587,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>9</v>
       </c>
@@ -10608,7 +10609,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>9</v>
       </c>
@@ -10634,7 +10635,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
@@ -10660,7 +10661,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>9</v>
       </c>
@@ -10686,7 +10687,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>9</v>
       </c>
@@ -10712,7 +10713,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -10738,7 +10739,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>9</v>
       </c>
@@ -10764,7 +10765,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -10794,7 +10795,7 @@
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -10820,7 +10821,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -10846,7 +10847,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -10872,7 +10873,7 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -10898,7 +10899,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
         <v>1</v>
       </c>
@@ -10924,7 +10925,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" ht="16.899999999999999" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" ht="16.899999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -10950,7 +10951,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>1</v>
       </c>
@@ -10976,7 +10977,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>1</v>
       </c>
@@ -11004,7 +11005,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
         <v>1</v>
       </c>
@@ -11026,7 +11027,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
         <v>0</v>
       </c>
@@ -11050,7 +11051,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
         <v>0</v>
       </c>
@@ -11076,7 +11077,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="5">
         <v>0</v>
       </c>
@@ -11100,7 +11101,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="5">
         <v>0</v>
       </c>
@@ -11124,7 +11125,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="5">
         <v>0</v>
       </c>
@@ -11148,7 +11149,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="5">
         <v>0</v>
       </c>
@@ -11172,7 +11173,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="5">
         <v>0</v>
       </c>
@@ -11196,7 +11197,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="5">
         <v>0</v>
       </c>
@@ -11218,7 +11219,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="5">
         <v>0</v>
       </c>
@@ -11244,7 +11245,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="5">
         <v>0</v>
       </c>
@@ -11268,7 +11269,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="5">
         <v>0</v>
       </c>
@@ -11294,7 +11295,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="5">
         <v>0</v>
       </c>
@@ -11320,7 +11321,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="5">
         <v>0</v>
       </c>
@@ -11346,7 +11347,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="5">
         <v>0</v>
       </c>
@@ -11372,7 +11373,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="5">
         <v>0</v>
       </c>
@@ -11398,7 +11399,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="5">
         <v>0</v>
       </c>
@@ -11450,7 +11451,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="5">
         <v>0</v>
       </c>
@@ -11476,7 +11477,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="5">
         <v>0</v>
       </c>
@@ -11502,7 +11503,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="5">
         <v>0</v>
       </c>
@@ -11526,7 +11527,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="5">
         <v>0</v>
       </c>
@@ -11552,7 +11553,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="5">
         <v>0</v>
       </c>
@@ -11578,7 +11579,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="5">
         <v>0</v>
       </c>
@@ -11606,7 +11607,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="5">
         <v>0</v>
       </c>
@@ -11630,7 +11631,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="5">
         <v>0</v>
       </c>
@@ -11652,7 +11653,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -11676,7 +11677,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
         <v>9</v>
       </c>
@@ -11702,7 +11703,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>9</v>
       </c>
@@ -11730,7 +11731,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -11752,7 +11753,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -11810,7 +11811,7 @@
       </c>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="5">
         <v>1</v>
       </c>
@@ -11840,7 +11841,7 @@
       </c>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="5">
         <v>1</v>
       </c>
@@ -11866,7 +11867,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -11892,7 +11893,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="5">
         <v>1</v>
       </c>
@@ -11914,7 +11915,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="5">
         <v>1</v>
       </c>
@@ -11942,7 +11943,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11970,7 +11971,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -12000,7 +12001,7 @@
       </c>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -12028,7 +12029,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -12054,7 +12055,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -12080,7 +12081,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="5">
         <v>1</v>
       </c>
@@ -12104,7 +12105,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="5">
         <v>0</v>
       </c>
@@ -12130,7 +12131,7 @@
       </c>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="5">
         <v>0</v>
       </c>
@@ -12154,7 +12155,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="5">
         <v>0</v>
       </c>
@@ -12176,7 +12177,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="5">
         <v>0</v>
       </c>
@@ -12202,7 +12203,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="5">
         <v>0</v>
       </c>
@@ -12226,7 +12227,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="5">
         <v>0</v>
       </c>
@@ -12250,7 +12251,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="5">
         <v>0</v>
       </c>
@@ -12274,7 +12275,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="5">
         <v>0</v>
       </c>
@@ -12298,7 +12299,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="5">
         <v>0</v>
       </c>
@@ -12322,7 +12323,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="5">
         <v>0</v>
       </c>
@@ -12346,7 +12347,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="5">
         <v>0</v>
       </c>
@@ -12370,7 +12371,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="5">
         <v>0</v>
       </c>
@@ -12394,7 +12395,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="5">
         <v>0</v>
       </c>
@@ -12420,7 +12421,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="5">
         <v>0</v>
       </c>
@@ -12446,7 +12447,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="5">
         <v>0</v>
       </c>
@@ -12472,7 +12473,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="5">
         <v>0</v>
       </c>
@@ -12500,7 +12501,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="5">
         <v>0</v>
       </c>
@@ -12526,7 +12527,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="5">
         <v>0</v>
       </c>
@@ -12552,7 +12553,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="5">
         <v>0</v>
       </c>
@@ -12578,7 +12579,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="5">
         <v>0</v>
       </c>
@@ -12604,7 +12605,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="5">
         <v>0</v>
       </c>
@@ -12630,7 +12631,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="5">
         <v>0</v>
       </c>
@@ -12656,7 +12657,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="5">
         <v>0</v>
       </c>
@@ -12682,7 +12683,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="5">
         <v>0</v>
       </c>
@@ -12706,7 +12707,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="5">
         <v>0</v>
       </c>
@@ -12728,7 +12729,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="5">
         <v>0</v>
       </c>
@@ -12754,7 +12755,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -12778,7 +12779,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
         <v>9</v>
       </c>
@@ -12806,7 +12807,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
         <v>9</v>
       </c>
@@ -12832,7 +12833,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
         <v>9</v>
       </c>
@@ -12860,7 +12861,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
         <v>9</v>
       </c>
@@ -12888,7 +12889,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
         <v>9</v>
       </c>
@@ -12916,7 +12917,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
         <v>860</v>
       </c>
@@ -12944,7 +12945,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="5">
         <v>1</v>
       </c>
@@ -12970,7 +12971,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -12998,7 +12999,7 @@
       </c>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="5">
         <v>1</v>
       </c>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="5">
         <v>1</v>
       </c>
@@ -13052,7 +13053,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="5">
         <v>1</v>
       </c>
@@ -13078,7 +13079,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -13104,7 +13105,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -13132,7 +13133,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="5">
         <v>1</v>
       </c>
@@ -13160,7 +13161,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="5">
         <v>1</v>
       </c>
@@ -13188,7 +13189,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -13216,7 +13217,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="5">
         <v>1</v>
       </c>
@@ -13244,7 +13245,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -13272,7 +13273,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" s="8" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="5">
         <v>1</v>
       </c>
@@ -13298,7 +13299,7 @@
       </c>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -13322,7 +13323,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="5">
         <v>0</v>
       </c>
@@ -13346,7 +13347,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="5">
         <v>0</v>
       </c>
@@ -13370,7 +13371,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="5">
         <v>0</v>
       </c>
@@ -13396,7 +13397,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="5">
         <v>0</v>
       </c>
@@ -13422,7 +13423,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="5">
         <v>0</v>
       </c>
@@ -13446,7 +13447,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="5">
         <v>0</v>
       </c>
@@ -13470,7 +13471,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="5">
         <v>0</v>
       </c>
@@ -13494,7 +13495,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="5">
         <v>0</v>
       </c>
@@ -13518,7 +13519,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="5">
         <v>0</v>
       </c>
@@ -13542,7 +13543,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="5">
         <v>0</v>
       </c>
@@ -13568,7 +13569,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="5">
         <v>0</v>
       </c>
@@ -13592,7 +13593,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="5">
         <v>0</v>
       </c>
@@ -13618,7 +13619,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="5">
         <v>0</v>
       </c>
@@ -13644,7 +13645,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="5">
         <v>0</v>
       </c>
@@ -13670,7 +13671,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="5">
         <v>0</v>
       </c>
@@ -13696,7 +13697,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="5">
         <v>0</v>
       </c>
@@ -13722,7 +13723,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="5">
         <v>0</v>
       </c>
@@ -13748,7 +13749,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="5">
         <v>0</v>
       </c>
@@ -13774,7 +13775,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" s="5">
         <v>0</v>
       </c>
@@ -13798,7 +13799,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="5">
         <v>0</v>
       </c>
@@ -13822,7 +13823,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="5">
         <v>0</v>
       </c>
@@ -13848,7 +13849,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" s="5">
         <v>0</v>
       </c>
@@ -13870,7 +13871,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13896,7 +13897,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13924,7 +13925,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="12" t="s">
         <v>1037</v>
       </c>
@@ -13976,7 +13977,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13998,7 +13999,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14022,7 +14023,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14050,7 +14051,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -14078,7 +14079,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" s="5">
         <v>1</v>
       </c>
@@ -14104,7 +14105,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="5">
         <v>1</v>
       </c>
@@ -14130,7 +14131,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="5">
         <v>1</v>
       </c>
@@ -14158,7 +14159,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="5">
         <v>1</v>
       </c>
@@ -14184,7 +14185,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="5">
         <v>1</v>
       </c>
@@ -14210,7 +14211,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="5">
         <v>1</v>
       </c>
@@ -14238,7 +14239,7 @@
       </c>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="5">
         <v>1</v>
       </c>
@@ -14264,7 +14265,7 @@
       </c>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="5">
         <v>1</v>
       </c>
@@ -14286,7 +14287,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="5">
         <v>1</v>
       </c>
@@ -14312,7 +14313,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="5">
         <v>1</v>
       </c>
@@ -14338,7 +14339,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="5">
         <v>0</v>
       </c>
@@ -14364,7 +14365,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="5">
         <v>0</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="5">
         <v>0</v>
       </c>
@@ -14414,7 +14415,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="5">
         <v>0</v>
       </c>
@@ -14438,7 +14439,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="5">
         <v>0</v>
       </c>
@@ -14464,7 +14465,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="5">
         <v>0</v>
       </c>
@@ -14490,7 +14491,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="5">
         <v>0</v>
       </c>
@@ -14516,7 +14517,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="5">
         <v>0</v>
       </c>
@@ -14540,7 +14541,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="5">
         <v>0</v>
       </c>
@@ -14564,7 +14565,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" s="5">
         <v>0</v>
       </c>
@@ -14590,7 +14591,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="5">
         <v>0</v>
       </c>
@@ -14616,7 +14617,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="5">
         <v>1</v>
       </c>
@@ -14674,7 +14675,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14702,7 +14703,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14726,7 +14727,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14750,7 +14751,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14778,7 +14779,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="5">
         <v>1</v>
       </c>
@@ -14804,7 +14805,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" s="5">
         <v>1</v>
       </c>
@@ -14828,7 +14829,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="5">
         <v>1</v>
       </c>
@@ -14854,7 +14855,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="5">
         <v>1</v>
       </c>
@@ -14880,7 +14881,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="5">
         <v>1</v>
       </c>
@@ -14904,7 +14905,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="5">
         <v>1</v>
       </c>
@@ -14930,7 +14931,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="5">
         <v>1</v>
       </c>
@@ -14956,7 +14957,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" s="5">
         <v>1</v>
       </c>
@@ -14982,7 +14983,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="5">
         <v>1</v>
       </c>
@@ -15008,7 +15009,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="5">
         <v>0</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="5">
         <v>0</v>
       </c>
@@ -15060,7 +15061,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="5">
         <v>0</v>
       </c>
@@ -15084,7 +15085,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" s="5">
         <v>0</v>
       </c>
@@ -15108,7 +15109,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" s="5">
         <v>0</v>
       </c>
@@ -15132,7 +15133,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="5">
         <v>0</v>
       </c>
@@ -15158,7 +15159,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="5">
         <v>0</v>
       </c>
@@ -15182,7 +15183,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="5">
         <v>0</v>
       </c>
@@ -15206,7 +15207,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="5">
         <v>0</v>
       </c>
@@ -15230,7 +15231,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="5">
         <v>0</v>
       </c>
@@ -15252,7 +15253,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="5">
         <v>0</v>
       </c>
@@ -15276,7 +15277,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="5">
         <v>0</v>
       </c>
@@ -15302,7 +15303,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="5">
         <v>0</v>
       </c>
@@ -15328,7 +15329,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="5">
         <v>0</v>
       </c>
@@ -15354,7 +15355,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="5">
         <v>0</v>
       </c>
@@ -15378,7 +15379,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="5">
         <v>0</v>
       </c>
@@ -15402,7 +15403,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="5">
         <v>0</v>
       </c>
@@ -15428,7 +15429,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="5">
         <v>0</v>
       </c>
@@ -15452,7 +15453,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="5">
         <v>0</v>
       </c>
@@ -15476,7 +15477,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="5">
         <v>0</v>
       </c>
@@ -15500,7 +15501,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="5">
         <v>0</v>
       </c>
@@ -15526,7 +15527,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="5">
         <v>0</v>
       </c>
@@ -15552,7 +15553,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="5">
         <v>0</v>
       </c>
@@ -15578,7 +15579,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="5">
         <v>0</v>
       </c>
@@ -15604,7 +15605,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15634,7 +15635,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15686,7 +15687,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15714,7 +15715,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15742,7 +15743,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15770,7 +15771,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="12" t="s">
         <v>1037</v>
       </c>
@@ -15796,7 +15797,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="5">
         <v>1</v>
       </c>
@@ -15820,7 +15821,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="5">
         <v>1</v>
       </c>
@@ -15846,7 +15847,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="5">
         <v>1</v>
       </c>
@@ -15872,7 +15873,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="5">
         <v>1</v>
       </c>
@@ -15896,7 +15897,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="5">
         <v>1</v>
       </c>
@@ -15920,7 +15921,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="12">
         <v>1</v>
       </c>
@@ -15948,7 +15949,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="12">
         <v>1</v>
       </c>
@@ -16004,7 +16005,7 @@
       </c>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="5">
         <v>1</v>
       </c>
@@ -16030,7 +16031,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="5">
         <v>1</v>
       </c>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="5">
         <v>1</v>
       </c>
@@ -16082,7 +16083,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="5">
         <v>1</v>
       </c>
@@ -16108,7 +16109,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="5">
         <v>1</v>
       </c>
@@ -16134,7 +16135,7 @@
       </c>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="5">
         <v>1</v>
       </c>
@@ -16184,7 +16185,7 @@
       </c>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="12">
         <v>0</v>
       </c>
@@ -16210,7 +16211,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="5">
         <v>0</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="5">
         <v>0</v>
       </c>
@@ -16266,7 +16267,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="5">
         <v>0</v>
       </c>
@@ -16292,7 +16293,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="5">
         <v>0</v>
       </c>
@@ -16316,7 +16317,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="5">
         <v>0</v>
       </c>
@@ -16340,7 +16341,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="5">
         <v>0</v>
       </c>
@@ -16364,7 +16365,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="5">
         <v>0</v>
       </c>
@@ -16388,7 +16389,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="5">
         <v>0</v>
       </c>
@@ -16414,7 +16415,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="5">
         <v>0</v>
       </c>
@@ -16438,7 +16439,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="5">
         <v>0</v>
       </c>
@@ -16462,7 +16463,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="5">
         <v>0</v>
       </c>
@@ -16488,7 +16489,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="5">
         <v>0</v>
       </c>
@@ -16514,7 +16515,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="5">
         <v>0</v>
       </c>
@@ -16540,7 +16541,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="5">
         <v>0</v>
       </c>
@@ -16566,7 +16567,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="5">
         <v>0</v>
       </c>
@@ -16592,7 +16593,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="5">
         <v>0</v>
       </c>
@@ -16618,7 +16619,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="5">
         <v>0</v>
       </c>
@@ -16642,7 +16643,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="13">
         <v>0</v>
       </c>
@@ -16668,7 +16669,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="5">
         <v>0</v>
       </c>
@@ -16694,7 +16695,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="5">
         <v>0</v>
       </c>
@@ -16718,7 +16719,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="5">
         <v>0</v>
       </c>
@@ -16744,7 +16745,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="5">
         <v>0</v>
       </c>
@@ -16770,7 +16771,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="5">
         <v>0</v>
       </c>
@@ -16796,7 +16797,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="5">
         <v>0</v>
       </c>
@@ -16822,7 +16823,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="5">
         <v>1</v>
       </c>
@@ -16838,7 +16839,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" s="5">
         <v>0</v>
       </c>
@@ -16864,7 +16865,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16890,7 +16891,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16916,7 +16917,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16946,7 +16947,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
         <v>1037</v>
       </c>
@@ -16974,7 +16975,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17002,7 +17003,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17030,7 +17031,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="5">
         <v>1</v>
       </c>
@@ -17056,7 +17057,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="5">
         <v>1</v>
       </c>
@@ -17078,7 +17079,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="5">
         <v>1</v>
       </c>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="5">
         <v>1</v>
       </c>
@@ -17130,7 +17131,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="12">
         <v>1</v>
       </c>
@@ -17154,7 +17155,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="12">
         <v>1</v>
       </c>
@@ -17178,7 +17179,7 @@
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="12">
         <v>1</v>
       </c>
@@ -17202,7 +17203,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="5">
         <v>1</v>
       </c>
@@ -17228,7 +17229,7 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="12">
         <v>0</v>
       </c>
@@ -17254,7 +17255,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="12">
         <v>0</v>
       </c>
@@ -17284,7 +17285,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="12">
         <v>0</v>
       </c>
@@ -17312,7 +17313,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="5">
         <v>0</v>
       </c>
@@ -17338,7 +17339,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="5">
         <v>0</v>
       </c>
@@ -17362,7 +17363,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="5">
         <v>0</v>
       </c>
@@ -17388,7 +17389,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="5">
         <v>0</v>
       </c>
@@ -17414,7 +17415,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="5">
         <v>0</v>
       </c>
@@ -17438,7 +17439,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="5">
         <v>0</v>
       </c>
@@ -17460,7 +17461,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="5">
         <v>0</v>
       </c>
@@ -17486,7 +17487,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="5">
         <v>0</v>
       </c>
@@ -17512,7 +17513,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="5">
         <v>0</v>
       </c>
@@ -17538,7 +17539,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="5">
         <v>0</v>
       </c>
@@ -17564,7 +17565,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="5">
         <v>0</v>
       </c>
@@ -17590,7 +17591,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="5">
         <v>0</v>
       </c>
@@ -17616,7 +17617,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="5">
         <v>0</v>
       </c>
@@ -17642,7 +17643,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="5">
         <v>0</v>
       </c>
@@ -17668,7 +17669,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" s="5">
         <v>0</v>
       </c>
@@ -17694,7 +17695,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="5">
         <v>0</v>
       </c>
@@ -17720,7 +17721,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="5">
         <v>0</v>
       </c>
@@ -17746,7 +17747,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="5">
         <v>0</v>
       </c>
@@ -17772,7 +17773,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="5">
         <v>0</v>
       </c>
@@ -17798,7 +17799,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="5">
         <v>0</v>
       </c>
@@ -17822,7 +17823,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="5">
         <v>0</v>
       </c>
@@ -17844,7 +17845,7 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17898,7 +17899,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="12" t="s">
         <v>1037</v>
       </c>
@@ -17928,7 +17929,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="12">
         <v>1</v>
       </c>
@@ -17956,7 +17957,7 @@
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="5">
         <v>1</v>
       </c>
@@ -17986,7 +17987,7 @@
       </c>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="5">
         <v>1</v>
       </c>
@@ -18010,7 +18011,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="5">
         <v>1</v>
       </c>
@@ -18036,7 +18037,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="5">
         <v>1</v>
       </c>
@@ -18062,7 +18063,7 @@
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="5">
         <v>1</v>
       </c>
@@ -18090,7 +18091,7 @@
       </c>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="5">
         <v>1</v>
       </c>
@@ -18112,7 +18113,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="5">
         <v>1</v>
       </c>
@@ -18138,7 +18139,7 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="12">
         <v>1</v>
       </c>
@@ -18166,7 +18167,7 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="5">
         <v>1</v>
       </c>
@@ -18192,7 +18193,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="5">
         <v>1</v>
       </c>
@@ -18218,7 +18219,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="5">
         <v>0</v>
       </c>
@@ -18242,7 +18243,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="5">
         <v>0</v>
       </c>
@@ -18268,7 +18269,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="5">
         <v>0</v>
       </c>
@@ -18292,7 +18293,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="5">
         <v>0</v>
       </c>
@@ -18316,7 +18317,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="5">
         <v>0</v>
       </c>
@@ -18340,7 +18341,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="5">
         <v>0</v>
       </c>
@@ -18364,7 +18365,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="5">
         <v>0</v>
       </c>
@@ -18390,7 +18391,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="5">
         <v>0</v>
       </c>
@@ -18416,7 +18417,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="5">
         <v>0</v>
       </c>
@@ -18442,7 +18443,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="5">
         <v>0</v>
       </c>
@@ -18468,7 +18469,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="5">
         <v>0</v>
       </c>
@@ -18494,7 +18495,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="5">
         <v>0</v>
       </c>
@@ -18520,7 +18521,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="5">
         <v>0</v>
       </c>
@@ -18546,7 +18547,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="5">
         <v>0</v>
       </c>
@@ -18572,7 +18573,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="5">
         <v>0</v>
       </c>
@@ -18598,7 +18599,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="5">
         <v>0</v>
       </c>
@@ -18622,7 +18623,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="5">
         <v>0</v>
       </c>
@@ -18648,7 +18649,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="5">
         <v>0</v>
       </c>
@@ -18674,7 +18675,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="5">
         <v>0</v>
       </c>
@@ -18700,7 +18701,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="5">
         <v>0</v>
       </c>
@@ -18724,7 +18725,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="5">
         <v>0</v>
       </c>
@@ -18750,7 +18751,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" s="5">
         <v>0</v>
       </c>
@@ -18776,7 +18777,7 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="12" t="s">
         <v>1037</v>
       </c>
@@ -18802,7 +18803,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="5">
         <v>1</v>
       </c>
@@ -18828,7 +18829,7 @@
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" s="5">
         <v>1</v>
       </c>
@@ -18852,7 +18853,7 @@
       </c>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" s="5">
         <v>1</v>
       </c>
@@ -18880,7 +18881,7 @@
       </c>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="5">
         <v>1</v>
       </c>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="5">
         <v>1</v>
       </c>
@@ -18930,7 +18931,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="5">
         <v>1</v>
       </c>
@@ -18956,7 +18957,7 @@
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="5">
         <v>1</v>
       </c>
@@ -18980,7 +18981,7 @@
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="5">
         <v>1</v>
       </c>
@@ -19006,7 +19007,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" s="5">
         <v>1</v>
       </c>
@@ -19032,7 +19033,7 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" s="12">
         <v>0</v>
       </c>
@@ -19062,7 +19063,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" s="5">
         <v>0</v>
       </c>
@@ -19088,7 +19089,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" s="5">
         <v>0</v>
       </c>
@@ -19112,7 +19113,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" s="5">
         <v>0</v>
       </c>
@@ -19136,7 +19137,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" s="5">
         <v>0</v>
       </c>
@@ -19160,7 +19161,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" s="5">
         <v>0</v>
       </c>
@@ -19186,7 +19187,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" s="5">
         <v>0</v>
       </c>
@@ -19210,7 +19211,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" s="5">
         <v>0</v>
       </c>
@@ -19236,7 +19237,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" s="5">
         <v>0</v>
       </c>
@@ -19262,7 +19263,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" s="5">
         <v>0</v>
       </c>
@@ -19288,7 +19289,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" s="5">
         <v>0</v>
       </c>
@@ -19314,7 +19315,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" s="5">
         <v>0</v>
       </c>
@@ -19340,7 +19341,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" s="5">
         <v>0</v>
       </c>
@@ -19366,7 +19367,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" s="5">
         <v>0</v>
       </c>
@@ -19392,7 +19393,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19422,7 +19423,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" s="12" t="s">
         <v>2019</v>
       </c>
@@ -19448,7 +19449,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" s="5">
         <v>1</v>
       </c>
@@ -19474,7 +19475,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" s="5">
         <v>1</v>
       </c>
@@ -19500,7 +19501,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" s="5">
         <v>1</v>
       </c>
@@ -19522,7 +19523,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" s="5">
         <v>0</v>
       </c>
@@ -19546,7 +19547,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" s="5">
         <v>0</v>
       </c>
@@ -19570,7 +19571,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" s="5">
         <v>0</v>
       </c>
@@ -19594,7 +19595,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" s="5">
         <v>0</v>
       </c>
@@ -19620,7 +19621,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" s="5">
         <v>0</v>
       </c>
@@ -19644,7 +19645,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" s="5">
         <v>0</v>
       </c>
@@ -19668,7 +19669,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" s="5">
         <v>0</v>
       </c>
@@ -19692,7 +19693,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" s="5">
         <v>0</v>
       </c>
@@ -19718,7 +19719,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" s="5">
         <v>0</v>
       </c>
@@ -19742,7 +19743,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" s="5">
         <v>0</v>
       </c>
@@ -19768,7 +19769,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452" s="5">
         <v>0</v>
       </c>
@@ -19792,7 +19793,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" s="5">
         <v>0</v>
       </c>
@@ -19816,7 +19817,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" s="5">
         <v>0</v>
       </c>
@@ -19840,7 +19841,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" s="5" t="s">
         <v>1037</v>
       </c>
@@ -19868,7 +19869,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19898,7 +19899,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" s="12" t="s">
         <v>1037</v>
       </c>
@@ -19928,7 +19929,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" s="5">
         <v>1</v>
       </c>
@@ -19956,7 +19957,7 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" s="5">
         <v>1</v>
       </c>
@@ -19984,7 +19985,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" s="5">
         <v>1</v>
       </c>
@@ -20012,7 +20013,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" s="5">
         <v>1</v>
       </c>
@@ -20038,7 +20039,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" s="5">
         <v>1</v>
       </c>
@@ -20064,7 +20065,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463" s="5">
         <v>1</v>
       </c>
@@ -20088,7 +20089,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464" s="5">
         <v>1</v>
       </c>
@@ -20112,7 +20113,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" s="12">
         <v>1</v>
       </c>
@@ -20140,7 +20141,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" s="12">
         <v>1</v>
       </c>
@@ -20162,7 +20163,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467" s="5">
         <v>1</v>
       </c>
@@ -20188,7 +20189,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468" s="5">
         <v>1</v>
       </c>
@@ -20214,7 +20215,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" s="5">
         <v>0</v>
       </c>
@@ -20238,7 +20239,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470" s="5">
         <v>0</v>
       </c>
@@ -20260,7 +20261,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" s="5">
         <v>0</v>
       </c>
@@ -20284,7 +20285,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472" s="5">
         <v>0</v>
       </c>
@@ -20308,7 +20309,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473" s="5">
         <v>0</v>
       </c>
@@ -20334,7 +20335,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474" s="5">
         <v>0</v>
       </c>
@@ -20358,7 +20359,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" s="5">
         <v>0</v>
       </c>
@@ -20382,7 +20383,7 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20412,7 +20413,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" s="5">
         <v>0</v>
       </c>
@@ -20436,7 +20437,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" s="5">
         <v>0</v>
       </c>
@@ -20460,7 +20461,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" s="5">
         <v>0</v>
       </c>
@@ -20486,7 +20487,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20514,7 +20515,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" s="5">
         <v>1</v>
       </c>
@@ -20538,7 +20539,7 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" s="12">
         <v>1</v>
       </c>
@@ -20566,7 +20567,7 @@
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" s="5">
         <v>0</v>
       </c>
@@ -20590,7 +20591,7 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" s="13">
         <v>0</v>
       </c>
@@ -20616,7 +20617,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" s="5">
         <v>0</v>
       </c>
@@ -20642,7 +20643,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" s="5">
         <v>0</v>
       </c>
@@ -20668,7 +20669,7 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" s="12" t="s">
         <v>1037</v>
       </c>
@@ -20696,7 +20697,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" s="12">
         <v>1</v>
       </c>
@@ -20722,7 +20723,7 @@
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489" s="19">
         <v>1</v>
       </c>
@@ -20752,7 +20753,7 @@
       </c>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490" s="5">
         <v>1</v>
       </c>
@@ -20776,7 +20777,7 @@
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491" s="5">
         <v>1</v>
       </c>
@@ -20802,7 +20803,7 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" s="12">
         <v>0</v>
       </c>
@@ -20830,7 +20831,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" s="13">
         <v>0</v>
       </c>
@@ -20854,7 +20855,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" s="5">
         <v>0</v>
       </c>
@@ -20880,7 +20881,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" s="5">
         <v>0</v>
       </c>
@@ -20906,7 +20907,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" s="5">
         <v>1</v>
       </c>
@@ -20932,7 +20933,7 @@
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497" s="5">
         <v>1</v>
       </c>
@@ -20956,7 +20957,7 @@
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498" s="5">
         <v>0</v>
       </c>
@@ -20980,7 +20981,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499" s="5">
         <v>0</v>
       </c>
@@ -21006,7 +21007,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500" s="5">
         <v>0</v>
       </c>
@@ -21032,7 +21033,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" s="5">
         <v>0</v>
       </c>
@@ -21058,7 +21059,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A502" s="5">
         <v>0</v>
       </c>
@@ -21082,7 +21083,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503" s="5">
         <v>1</v>
       </c>
@@ -21108,7 +21109,7 @@
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504" s="5">
         <v>0</v>
       </c>
@@ -21132,7 +21133,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A505" s="5">
         <v>0</v>
       </c>
@@ -21156,7 +21157,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506" s="5">
         <v>0</v>
       </c>
@@ -21182,7 +21183,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507" s="5">
         <v>0</v>
       </c>
@@ -21208,7 +21209,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508" s="5">
         <v>0</v>
       </c>
@@ -21234,7 +21235,7 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21262,7 +21263,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510" s="5">
         <v>0</v>
       </c>
@@ -21286,7 +21287,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511" s="5">
         <v>0</v>
       </c>
@@ -21312,7 +21313,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512" s="5">
         <v>0</v>
       </c>
@@ -21336,7 +21337,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513" s="5">
         <v>1</v>
       </c>
@@ -21360,7 +21361,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" s="5">
         <v>1</v>
       </c>
@@ -21386,7 +21387,7 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" s="19">
         <v>1</v>
       </c>
@@ -21412,7 +21413,7 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516" s="12">
         <v>0</v>
       </c>
@@ -21440,7 +21441,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" s="12">
         <v>0</v>
       </c>
@@ -21468,7 +21469,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518" s="5">
         <v>0</v>
       </c>
@@ -21492,7 +21493,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" s="5">
         <v>0</v>
       </c>
@@ -21516,7 +21517,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520" s="5">
         <v>0</v>
       </c>
@@ -21540,7 +21541,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A521" s="5">
         <v>0</v>
       </c>
@@ -21564,7 +21565,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522" s="5">
         <v>0</v>
       </c>
@@ -21588,7 +21589,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A523" s="5">
         <v>0</v>
       </c>
@@ -21612,7 +21613,7 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A524" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21640,7 +21641,7 @@
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A525" s="5">
         <v>1</v>
       </c>
@@ -21668,7 +21669,7 @@
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A526" s="12">
         <v>0</v>
       </c>
@@ -21696,7 +21697,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A527" s="5">
         <v>0</v>
       </c>
@@ -21720,7 +21721,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A528" s="5">
         <v>0</v>
       </c>
@@ -21746,7 +21747,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A529" s="5">
         <v>0</v>
       </c>
@@ -21770,7 +21771,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A530" s="5">
         <v>0</v>
       </c>
@@ -21796,7 +21797,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531" s="5">
         <v>0</v>
       </c>
@@ -21822,7 +21823,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A532" s="5">
         <v>0</v>
       </c>
@@ -21846,7 +21847,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A533" s="5">
         <v>0</v>
       </c>
@@ -21872,7 +21873,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A534" s="5">
         <v>0</v>
       </c>
@@ -21898,7 +21899,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A535" s="5">
         <v>0</v>
       </c>
@@ -21922,7 +21923,7 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A536" s="12" t="s">
         <v>1037</v>
       </c>
@@ -21950,7 +21951,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A537" s="5">
         <v>1</v>
       </c>
@@ -21976,7 +21977,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A538" s="5">
         <v>0</v>
       </c>
@@ -22002,7 +22003,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A539" s="5">
         <v>0</v>
       </c>
@@ -22028,7 +22029,7 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
         <v>1037</v>
       </c>
@@ -22058,7 +22059,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A541" s="12">
         <v>1</v>
       </c>
@@ -22086,7 +22087,7 @@
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A542" s="5">
         <v>0</v>
       </c>
@@ -22112,7 +22113,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543" s="5">
         <v>0</v>
       </c>
@@ -22136,7 +22137,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A544" s="5">
         <v>0</v>
       </c>
@@ -22162,7 +22163,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A545" s="5">
         <v>0</v>
       </c>
@@ -22186,7 +22187,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A546" s="5">
         <v>0</v>
       </c>
@@ -22210,7 +22211,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A547" s="5">
         <v>0</v>
       </c>
@@ -22234,7 +22235,7 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A548" s="12">
         <v>0</v>
       </c>
@@ -22262,7 +22263,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A549" s="5">
         <v>0</v>
       </c>
@@ -22284,7 +22285,7 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A550" s="13">
         <v>0</v>
       </c>
@@ -22310,7 +22311,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A551" s="5">
         <v>0</v>
       </c>
@@ -22330,7 +22331,13 @@
       <c r="J551" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I551"/>
+  <autoFilter ref="I1:I551">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Tahira"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\ML_Requirements\literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levilucio/git/ML_Requirements/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="2820" windowWidth="25883" windowHeight="19598" tabRatio="993"/>
+    <workbookView xWindow="29340" yWindow="2820" windowWidth="25880" windowHeight="19600" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="2540">
   <si>
     <t>257?</t>
   </si>
@@ -7664,7 +7664,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7751,7 +7751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7771,9 +7771,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8145,21 +8142,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="C554" sqref="C554"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="J244" sqref="J244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59.796875" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="48.1328125" customWidth="1"/>
+    <col min="8" max="8" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8189,7 +8185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -8213,7 +8209,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8239,7 +8235,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -8265,7 +8261,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8289,7 +8285,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -8315,7 +8311,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -8339,7 +8335,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -8363,7 +8359,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -8393,7 +8389,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -8421,7 +8417,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -8447,7 +8443,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -8473,7 +8469,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -8497,7 +8493,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -8521,7 +8517,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -8549,7 +8545,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -8577,7 +8573,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -8607,7 +8603,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -8635,7 +8631,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -8663,7 +8659,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -8691,7 +8687,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -8719,7 +8715,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -8747,7 +8743,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -8773,7 +8769,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -8799,7 +8795,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -8825,7 +8821,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -8851,7 +8847,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -8877,7 +8873,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -8905,7 +8901,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -8933,7 +8929,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -8963,7 +8959,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -8991,7 +8987,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -9019,7 +9015,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -9047,7 +9043,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -9073,7 +9069,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -9101,7 +9097,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -9125,7 +9121,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -9149,7 +9145,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -9173,7 +9169,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -9197,7 +9193,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>0</v>
       </c>
@@ -9221,7 +9217,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -9245,7 +9241,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -9269,7 +9265,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -9293,7 +9289,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -9317,7 +9313,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -9343,7 +9339,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -9369,7 +9365,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>0</v>
       </c>
@@ -9395,7 +9391,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -9419,7 +9415,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -9443,7 +9439,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -9469,7 +9465,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -9493,7 +9489,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -9517,7 +9513,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -9541,7 +9537,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -9567,7 +9563,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -9593,7 +9589,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -9623,7 +9619,7 @@
       </c>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -9653,7 +9649,7 @@
       </c>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -9681,7 +9677,7 @@
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -9709,7 +9705,7 @@
       </c>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -9739,7 +9735,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -9767,7 +9763,7 @@
       </c>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -9797,7 +9793,7 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>1</v>
       </c>
@@ -9827,7 +9823,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>1</v>
       </c>
@@ -9853,7 +9849,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -9881,7 +9877,7 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -9907,7 +9903,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -9933,7 +9929,7 @@
       </c>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -9956,10 +9952,12 @@
       <c r="H68" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -9985,7 +9983,7 @@
       </c>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -10013,7 +10011,7 @@
       </c>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -10041,7 +10039,7 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>0</v>
       </c>
@@ -10067,7 +10065,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>0</v>
       </c>
@@ -10091,7 +10089,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>0</v>
       </c>
@@ -10115,7 +10113,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>0</v>
       </c>
@@ -10139,7 +10137,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>0</v>
       </c>
@@ -10163,7 +10161,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>0</v>
       </c>
@@ -10187,7 +10185,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>0</v>
       </c>
@@ -10213,7 +10211,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>0</v>
       </c>
@@ -10237,7 +10235,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>0</v>
       </c>
@@ -10261,7 +10259,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>0</v>
       </c>
@@ -10285,7 +10283,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>0</v>
       </c>
@@ -10309,7 +10307,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>0</v>
       </c>
@@ -10333,7 +10331,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>0</v>
       </c>
@@ -10357,7 +10355,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>0</v>
       </c>
@@ -10381,7 +10379,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>0</v>
       </c>
@@ -10407,7 +10405,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>0</v>
       </c>
@@ -10431,7 +10429,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>0</v>
       </c>
@@ -10459,7 +10457,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>0</v>
       </c>
@@ -10485,7 +10483,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>0</v>
       </c>
@@ -10511,7 +10509,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>0</v>
       </c>
@@ -10537,7 +10535,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>0</v>
       </c>
@@ -10563,7 +10561,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>0</v>
       </c>
@@ -10587,7 +10585,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>9</v>
       </c>
@@ -10609,7 +10607,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>9</v>
       </c>
@@ -10635,7 +10633,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
@@ -10661,7 +10659,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>9</v>
       </c>
@@ -10687,7 +10685,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>9</v>
       </c>
@@ -10713,7 +10711,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -10739,7 +10737,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>9</v>
       </c>
@@ -10765,7 +10763,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -10795,7 +10793,7 @@
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -10821,7 +10819,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -10847,7 +10845,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -10873,7 +10871,7 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -10899,7 +10897,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>1</v>
       </c>
@@ -10925,7 +10923,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" ht="16.899999999999999" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -10951,7 +10949,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>1</v>
       </c>
@@ -10977,7 +10975,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>1</v>
       </c>
@@ -11005,7 +11003,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>1</v>
       </c>
@@ -11027,7 +11025,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>0</v>
       </c>
@@ -11051,7 +11049,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>0</v>
       </c>
@@ -11077,7 +11075,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>0</v>
       </c>
@@ -11101,7 +11099,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>0</v>
       </c>
@@ -11125,7 +11123,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>0</v>
       </c>
@@ -11149,7 +11147,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>0</v>
       </c>
@@ -11173,7 +11171,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>0</v>
       </c>
@@ -11197,7 +11195,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>0</v>
       </c>
@@ -11219,7 +11217,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>0</v>
       </c>
@@ -11245,7 +11243,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>0</v>
       </c>
@@ -11269,7 +11267,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>0</v>
       </c>
@@ -11295,7 +11293,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>0</v>
       </c>
@@ -11321,7 +11319,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>0</v>
       </c>
@@ -11347,7 +11345,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>0</v>
       </c>
@@ -11373,7 +11371,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>0</v>
       </c>
@@ -11399,7 +11397,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>0</v>
       </c>
@@ -11418,14 +11416,14 @@
       <c r="F126" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="19" t="s">
         <v>589</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>9</v>
       </c>
@@ -11451,7 +11449,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>0</v>
       </c>
@@ -11477,7 +11475,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>0</v>
       </c>
@@ -11503,7 +11501,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>0</v>
       </c>
@@ -11527,7 +11525,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>0</v>
       </c>
@@ -11553,7 +11551,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>0</v>
       </c>
@@ -11579,7 +11577,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>0</v>
       </c>
@@ -11607,7 +11605,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>0</v>
       </c>
@@ -11631,7 +11629,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>0</v>
       </c>
@@ -11653,7 +11651,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -11677,7 +11675,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>9</v>
       </c>
@@ -11703,7 +11701,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>9</v>
       </c>
@@ -11731,7 +11729,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -11753,7 +11751,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -11781,7 +11779,7 @@
       </c>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -11800,7 +11798,7 @@
       <c r="F141" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="G141" s="20" t="s">
+      <c r="G141" s="19" t="s">
         <v>657</v>
       </c>
       <c r="H141" s="3" t="s">
@@ -11811,7 +11809,7 @@
       </c>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>1</v>
       </c>
@@ -11841,7 +11839,7 @@
       </c>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>1</v>
       </c>
@@ -11867,7 +11865,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -11893,7 +11891,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>1</v>
       </c>
@@ -11915,7 +11913,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>1</v>
       </c>
@@ -11943,7 +11941,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -11971,7 +11969,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -12001,7 +11999,7 @@
       </c>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -12029,7 +12027,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -12055,7 +12053,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -12081,7 +12079,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>1</v>
       </c>
@@ -12105,7 +12103,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>0</v>
       </c>
@@ -12131,7 +12129,7 @@
       </c>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>0</v>
       </c>
@@ -12155,7 +12153,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>0</v>
       </c>
@@ -12177,7 +12175,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>0</v>
       </c>
@@ -12203,7 +12201,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>0</v>
       </c>
@@ -12227,7 +12225,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>0</v>
       </c>
@@ -12251,7 +12249,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>0</v>
       </c>
@@ -12275,7 +12273,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>0</v>
       </c>
@@ -12299,7 +12297,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>0</v>
       </c>
@@ -12323,7 +12321,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>0</v>
       </c>
@@ -12347,7 +12345,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>0</v>
       </c>
@@ -12371,7 +12369,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>0</v>
       </c>
@@ -12395,7 +12393,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>0</v>
       </c>
@@ -12421,7 +12419,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>0</v>
       </c>
@@ -12447,7 +12445,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>0</v>
       </c>
@@ -12473,7 +12471,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>0</v>
       </c>
@@ -12501,7 +12499,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>0</v>
       </c>
@@ -12527,7 +12525,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>0</v>
       </c>
@@ -12553,7 +12551,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>0</v>
       </c>
@@ -12579,7 +12577,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>0</v>
       </c>
@@ -12605,7 +12603,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>0</v>
       </c>
@@ -12631,7 +12629,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>0</v>
       </c>
@@ -12657,7 +12655,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>0</v>
       </c>
@@ -12683,7 +12681,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>0</v>
       </c>
@@ -12707,7 +12705,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>0</v>
       </c>
@@ -12729,7 +12727,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>0</v>
       </c>
@@ -12755,7 +12753,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -12779,7 +12777,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>9</v>
       </c>
@@ -12807,7 +12805,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>9</v>
       </c>
@@ -12833,7 +12831,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>9</v>
       </c>
@@ -12861,7 +12859,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>9</v>
       </c>
@@ -12889,7 +12887,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>9</v>
       </c>
@@ -12917,7 +12915,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>860</v>
       </c>
@@ -12945,7 +12943,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>1</v>
       </c>
@@ -12971,7 +12969,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -12999,7 +12997,7 @@
       </c>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>1</v>
       </c>
@@ -13027,7 +13025,7 @@
       </c>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>1</v>
       </c>
@@ -13053,7 +13051,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>1</v>
       </c>
@@ -13079,7 +13077,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -13105,7 +13103,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -13133,7 +13131,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>1</v>
       </c>
@@ -13161,7 +13159,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>1</v>
       </c>
@@ -13189,7 +13187,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -13217,7 +13215,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>1</v>
       </c>
@@ -13245,7 +13243,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -13273,7 +13271,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" s="8" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>1</v>
       </c>
@@ -13286,7 +13284,7 @@
       <c r="D198" s="5">
         <v>2013</v>
       </c>
-      <c r="E198" s="10" t="s">
+      <c r="E198" s="13" t="s">
         <v>933</v>
       </c>
       <c r="F198" s="3"/>
@@ -13299,7 +13297,7 @@
       </c>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -13323,7 +13321,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>0</v>
       </c>
@@ -13347,7 +13345,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>0</v>
       </c>
@@ -13371,7 +13369,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>0</v>
       </c>
@@ -13397,7 +13395,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>0</v>
       </c>
@@ -13423,7 +13421,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>0</v>
       </c>
@@ -13447,7 +13445,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>0</v>
       </c>
@@ -13471,7 +13469,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>0</v>
       </c>
@@ -13495,7 +13493,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>0</v>
       </c>
@@ -13519,7 +13517,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>0</v>
       </c>
@@ -13543,7 +13541,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>0</v>
       </c>
@@ -13569,7 +13567,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>0</v>
       </c>
@@ -13593,7 +13591,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>0</v>
       </c>
@@ -13619,7 +13617,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>0</v>
       </c>
@@ -13645,7 +13643,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>0</v>
       </c>
@@ -13671,7 +13669,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>0</v>
       </c>
@@ -13697,7 +13695,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>0</v>
       </c>
@@ -13723,7 +13721,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>0</v>
       </c>
@@ -13749,7 +13747,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>0</v>
       </c>
@@ -13775,7 +13773,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>0</v>
       </c>
@@ -13799,7 +13797,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>0</v>
       </c>
@@ -13823,7 +13821,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>0</v>
       </c>
@@ -13849,7 +13847,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>0</v>
       </c>
@@ -13871,7 +13869,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13891,13 +13889,13 @@
       <c r="G222" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="H222" s="11" t="s">
+      <c r="H222" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13917,7 +13915,7 @@
       <c r="G223" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="H223" s="11" t="s">
+      <c r="H223" s="10" t="s">
         <v>1047</v>
       </c>
       <c r="I223" s="3"/>
@@ -13925,7 +13923,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13943,7 +13941,7 @@
         <v>1051</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="11" t="s">
+      <c r="H224" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I224" s="3"/>
@@ -13951,8 +13949,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A225" s="12" t="s">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B225" s="3" t="s">
@@ -13971,13 +13969,13 @@
         <v>1055</v>
       </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="11" t="s">
+      <c r="H225" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>1037</v>
       </c>
@@ -13999,8 +13997,8 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A227" s="12" t="s">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -14017,14 +14015,14 @@
         <v>1061</v>
       </c>
       <c r="G227" s="3"/>
-      <c r="H227" s="11" t="s">
+      <c r="H227" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A228" s="12" t="s">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -14045,13 +14043,13 @@
       <c r="G228" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="H228" s="11" t="s">
+      <c r="H228" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -14079,7 +14077,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>1</v>
       </c>
@@ -14105,7 +14103,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>1</v>
       </c>
@@ -14131,7 +14129,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>1</v>
       </c>
@@ -14159,7 +14157,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>1</v>
       </c>
@@ -14182,10 +14180,12 @@
         <v>1093</v>
       </c>
       <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
+      <c r="I233" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>1</v>
       </c>
@@ -14211,7 +14211,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>1</v>
       </c>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>1</v>
       </c>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>1</v>
       </c>
@@ -14287,7 +14287,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>1</v>
       </c>
@@ -14313,7 +14313,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>1</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>0</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>0</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>0</v>
       </c>
@@ -14415,7 +14415,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>0</v>
       </c>
@@ -14439,7 +14439,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>0</v>
       </c>
@@ -14465,7 +14465,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>0</v>
       </c>
@@ -14491,7 +14491,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>0</v>
       </c>
@@ -14517,7 +14517,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>0</v>
       </c>
@@ -14541,7 +14541,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>0</v>
       </c>
@@ -14565,7 +14565,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>0</v>
       </c>
@@ -14591,7 +14591,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>0</v>
       </c>
@@ -14617,7 +14617,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14637,7 +14637,7 @@
       <c r="G251" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="H251" s="11" t="s">
+      <c r="H251" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I251" s="3"/>
@@ -14645,7 +14645,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>1</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14721,13 +14721,13 @@
         <v>1190</v>
       </c>
       <c r="G254" s="3"/>
-      <c r="H254" s="11" t="s">
+      <c r="H254" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14745,14 +14745,14 @@
         <v>1193</v>
       </c>
       <c r="G255" s="3"/>
-      <c r="H255" s="11" t="s">
+      <c r="H255" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A256" s="12" t="s">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A256" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B256" s="3" t="s">
@@ -14773,13 +14773,13 @@
       <c r="G256" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="H256" s="11" t="s">
+      <c r="H256" s="10" t="s">
         <v>1199</v>
       </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>1</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>1</v>
       </c>
@@ -14829,7 +14829,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>1</v>
       </c>
@@ -14855,7 +14855,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>1</v>
       </c>
@@ -14881,7 +14881,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>1</v>
       </c>
@@ -14905,7 +14905,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>1</v>
       </c>
@@ -14931,7 +14931,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>1</v>
       </c>
@@ -14957,7 +14957,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>1</v>
       </c>
@@ -14983,7 +14983,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>1</v>
       </c>
@@ -15009,7 +15009,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>0</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>0</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>0</v>
       </c>
@@ -15085,7 +15085,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>0</v>
       </c>
@@ -15109,7 +15109,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>0</v>
       </c>
@@ -15133,7 +15133,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>0</v>
       </c>
@@ -15159,7 +15159,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>0</v>
       </c>
@@ -15183,7 +15183,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>0</v>
       </c>
@@ -15207,7 +15207,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>0</v>
       </c>
@@ -15231,7 +15231,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>0</v>
       </c>
@@ -15253,7 +15253,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>0</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>0</v>
       </c>
@@ -15303,7 +15303,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>0</v>
       </c>
@@ -15329,7 +15329,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>0</v>
       </c>
@@ -15355,7 +15355,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>0</v>
       </c>
@@ -15379,7 +15379,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>0</v>
       </c>
@@ -15403,7 +15403,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>0</v>
       </c>
@@ -15429,7 +15429,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>0</v>
       </c>
@@ -15453,7 +15453,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>0</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>0</v>
       </c>
@@ -15501,7 +15501,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>0</v>
       </c>
@@ -15527,7 +15527,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>0</v>
       </c>
@@ -15553,7 +15553,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>0</v>
       </c>
@@ -15579,7 +15579,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>0</v>
       </c>
@@ -15605,8 +15605,8 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A290" s="12" t="s">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A290" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B290" s="3" t="s">
@@ -15627,7 +15627,7 @@
       <c r="G290" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="H290" s="11" t="s">
+      <c r="H290" s="10" t="s">
         <v>658</v>
       </c>
       <c r="I290" s="3"/>
@@ -15635,7 +15635,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>1357</v>
       </c>
       <c r="G291" s="3"/>
-      <c r="H291" s="11" t="s">
+      <c r="H291" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I291" s="3"/>
@@ -15661,7 +15661,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>1037</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>1360</v>
       </c>
       <c r="G292" s="3"/>
-      <c r="H292" s="11" t="s">
+      <c r="H292" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I292" s="3"/>
@@ -15687,8 +15687,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A293" s="12" t="s">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A293" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B293" s="3" t="s">
@@ -15709,14 +15709,14 @@
       <c r="G293" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="H293" s="11" t="s">
+      <c r="H293" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A294" s="12" t="s">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A294" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B294" s="3" t="s">
@@ -15737,14 +15737,14 @@
       <c r="G294" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="H294" s="11" t="s">
+      <c r="H294" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A295" s="12" t="s">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A295" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B295" s="3" t="s">
@@ -15765,14 +15765,14 @@
       <c r="G295" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="H295" s="11" t="s">
+      <c r="H295" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A296" s="12" t="s">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A296" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B296" s="3" t="s">
@@ -15791,13 +15791,13 @@
         <v>1379</v>
       </c>
       <c r="G296" s="3"/>
-      <c r="H296" s="11" t="s">
+      <c r="H296" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>1</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>1</v>
       </c>
@@ -15841,13 +15841,13 @@
       <c r="G298" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="H298" s="11" t="s">
+      <c r="H298" s="10" t="s">
         <v>658</v>
       </c>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>1</v>
       </c>
@@ -15867,13 +15867,13 @@
         <v>1391</v>
       </c>
       <c r="G299" s="3"/>
-      <c r="H299" s="11" t="s">
+      <c r="H299" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>1</v>
       </c>
@@ -15897,7 +15897,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>1</v>
       </c>
@@ -15921,8 +15921,8 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A302" s="12">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A302" s="11">
         <v>1</v>
       </c>
       <c r="B302" s="3" t="s">
@@ -15943,14 +15943,14 @@
       <c r="G302" s="3" t="s">
         <v>1405</v>
       </c>
-      <c r="H302" s="11" t="s">
+      <c r="H302" s="10" t="s">
         <v>1406</v>
       </c>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A303" s="12">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A303" s="11">
         <v>1</v>
       </c>
       <c r="B303" s="3" t="s">
@@ -15971,14 +15971,14 @@
       <c r="G303" s="3" t="s">
         <v>1411</v>
       </c>
-      <c r="H303" s="11" t="s">
+      <c r="H303" s="10" t="s">
         <v>1406</v>
       </c>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A304" s="12">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A304" s="11">
         <v>1</v>
       </c>
       <c r="B304" s="3" t="s">
@@ -15996,7 +15996,7 @@
       <c r="F304" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="G304" s="21" t="s">
+      <c r="G304" s="20" t="s">
         <v>1416</v>
       </c>
       <c r="H304" s="3"/>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>1</v>
       </c>
@@ -16031,7 +16031,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>1</v>
       </c>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>1</v>
       </c>
@@ -16083,7 +16083,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>1</v>
       </c>
@@ -16109,7 +16109,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>1</v>
       </c>
@@ -16135,7 +16135,7 @@
       </c>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>1</v>
       </c>
@@ -16157,7 +16157,7 @@
       </c>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>1</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="F311" s="3" t="s">
         <v>1444</v>
       </c>
-      <c r="G311" s="21" t="s">
+      <c r="G311" s="20" t="s">
         <v>1445</v>
       </c>
       <c r="H311" s="3"/>
@@ -16185,8 +16185,8 @@
       </c>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A312" s="12">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312" s="11">
         <v>0</v>
       </c>
       <c r="B312" s="3" t="s">
@@ -16211,7 +16211,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>0</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>0</v>
       </c>
@@ -16259,7 +16259,7 @@
       <c r="G314" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="H314" s="11" t="s">
+      <c r="H314" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I314" s="3"/>
@@ -16267,7 +16267,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>0</v>
       </c>
@@ -16293,7 +16293,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>0</v>
       </c>
@@ -16317,7 +16317,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>0</v>
       </c>
@@ -16341,7 +16341,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>0</v>
       </c>
@@ -16365,7 +16365,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>0</v>
       </c>
@@ -16389,7 +16389,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>0</v>
       </c>
@@ -16415,7 +16415,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>0</v>
       </c>
@@ -16439,7 +16439,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>0</v>
       </c>
@@ -16463,7 +16463,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>0</v>
       </c>
@@ -16489,7 +16489,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>0</v>
       </c>
@@ -16515,7 +16515,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>0</v>
       </c>
@@ -16541,7 +16541,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>0</v>
       </c>
@@ -16567,7 +16567,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>0</v>
       </c>
@@ -16593,7 +16593,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>0</v>
       </c>
@@ -16619,7 +16619,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>0</v>
       </c>
@@ -16643,8 +16643,8 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A330" s="13">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A330" s="12">
         <v>0</v>
       </c>
       <c r="B330" s="3" t="s">
@@ -16669,7 +16669,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>0</v>
       </c>
@@ -16695,7 +16695,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>0</v>
       </c>
@@ -16719,7 +16719,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>0</v>
       </c>
@@ -16745,7 +16745,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>0</v>
       </c>
@@ -16771,7 +16771,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>0</v>
       </c>
@@ -16797,7 +16797,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>0</v>
       </c>
@@ -16823,7 +16823,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>1</v>
       </c>
@@ -16839,7 +16839,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>0</v>
       </c>
@@ -16865,8 +16865,8 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A339" s="12" t="s">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A339" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B339" s="3" t="s">
@@ -16883,7 +16883,7 @@
         <v>1571</v>
       </c>
       <c r="G339" s="3"/>
-      <c r="H339" s="11" t="s">
+      <c r="H339" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I339" s="3"/>
@@ -16891,8 +16891,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A340" s="12" t="s">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A340" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B340" s="3" t="s">
@@ -16909,7 +16909,7 @@
         <v>1574</v>
       </c>
       <c r="G340" s="3"/>
-      <c r="H340" s="11" t="s">
+      <c r="H340" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I340" s="3"/>
@@ -16917,8 +16917,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A341" s="12" t="s">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A341" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B341" s="3" t="s">
@@ -16939,7 +16939,7 @@
       <c r="G341" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="H341" s="11" t="s">
+      <c r="H341" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I341" s="3"/>
@@ -16947,8 +16947,8 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A342" s="12" t="s">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A342" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B342" s="3" t="s">
@@ -16969,14 +16969,14 @@
       <c r="G342" s="3" t="s">
         <v>1585</v>
       </c>
-      <c r="H342" s="11" t="s">
+      <c r="H342" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A343" s="12" t="s">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A343" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B343" s="3" t="s">
@@ -16997,14 +16997,14 @@
       <c r="G343" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="H343" s="11" t="s">
+      <c r="H343" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A344" s="12" t="s">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A344" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B344" s="3" t="s">
@@ -17025,13 +17025,13 @@
       <c r="G344" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="H344" s="11" t="s">
+      <c r="H344" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>1</v>
       </c>
@@ -17057,7 +17057,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>1</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>1</v>
       </c>
@@ -17099,7 +17099,7 @@
       <c r="G347" s="3" t="s">
         <v>1607</v>
       </c>
-      <c r="H347" s="11" t="s">
+      <c r="H347" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="I347" s="3" t="s">
@@ -17107,7 +17107,7 @@
       </c>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>1</v>
       </c>
@@ -17125,14 +17125,14 @@
         <v>1610</v>
       </c>
       <c r="G348" s="3"/>
-      <c r="H348" s="11" t="s">
+      <c r="H348" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A349" s="12">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A349" s="11">
         <v>1</v>
       </c>
       <c r="B349" s="3" t="s">
@@ -17155,8 +17155,8 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A350" s="12">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A350" s="11">
         <v>1</v>
       </c>
       <c r="B350" s="3" t="s">
@@ -17173,14 +17173,14 @@
         <v>1617</v>
       </c>
       <c r="G350" s="3"/>
-      <c r="H350" s="11" t="s">
+      <c r="H350" s="10" t="s">
         <v>1618</v>
       </c>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A351" s="12">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A351" s="11">
         <v>1</v>
       </c>
       <c r="B351" s="3" t="s">
@@ -17197,13 +17197,13 @@
         <v>1621</v>
       </c>
       <c r="G351" s="3"/>
-      <c r="H351" s="11" t="s">
+      <c r="H351" s="10" t="s">
         <v>1622</v>
       </c>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>1</v>
       </c>
@@ -17229,8 +17229,8 @@
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A353" s="12">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A353" s="11">
         <v>0</v>
       </c>
       <c r="B353" s="3" t="s">
@@ -17255,8 +17255,8 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A354" s="12">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A354" s="11">
         <v>0</v>
       </c>
       <c r="B354" s="3" t="s">
@@ -17277,7 +17277,7 @@
       <c r="G354" s="3" t="s">
         <v>1636</v>
       </c>
-      <c r="H354" s="11" t="s">
+      <c r="H354" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I354" s="3"/>
@@ -17285,8 +17285,8 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A355" s="12">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355" s="11">
         <v>0</v>
       </c>
       <c r="B355" s="3" t="s">
@@ -17305,7 +17305,7 @@
       <c r="G355" s="3" t="s">
         <v>1641</v>
       </c>
-      <c r="H355" s="11" t="s">
+      <c r="H355" s="10" t="s">
         <v>1642</v>
       </c>
       <c r="I355" s="3"/>
@@ -17313,7 +17313,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>0</v>
       </c>
@@ -17339,7 +17339,7 @@
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>0</v>
       </c>
@@ -17363,7 +17363,7 @@
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>0</v>
       </c>
@@ -17389,7 +17389,7 @@
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>0</v>
       </c>
@@ -17415,7 +17415,7 @@
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>0</v>
       </c>
@@ -17439,7 +17439,7 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>0</v>
       </c>
@@ -17461,7 +17461,7 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>0</v>
       </c>
@@ -17487,7 +17487,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>0</v>
       </c>
@@ -17513,7 +17513,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>0</v>
       </c>
@@ -17539,7 +17539,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>0</v>
       </c>
@@ -17565,7 +17565,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>0</v>
       </c>
@@ -17591,7 +17591,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
         <v>0</v>
       </c>
@@ -17617,7 +17617,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>0</v>
       </c>
@@ -17643,7 +17643,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>0</v>
       </c>
@@ -17669,7 +17669,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>0</v>
       </c>
@@ -17695,7 +17695,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>0</v>
       </c>
@@ -17721,7 +17721,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>0</v>
       </c>
@@ -17747,7 +17747,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>0</v>
       </c>
@@ -17773,7 +17773,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>0</v>
       </c>
@@ -17799,7 +17799,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>0</v>
       </c>
@@ -17823,7 +17823,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>0</v>
       </c>
@@ -17845,8 +17845,8 @@
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A377" s="12" t="s">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B377" s="3" t="s">
@@ -17865,7 +17865,7 @@
       <c r="G377" s="3" t="s">
         <v>1744</v>
       </c>
-      <c r="H377" s="11" t="s">
+      <c r="H377" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I377" s="3"/>
@@ -17873,8 +17873,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A378" s="12" t="s">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B378" s="3" t="s">
@@ -17891,7 +17891,7 @@
         <v>1747</v>
       </c>
       <c r="G378" s="3"/>
-      <c r="H378" s="11" t="s">
+      <c r="H378" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I378" s="3"/>
@@ -17899,8 +17899,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A379" s="12" t="s">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B379" s="3" t="s">
@@ -17921,7 +17921,7 @@
       <c r="G379" s="3" t="s">
         <v>1752</v>
       </c>
-      <c r="H379" s="11" t="s">
+      <c r="H379" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I379" s="3"/>
@@ -17929,8 +17929,8 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A380" s="12">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380" s="11">
         <v>1</v>
       </c>
       <c r="B380" s="3" t="s">
@@ -17951,13 +17951,13 @@
       <c r="G380" s="3" t="s">
         <v>1757</v>
       </c>
-      <c r="H380" s="11" t="s">
+      <c r="H380" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>1</v>
       </c>
@@ -17979,7 +17979,7 @@
       <c r="G381" s="3" t="s">
         <v>1762</v>
       </c>
-      <c r="H381" s="14" t="s">
+      <c r="H381" s="13" t="s">
         <v>1763</v>
       </c>
       <c r="I381" s="3" t="s">
@@ -17987,7 +17987,7 @@
       </c>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>1</v>
       </c>
@@ -18011,7 +18011,7 @@
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>1</v>
       </c>
@@ -18037,7 +18037,7 @@
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>1</v>
       </c>
@@ -18057,13 +18057,13 @@
       <c r="G384" s="3" t="s">
         <v>1776</v>
       </c>
-      <c r="H384" s="11" t="s">
+      <c r="H384" s="10" t="s">
         <v>1777</v>
       </c>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>1</v>
       </c>
@@ -18083,7 +18083,7 @@
       <c r="G385" s="3" t="s">
         <v>1781</v>
       </c>
-      <c r="H385" s="11" t="s">
+      <c r="H385" s="10" t="s">
         <v>1777</v>
       </c>
       <c r="I385" s="3" t="s">
@@ -18091,7 +18091,7 @@
       </c>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>1</v>
       </c>
@@ -18113,7 +18113,7 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>1</v>
       </c>
@@ -18139,8 +18139,8 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A388" s="12">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A388" s="11">
         <v>1</v>
       </c>
       <c r="B388" s="3" t="s">
@@ -18161,13 +18161,13 @@
       <c r="G388" s="3" t="s">
         <v>1794</v>
       </c>
-      <c r="H388" s="11" t="s">
+      <c r="H388" s="10" t="s">
         <v>1795</v>
       </c>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>1</v>
       </c>
@@ -18193,7 +18193,7 @@
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>1</v>
       </c>
@@ -18219,7 +18219,7 @@
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>0</v>
       </c>
@@ -18243,7 +18243,7 @@
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>0</v>
       </c>
@@ -18269,7 +18269,7 @@
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>0</v>
       </c>
@@ -18293,7 +18293,7 @@
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>0</v>
       </c>
@@ -18317,7 +18317,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>0</v>
       </c>
@@ -18341,7 +18341,7 @@
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>0</v>
       </c>
@@ -18365,7 +18365,7 @@
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>0</v>
       </c>
@@ -18391,7 +18391,7 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>0</v>
       </c>
@@ -18417,7 +18417,7 @@
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>0</v>
       </c>
@@ -18443,7 +18443,7 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>0</v>
       </c>
@@ -18469,7 +18469,7 @@
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>0</v>
       </c>
@@ -18495,7 +18495,7 @@
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>0</v>
       </c>
@@ -18521,7 +18521,7 @@
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>0</v>
       </c>
@@ -18547,7 +18547,7 @@
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>0</v>
       </c>
@@ -18573,7 +18573,7 @@
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>0</v>
       </c>
@@ -18599,7 +18599,7 @@
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>0</v>
       </c>
@@ -18623,7 +18623,7 @@
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>0</v>
       </c>
@@ -18649,7 +18649,7 @@
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>0</v>
       </c>
@@ -18675,7 +18675,7 @@
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>0</v>
       </c>
@@ -18701,7 +18701,7 @@
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>0</v>
       </c>
@@ -18725,7 +18725,7 @@
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>0</v>
       </c>
@@ -18751,7 +18751,7 @@
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>0</v>
       </c>
@@ -18777,11 +18777,11 @@
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A413" s="12" t="s">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="B413" s="15" t="s">
+      <c r="B413" s="14" t="s">
         <v>1906</v>
       </c>
       <c r="C413" s="3" t="s">
@@ -18795,7 +18795,7 @@
         <v>1908</v>
       </c>
       <c r="G413" s="3"/>
-      <c r="H413" s="11" t="s">
+      <c r="H413" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I413" s="3"/>
@@ -18803,33 +18803,33 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>1</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>1909</v>
       </c>
-      <c r="C414" s="15" t="s">
+      <c r="C414" s="14" t="s">
         <v>1910</v>
       </c>
       <c r="D414" s="5">
         <v>2007</v>
       </c>
-      <c r="E414" s="15" t="s">
+      <c r="E414" s="14" t="s">
         <v>1911</v>
       </c>
-      <c r="F414" s="15" t="s">
+      <c r="F414" s="14" t="s">
         <v>1912</v>
       </c>
-      <c r="G414" s="15" t="s">
+      <c r="G414" s="14" t="s">
         <v>1913</v>
       </c>
-      <c r="H414" s="14"/>
+      <c r="H414" s="13"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>1</v>
       </c>
@@ -18853,7 +18853,7 @@
       </c>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>1</v>
       </c>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>1</v>
       </c>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>1</v>
       </c>
@@ -18931,7 +18931,7 @@
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>1</v>
       </c>
@@ -18951,13 +18951,13 @@
         <v>1933</v>
       </c>
       <c r="G419" s="3"/>
-      <c r="H419" s="11" t="s">
+      <c r="H419" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>1</v>
       </c>
@@ -18975,13 +18975,13 @@
         <v>1936</v>
       </c>
       <c r="G420" s="3"/>
-      <c r="H420" s="11" t="s">
+      <c r="H420" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>1</v>
       </c>
@@ -19007,7 +19007,7 @@
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>1</v>
       </c>
@@ -19033,8 +19033,8 @@
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A423" s="12">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A423" s="11">
         <v>0</v>
       </c>
       <c r="B423" s="3" t="s">
@@ -19055,7 +19055,7 @@
       <c r="G423" s="3" t="s">
         <v>1951</v>
       </c>
-      <c r="H423" s="11" t="s">
+      <c r="H423" s="10" t="s">
         <v>1952</v>
       </c>
       <c r="I423" s="3"/>
@@ -19063,7 +19063,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>0</v>
       </c>
@@ -19089,7 +19089,7 @@
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>0</v>
       </c>
@@ -19113,7 +19113,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>0</v>
       </c>
@@ -19137,7 +19137,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>0</v>
       </c>
@@ -19161,7 +19161,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>0</v>
       </c>
@@ -19187,7 +19187,7 @@
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>0</v>
       </c>
@@ -19211,7 +19211,7 @@
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>0</v>
       </c>
@@ -19237,7 +19237,7 @@
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>0</v>
       </c>
@@ -19263,7 +19263,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>0</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>0</v>
       </c>
@@ -19315,7 +19315,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>0</v>
       </c>
@@ -19341,7 +19341,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>0</v>
       </c>
@@ -19367,7 +19367,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>0</v>
       </c>
@@ -19393,8 +19393,8 @@
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A437" s="12" t="s">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A437" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B437" s="3" t="s">
@@ -19415,7 +19415,7 @@
       <c r="G437" s="3" t="s">
         <v>2018</v>
       </c>
-      <c r="H437" s="11" t="s">
+      <c r="H437" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I437" s="3"/>
@@ -19423,8 +19423,8 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A438" s="12" t="s">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A438" s="11" t="s">
         <v>2019</v>
       </c>
       <c r="B438" s="3" t="s">
@@ -19443,13 +19443,13 @@
       <c r="G438" s="3" t="s">
         <v>2023</v>
       </c>
-      <c r="H438" s="11" t="s">
+      <c r="H438" s="10" t="s">
         <v>2024</v>
       </c>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>1</v>
       </c>
@@ -19475,7 +19475,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>1</v>
       </c>
@@ -19501,7 +19501,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>1</v>
       </c>
@@ -19523,7 +19523,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>0</v>
       </c>
@@ -19547,7 +19547,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>0</v>
       </c>
@@ -19571,7 +19571,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>0</v>
       </c>
@@ -19595,7 +19595,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>0</v>
       </c>
@@ -19621,7 +19621,7 @@
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>0</v>
       </c>
@@ -19645,7 +19645,7 @@
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>0</v>
       </c>
@@ -19669,7 +19669,7 @@
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>0</v>
       </c>
@@ -19693,7 +19693,7 @@
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>0</v>
       </c>
@@ -19719,7 +19719,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="5">
         <v>0</v>
       </c>
@@ -19743,7 +19743,7 @@
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>0</v>
       </c>
@@ -19769,7 +19769,7 @@
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>0</v>
       </c>
@@ -19793,7 +19793,7 @@
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>0</v>
       </c>
@@ -19817,7 +19817,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>0</v>
       </c>
@@ -19841,7 +19841,7 @@
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>1037</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>2096</v>
       </c>
       <c r="G455" s="3"/>
-      <c r="H455" s="11" t="s">
+      <c r="H455" s="10" t="s">
         <v>2097</v>
       </c>
       <c r="I455" s="3"/>
@@ -19869,8 +19869,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A456" s="12" t="s">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A456" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B456" s="3" t="s">
@@ -19891,7 +19891,7 @@
       <c r="G456" s="3" t="s">
         <v>2102</v>
       </c>
-      <c r="H456" s="11" t="s">
+      <c r="H456" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I456" s="3"/>
@@ -19899,8 +19899,8 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A457" s="12" t="s">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A457" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B457" s="3" t="s">
@@ -19921,7 +19921,7 @@
       <c r="G457" s="3" t="s">
         <v>2108</v>
       </c>
-      <c r="H457" s="11" t="s">
+      <c r="H457" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I457" s="3"/>
@@ -19929,7 +19929,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>1</v>
       </c>
@@ -19951,13 +19951,13 @@
       <c r="G458" s="3" t="s">
         <v>2113</v>
       </c>
-      <c r="H458" s="16" t="s">
+      <c r="H458" s="15" t="s">
         <v>1392</v>
       </c>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>1</v>
       </c>
@@ -19979,13 +19979,13 @@
       <c r="G459" s="3" t="s">
         <v>2118</v>
       </c>
-      <c r="H459" s="16" t="s">
+      <c r="H459" s="15" t="s">
         <v>1392</v>
       </c>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>1</v>
       </c>
@@ -20007,13 +20007,13 @@
       <c r="G460" s="3" t="s">
         <v>2123</v>
       </c>
-      <c r="H460" s="16" t="s">
+      <c r="H460" s="15" t="s">
         <v>1392</v>
       </c>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>1</v>
       </c>
@@ -20033,13 +20033,13 @@
         <v>2127</v>
       </c>
       <c r="G461" s="3"/>
-      <c r="H461" s="16" t="s">
+      <c r="H461" s="15" t="s">
         <v>2128</v>
       </c>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>1</v>
       </c>
@@ -20059,13 +20059,13 @@
         <v>2132</v>
       </c>
       <c r="G462" s="3"/>
-      <c r="H462" s="16" t="s">
+      <c r="H462" s="15" t="s">
         <v>2133</v>
       </c>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>1</v>
       </c>
@@ -20089,7 +20089,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>1</v>
       </c>
@@ -20113,8 +20113,8 @@
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A465" s="12">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A465" s="11">
         <v>1</v>
       </c>
       <c r="B465" s="3" t="s">
@@ -20135,14 +20135,14 @@
       <c r="G465" s="3" t="s">
         <v>2145</v>
       </c>
-      <c r="H465" s="11" t="s">
+      <c r="H465" s="10" t="s">
         <v>2146</v>
       </c>
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A466" s="12">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A466" s="11">
         <v>1</v>
       </c>
       <c r="B466" s="3" t="s">
@@ -20163,7 +20163,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>1</v>
       </c>
@@ -20189,7 +20189,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>1</v>
       </c>
@@ -20215,7 +20215,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>0</v>
       </c>
@@ -20239,7 +20239,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>0</v>
       </c>
@@ -20261,7 +20261,7 @@
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>0</v>
       </c>
@@ -20285,7 +20285,7 @@
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>0</v>
       </c>
@@ -20309,7 +20309,7 @@
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>0</v>
       </c>
@@ -20335,7 +20335,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>0</v>
       </c>
@@ -20359,7 +20359,7 @@
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>0</v>
       </c>
@@ -20383,8 +20383,8 @@
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A476" s="12" t="s">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A476" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B476" s="3" t="s">
@@ -20405,7 +20405,7 @@
       <c r="G476" s="3" t="s">
         <v>2192</v>
       </c>
-      <c r="H476" s="11" t="s">
+      <c r="H476" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I476" s="3"/>
@@ -20413,11 +20413,11 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>0</v>
       </c>
-      <c r="B477" s="17" t="s">
+      <c r="B477" s="16" t="s">
         <v>2193</v>
       </c>
       <c r="C477" s="3" t="s">
@@ -20437,7 +20437,7 @@
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>0</v>
       </c>
@@ -20461,7 +20461,7 @@
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>0</v>
       </c>
@@ -20487,8 +20487,8 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A480" s="12" t="s">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A480" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B480" s="3" t="s">
@@ -20507,7 +20507,7 @@
         <v>2209</v>
       </c>
       <c r="G480" s="3"/>
-      <c r="H480" s="11" t="s">
+      <c r="H480" s="10" t="s">
         <v>2210</v>
       </c>
       <c r="I480" s="3"/>
@@ -20515,7 +20515,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="5">
         <v>1</v>
       </c>
@@ -20539,8 +20539,8 @@
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A482" s="12">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A482" s="11">
         <v>1</v>
       </c>
       <c r="B482" s="3" t="s">
@@ -20561,13 +20561,13 @@
       <c r="G482" s="3" t="s">
         <v>2220</v>
       </c>
-      <c r="H482" s="11" t="s">
+      <c r="H482" s="10" t="s">
         <v>1795</v>
       </c>
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="5">
         <v>0</v>
       </c>
@@ -20591,8 +20591,8 @@
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A484" s="13">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A484" s="12">
         <v>0</v>
       </c>
       <c r="B484" s="3" t="s">
@@ -20617,7 +20617,7 @@
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>0</v>
       </c>
@@ -20643,7 +20643,7 @@
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="5">
         <v>0</v>
       </c>
@@ -20669,8 +20669,8 @@
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A487" s="12" t="s">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A487" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B487" s="3" t="s">
@@ -20689,7 +20689,7 @@
       <c r="G487" s="3" t="s">
         <v>2243</v>
       </c>
-      <c r="H487" s="11" t="s">
+      <c r="H487" s="10" t="s">
         <v>2244</v>
       </c>
       <c r="I487" s="3"/>
@@ -20697,8 +20697,8 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A488" s="12">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A488" s="11">
         <v>1</v>
       </c>
       <c r="B488" s="3" t="s">
@@ -20717,14 +20717,14 @@
       <c r="G488" s="3" t="s">
         <v>2249</v>
       </c>
-      <c r="H488" s="18" t="s">
+      <c r="H488" s="17" t="s">
         <v>2250</v>
       </c>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A489" s="19">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A489" s="18">
         <v>1</v>
       </c>
       <c r="B489" s="3" t="s">
@@ -20745,7 +20745,7 @@
       <c r="G489" s="3" t="s">
         <v>2255</v>
       </c>
-      <c r="H489" s="16" t="s">
+      <c r="H489" s="15" t="s">
         <v>1763</v>
       </c>
       <c r="I489" s="3" t="s">
@@ -20753,7 +20753,7 @@
       </c>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>1</v>
       </c>
@@ -20771,13 +20771,13 @@
         <v>2258</v>
       </c>
       <c r="G490" s="3"/>
-      <c r="H490" s="16" t="s">
+      <c r="H490" s="15" t="s">
         <v>2259</v>
       </c>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>1</v>
       </c>
@@ -20803,8 +20803,8 @@
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A492" s="12">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A492" s="11">
         <v>0</v>
       </c>
       <c r="B492" s="3" t="s">
@@ -20823,7 +20823,7 @@
       <c r="G492" s="3" t="s">
         <v>2268</v>
       </c>
-      <c r="H492" s="11" t="s">
+      <c r="H492" s="10" t="s">
         <v>2269</v>
       </c>
       <c r="I492" s="3"/>
@@ -20831,8 +20831,8 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A493" s="13">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A493" s="12">
         <v>0</v>
       </c>
       <c r="B493" s="3" t="s">
@@ -20855,7 +20855,7 @@
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>0</v>
       </c>
@@ -20881,7 +20881,7 @@
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>0</v>
       </c>
@@ -20907,7 +20907,7 @@
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>1</v>
       </c>
@@ -20927,13 +20927,13 @@
       <c r="G496" s="3" t="s">
         <v>2288</v>
       </c>
-      <c r="H496" s="16" t="s">
+      <c r="H496" s="15" t="s">
         <v>2289</v>
       </c>
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>1</v>
       </c>
@@ -20951,13 +20951,13 @@
         <v>2292</v>
       </c>
       <c r="G497" s="3"/>
-      <c r="H497" s="16" t="s">
+      <c r="H497" s="15" t="s">
         <v>2293</v>
       </c>
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>0</v>
       </c>
@@ -20981,7 +20981,7 @@
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>0</v>
       </c>
@@ -21007,7 +21007,7 @@
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>0</v>
       </c>
@@ -21033,7 +21033,7 @@
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>0</v>
       </c>
@@ -21059,7 +21059,7 @@
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>0</v>
       </c>
@@ -21083,7 +21083,7 @@
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>1</v>
       </c>
@@ -21103,13 +21103,13 @@
         <v>2320</v>
       </c>
       <c r="G503" s="3"/>
-      <c r="H503" s="16" t="s">
+      <c r="H503" s="15" t="s">
         <v>2321</v>
       </c>
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>0</v>
       </c>
@@ -21133,7 +21133,7 @@
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>0</v>
       </c>
@@ -21157,7 +21157,7 @@
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>0</v>
       </c>
@@ -21183,7 +21183,7 @@
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>0</v>
       </c>
@@ -21209,7 +21209,7 @@
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>0</v>
       </c>
@@ -21235,8 +21235,8 @@
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A509" s="12" t="s">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A509" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B509" s="3" t="s">
@@ -21255,7 +21255,7 @@
       <c r="G509" s="3" t="s">
         <v>2348</v>
       </c>
-      <c r="H509" s="11" t="s">
+      <c r="H509" s="10" t="s">
         <v>2244</v>
       </c>
       <c r="I509" s="3"/>
@@ -21263,7 +21263,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>0</v>
       </c>
@@ -21287,7 +21287,7 @@
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="5">
         <v>0</v>
       </c>
@@ -21313,7 +21313,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="5">
         <v>0</v>
       </c>
@@ -21337,7 +21337,7 @@
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="5">
         <v>1</v>
       </c>
@@ -21361,7 +21361,7 @@
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="5">
         <v>1</v>
       </c>
@@ -21387,8 +21387,8 @@
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A515" s="19">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A515" s="18">
         <v>1</v>
       </c>
       <c r="B515" s="3" t="s">
@@ -21407,14 +21407,14 @@
       <c r="G515" s="3" t="s">
         <v>2375</v>
       </c>
-      <c r="H515" s="16" t="s">
+      <c r="H515" s="15" t="s">
         <v>2376</v>
       </c>
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A516" s="12">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A516" s="11">
         <v>0</v>
       </c>
       <c r="B516" s="3" t="s">
@@ -21433,7 +21433,7 @@
       <c r="G516" s="3" t="s">
         <v>2380</v>
       </c>
-      <c r="H516" s="11" t="s">
+      <c r="H516" s="10" t="s">
         <v>2381</v>
       </c>
       <c r="I516" s="3"/>
@@ -21441,8 +21441,8 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A517" s="12">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A517" s="11">
         <v>0</v>
       </c>
       <c r="B517" s="3" t="s">
@@ -21461,7 +21461,7 @@
       <c r="G517" s="3" t="s">
         <v>2386</v>
       </c>
-      <c r="H517" s="11" t="s">
+      <c r="H517" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I517" s="3"/>
@@ -21469,7 +21469,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="5">
         <v>0</v>
       </c>
@@ -21493,7 +21493,7 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="5">
         <v>0</v>
       </c>
@@ -21517,7 +21517,7 @@
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="5">
         <v>0</v>
       </c>
@@ -21541,7 +21541,7 @@
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>0</v>
       </c>
@@ -21565,7 +21565,7 @@
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>0</v>
       </c>
@@ -21589,7 +21589,7 @@
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>0</v>
       </c>
@@ -21613,8 +21613,8 @@
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A524" s="12" t="s">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A524" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B524" s="3" t="s">
@@ -21635,13 +21635,13 @@
       <c r="G524" s="3" t="s">
         <v>2416</v>
       </c>
-      <c r="H524" s="11" t="s">
+      <c r="H524" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>1</v>
       </c>
@@ -21663,14 +21663,14 @@
       <c r="G525" s="3" t="s">
         <v>2421</v>
       </c>
-      <c r="H525" s="16" t="s">
+      <c r="H525" s="15" t="s">
         <v>2422</v>
       </c>
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A526" s="12">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A526" s="11">
         <v>0</v>
       </c>
       <c r="B526" s="3" t="s">
@@ -21689,7 +21689,7 @@
       <c r="G526" s="3" t="s">
         <v>2426</v>
       </c>
-      <c r="H526" s="11" t="s">
+      <c r="H526" s="10" t="s">
         <v>2427</v>
       </c>
       <c r="I526" s="3"/>
@@ -21697,11 +21697,11 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>0</v>
       </c>
-      <c r="B527" s="17" t="s">
+      <c r="B527" s="16" t="s">
         <v>2428</v>
       </c>
       <c r="C527" s="3" t="s">
@@ -21721,7 +21721,7 @@
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>0</v>
       </c>
@@ -21747,7 +21747,7 @@
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>0</v>
       </c>
@@ -21771,7 +21771,7 @@
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>0</v>
       </c>
@@ -21797,7 +21797,7 @@
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>0</v>
       </c>
@@ -21823,7 +21823,7 @@
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>0</v>
       </c>
@@ -21847,7 +21847,7 @@
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>0</v>
       </c>
@@ -21873,7 +21873,7 @@
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>0</v>
       </c>
@@ -21899,7 +21899,7 @@
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>0</v>
       </c>
@@ -21923,8 +21923,8 @@
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A536" s="12" t="s">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A536" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B536" s="3" t="s">
@@ -21943,7 +21943,7 @@
         <v>2472</v>
       </c>
       <c r="G536" s="3"/>
-      <c r="H536" s="11" t="s">
+      <c r="H536" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I536" s="3"/>
@@ -21951,7 +21951,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>1</v>
       </c>
@@ -21977,7 +21977,7 @@
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>0</v>
       </c>
@@ -22003,7 +22003,7 @@
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>0</v>
       </c>
@@ -22029,8 +22029,8 @@
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A540" s="12" t="s">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A540" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="B540" s="3" t="s">
@@ -22051,7 +22051,7 @@
       <c r="G540" s="3" t="s">
         <v>2492</v>
       </c>
-      <c r="H540" s="11" t="s">
+      <c r="H540" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I540" s="3"/>
@@ -22059,8 +22059,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A541" s="12">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A541" s="11">
         <v>1</v>
       </c>
       <c r="B541" s="3" t="s">
@@ -22081,13 +22081,13 @@
       <c r="G541" s="3" t="s">
         <v>2497</v>
       </c>
-      <c r="H541" s="11" t="s">
+      <c r="H541" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" s="5">
         <v>0</v>
       </c>
@@ -22113,7 +22113,7 @@
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="5">
         <v>0</v>
       </c>
@@ -22137,7 +22137,7 @@
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>0</v>
       </c>
@@ -22163,7 +22163,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>0</v>
       </c>
@@ -22187,7 +22187,7 @@
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>0</v>
       </c>
@@ -22211,7 +22211,7 @@
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>0</v>
       </c>
@@ -22235,8 +22235,8 @@
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A548" s="12">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A548" s="11">
         <v>0</v>
       </c>
       <c r="B548" s="3" t="s">
@@ -22255,15 +22255,15 @@
       <c r="G548" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="H548" s="11" t="s">
+      <c r="H548" s="10" t="s">
         <v>2528</v>
       </c>
       <c r="I548" s="3"/>
-      <c r="J548" s="15" t="s">
+      <c r="J548" s="14" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>0</v>
       </c>
@@ -22285,8 +22285,8 @@
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A550" s="13">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A550" s="12">
         <v>0</v>
       </c>
       <c r="B550" s="3" t="s">
@@ -22311,7 +22311,7 @@
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>0</v>
       </c>
@@ -22331,13 +22331,7 @@
       <c r="J551" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I551">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tahira"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="I1:I551"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="2820" windowWidth="25880" windowHeight="19600" tabRatio="993"/>
+    <workbookView xWindow="29960" yWindow="520" windowWidth="29720" windowHeight="21180" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="2540">
   <si>
     <t>257?</t>
   </si>
@@ -8144,8 +8144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="J244" sqref="J244"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8926,7 +8926,9 @@
       <c r="H29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -9900,7 +9902,9 @@
       <c r="H66" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I66" s="3"/>
+      <c r="I66" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">

--- a/literature/Final analysis.xlsx
+++ b/literature/Final analysis.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="2543">
   <si>
     <t>257?</t>
   </si>
@@ -7659,6 +7659,15 @@
   </si>
   <si>
     <t>10.1145/800127.804087</t>
+  </si>
+  <si>
+    <t>Supporting Requirements Engineers in Recognising Security Issues</t>
+  </si>
+  <si>
+    <t>Eric Knauss, Siv Houmb, Kurt Schneider, Shareeful Islam and Jan Jurjens</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/a5f9/6e478f53327418f90382118b2f8aa3abe687.pdf</t>
   </si>
 </sst>
 </file>
@@ -7751,7 +7760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7793,6 +7802,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8142,16 +8157,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J551"/>
+  <dimension ref="A1:J552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A500" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="H549" sqref="H549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="59.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="8" max="8" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22333,6 +22348,28 @@
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A552" s="12">
+        <v>1</v>
+      </c>
+      <c r="B552" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C552" s="22" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D552" s="12">
+        <v>2011</v>
+      </c>
+      <c r="E552" s="21"/>
+      <c r="F552" s="21" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G552" s="21"/>
+      <c r="I552" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="I1:I551"/>
@@ -22527,6 +22564,6 @@
     <hyperlink ref="G311" r:id="rId188"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>